--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD56550-8824-4068-8C67-0BF14FC98B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4323FC9B-181D-4005-A83F-246D9FF02D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,9 +1040,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>meetingCount</t>
-  </si>
-  <si>
     <t>{0} and the ship has {1}</t>
   </si>
   <si>
@@ -2319,6 +2316,10 @@
   </si>
   <si>
     <t>&lt;color=#CCCCCC&gt;Off&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>meetingCount</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2935,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -3019,10 +3020,10 @@
         <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1">
@@ -3030,10 +3031,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -3099,7 +3100,7 @@
         <v>182</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
@@ -3107,10 +3108,10 @@
         <v>138</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
@@ -3118,18 +3119,18 @@
         <v>139</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="313.5">
       <c r="A13" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3144,7 +3145,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
@@ -3152,145 +3153,145 @@
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>578</v>
-      </c>
       <c r="O16" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1">
       <c r="A26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>573</v>
-      </c>
       <c r="O26" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1">
@@ -3470,10 +3471,10 @@
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
       <c r="A38" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -3486,11 +3487,11 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
@@ -3512,10 +3513,10 @@
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3530,15 +3531,15 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3553,15 +3554,15 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3574,41 +3575,41 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
       <c r="A43" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="O43" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -3623,15 +3624,15 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -3646,15 +3647,15 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
       <c r="A47" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3669,15 +3670,15 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1">
       <c r="A48" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3692,15 +3693,15 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -3715,15 +3716,15 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -3738,15 +3739,15 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3761,15 +3762,15 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3784,7 +3785,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
@@ -3792,134 +3793,134 @@
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
       <c r="A55" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="O55" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1">
@@ -3927,288 +3928,288 @@
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="24.95" customHeight="1">
       <c r="A68" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="O68" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
       <c r="A69" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="O69" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="O70" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="O71" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="O72" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="O73" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="O74" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="O75" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="O76" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="O76" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
       <c r="A77" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="O77" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="O77" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
       <c r="A78" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="O78" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O79" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="O79" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1">
       <c r="A80" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="O80" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="O80" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1">
       <c r="A81" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="O81" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
       <c r="A82" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="O82" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="O83" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="O83" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="24.95" customHeight="1">
       <c r="A84" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="O84" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="O84" s="7" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="24.95" customHeight="1">
       <c r="A85" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="O85" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="O85" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="24.95" customHeight="1">
       <c r="A86" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="O86" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B87" s="7"/>
       <c r="O87" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="24.95" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B88" s="7"/>
       <c r="O88" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="24.95" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B89" s="7"/>
       <c r="O89" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="24.95" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="24.95" customHeight="1">
       <c r="A91" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B91" s="7"/>
       <c r="O91" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="24.95" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B92" s="7"/>
       <c r="O92" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="24.95" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B93" s="7"/>
       <c r="O93" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="24.95" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B94" s="7"/>
       <c r="O94" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="24.95" customHeight="1">
@@ -4218,375 +4219,375 @@
     </row>
     <row r="96" spans="1:15" ht="24.95" customHeight="1">
       <c r="A96" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="O96" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="24.95" customHeight="1">
       <c r="A97" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="O97" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="24.95" customHeight="1">
       <c r="A98" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="O98" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1">
       <c r="A99" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="O99" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="24.95" customHeight="1">
       <c r="A100" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="O100" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="O100" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="24.95" customHeight="1">
       <c r="A101" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="O101" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="O101" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
       <c r="A102" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="O102" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="O102" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
       <c r="A103" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="O103" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="O103" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="O104" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
       <c r="A105" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="O105" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="O105" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="24.95" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1">
       <c r="A107" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="O107" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="O107" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="O108" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="O108" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="O110" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="O110" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="O111" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="O111" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="24.95" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="24.95" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="24.95" customHeight="1">
       <c r="A121" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="O121" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="O121" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="24.95" customHeight="1">
       <c r="A123" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="O123" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="24.95" customHeight="1">
       <c r="A124" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="O124" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="24.95" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
       <c r="A126" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O127" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
       <c r="A129" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="24.95" customHeight="1">
       <c r="A130" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O130" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
       <c r="A131" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O131" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
@@ -4594,24 +4595,24 @@
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O133" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O134" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="24.95" customHeight="1">
@@ -4703,13 +4704,13 @@
     </row>
     <row r="165" spans="1:15" ht="24.95" customHeight="1">
       <c r="A165" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="O165" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="O165" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:15" ht="24.95" customHeight="1">
@@ -9212,7 +9213,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -9237,7 +9238,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -9287,7 +9288,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -9312,7 +9313,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -9537,7 +9538,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -9555,7 +9556,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -9637,7 +9638,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -10263,35 +10264,35 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:19">

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B08455-B3D9-4FC4-BD28-0B25E4F5A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D091B19-1DF6-4DB9-8305-C43681F4A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="540" windowWidth="25635" windowHeight="15555" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="540" windowWidth="25635" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="2826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="2818">
   <si>
     <t>English</t>
   </si>
@@ -4124,30 +4124,6 @@
   </si>
   <si>
     <t>房主</t>
-  </si>
-  <si>
-    <t>lobbyInfoImpostor</t>
-  </si>
-  <si>
-    <t>インポスター</t>
-  </si>
-  <si>
-    <t>lobbyInfoCrewmate</t>
-  </si>
-  <si>
-    <t>クルーメイト</t>
-  </si>
-  <si>
-    <t>lobbyInfoNeutral</t>
-  </si>
-  <si>
-    <t>ニュートラル</t>
-  </si>
-  <si>
-    <t>lobbyInfoModifier</t>
-  </si>
-  <si>
-    <t>属性</t>
   </si>
   <si>
     <t>lobbyInfoSummary</t>
@@ -25226,9 +25202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1663"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A349" sqref="A349:XFD349"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -25479,7 +25455,7 @@
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>1915</v>
+        <v>1907</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>64</v>
@@ -25493,7 +25469,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1911</v>
+        <v>1903</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>121</v>
@@ -25504,7 +25480,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>123</v>
@@ -25515,10 +25491,10 @@
         <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1913</v>
+        <v>1905</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
@@ -25526,7 +25502,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>126</v>
@@ -25537,7 +25513,7 @@
         <v>118</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1914</v>
+        <v>1906</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>119</v>
@@ -25570,7 +25546,7 @@
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>72</v>
@@ -25581,10 +25557,10 @@
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>74</v>
@@ -25592,7 +25568,7 @@
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>1947</v>
+        <v>1939</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>75</v>
@@ -25603,7 +25579,7 @@
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>2820</v>
+        <v>2812</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>77</v>
@@ -25618,7 +25594,7 @@
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>2635</v>
+        <v>2627</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>79</v>
@@ -25629,7 +25605,7 @@
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>2634</v>
+        <v>2626</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>80</v>
@@ -25640,7 +25616,7 @@
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>2632</v>
+        <v>2624</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>81</v>
@@ -25651,7 +25627,7 @@
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>2633</v>
+        <v>2625</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>82</v>
@@ -25722,7 +25698,7 @@
         <v>95</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
@@ -25733,7 +25709,7 @@
         <v>97</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
@@ -25777,7 +25753,7 @@
         <v>108</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
@@ -26251,10 +26227,10 @@
     </row>
     <row r="95" spans="1:15" ht="24.95" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="O95" s="17" t="s">
-        <v>1954</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="24.95" customHeight="1">
@@ -26380,7 +26356,7 @@
         <v>275</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>276</v>
@@ -26391,7 +26367,7 @@
         <v>277</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>278</v>
@@ -26399,10 +26375,10 @@
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="17" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>280</v>
@@ -26413,10 +26389,10 @@
         <v>279</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>1921</v>
+        <v>1913</v>
       </c>
       <c r="O110" s="17" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
@@ -26424,7 +26400,7 @@
         <v>281</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>282</v>
@@ -26435,7 +26411,7 @@
         <v>283</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>1925</v>
+        <v>1917</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>284</v>
@@ -26446,7 +26422,7 @@
         <v>285</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="O113" s="3" t="s">
         <v>286</v>
@@ -26457,7 +26433,7 @@
         <v>287</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="O114" s="3" t="s">
         <v>288</v>
@@ -26468,7 +26444,7 @@
         <v>289</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>1922</v>
+        <v>1914</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>290</v>
@@ -26526,7 +26502,7 @@
         <v>301</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>302</v>
@@ -26581,7 +26557,7 @@
         <v>314</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>315</v>
@@ -26589,10 +26565,10 @@
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="17" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>316</v>
@@ -26603,7 +26579,7 @@
         <v>317</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1888</v>
+        <v>1880</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>318</v>
@@ -26625,7 +26601,7 @@
         <v>321</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>322</v>
@@ -26766,7 +26742,7 @@
         <v>357</v>
       </c>
       <c r="O144" s="17" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24.95" customHeight="1">
@@ -26796,13 +26772,13 @@
     </row>
     <row r="148" spans="1:15" ht="24.95" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="O148" s="17" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="24.95" customHeight="1">
@@ -26813,7 +26789,7 @@
         <v>364</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>365</v>
@@ -26824,7 +26800,7 @@
         <v>366</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1891</v>
+        <v>1883</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>367</v>
@@ -26835,7 +26811,7 @@
         <v>368</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1892</v>
+        <v>1884</v>
       </c>
       <c r="O152" s="3" t="s">
         <v>369</v>
@@ -26846,7 +26822,7 @@
         <v>370</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>371</v>
@@ -26857,32 +26833,32 @@
         <v>372</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1894</v>
+        <v>1886</v>
       </c>
       <c r="O154" s="17" t="s">
-        <v>1995</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="17" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>1896</v>
+        <v>1888</v>
       </c>
       <c r="O155" s="17" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="17" t="s">
-        <v>2627</v>
+        <v>2619</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>2629</v>
+        <v>2621</v>
       </c>
       <c r="O156" s="17" t="s">
-        <v>2628</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
@@ -26890,7 +26866,7 @@
         <v>373</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1895</v>
+        <v>1887</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>374</v>
@@ -26901,7 +26877,7 @@
         <v>375</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1901</v>
+        <v>1893</v>
       </c>
       <c r="O158" s="3" t="s">
         <v>376</v>
@@ -26912,7 +26888,7 @@
         <v>377</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>1897</v>
+        <v>1889</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>378</v>
@@ -26923,7 +26899,7 @@
         <v>379</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1898</v>
+        <v>1890</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>380</v>
@@ -26945,7 +26921,7 @@
         <v>383</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1899</v>
+        <v>1891</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>384</v>
@@ -26956,7 +26932,7 @@
         <v>385</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1900</v>
+        <v>1892</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>386</v>
@@ -27947,35 +27923,35 @@
     </row>
     <row r="266" spans="1:15" ht="24.95" customHeight="1">
       <c r="A266" s="17" t="s">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="O266" s="17" t="s">
-        <v>1992</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="267" spans="1:15" ht="24.95" customHeight="1">
       <c r="A267" s="17" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="O267" s="17" t="s">
-        <v>1991</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="268" spans="1:15" ht="24.95" customHeight="1">
       <c r="A268" s="17" t="s">
-        <v>1987</v>
+        <v>1979</v>
       </c>
       <c r="B268" s="17" t="s">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="O268" s="17" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="269" spans="1:15" ht="24.95" customHeight="1">
@@ -28462,7 +28438,7 @@
         <v>743</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>1902</v>
+        <v>1894</v>
       </c>
       <c r="O322" s="11" t="s">
         <v>744</v>
@@ -28473,7 +28449,7 @@
         <v>745</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="O323" s="11" t="s">
         <v>746</v>
@@ -28484,7 +28460,7 @@
         <v>747</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>1904</v>
+        <v>1896</v>
       </c>
       <c r="O324" s="11" t="s">
         <v>748</v>
@@ -28495,7 +28471,7 @@
         <v>749</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>1905</v>
+        <v>1897</v>
       </c>
       <c r="O325" s="11" t="s">
         <v>750</v>
@@ -28506,7 +28482,7 @@
         <v>751</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="O326" s="11" t="s">
         <v>752</v>
@@ -28517,7 +28493,7 @@
         <v>753</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="O327" s="11" t="s">
         <v>754</v>
@@ -28528,7 +28504,7 @@
         <v>755</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="O328" s="11" t="s">
         <v>756</v>
@@ -28539,7 +28515,7 @@
         <v>757</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
       <c r="O329" s="11" t="s">
         <v>758</v>
@@ -28551,35 +28527,35 @@
     </row>
     <row r="331" spans="1:15" ht="24.95" customHeight="1">
       <c r="A331" s="11" t="s">
-        <v>2618</v>
+        <v>2610</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>2625</v>
+        <v>2617</v>
       </c>
       <c r="O331" s="7" t="s">
-        <v>2623</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="332" spans="1:15" ht="24.95" customHeight="1">
       <c r="A332" s="11" t="s">
-        <v>2619</v>
+        <v>2611</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>2626</v>
+        <v>2618</v>
       </c>
       <c r="O332" s="17" t="s">
-        <v>2622</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="333" spans="1:15" ht="24.95" customHeight="1">
       <c r="A333" s="11" t="s">
-        <v>2620</v>
+        <v>2612</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>2624</v>
+        <v>2616</v>
       </c>
       <c r="O333" s="17" t="s">
-        <v>2621</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="334" spans="1:15" ht="24.95" customHeight="1">
@@ -28589,10 +28565,10 @@
     </row>
     <row r="335" spans="1:15" ht="24.95" customHeight="1">
       <c r="A335" s="17" t="s">
-        <v>2610</v>
+        <v>2602</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>2609</v>
+        <v>2601</v>
       </c>
       <c r="O335" s="3" t="s">
         <v>817</v>
@@ -28632,7 +28608,7 @@
         <v>766</v>
       </c>
       <c r="O339" s="17" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="340" spans="1:15" ht="24.95" customHeight="1">
@@ -28640,84 +28616,84 @@
     </row>
     <row r="341" spans="1:15" ht="24.95" customHeight="1">
       <c r="A341" s="17" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="O341" s="17" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="24.95" customHeight="1">
       <c r="A342" s="17" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="B342" s="17" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="O342" s="17" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="343" spans="1:15" ht="24.95" customHeight="1">
       <c r="A343" s="3" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="O343" s="17" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="344" spans="1:15" ht="24.95" customHeight="1">
       <c r="A344" s="3" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="O344" s="17" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="345" spans="1:15" ht="24.95" customHeight="1">
       <c r="A345" s="17" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
       <c r="B345" s="17" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="O345" s="17" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="346" spans="1:15" ht="24.95" customHeight="1">
       <c r="A346" s="3" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="O346" s="17" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="347" spans="1:15" ht="24.95" customHeight="1">
       <c r="A347" s="3" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B347" s="17" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="O347" s="17" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="348" spans="1:15" ht="24.95" customHeight="1">
       <c r="A348" s="3" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="B348" s="17" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="O348" s="17" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="349" spans="1:15" ht="24.95" customHeight="1">
@@ -28753,7 +28729,7 @@
         <v>773</v>
       </c>
       <c r="B353" s="17" t="s">
-        <v>2821</v>
+        <v>2813</v>
       </c>
       <c r="O353" s="3" t="s">
         <v>774</v>
@@ -28764,7 +28740,7 @@
         <v>775</v>
       </c>
       <c r="B354" s="17" t="s">
-        <v>2822</v>
+        <v>2814</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>776</v>
@@ -28797,7 +28773,7 @@
     </row>
     <row r="358" spans="1:15" ht="24.95" customHeight="1">
       <c r="A358" s="3" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>783</v>
@@ -28808,7 +28784,7 @@
     </row>
     <row r="359" spans="1:15" ht="24.95" customHeight="1">
       <c r="A359" s="3" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>784</v>
@@ -28844,10 +28820,10 @@
         <v>791</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="O362" s="17" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="363" spans="1:15" ht="24.95" customHeight="1">
@@ -28874,18 +28850,18 @@
     </row>
     <row r="365" spans="1:15" ht="24.95" customHeight="1">
       <c r="A365" s="17" t="s">
-        <v>2817</v>
+        <v>2809</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>2818</v>
+        <v>2810</v>
       </c>
       <c r="O365" s="17" t="s">
-        <v>2819</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="366" spans="1:15" ht="24.95" customHeight="1">
       <c r="A366" s="17" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>798</v>
@@ -28918,7 +28894,7 @@
     </row>
     <row r="369" spans="1:15" ht="24.95" customHeight="1">
       <c r="A369" s="17" t="s">
-        <v>2812</v>
+        <v>2804</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>806</v>
@@ -28943,15 +28919,15 @@
     </row>
     <row r="372" spans="1:15" ht="24.95" customHeight="1">
       <c r="A372" s="3" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="O372" s="17" t="s">
-        <v>2640</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="373" spans="1:15" ht="24.95" customHeight="1">
       <c r="A373" s="3" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="B373" s="17"/>
       <c r="O373" s="3" t="s">
@@ -28960,85 +28936,85 @@
     </row>
     <row r="374" spans="1:15" ht="24.95" customHeight="1">
       <c r="A374" s="3" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="O374" s="3" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="375" spans="1:15" ht="24.95" customHeight="1">
       <c r="A375" s="3" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="O375" s="3" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="376" spans="1:15" ht="24.95" customHeight="1">
       <c r="A376" s="3" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="O376" s="3" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="377" spans="1:15" ht="24.95" customHeight="1">
       <c r="A377" s="3" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="O377" s="17" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="378" spans="1:15" ht="24.95" customHeight="1">
       <c r="A378" s="17" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="O378" s="3" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="379" spans="1:15" ht="24.95" customHeight="1">
       <c r="A379" s="17" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="O379" s="3" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="380" spans="1:15" ht="24.95" customHeight="1">
       <c r="A380" s="3" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="O380" s="3" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="381" spans="1:15" ht="24.95" customHeight="1">
       <c r="A381" s="3" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="O381" s="3" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="382" spans="1:15" ht="24.95" customHeight="1">
       <c r="A382" s="3" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="O382" s="3" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="383" spans="1:15" ht="24.95" customHeight="1">
       <c r="A383" s="3" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="O383" s="3" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="384" spans="1:15" ht="24.95" customHeight="1">
@@ -29046,10 +29022,10 @@
     </row>
     <row r="385" spans="1:15" ht="24.95" customHeight="1">
       <c r="A385" s="3" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="O385" s="3" t="s">
         <v>845</v>
@@ -29057,18 +29033,18 @@
     </row>
     <row r="386" spans="1:15" ht="24.95" customHeight="1">
       <c r="A386" s="3" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="B386" s="11" t="s">
         <v>783</v>
       </c>
       <c r="O386" s="3" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="387" spans="1:15" ht="24.95" customHeight="1">
       <c r="A387" s="3" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>784</v>
@@ -29079,24 +29055,24 @@
     </row>
     <row r="388" spans="1:15" ht="24.95" customHeight="1">
       <c r="A388" s="17" t="s">
-        <v>2606</v>
+        <v>2598</v>
       </c>
       <c r="B388" s="17" t="s">
-        <v>2607</v>
+        <v>2599</v>
       </c>
       <c r="O388" s="17" t="s">
-        <v>2608</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="389" spans="1:15" ht="24.95" customHeight="1">
       <c r="A389" s="3" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="O389" s="17" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="390" spans="1:15" ht="24.95" customHeight="1">
@@ -29140,7 +29116,7 @@
     </row>
     <row r="395" spans="1:15" ht="24.95" customHeight="1">
       <c r="A395" s="3" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="O395" s="3" t="s">
         <v>845</v>
@@ -29148,21 +29124,21 @@
     </row>
     <row r="396" spans="1:15" ht="24.95" customHeight="1">
       <c r="A396" s="3" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="O396" s="17" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="397" spans="1:15" ht="24.95" customHeight="1">
       <c r="A397" s="3" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="O397" s="3" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="398" spans="1:15" ht="24.95" customHeight="1">
@@ -29275,10 +29251,10 @@
     </row>
     <row r="410" spans="1:15" ht="24.95" customHeight="1">
       <c r="A410" s="17" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
       <c r="B410" s="17" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="O410" s="3" t="s">
         <v>828</v>
@@ -29286,22 +29262,22 @@
     </row>
     <row r="411" spans="1:15" ht="24.95" customHeight="1">
       <c r="A411" s="11" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="B411" s="11"/>
       <c r="O411" s="3" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="412" spans="1:15" ht="24.95" customHeight="1">
       <c r="A412" s="17" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="B412" s="17" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="O412" s="3" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="413" spans="1:15" ht="24.95" customHeight="1">
@@ -29311,22 +29287,22 @@
     </row>
     <row r="414" spans="1:15" ht="24.95" customHeight="1">
       <c r="A414" s="17" t="s">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="B414" s="11"/>
       <c r="O414" s="17" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="415" spans="1:15" ht="24.95" customHeight="1">
       <c r="A415" s="17" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="B415" s="17" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="O415" s="17" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="416" spans="1:15" ht="24.95" customHeight="1">
@@ -29334,63 +29310,63 @@
         <v>832</v>
       </c>
       <c r="B416" s="17" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="O416" s="17" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="417" spans="1:15" ht="24.95" customHeight="1">
       <c r="A417" s="17" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="B417" s="11"/>
       <c r="O417" s="17" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="418" spans="1:15" ht="24.95" customHeight="1">
       <c r="A418" s="17" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="B418" s="17" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="O418" s="17" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="419" spans="1:15" ht="24.95" customHeight="1">
       <c r="A419" s="17" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="B419" s="17" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="O419" s="17" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="420" spans="1:15" ht="24.95" customHeight="1">
       <c r="A420" s="17" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="B420" s="17" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="O420" s="17" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="421" spans="1:15" ht="24.95" customHeight="1">
       <c r="A421" s="17" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="B421" s="17" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="O421" s="17" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="422" spans="1:15" ht="24.95" customHeight="1">
@@ -29403,18 +29379,18 @@
     </row>
     <row r="424" spans="1:15" ht="24.95" customHeight="1">
       <c r="A424" s="17" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="B424" s="17" t="s">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="O424" s="17" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="425" spans="1:15" ht="24.95" customHeight="1">
       <c r="A425" s="17" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="B425" s="11"/>
       <c r="O425" s="3" t="s">
@@ -29423,13 +29399,13 @@
     </row>
     <row r="426" spans="1:15" ht="24.95" customHeight="1">
       <c r="A426" s="17" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="B426" s="17" t="s">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="O426" s="17" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="427" spans="1:15" ht="24.95" customHeight="1">
@@ -29446,7 +29422,7 @@
         <v>995</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="O428" s="3" t="s">
         <v>996</v>
@@ -29524,18 +29500,18 @@
         <v>847</v>
       </c>
       <c r="O438" s="17" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="439" spans="1:15" ht="24.95" customHeight="1">
       <c r="A439" s="17" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="B439" s="17" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="O439" s="17" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="440" spans="1:15" ht="24.95" customHeight="1">
@@ -29562,13 +29538,13 @@
     </row>
     <row r="442" spans="1:15" ht="24.95" customHeight="1">
       <c r="A442" s="17" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>854</v>
       </c>
       <c r="O442" s="18" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="443" spans="1:15" ht="24.95" customHeight="1">
@@ -29665,11 +29641,11 @@
     </row>
     <row r="453" spans="1:15" ht="24.95" customHeight="1">
       <c r="A453" s="17" t="s">
-        <v>2616</v>
+        <v>2608</v>
       </c>
       <c r="B453" s="17"/>
       <c r="O453" s="17" t="s">
-        <v>2617</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="454" spans="1:15" ht="24.95" customHeight="1">
@@ -29682,7 +29658,7 @@
         <v>878</v>
       </c>
       <c r="B455" s="17" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="O455" s="3" t="s">
         <v>879</v>
@@ -29690,10 +29666,10 @@
     </row>
     <row r="456" spans="1:15" ht="24.95" customHeight="1">
       <c r="A456" s="17" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
       <c r="B456" s="17" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
       <c r="O456" s="3" t="s">
         <v>828</v>
@@ -29748,13 +29724,13 @@
     </row>
     <row r="462" spans="1:15" ht="24.95" customHeight="1">
       <c r="A462" s="17" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="B462" s="17" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="O462" s="17" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="463" spans="1:15" ht="24.95" customHeight="1">
@@ -29867,10 +29843,10 @@
         <v>915</v>
       </c>
       <c r="B474" s="17" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="O474" s="17" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="475" spans="1:15" ht="24.95" customHeight="1">
@@ -29984,7 +29960,7 @@
     </row>
     <row r="486" spans="1:15" ht="24.95" customHeight="1">
       <c r="A486" s="17" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="B486" s="11" t="s">
         <v>943</v>
@@ -29995,11 +29971,11 @@
     </row>
     <row r="487" spans="1:15" ht="24.95" customHeight="1">
       <c r="A487" s="17" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="B487" s="11"/>
       <c r="O487" s="17" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="488" spans="1:15" ht="24.95" customHeight="1">
@@ -30040,7 +30016,7 @@
         <v>954</v>
       </c>
       <c r="B491" s="17" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
       <c r="O491" s="3" t="s">
         <v>955</v>
@@ -30108,7 +30084,7 @@
     </row>
     <row r="498" spans="1:15" ht="24.95" customHeight="1">
       <c r="A498" s="17" t="s">
-        <v>2611</v>
+        <v>2603</v>
       </c>
       <c r="B498" s="17" t="s">
         <v>987</v>
@@ -30125,7 +30101,7 @@
         <v>972</v>
       </c>
       <c r="O499" s="17" t="s">
-        <v>2612</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="500" spans="1:15" ht="24.95" customHeight="1">
@@ -30152,7 +30128,7 @@
     </row>
     <row r="502" spans="1:15" ht="24.95" customHeight="1">
       <c r="A502" s="17" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>980</v>
@@ -30166,7 +30142,7 @@
         <v>982</v>
       </c>
       <c r="B503" s="18" t="s">
-        <v>2613</v>
+        <v>2605</v>
       </c>
       <c r="O503" s="3" t="s">
         <v>983</v>
@@ -30199,7 +30175,7 @@
         <v>990</v>
       </c>
       <c r="B506" s="11" t="s">
-        <v>2614</v>
+        <v>2606</v>
       </c>
       <c r="O506" s="3" t="s">
         <v>991</v>
@@ -30247,7 +30223,7 @@
     </row>
     <row r="512" spans="1:15" ht="24.95" customHeight="1">
       <c r="A512" s="17" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="B512" s="11" t="s">
         <v>1008</v>
@@ -30258,7 +30234,7 @@
     </row>
     <row r="513" spans="1:15" ht="24.95" customHeight="1">
       <c r="A513" s="17" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>1010</v>
@@ -30598,7 +30574,7 @@
         <v>1105</v>
       </c>
       <c r="O547" s="17" t="s">
-        <v>2615</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="548" spans="1:15" ht="24.95" customHeight="1">
@@ -30664,7 +30640,7 @@
         <v>1120</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="O554" s="3" t="s">
         <v>1121</v>
@@ -30675,7 +30651,7 @@
         <v>1122</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="O555" s="3" t="s">
         <v>1123</v>
@@ -30686,7 +30662,7 @@
         <v>1124</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="O556" s="3" t="s">
         <v>1125</v>
@@ -30697,7 +30673,7 @@
         <v>1126</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="O557" s="3" t="s">
         <v>1127</v>
@@ -30708,7 +30684,7 @@
         <v>1128</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
       <c r="O558" s="3" t="s">
         <v>1129</v>
@@ -30719,21 +30695,21 @@
         <v>1130</v>
       </c>
       <c r="B559" s="17" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="O559" s="17" t="s">
-        <v>1876</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="560" spans="1:15" ht="24.95" customHeight="1">
       <c r="A560" s="17" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
       <c r="B560" s="17" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="O560" s="17" t="s">
-        <v>1875</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="561" spans="1:15" ht="24.95" customHeight="1">
@@ -30741,10 +30717,10 @@
         <v>1131</v>
       </c>
       <c r="B561" s="17" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="O561" s="17" t="s">
-        <v>1874</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="562" spans="1:15" ht="24.95" customHeight="1">
@@ -30752,10 +30728,10 @@
         <v>1132</v>
       </c>
       <c r="B562" s="17" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="O562" s="17" t="s">
-        <v>1873</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="563" spans="1:15" ht="24.95" customHeight="1">
@@ -30764,46 +30740,46 @@
     </row>
     <row r="564" spans="1:15" ht="24.95" customHeight="1">
       <c r="A564" s="17" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B564" s="17" t="s">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="O564" s="17" t="s">
-        <v>2015</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="565" spans="1:15" ht="24.95" customHeight="1">
       <c r="A565" s="17" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="B565" s="17" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="O565" s="17" t="s">
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="566" spans="1:15" ht="24.95" customHeight="1">
       <c r="A566" s="17" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="B566" s="17" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="O566" s="17" t="s">
-        <v>2014</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="567" spans="1:15" ht="24.95" customHeight="1">
       <c r="A567" s="17" t="s">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="B567" s="17" t="s">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="O567" s="17" t="s">
-        <v>2018</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="568" spans="1:15" ht="24.95" customHeight="1">
@@ -30850,7 +30826,7 @@
         <v>1142</v>
       </c>
       <c r="O572" s="17" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="573" spans="1:15" ht="24.95" customHeight="1">
@@ -31192,7 +31168,7 @@
         <v>1218</v>
       </c>
       <c r="B608" s="17" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="O608" s="3" t="s">
         <v>1219</v>
@@ -31250,7 +31226,7 @@
         <v>1232</v>
       </c>
       <c r="B614" s="17" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
       <c r="O614" s="3" t="s">
         <v>1233</v>
@@ -31447,7 +31423,7 @@
         <v>1278</v>
       </c>
       <c r="O638" s="17" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="639" spans="1:15" ht="24.95" customHeight="1">
@@ -31522,7 +31498,7 @@
         <v>1294</v>
       </c>
       <c r="B648" s="17" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="O648" s="3" t="s">
         <v>1295</v>
@@ -31547,7 +31523,7 @@
         <v>1297</v>
       </c>
       <c r="B652" s="17" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
       <c r="O652" s="3" t="s">
         <v>1298</v>
@@ -31655,18 +31631,18 @@
     </row>
     <row r="665" spans="1:15" ht="24.95" customHeight="1">
       <c r="A665" s="17" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="O665" s="17" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="666" spans="1:15" ht="24.95" customHeight="1">
       <c r="A666" s="17" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="O666" s="18" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="667" spans="1:15" ht="24.95" customHeight="1">
@@ -34680,11 +34656,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -34822,7 +34798,7 @@
         <v>1341</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>2638</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="71.25">
@@ -34883,31 +34859,19 @@
       </c>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="M14" s="4" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>76</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>1356</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="24.95" customHeight="1">
@@ -34915,292 +34879,276 @@
         <v>1357</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="4" t="s">
         <v>1358</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>74</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B18" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="M18" s="4" t="s">
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="19" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B19" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>1365</v>
+      </c>
       <c r="O19" s="4" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1366</v>
+        <v>1368</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1369</v>
+        <v>1372</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1"/>
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>1377</v>
+      </c>
+    </row>
     <row r="23" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>1371</v>
+        <v>1378</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1376</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1384</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>1385</v>
-      </c>
-    </row>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1"/>
     <row r="27" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="O29" s="5" t="s">
         <v>1392</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1"/>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="O30" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="31" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A33" s="5" t="s">
+      <c r="O31" s="5" t="s">
         <v>1398</v>
       </c>
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="32" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>1399</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>1400</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B34" s="5" t="s">
         <v>1402</v>
       </c>
-      <c r="O34" s="5" t="s">
-        <v>1403</v>
+      <c r="B34" s="22" t="s">
+        <v>2808</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>2805</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>2807</v>
+      </c>
+      <c r="O35" s="22" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="24.95" customHeight="1">
+      <c r="B36" s="8"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B37" s="8"/>
+      <c r="O37" s="8" t="s">
         <v>1405</v>
       </c>
-      <c r="O35" s="5" t="s">
+    </row>
+    <row r="38" spans="1:15" ht="24.95" customHeight="1">
+      <c r="B38" s="8"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A39" s="19" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="O39" s="8" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A36" s="5" t="s">
+    <row r="40" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A40" s="19" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="O40" s="8" t="s">
         <v>1407</v>
       </c>
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="41" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A41" s="19" t="s">
+        <v>1783</v>
+      </c>
+      <c r="O41" s="5" t="s">
         <v>1408</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>2816</v>
-      </c>
-      <c r="O38" s="22" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>2815</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B40" s="8"/>
-      <c r="O40" s="8"/>
-    </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="O41" s="8" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B42" s="8"/>
-      <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A43" s="19" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="O43" s="8" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A44" s="19" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="O44" s="8" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>1791</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>1416</v>
+        <v>1873</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>1875</v>
+      </c>
+      <c r="O45" s="19" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A49" s="19" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>1883</v>
-      </c>
-      <c r="O49" s="19" t="s">
-        <v>1884</v>
+      <c r="A49" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>1736</v>
+        <v>1416</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>1417</v>
@@ -35216,47 +35164,19 @@
       <c r="A53" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="O53" s="5" t="s">
         <v>1421</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>1422</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
       <c r="A55" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>1424</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>1425</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>1426</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A57" s="5" t="s">
-        <v>1428</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>1431</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>1432</v>
       </c>
     </row>
   </sheetData>
@@ -35348,442 +35268,442 @@
     </row>
     <row r="2" spans="1:17" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
       <c r="A4" s="1" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
       <c r="A5" s="1" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>1956</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25">
       <c r="A6" s="1" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25">
       <c r="A8" s="1" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.25">
       <c r="A12" s="1" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="A22" s="1" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25">
       <c r="A23" s="1" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.25">
       <c r="A24" s="1" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.25">
       <c r="A25" s="1" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.25">
       <c r="A26" s="1" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.25">
       <c r="A27" s="1" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>1955</v>
+        <v>1947</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
     </row>
   </sheetData>
@@ -35798,7 +35718,7 @@
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -35876,957 +35796,957 @@
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>2824</v>
+        <v>2816</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>2823</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>1985</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>2603</v>
+        <v>2595</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>2605</v>
+        <v>2597</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>2604</v>
+        <v>2596</v>
       </c>
     </row>
   </sheetData>
@@ -36839,8 +36759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O161" sqref="O161"/>
     </sheetView>
   </sheetViews>
@@ -36855,2838 +36775,2838 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="B1" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2031</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>2032</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>2037</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>2038</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2039</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2040</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2041</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2042</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>2043</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>2044</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>2045</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1"/>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>2047</v>
+        <v>2039</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2047</v>
+        <v>2039</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2048</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>2049</v>
+        <v>2041</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>2051</v>
+        <v>2043</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2052</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2054</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>2055</v>
+        <v>2047</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2056</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2058</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>2063</v>
+        <v>2055</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2066</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>2068</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>2069</v>
+        <v>2061</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>2070</v>
+        <v>2062</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2070</v>
+        <v>2062</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>2071</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>2072</v>
+        <v>2064</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>2073</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>2074</v>
+        <v>2066</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>2075</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>2076</v>
+        <v>2068</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2076</v>
+        <v>2068</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>2078</v>
+        <v>2070</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>2080</v>
+        <v>2072</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>2082</v>
+        <v>2074</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2082</v>
+        <v>2074</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>2083</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>2084</v>
+        <v>2076</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>2085</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>2086</v>
+        <v>2078</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>2087</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>2088</v>
+        <v>2080</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2088</v>
+        <v>2080</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>2089</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>2090</v>
+        <v>2082</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>2091</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>2092</v>
+        <v>2084</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>2095</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>2096</v>
+        <v>2088</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>2097</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>2098</v>
+        <v>2090</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>2101</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>2103</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>2105</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>2106</v>
+        <v>2098</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2106</v>
+        <v>2098</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>2107</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>2110</v>
+        <v>2102</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>2111</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2" t="s">
-        <v>2112</v>
+        <v>2104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2112</v>
+        <v>2104</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>2113</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2" t="s">
-        <v>2114</v>
+        <v>2106</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2" t="s">
-        <v>2116</v>
+        <v>2108</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>2117</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>2119</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2" t="s">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>2121</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2" t="s">
-        <v>2122</v>
+        <v>2114</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>2125</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>2126</v>
+        <v>2118</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
-        <v>2128</v>
+        <v>2120</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>2129</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
-        <v>2130</v>
+        <v>2122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2130</v>
+        <v>2122</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>2131</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2" t="s">
-        <v>2132</v>
+        <v>2124</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>2133</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
-        <v>2134</v>
+        <v>2126</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>2135</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1867</v>
+        <v>1859</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>2137</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>2138</v>
+        <v>2130</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>2139</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>2140</v>
+        <v>2132</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>2142</v>
+        <v>2134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2142</v>
+        <v>2134</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>2143</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>2144</v>
+        <v>2136</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>2149</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>2150</v>
+        <v>2142</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>2151</v>
+        <v>2143</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>2152</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2" t="s">
-        <v>2153</v>
+        <v>2145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2153</v>
+        <v>2145</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>2154</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>2156</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2" t="s">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
-        <v>2159</v>
+        <v>2151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2159</v>
+        <v>2151</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>2160</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>2162</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>2163</v>
+        <v>2155</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>2164</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
-        <v>2165</v>
+        <v>2157</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2165</v>
+        <v>2157</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>2166</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2" t="s">
-        <v>2167</v>
+        <v>2159</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>2168</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="2" t="s">
-        <v>2169</v>
+        <v>2161</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>2170</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2" t="s">
-        <v>2171</v>
+        <v>2163</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2171</v>
+        <v>2163</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>2172</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2" t="s">
-        <v>2173</v>
+        <v>2165</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>2174</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="2" t="s">
-        <v>2175</v>
+        <v>2167</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>2176</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2" t="s">
-        <v>2177</v>
+        <v>2169</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2178</v>
+        <v>2170</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2" t="s">
-        <v>2180</v>
+        <v>2172</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>2181</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="2" t="s">
-        <v>2182</v>
+        <v>2174</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="2" t="s">
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1866</v>
+        <v>1858</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>2030</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="2" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>2028</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>2028</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>2026</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="2" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>2027</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="2" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="2" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="2" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="2" t="s">
-        <v>2185</v>
+        <v>2177</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2185</v>
+        <v>2177</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>2186</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2" t="s">
-        <v>2187</v>
+        <v>2179</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>2188</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2" t="s">
-        <v>2189</v>
+        <v>2181</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="2" t="s">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>2192</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="2" t="s">
-        <v>2193</v>
+        <v>2185</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>2194</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="2" t="s">
-        <v>2195</v>
+        <v>2187</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>2196</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="2" t="s">
-        <v>2197</v>
+        <v>2189</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2197</v>
+        <v>2189</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>2198</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="2" t="s">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>2200</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="2" t="s">
-        <v>2201</v>
+        <v>2193</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>2202</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="2" t="s">
-        <v>2203</v>
+        <v>2195</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2203</v>
+        <v>2195</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>2204</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="2" t="s">
-        <v>2205</v>
+        <v>2197</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="2" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>2208</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2" t="s">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2" t="s">
-        <v>2211</v>
+        <v>2203</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>2212</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="2" t="s">
-        <v>2213</v>
+        <v>2205</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>2214</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="2" t="s">
-        <v>2215</v>
+        <v>2207</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2215</v>
+        <v>2207</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>2216</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2" t="s">
-        <v>2217</v>
+        <v>2209</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>2218</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>2219</v>
+        <v>2211</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>2218</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>2220</v>
+        <v>2212</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2220</v>
+        <v>2212</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>2221</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="2" t="s">
-        <v>2222</v>
+        <v>2214</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>2223</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="2" t="s">
-        <v>2224</v>
+        <v>2216</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>2225</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2" t="s">
-        <v>2226</v>
+        <v>2218</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2226</v>
+        <v>2218</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>2227</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2" t="s">
-        <v>2228</v>
+        <v>2220</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>2229</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="2" t="s">
-        <v>2230</v>
+        <v>2222</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>2229</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="2" t="s">
-        <v>2231</v>
+        <v>2223</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>2232</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2" t="s">
-        <v>2233</v>
+        <v>2225</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>2234</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="2" t="s">
-        <v>2235</v>
+        <v>2227</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>2236</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="2" t="s">
-        <v>2237</v>
+        <v>2229</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>2238</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2" t="s">
-        <v>2239</v>
+        <v>2231</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>2240</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2" t="s">
-        <v>2241</v>
+        <v>2233</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>2240</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2" t="s">
-        <v>2242</v>
+        <v>2234</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2242</v>
+        <v>2234</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>2243</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2" t="s">
-        <v>2244</v>
+        <v>2236</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>2245</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="2" t="s">
-        <v>2246</v>
+        <v>2238</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>2245</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="2" t="s">
-        <v>2247</v>
+        <v>2239</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2247</v>
+        <v>2239</v>
       </c>
       <c r="O158" s="23" t="s">
-        <v>2825</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>2248</v>
+        <v>2240</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>2249</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2" t="s">
-        <v>2250</v>
+        <v>2242</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>2251</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="2" t="s">
-        <v>2252</v>
+        <v>2244</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2252</v>
+        <v>2244</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>2253</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="2" t="s">
-        <v>2254</v>
+        <v>2246</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>2255</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="2" t="s">
-        <v>2256</v>
+        <v>2248</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>2257</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="2" t="s">
-        <v>2258</v>
+        <v>2250</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2258</v>
+        <v>2250</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>2259</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="2" t="s">
-        <v>2260</v>
+        <v>2252</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>2261</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="2" t="s">
-        <v>2262</v>
+        <v>2254</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>2263</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="2" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>2265</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="2" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>2267</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="2" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>2269</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="2" t="s">
-        <v>2270</v>
+        <v>2262</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2270</v>
+        <v>2262</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>2271</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="2" t="s">
-        <v>2272</v>
+        <v>2264</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>2273</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="2" t="s">
-        <v>2274</v>
+        <v>2266</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>2275</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="2" t="s">
-        <v>2276</v>
+        <v>2268</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2276</v>
+        <v>2268</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>2277</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="2" t="s">
-        <v>2278</v>
+        <v>2270</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>2279</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="2" t="s">
-        <v>2280</v>
+        <v>2272</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>2281</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="2" t="s">
-        <v>2282</v>
+        <v>2274</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2282</v>
+        <v>2274</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>2283</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="2" t="s">
-        <v>2284</v>
+        <v>2276</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>2285</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="2" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>2287</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="2" t="s">
-        <v>2288</v>
+        <v>2280</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2288</v>
+        <v>2280</v>
       </c>
       <c r="O186" s="2" t="s">
-        <v>2289</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="2" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>2291</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="2" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>2293</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="2" t="s">
-        <v>2294</v>
+        <v>2286</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>2294</v>
+        <v>2286</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>2295</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="2" t="s">
-        <v>2296</v>
+        <v>2288</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>2297</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="2" t="s">
-        <v>2298</v>
+        <v>2290</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>2299</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="2" t="s">
-        <v>2300</v>
+        <v>2292</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2300</v>
+        <v>2292</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>2301</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="2" t="s">
-        <v>2302</v>
+        <v>2294</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>2303</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="2" t="s">
-        <v>2304</v>
+        <v>2296</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>2305</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="2" t="s">
-        <v>2306</v>
+        <v>2298</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2306</v>
+        <v>2298</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>2307</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="2" t="s">
-        <v>2308</v>
+        <v>2300</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>2309</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="2" t="s">
-        <v>2310</v>
+        <v>2302</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>2311</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="2" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>2313</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="2" t="s">
-        <v>2314</v>
+        <v>2306</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="2" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>2317</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="2" t="s">
-        <v>2318</v>
+        <v>2310</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>2318</v>
+        <v>2310</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="2" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="2" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="2" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>2324</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="2" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="2" t="s">
-        <v>2327</v>
+        <v>2319</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>2328</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="2" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>2330</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="2" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>2332</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="2" t="s">
-        <v>2333</v>
+        <v>2325</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>2334</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="2" t="s">
-        <v>2335</v>
+        <v>2327</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>2335</v>
+        <v>2327</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>2336</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="2" t="s">
-        <v>2337</v>
+        <v>2329</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="2" t="s">
-        <v>2339</v>
+        <v>2331</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="2" t="s">
-        <v>2340</v>
+        <v>2332</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>2340</v>
+        <v>2332</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>2341</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="2" t="s">
-        <v>2342</v>
+        <v>2334</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>2343</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="2" t="s">
-        <v>2344</v>
+        <v>2336</v>
       </c>
       <c r="O224" s="2" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="2" t="s">
-        <v>2345</v>
+        <v>2337</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>2345</v>
+        <v>2337</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>2346</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="2" t="s">
-        <v>2347</v>
+        <v>2339</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="2" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="2" t="s">
-        <v>2350</v>
+        <v>2342</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>2351</v>
+        <v>2343</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>2352</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="2" t="s">
-        <v>2353</v>
+        <v>2345</v>
       </c>
       <c r="O231" s="2" t="s">
-        <v>2354</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="2" t="s">
-        <v>2355</v>
+        <v>2347</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>2356</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="2" t="s">
-        <v>2357</v>
+        <v>2349</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>2358</v>
+        <v>2350</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>2359</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="2" t="s">
-        <v>2360</v>
+        <v>2352</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>2361</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="2" t="s">
-        <v>2362</v>
+        <v>2354</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>2363</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="2" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>2364</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="2" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>2365</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="2" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>2366</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="2" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="2" t="s">
-        <v>2369</v>
+        <v>2361</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>2370</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="2" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>2372</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="2" t="s">
-        <v>2373</v>
+        <v>2365</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>2373</v>
+        <v>2365</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>2374</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="2" t="s">
-        <v>2375</v>
+        <v>2367</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>2376</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="2" t="s">
-        <v>2377</v>
+        <v>2369</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>2378</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="2" t="s">
-        <v>2379</v>
+        <v>2371</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>2379</v>
+        <v>2371</v>
       </c>
       <c r="O250" s="2" t="s">
-        <v>2380</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="2" t="s">
-        <v>2381</v>
+        <v>2373</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>2382</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="2" t="s">
-        <v>2383</v>
+        <v>2375</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>2384</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="2" t="s">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="O254" s="2" t="s">
-        <v>2386</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="2" t="s">
-        <v>2387</v>
+        <v>2379</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>2388</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="2" t="s">
-        <v>2389</v>
+        <v>2381</v>
       </c>
       <c r="O256" s="2" t="s">
-        <v>2390</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="2" t="s">
-        <v>2391</v>
+        <v>2383</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>2391</v>
+        <v>2383</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>2392</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="2" t="s">
-        <v>2393</v>
+        <v>2385</v>
       </c>
       <c r="O259" s="2" t="s">
-        <v>2394</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="2" t="s">
-        <v>2395</v>
+        <v>2387</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>2396</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="2" t="s">
-        <v>2397</v>
+        <v>2389</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>2397</v>
+        <v>2389</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>2398</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="2" t="s">
-        <v>2399</v>
+        <v>2391</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="2" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>2402</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="2" t="s">
-        <v>2403</v>
+        <v>2395</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>2403</v>
+        <v>2395</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>2404</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="2" t="s">
-        <v>2405</v>
+        <v>2397</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>2406</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="2" t="s">
-        <v>2407</v>
+        <v>2399</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>2408</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="2" t="s">
-        <v>2409</v>
+        <v>2401</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>2409</v>
+        <v>2401</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>2410</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="2" t="s">
-        <v>2411</v>
+        <v>2403</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>2412</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="2" t="s">
-        <v>2413</v>
+        <v>2405</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>2414</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="2" t="s">
-        <v>2415</v>
+        <v>2407</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>2415</v>
+        <v>2407</v>
       </c>
       <c r="O274" s="2" t="s">
-        <v>2416</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="2" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="O275" s="2" t="s">
-        <v>2418</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="2" t="s">
-        <v>2419</v>
+        <v>2411</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>2420</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="2" t="s">
-        <v>2421</v>
+        <v>2413</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>2421</v>
+        <v>2413</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>2422</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="2" t="s">
-        <v>2423</v>
+        <v>2415</v>
       </c>
       <c r="O279" s="2" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="2" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>2426</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="2" t="s">
-        <v>2427</v>
+        <v>2419</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>2427</v>
+        <v>2419</v>
       </c>
       <c r="O282" s="2" t="s">
-        <v>2428</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="2" t="s">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="O283" s="2" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="2" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="O284" s="2" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="2" t="s">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="O286" s="2" t="s">
-        <v>2001</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="2" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="O287" s="2" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="2" t="s">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>2006</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="2" t="s">
-        <v>2431</v>
+        <v>2423</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>2431</v>
+        <v>2423</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>2432</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="2" t="s">
-        <v>2433</v>
+        <v>2425</v>
       </c>
       <c r="O291" s="2" t="s">
-        <v>2434</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="2" t="s">
-        <v>2435</v>
+        <v>2427</v>
       </c>
       <c r="O292" s="2" t="s">
-        <v>2436</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="2" t="s">
-        <v>2437</v>
+        <v>2429</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1864</v>
+        <v>1856</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>2438</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="2" t="s">
-        <v>2439</v>
+        <v>2431</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="2" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="O296" s="2" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="2" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="2" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="2" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="O300" s="2" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="2" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="O302" s="2" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="2" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="O303" s="2" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="2" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="O304" s="2" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="2" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="O306" s="2" t="s">
-        <v>2456</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="2" t="s">
-        <v>2457</v>
+        <v>2449</v>
       </c>
       <c r="O307" s="2" t="s">
-        <v>2458</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="2" t="s">
-        <v>2459</v>
+        <v>2451</v>
       </c>
       <c r="O308" s="2" t="s">
-        <v>2458</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="2" t="s">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="O310" s="2" t="s">
-        <v>2461</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="2" t="s">
-        <v>2462</v>
+        <v>2454</v>
       </c>
       <c r="O311" s="2" t="s">
-        <v>2463</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="2" t="s">
-        <v>2464</v>
+        <v>2456</v>
       </c>
       <c r="O312" s="2" t="s">
-        <v>2465</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="314" spans="1:15">
       <c r="A314" s="2" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
       <c r="O314" s="2" t="s">
-        <v>2467</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="315" spans="1:15">
       <c r="A315" s="2" t="s">
-        <v>2468</v>
+        <v>2460</v>
       </c>
       <c r="O315" s="2" t="s">
-        <v>2469</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="316" spans="1:15">
       <c r="A316" s="2" t="s">
-        <v>2470</v>
+        <v>2462</v>
       </c>
       <c r="O316" s="2" t="s">
-        <v>2471</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="2" t="s">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="O318" s="2" t="s">
-        <v>2473</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="2" t="s">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="O319" s="2" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="2" t="s">
-        <v>2476</v>
+        <v>2468</v>
       </c>
       <c r="O320" s="2" t="s">
-        <v>2477</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="322" spans="1:15">
       <c r="A322" s="2" t="s">
-        <v>2478</v>
+        <v>2470</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>2478</v>
+        <v>2470</v>
       </c>
       <c r="O322" s="2" t="s">
-        <v>2479</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="2" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="2" t="s">
-        <v>2482</v>
+        <v>2474</v>
       </c>
       <c r="O324" s="2" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="2" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="O326" s="2" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="327" spans="1:15">
       <c r="A327" s="2" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
       <c r="O327" s="2" t="s">
-        <v>2487</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="2" t="s">
-        <v>2488</v>
+        <v>2480</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>2489</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="2" t="s">
-        <v>2490</v>
+        <v>2482</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>2490</v>
+        <v>2482</v>
       </c>
       <c r="O330" s="2" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="331" spans="1:15">
       <c r="A331" s="2" t="s">
-        <v>2492</v>
+        <v>2484</v>
       </c>
       <c r="O331" s="2" t="s">
-        <v>2493</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="332" spans="1:15">
       <c r="A332" s="2" t="s">
-        <v>2494</v>
+        <v>2486</v>
       </c>
       <c r="O332" s="2" t="s">
-        <v>2495</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="334" spans="1:15">
       <c r="A334" s="2" t="s">
-        <v>2496</v>
+        <v>2488</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>2496</v>
+        <v>2488</v>
       </c>
       <c r="O334" s="2" t="s">
-        <v>2497</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="335" spans="1:15">
       <c r="A335" s="2" t="s">
-        <v>2498</v>
+        <v>2490</v>
       </c>
       <c r="O335" s="2" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="336" spans="1:15">
       <c r="A336" s="2" t="s">
-        <v>2500</v>
+        <v>2492</v>
       </c>
       <c r="O336" s="2" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="2" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="O338" s="2" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="2" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
       <c r="O339" s="2" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="2" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
       <c r="O340" s="2" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="2" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="O342" s="2" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="2" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
       <c r="O343" s="2" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="344" spans="1:15">
       <c r="A344" s="2" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="O344" s="2" t="s">
-        <v>2512</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="346" spans="1:15">
       <c r="A346" s="2" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
       <c r="O346" s="2" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="2" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
       <c r="O347" s="2" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="2" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="O348" s="2" t="s">
-        <v>2518</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="2" t="s">
-        <v>2519</v>
+        <v>2511</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="M350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="N350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="O350" s="2" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="351" spans="1:15">
       <c r="A351" s="2" t="s">
-        <v>2521</v>
+        <v>2513</v>
       </c>
       <c r="O351" s="2" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="352" spans="1:15">
       <c r="A352" s="2" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="O352" s="2" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="2" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="O354" s="2" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="355" spans="1:15">
       <c r="A355" s="2" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="O355" s="2" t="s">
-        <v>2528</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="356" spans="1:15">
       <c r="A356" s="2" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="O356" s="2" t="s">
-        <v>2530</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="2" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
       <c r="O358" s="2" t="s">
-        <v>2532</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="2" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>2534</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="2" t="s">
-        <v>2535</v>
+        <v>2527</v>
       </c>
       <c r="O360" s="2" t="s">
-        <v>2536</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="2" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="O362" s="2" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="2" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
       <c r="O363" s="2" t="s">
-        <v>2540</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="364" spans="1:15">
       <c r="A364" s="2" t="s">
-        <v>2541</v>
+        <v>2533</v>
       </c>
       <c r="O364" s="2" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="366" spans="1:15">
       <c r="A366" s="2" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="O366" s="2" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="367" spans="1:15">
       <c r="A367" s="2" t="s">
-        <v>2545</v>
+        <v>2537</v>
       </c>
       <c r="O367" s="2" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="2" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="O368" s="2" t="s">
-        <v>2548</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="2" t="s">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="O370" s="2" t="s">
-        <v>2549</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="2" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
       <c r="O371" s="2" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="2" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="O372" s="2" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="2" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="O374" s="2" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="375" spans="1:15">
       <c r="A375" s="2" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
       <c r="O375" s="2" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="2" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
       <c r="O376" s="2" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="2" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="O378" s="2" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="2" t="s">
-        <v>2562</v>
+        <v>2554</v>
       </c>
       <c r="O379" s="2" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="2" t="s">
-        <v>2564</v>
+        <v>2556</v>
       </c>
       <c r="O380" s="2" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="2" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
       <c r="O382" s="2" t="s">
-        <v>2567</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="2" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="O383" s="2" t="s">
-        <v>2569</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="2" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="O384" s="2" t="s">
-        <v>2571</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="386" spans="1:15">
       <c r="A386" s="2" t="s">
-        <v>2572</v>
+        <v>2564</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="O386" s="2" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="387" spans="1:15">
       <c r="A387" s="2" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
       <c r="O387" s="2" t="s">
-        <v>2575</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="388" spans="1:15">
       <c r="A388" s="2" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="O388" s="2" t="s">
-        <v>2575</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="390" spans="1:15">
       <c r="A390" s="2" t="s">
-        <v>2577</v>
+        <v>2569</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>2577</v>
+        <v>2569</v>
       </c>
       <c r="O390" s="2" t="s">
-        <v>2578</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="391" spans="1:15">
       <c r="A391" s="2" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="O391" s="2" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="392" spans="1:15">
       <c r="A392" s="2" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="O392" s="2" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="394" spans="1:15">
       <c r="A394" s="2" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="O394" s="2" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="2" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="O395" s="2" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="396" spans="1:15">
       <c r="A396" s="2" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="O396" s="2" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="398" spans="1:15">
       <c r="A398" s="2" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="O398" s="2" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="399" spans="1:15">
       <c r="A399" s="2" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="O399" s="2" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="400" spans="1:15">
       <c r="A400" s="2" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="O400" s="2" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="402" spans="1:15">
       <c r="A402" s="2" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="O402" s="2" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="403" spans="1:15">
       <c r="A403" s="2" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="O403" s="2" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="404" spans="1:15">
       <c r="A404" s="2" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="O404" s="2" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="406" spans="1:15">
       <c r="A406" s="2" t="s">
-        <v>2599</v>
+        <v>2591</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>2599</v>
+        <v>2591</v>
       </c>
       <c r="O406" s="2" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="407" spans="1:15">
       <c r="A407" s="2" t="s">
-        <v>2600</v>
+        <v>2592</v>
       </c>
       <c r="O407" s="2" t="s">
-        <v>2601</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="408" spans="1:15">
       <c r="A408" s="2" t="s">
-        <v>2602</v>
+        <v>2594</v>
       </c>
       <c r="O408" s="2" t="s">
-        <v>2601</v>
+        <v>2593</v>
       </c>
     </row>
   </sheetData>
@@ -39717,830 +39637,830 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="21" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>2031</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>2032</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>2033</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>2034</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>2035</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>2036</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>2037</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>2038</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>2039</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>2040</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>2041</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>2042</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>2043</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>2044</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>2045</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="60" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>2722</v>
+        <v>2714</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>2641</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="60" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>2723</v>
+        <v>2715</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>2642</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="60" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>2724</v>
+        <v>2716</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>2643</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>2725</v>
+        <v>2717</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>1982</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>2726</v>
+        <v>2718</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>2644</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>2639</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>2727</v>
+        <v>2719</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>2645</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="60" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>2728</v>
+        <v>2720</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>2646</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="60" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>2729</v>
+        <v>2721</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>2647</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="60" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>2730</v>
+        <v>2722</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>2648</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="60" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>2731</v>
+        <v>2723</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>2649</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="60" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>2732</v>
+        <v>2724</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>2650</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="60" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>2733</v>
+        <v>2725</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>2651</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="60" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>2734</v>
+        <v>2726</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>2652</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="60" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>2735</v>
+        <v>2727</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>2653</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="60" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>2736</v>
+        <v>2728</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>2654</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="60" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>2737</v>
+        <v>2729</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>2655</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="60" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>2738</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="60" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>2732</v>
+        <v>2724</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>2631</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>2739</v>
+        <v>2731</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="60" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>2740</v>
+        <v>2732</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>2741</v>
+        <v>2733</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>2657</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="60" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>2742</v>
+        <v>2734</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>2658</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="60" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>2743</v>
+        <v>2735</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>2659</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="60" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="60" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>2630</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="60" customHeight="1">
       <c r="A29" s="21" t="s">
+        <v>1855</v>
+      </c>
+      <c r="O29" s="21" t="s">
         <v>1863</v>
-      </c>
-      <c r="O29" s="21" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="60" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>1862</v>
+        <v>1854</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>2660</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="60" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>2744</v>
+        <v>2736</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>2661</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="60" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>2745</v>
+        <v>2737</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>2662</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="60" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>2746</v>
+        <v>2738</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="60" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>2747</v>
+        <v>2739</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>1869</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="60" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>2748</v>
+        <v>2740</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="60" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>2749</v>
+        <v>2741</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>2663</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="60" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>2750</v>
+        <v>2742</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>2664</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="60" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>2751</v>
+        <v>2743</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="60" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>2752</v>
+        <v>2744</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>2666</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="60" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>2753</v>
+        <v>2745</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>2667</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="60" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>2754</v>
+        <v>2746</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>2668</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="60" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>2755</v>
+        <v>2747</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>2669</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="60" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>2756</v>
+        <v>2748</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>2670</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="60" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>2757</v>
+        <v>2749</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>2671</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="60" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>2758</v>
+        <v>2750</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>2672</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="60" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>2759</v>
+        <v>2751</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>2637</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="60" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>2760</v>
+        <v>2752</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>2673</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="60" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>2761</v>
+        <v>2753</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>2674</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="60" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>2762</v>
+        <v>2754</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>2675</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="60" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>2763</v>
+        <v>2755</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>2676</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="60" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>2764</v>
+        <v>2756</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>2677</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="60" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>2765</v>
+        <v>2757</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>2678</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="60" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>2766</v>
+        <v>2758</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="60" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>2767</v>
+        <v>2759</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>2680</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="60" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>2681</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="60" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>2769</v>
+        <v>2761</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>2682</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="60" customHeight="1">
       <c r="A58" s="21" t="s">
-        <v>2770</v>
+        <v>2762</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>2683</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="60" customHeight="1">
       <c r="A59" s="21" t="s">
-        <v>2771</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="60" customHeight="1">
       <c r="A60" s="21" t="s">
-        <v>2772</v>
+        <v>2764</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>2684</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="60" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>2773</v>
+        <v>2765</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="60" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>2685</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="60" customHeight="1">
       <c r="A63" s="21" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>2686</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="60" customHeight="1">
       <c r="A64" s="21" t="s">
-        <v>2775</v>
+        <v>2767</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>2687</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="60" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>2776</v>
+        <v>2768</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>2688</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="60" customHeight="1">
       <c r="A66" s="21" t="s">
-        <v>2777</v>
+        <v>2769</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>2689</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>2778</v>
+        <v>2770</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>2690</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="60" customHeight="1">
       <c r="A68" s="21" t="s">
-        <v>2779</v>
+        <v>2771</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>2691</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="60" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>2780</v>
+        <v>2772</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="60" customHeight="1">
       <c r="A70" s="21" t="s">
-        <v>2781</v>
+        <v>2773</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>2692</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="60" customHeight="1">
       <c r="A71" s="21" t="s">
-        <v>2782</v>
+        <v>2774</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>2693</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="60" customHeight="1">
       <c r="A72" s="21" t="s">
-        <v>2783</v>
+        <v>2775</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>2694</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="60" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>2784</v>
+        <v>2776</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>2695</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="60" customHeight="1">
       <c r="A74" s="21" t="s">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="60" customHeight="1">
       <c r="A76" s="21" t="s">
-        <v>2785</v>
+        <v>2777</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>2636</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="60" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>2786</v>
+        <v>2778</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="60" customHeight="1">
       <c r="A78" s="21" t="s">
-        <v>2787</v>
+        <v>2779</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>2697</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="60" customHeight="1">
       <c r="A79" s="21" t="s">
-        <v>2788</v>
+        <v>2780</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>2698</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="60" customHeight="1">
       <c r="A80" s="21" t="s">
-        <v>2789</v>
+        <v>2781</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>2699</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="60" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>2790</v>
+        <v>2782</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>2700</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="60" customHeight="1">
       <c r="A82" s="21" t="s">
-        <v>2791</v>
+        <v>2783</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>2701</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="60" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>2792</v>
+        <v>2784</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>2702</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="60" customHeight="1">
       <c r="A84" s="21" t="s">
-        <v>2793</v>
+        <v>2785</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>2703</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="60" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>2794</v>
+        <v>2786</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>2704</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="60" customHeight="1">
       <c r="A86" s="21" t="s">
-        <v>2795</v>
+        <v>2787</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>2705</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="60" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>2796</v>
+        <v>2788</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>2706</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="60" customHeight="1">
       <c r="A88" s="21" t="s">
-        <v>2797</v>
+        <v>2789</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>2707</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="60" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>2798</v>
+        <v>2790</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>2708</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="60" customHeight="1">
       <c r="A90" s="21" t="s">
-        <v>2799</v>
+        <v>2791</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>2709</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="60" customHeight="1">
       <c r="A91" s="21" t="s">
-        <v>2800</v>
+        <v>2792</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>2710</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="60" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>2801</v>
+        <v>2793</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>2711</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="60" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>2802</v>
+        <v>2794</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>2712</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" customHeight="1">
       <c r="A94" s="21" t="s">
-        <v>2803</v>
+        <v>2795</v>
       </c>
       <c r="O94" s="21" t="s">
-        <v>2713</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="60" customHeight="1">
       <c r="A95" s="21" t="s">
-        <v>2804</v>
+        <v>2796</v>
       </c>
       <c r="O95" s="21" t="s">
-        <v>2714</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="60" customHeight="1">
       <c r="A96" s="21" t="s">
-        <v>2805</v>
+        <v>2797</v>
       </c>
       <c r="O96" s="21" t="s">
-        <v>2715</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="60" customHeight="1">
       <c r="A97" s="21" t="s">
-        <v>2806</v>
+        <v>2798</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>2716</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" customHeight="1">
       <c r="A98" s="21" t="s">
-        <v>2807</v>
+        <v>2799</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>2717</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" customHeight="1">
       <c r="A99" s="21" t="s">
-        <v>2808</v>
+        <v>2800</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>2718</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" customHeight="1">
       <c r="A100" s="21" t="s">
-        <v>2809</v>
+        <v>2801</v>
       </c>
       <c r="O100" s="21" t="s">
-        <v>2719</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="60" customHeight="1">
       <c r="A101" s="21" t="s">
-        <v>2810</v>
+        <v>2802</v>
       </c>
       <c r="O101" s="21" t="s">
-        <v>2720</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="60" customHeight="1">
       <c r="A102" s="21" t="s">
-        <v>2811</v>
+        <v>2803</v>
       </c>
       <c r="O102" s="21" t="s">
-        <v>2721</v>
+        <v>2713</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2E6EB-2806-4388-BC2B-E3B122017B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22706705-287B-4AB4-ACD2-EA19CDF41372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="540" windowWidth="25635" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Role Description" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1367</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="2820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="2822">
   <si>
     <t>English</t>
   </si>
@@ -24440,6 +24440,14 @@
   </si>
   <si>
     <t>Number of Guesses Doomsayer Need To Win</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mayorVote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>市长票数</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -25209,11 +25217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1663"/>
+  <dimension ref="A1:Q1664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B428" sqref="B428"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A453" sqref="A453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -29645,2022 +29653,2027 @@
       </c>
     </row>
     <row r="452" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A452" s="11" t="s">
+      <c r="A452" s="3" t="s">
+        <v>2820</v>
+      </c>
+      <c r="O452" s="17" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A453" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="B452" s="11"/>
-      <c r="O452" s="3" t="s">
+      <c r="B453" s="11"/>
+      <c r="O453" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A453" s="17" t="s">
+    <row r="454" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A454" s="17" t="s">
         <v>2603</v>
       </c>
-      <c r="B453" s="17"/>
-      <c r="O453" s="17" t="s">
+      <c r="B454" s="17"/>
+      <c r="O454" s="17" t="s">
         <v>2604</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A454" s="11"/>
-      <c r="B454" s="11"/>
-      <c r="O454" s="3"/>
-    </row>
     <row r="455" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A455" s="11" t="s">
+      <c r="A455" s="11"/>
+      <c r="B455" s="11"/>
+      <c r="O455" s="3"/>
+    </row>
+    <row r="456" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A456" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="B455" s="17" t="s">
+      <c r="B456" s="17" t="s">
         <v>1812</v>
       </c>
-      <c r="O455" s="3" t="s">
+      <c r="O456" s="3" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A456" s="17" t="s">
+    <row r="457" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A457" s="17" t="s">
         <v>1810</v>
       </c>
-      <c r="B456" s="17" t="s">
+      <c r="B457" s="17" t="s">
         <v>1811</v>
       </c>
-      <c r="O456" s="3" t="s">
+      <c r="O457" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A457" s="3" t="s">
+    <row r="458" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A458" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="B458" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="O457" s="3" t="s">
+      <c r="O458" s="3" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O458" s="3"/>
-    </row>
     <row r="459" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A459" s="11" t="s">
+      <c r="O459" s="3"/>
+    </row>
+    <row r="460" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A460" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B460" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="O459" s="3" t="s">
+      <c r="O460" s="3" t="s">
         <v>882</v>
-      </c>
-    </row>
-    <row r="460" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A460" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="O460" s="3" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="461" spans="1:15" ht="24.95" customHeight="1">
       <c r="A461" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="O461" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A462" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B462" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="O461" s="3" t="s">
+      <c r="O462" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A462" s="17" t="s">
+    <row r="463" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A463" s="17" t="s">
         <v>1807</v>
       </c>
-      <c r="B462" s="17" t="s">
+      <c r="B463" s="17" t="s">
         <v>1809</v>
       </c>
-      <c r="O462" s="17" t="s">
+      <c r="O463" s="17" t="s">
         <v>1808</v>
-      </c>
-    </row>
-    <row r="463" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A463" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="O463" s="3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="464" spans="1:15" ht="24.95" customHeight="1">
       <c r="A464" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="O464" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A465" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="B464" s="3" t="s">
+      <c r="B465" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="O464" s="3" t="s">
+      <c r="O465" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O465" s="3"/>
-    </row>
     <row r="466" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A466" s="3" t="s">
+      <c r="O466" s="3"/>
+    </row>
+    <row r="467" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A467" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B467" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="O466" s="3" t="s">
+      <c r="O467" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O467" s="3"/>
-    </row>
     <row r="468" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A468" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="O468" s="3" t="s">
-        <v>900</v>
-      </c>
+      <c r="O468" s="3"/>
     </row>
     <row r="469" spans="1:15" ht="24.95" customHeight="1">
       <c r="A469" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="O469" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A470" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B470" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="O469" s="3" t="s">
+      <c r="O470" s="3" t="s">
         <v>903</v>
-      </c>
-    </row>
-    <row r="470" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A470" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="B470" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="O470" s="3" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="471" spans="1:15" ht="24.95" customHeight="1">
       <c r="A471" s="11" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B471" s="11" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="O471" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="472" spans="1:15" ht="24.95" customHeight="1">
       <c r="A472" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B472" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="O472" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A473" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="B472" s="3" t="s">
+      <c r="B473" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="O472" s="3" t="s">
+      <c r="O473" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A473" s="3" t="s">
+    <row r="474" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A474" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B474" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="O473" s="3" t="s">
+      <c r="O474" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A474" s="11" t="s">
+    <row r="475" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A475" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="B474" s="17" t="s">
+      <c r="B475" s="17" t="s">
         <v>1954</v>
       </c>
-      <c r="O474" s="17" t="s">
+      <c r="O475" s="17" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A475" s="11"/>
-      <c r="B475" s="11"/>
-      <c r="O475" s="3"/>
-    </row>
     <row r="476" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A476" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="B476" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="O476" s="3" t="s">
-        <v>918</v>
-      </c>
+      <c r="A476" s="11"/>
+      <c r="B476" s="11"/>
+      <c r="O476" s="3"/>
     </row>
     <row r="477" spans="1:15" ht="24.95" customHeight="1">
       <c r="A477" s="11" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B477" s="11" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="O477" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="478" spans="1:15" ht="24.95" customHeight="1">
       <c r="A478" s="11" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B478" s="11" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="O478" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="479" spans="1:15" ht="24.95" customHeight="1">
       <c r="A479" s="11" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B479" s="11" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="O479" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="480" spans="1:15" ht="24.95" customHeight="1">
       <c r="A480" s="11" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B480" s="11" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="O480" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="481" spans="1:15" ht="24.95" customHeight="1">
       <c r="A481" s="11" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B481" s="11" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="O481" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="482" spans="1:15" ht="24.95" customHeight="1">
       <c r="A482" s="11" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B482" s="11" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="O482" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="483" spans="1:15" ht="24.95" customHeight="1">
       <c r="A483" s="11" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B483" s="11" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="O483" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="484" spans="1:15" ht="24.95" customHeight="1">
       <c r="A484" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="B484" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="O484" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A485" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="B484" s="11" t="s">
+      <c r="B485" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="O484" s="3" t="s">
+      <c r="O485" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A485" s="11"/>
-      <c r="B485" s="11"/>
-      <c r="O485" s="3"/>
-    </row>
     <row r="486" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A486" s="17" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B486" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="O486" s="3" t="s">
-        <v>944</v>
-      </c>
+      <c r="A486" s="11"/>
+      <c r="B486" s="11"/>
+      <c r="O486" s="3"/>
     </row>
     <row r="487" spans="1:15" ht="24.95" customHeight="1">
       <c r="A487" s="17" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B487" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="O487" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A488" s="17" t="s">
         <v>1939</v>
       </c>
-      <c r="B487" s="11"/>
-      <c r="O487" s="17" t="s">
+      <c r="B488" s="11"/>
+      <c r="O488" s="17" t="s">
         <v>1940</v>
-      </c>
-    </row>
-    <row r="488" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A488" s="11" t="s">
-        <v>945</v>
-      </c>
-      <c r="B488" s="11" t="s">
-        <v>946</v>
-      </c>
-      <c r="O488" s="3" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="489" spans="1:15" ht="24.95" customHeight="1">
       <c r="A489" s="11" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B489" s="11" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O489" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="490" spans="1:15" ht="24.95" customHeight="1">
       <c r="A490" s="11" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B490" s="11" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="O490" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="491" spans="1:15" ht="24.95" customHeight="1">
       <c r="A491" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="B491" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="O491" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A492" s="11" t="s">
         <v>954</v>
       </c>
-      <c r="B491" s="17" t="s">
+      <c r="B492" s="17" t="s">
         <v>1933</v>
       </c>
-      <c r="O491" s="3" t="s">
+      <c r="O492" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A492" s="11"/>
-      <c r="B492" s="11"/>
-      <c r="O492" s="3"/>
-    </row>
     <row r="493" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A493" s="3" t="s">
+      <c r="A493" s="11"/>
+      <c r="B493" s="11"/>
+      <c r="O493" s="3"/>
+    </row>
+    <row r="494" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A494" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="B493" s="11" t="s">
+      <c r="B494" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="O493" s="3" t="s">
+      <c r="O494" s="3" t="s">
         <v>958</v>
-      </c>
-    </row>
-    <row r="494" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A494" s="11" t="s">
-        <v>959</v>
-      </c>
-      <c r="B494" s="11" t="s">
-        <v>960</v>
-      </c>
-      <c r="O494" s="3" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="495" spans="1:15" ht="24.95" customHeight="1">
       <c r="A495" s="11" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B495" s="11" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="O495" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="496" spans="1:15" ht="24.95" customHeight="1">
       <c r="A496" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="B496" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="O496" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A497" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B497" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="O496" s="3" t="s">
+      <c r="O497" s="3" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A497" s="3" t="s">
+    <row r="498" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A498" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="B497" s="3" t="s">
+      <c r="B498" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="O497" s="3" t="s">
+      <c r="O498" s="3" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A498" s="17" t="s">
+    <row r="499" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A499" s="17" t="s">
         <v>2598</v>
       </c>
-      <c r="B498" s="17" t="s">
+      <c r="B499" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="O498" s="3" t="s">
+      <c r="O499" s="3" t="s">
         <v>973</v>
-      </c>
-    </row>
-    <row r="499" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A499" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="B499" s="17" t="s">
-        <v>972</v>
-      </c>
-      <c r="O499" s="17" t="s">
-        <v>2599</v>
       </c>
     </row>
     <row r="500" spans="1:15" ht="24.95" customHeight="1">
       <c r="A500" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="O500" s="3" t="s">
-        <v>976</v>
+        <v>971</v>
+      </c>
+      <c r="B500" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="O500" s="17" t="s">
+        <v>2599</v>
       </c>
     </row>
     <row r="501" spans="1:15" ht="24.95" customHeight="1">
       <c r="A501" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="O501" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A502" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B502" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="O501" s="3" t="s">
+      <c r="O502" s="3" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A502" s="17" t="s">
+    <row r="503" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A503" s="17" t="s">
         <v>1941</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B503" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="O502" s="3" t="s">
+      <c r="O503" s="3" t="s">
         <v>981</v>
-      </c>
-    </row>
-    <row r="503" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A503" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="B503" s="18" t="s">
-        <v>2600</v>
-      </c>
-      <c r="O503" s="3" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="504" spans="1:15" ht="24.95" customHeight="1">
       <c r="A504" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="B504" s="18" t="s">
+        <v>2600</v>
+      </c>
+      <c r="O504" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A505" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B505" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="O504" s="3" t="s">
+      <c r="O505" s="3" t="s">
         <v>986</v>
-      </c>
-    </row>
-    <row r="505" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A505" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="B505" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="O505" s="3" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="506" spans="1:15" ht="24.95" customHeight="1">
       <c r="A506" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B506" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="O506" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A507" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="B506" s="11" t="s">
+      <c r="B507" s="11" t="s">
         <v>2601</v>
       </c>
-      <c r="O506" s="3" t="s">
+      <c r="O507" s="3" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B507" s="11"/>
-      <c r="O507" s="3"/>
-    </row>
     <row r="508" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A508" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="O508" s="3" t="s">
-        <v>998</v>
-      </c>
+      <c r="B508" s="11"/>
+      <c r="O508" s="3"/>
     </row>
     <row r="509" spans="1:15" ht="24.95" customHeight="1">
       <c r="A509" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="B509" s="11" t="s">
-        <v>1000</v>
+        <v>996</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>997</v>
       </c>
       <c r="O509" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="510" spans="1:15" ht="24.95" customHeight="1">
       <c r="A510" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B510" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O510" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A511" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="B510" s="11" t="s">
+      <c r="B511" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="O510" s="3" t="s">
+      <c r="O511" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O511" s="3"/>
-    </row>
     <row r="512" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A512" s="17" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B512" s="11" t="s">
-        <v>1005</v>
-      </c>
-      <c r="O512" s="3" t="s">
-        <v>1006</v>
-      </c>
+      <c r="O512" s="3"/>
     </row>
     <row r="513" spans="1:15" ht="24.95" customHeight="1">
       <c r="A513" s="17" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B513" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O513" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A514" s="17" t="s">
         <v>1822</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B514" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="O513" s="3" t="s">
+      <c r="O514" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O514" s="3"/>
-    </row>
     <row r="515" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A515" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="O515" s="3" t="s">
-        <v>828</v>
-      </c>
+      <c r="O515" s="3"/>
     </row>
     <row r="516" spans="1:15" ht="24.95" customHeight="1">
       <c r="A516" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="O516" s="3" t="s">
-        <v>1013</v>
+        <v>828</v>
       </c>
     </row>
     <row r="517" spans="1:15" ht="24.95" customHeight="1">
       <c r="A517" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="O517" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="518" spans="1:15" ht="24.95" customHeight="1">
       <c r="A518" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="O518" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="519" spans="1:15" ht="24.95" customHeight="1">
       <c r="A519" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O519" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A520" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="B519" s="3" t="s">
+      <c r="B520" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="O519" s="3" t="s">
+      <c r="O520" s="3" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O520" s="3"/>
-    </row>
     <row r="521" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A521" s="3" t="s">
+      <c r="O521" s="3"/>
+    </row>
+    <row r="522" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A522" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B522" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="O521" s="3" t="s">
+      <c r="O522" s="3" t="s">
         <v>1037</v>
-      </c>
-    </row>
-    <row r="522" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A522" s="11" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="O522" s="3" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="523" spans="1:15" ht="24.95" customHeight="1">
       <c r="A523" s="11" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="O523" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="524" spans="1:15" ht="24.95" customHeight="1">
       <c r="A524" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O524" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A525" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="B524" s="3" t="s">
+      <c r="B525" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="O524" s="3" t="s">
+      <c r="O525" s="3" t="s">
         <v>1046</v>
-      </c>
-    </row>
-    <row r="525" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A525" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B525" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="O525" s="3" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="526" spans="1:15" ht="24.95" customHeight="1">
       <c r="A526" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O526" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A527" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="B526" s="3" t="s">
+      <c r="B527" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="O526" s="3" t="s">
+      <c r="O527" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O527" s="3"/>
-    </row>
     <row r="528" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A528" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="O528" s="3" t="s">
-        <v>1055</v>
-      </c>
+      <c r="O528" s="3"/>
     </row>
     <row r="529" spans="1:15" ht="24.95" customHeight="1">
       <c r="A529" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="O529" s="3" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="530" spans="1:15" ht="24.95" customHeight="1">
       <c r="A530" s="3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="O530" s="3" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="531" spans="1:15" ht="24.95" customHeight="1">
       <c r="A531" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O531" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A532" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="B531" s="3" t="s">
+      <c r="B532" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="O531" s="3" t="s">
+      <c r="O532" s="3" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A532" s="11" t="s">
+    <row r="533" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A533" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="B532" s="3" t="s">
+      <c r="B533" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="O532" s="3" t="s">
+      <c r="O533" s="3" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A533" s="3" t="s">
+    <row r="534" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A534" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B533" s="3" t="s">
+      <c r="B534" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="O533" s="3" t="s">
+      <c r="O534" s="3" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O534" s="3"/>
-    </row>
     <row r="535" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A535" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="O535" s="3" t="s">
-        <v>669</v>
-      </c>
+      <c r="O535" s="3"/>
     </row>
     <row r="536" spans="1:15" ht="24.95" customHeight="1">
       <c r="A536" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="O536" s="3" t="s">
-        <v>1073</v>
+        <v>669</v>
       </c>
     </row>
     <row r="537" spans="1:15" ht="24.95" customHeight="1">
       <c r="A537" s="3" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="O537" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="538" spans="1:15" ht="24.95" customHeight="1">
       <c r="A538" s="3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="O538" s="3" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="539" spans="1:15" ht="24.95" customHeight="1">
       <c r="A539" s="3" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="O539" s="3" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="540" spans="1:15" ht="24.95" customHeight="1">
       <c r="A540" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O540" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A541" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="B540" s="3" t="s">
+      <c r="B541" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="O540" s="3" t="s">
+      <c r="O541" s="3" t="s">
         <v>1085</v>
-      </c>
-    </row>
-    <row r="541" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A541" s="11" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B541" s="11" t="s">
-        <v>1087</v>
-      </c>
-      <c r="O541" s="3" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="542" spans="1:15" ht="24.95" customHeight="1">
       <c r="A542" s="11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>1090</v>
+        <v>1086</v>
+      </c>
+      <c r="B542" s="11" t="s">
+        <v>1087</v>
       </c>
       <c r="O542" s="3" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="543" spans="1:15" ht="24.95" customHeight="1">
       <c r="A543" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O543" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A544" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="B543" s="3" t="s">
+      <c r="B544" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="O543" s="3" t="s">
+      <c r="O544" s="3" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O544" s="3"/>
-    </row>
     <row r="545" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A545" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B545" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="O545" s="3" t="s">
-        <v>1097</v>
-      </c>
+      <c r="O545" s="3"/>
     </row>
     <row r="546" spans="1:15" ht="24.95" customHeight="1">
       <c r="A546" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="O546" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="547" spans="1:15" ht="24.95" customHeight="1">
       <c r="A547" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B547" s="11" t="s">
-        <v>1102</v>
-      </c>
-      <c r="O547" s="17" t="s">
-        <v>2602</v>
+        <v>1098</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O547" s="3" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="548" spans="1:15" ht="24.95" customHeight="1">
       <c r="A548" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B548" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="O548" s="17" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A549" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="B548" s="3" t="s">
+      <c r="B549" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="O548" s="3" t="s">
+      <c r="O549" s="3" t="s">
         <v>1105</v>
-      </c>
-    </row>
-    <row r="549" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A549" s="11" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B549" s="11" t="s">
-        <v>1107</v>
-      </c>
-      <c r="O549" s="3" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="550" spans="1:15" ht="24.95" customHeight="1">
       <c r="A550" s="11" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>87</v>
+        <v>1106</v>
+      </c>
+      <c r="B550" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="O550" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="551" spans="1:15" ht="24.95" customHeight="1">
       <c r="A551" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O551" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A552" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B552" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="O551" s="3" t="s">
+      <c r="O552" s="3" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A552" s="3" t="s">
+    <row r="553" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A553" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B553" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="O552" s="3" t="s">
+      <c r="O553" s="3" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O553" s="3"/>
-    </row>
     <row r="554" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A554" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>1922</v>
-      </c>
-      <c r="O554" s="3" t="s">
-        <v>1118</v>
-      </c>
+      <c r="O554" s="3"/>
     </row>
     <row r="555" spans="1:15" ht="24.95" customHeight="1">
       <c r="A555" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="O555" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="556" spans="1:15" ht="24.95" customHeight="1">
       <c r="A556" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
       <c r="O556" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="557" spans="1:15" ht="24.95" customHeight="1">
       <c r="A557" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="O557" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="558" spans="1:15" ht="24.95" customHeight="1">
       <c r="A558" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="O558" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="559" spans="1:15" ht="24.95" customHeight="1">
       <c r="A559" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="O559" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A560" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="B559" s="17" t="s">
+      <c r="B560" s="17" t="s">
         <v>1926</v>
       </c>
-      <c r="O559" s="17" t="s">
+      <c r="O560" s="17" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A560" s="17" t="s">
+    <row r="561" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A561" s="17" t="s">
         <v>1927</v>
       </c>
-      <c r="B560" s="17" t="s">
+      <c r="B561" s="17" t="s">
         <v>1928</v>
       </c>
-      <c r="O560" s="17" t="s">
+      <c r="O561" s="17" t="s">
         <v>1864</v>
-      </c>
-    </row>
-    <row r="561" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A561" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B561" s="17" t="s">
-        <v>1924</v>
-      </c>
-      <c r="O561" s="17" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="562" spans="1:15" ht="24.95" customHeight="1">
       <c r="A562" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B562" s="17" t="s">
+        <v>1924</v>
+      </c>
+      <c r="O562" s="17" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A563" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="B562" s="17" t="s">
+      <c r="B563" s="17" t="s">
         <v>1925</v>
       </c>
-      <c r="O562" s="17" t="s">
+      <c r="O563" s="17" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B563" s="17"/>
-      <c r="O563" s="17"/>
-    </row>
     <row r="564" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A564" s="17" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B564" s="17" t="s">
-        <v>1985</v>
-      </c>
-      <c r="O564" s="17" t="s">
-        <v>2002</v>
-      </c>
+      <c r="B564" s="17"/>
+      <c r="O564" s="17"/>
     </row>
     <row r="565" spans="1:15" ht="24.95" customHeight="1">
       <c r="A565" s="17" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B565" s="17" t="s">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="O565" s="17" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="566" spans="1:15" ht="24.95" customHeight="1">
       <c r="A566" s="17" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B566" s="17" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O566" s="17" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="567" spans="1:15" ht="24.95" customHeight="1">
       <c r="A567" s="17" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B567" s="17" t="s">
+        <v>1999</v>
+      </c>
+      <c r="O567" s="17" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A568" s="17" t="s">
         <v>2003</v>
       </c>
-      <c r="B567" s="17" t="s">
+      <c r="B568" s="17" t="s">
         <v>2004</v>
       </c>
-      <c r="O567" s="17" t="s">
+      <c r="O568" s="17" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O568" s="3"/>
-    </row>
     <row r="569" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A569" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B569" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="O569" s="3" t="s">
-        <v>1132</v>
-      </c>
+      <c r="O569" s="3"/>
     </row>
     <row r="570" spans="1:15" ht="24.95" customHeight="1">
       <c r="A570" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="O570" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="571" spans="1:15" ht="24.95" customHeight="1">
       <c r="A571" s="3" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="O571" s="3" t="s">
-        <v>817</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="572" spans="1:15" ht="24.95" customHeight="1">
       <c r="A572" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="O572" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A573" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B572" s="3" t="s">
+      <c r="B573" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="O572" s="17" t="s">
+      <c r="O573" s="17" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O573" s="3"/>
-    </row>
     <row r="574" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A574" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B574" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="O574" s="3" t="s">
-        <v>1142</v>
-      </c>
+      <c r="O574" s="3"/>
     </row>
     <row r="575" spans="1:15" ht="24.95" customHeight="1">
       <c r="A575" s="3" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="O575" s="3" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="576" spans="1:15" ht="24.95" customHeight="1">
       <c r="A576" s="3" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="O576" s="3" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="577" spans="1:15" ht="24.95" customHeight="1">
       <c r="A577" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="O577" s="3" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="578" spans="1:15" ht="24.95" customHeight="1">
       <c r="A578" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O578" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A579" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="B578" s="3" t="s">
+      <c r="B579" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="O578" s="3" t="s">
+      <c r="O579" s="3" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O579" s="3"/>
-    </row>
     <row r="580" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A580" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B580" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="O580" s="3" t="s">
-        <v>1157</v>
-      </c>
+      <c r="O580" s="3"/>
     </row>
     <row r="581" spans="1:15" ht="24.95" customHeight="1">
       <c r="A581" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B581" s="11" t="s">
-        <v>1159</v>
+        <v>1155</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>1156</v>
       </c>
       <c r="O581" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="582" spans="1:15" ht="24.95" customHeight="1">
       <c r="A582" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B582" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
+      </c>
+      <c r="B582" s="11" t="s">
+        <v>1159</v>
       </c>
       <c r="O582" s="3" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="583" spans="1:15" ht="24.95" customHeight="1">
       <c r="A583" s="3" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="O583" s="3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="584" spans="1:15" ht="24.95" customHeight="1">
       <c r="A584" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="O584" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="585" spans="1:15" ht="24.95" customHeight="1">
       <c r="A585" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="O585" s="3" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="586" spans="1:15" ht="24.95" customHeight="1">
       <c r="A586" s="3" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1021</v>
+        <v>1171</v>
       </c>
       <c r="O586" s="3" t="s">
-        <v>1022</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="587" spans="1:15" ht="24.95" customHeight="1">
       <c r="A587" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O587" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A588" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B587" s="3" t="s">
+      <c r="B588" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="O587" s="3" t="s">
+      <c r="O588" s="3" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O588" s="3"/>
-    </row>
     <row r="589" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A589" s="11" t="s">
+      <c r="O589" s="3"/>
+    </row>
+    <row r="590" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A590" s="11" t="s">
         <v>1177</v>
       </c>
-      <c r="B589" s="3" t="s">
+      <c r="B590" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="O589" s="3" t="s">
+      <c r="O590" s="3" t="s">
         <v>1179</v>
-      </c>
-    </row>
-    <row r="590" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A590" s="3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B590" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="O590" s="3" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="591" spans="1:15" ht="24.95" customHeight="1">
       <c r="A591" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="O591" s="3" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="592" spans="1:15" ht="24.95" customHeight="1">
       <c r="A592" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O592" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="593" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A593" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="B592" s="3" t="s">
+      <c r="B593" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="O592" s="3" t="s">
+      <c r="O593" s="3" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O593" s="3"/>
-    </row>
     <row r="594" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A594" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B594" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O594" s="3" t="s">
-        <v>1191</v>
-      </c>
+      <c r="O594" s="3"/>
     </row>
     <row r="595" spans="1:15" ht="24.95" customHeight="1">
       <c r="A595" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>632</v>
+        <v>1190</v>
       </c>
       <c r="O595" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="596" spans="1:15" ht="24.95" customHeight="1">
       <c r="A596" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="O596" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="597" spans="1:15" ht="24.95" customHeight="1">
       <c r="A597" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="O597" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="598" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A598" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="B597" s="3" t="s">
+      <c r="B598" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="O597" s="3" t="s">
+      <c r="O598" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O598" s="3"/>
-    </row>
     <row r="599" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A599" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B599" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="O599" s="3" t="s">
-        <v>976</v>
-      </c>
+      <c r="O599" s="3"/>
     </row>
     <row r="600" spans="1:15" ht="24.95" customHeight="1">
       <c r="A600" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1199</v>
+        <v>975</v>
       </c>
       <c r="O600" s="3" t="s">
-        <v>1043</v>
+        <v>976</v>
       </c>
     </row>
     <row r="601" spans="1:15" ht="24.95" customHeight="1">
       <c r="A601" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O601" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="602" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A602" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="O601" s="3" t="s">
+      <c r="O602" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O602" s="3"/>
-    </row>
     <row r="603" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A603" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B603" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="O603" s="3" t="s">
-        <v>1204</v>
-      </c>
+      <c r="O603" s="3"/>
     </row>
     <row r="604" spans="1:15" ht="24.95" customHeight="1">
       <c r="A604" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="O604" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="605" spans="1:15" ht="24.95" customHeight="1">
       <c r="A605" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1021</v>
+        <v>1206</v>
       </c>
       <c r="O605" s="3" t="s">
-        <v>1022</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="606" spans="1:15" ht="24.95" customHeight="1">
       <c r="A606" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1210</v>
+        <v>1021</v>
       </c>
       <c r="O606" s="3" t="s">
-        <v>1211</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="607" spans="1:15" ht="24.95" customHeight="1">
       <c r="A607" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O607" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="608" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A608" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="B607" s="3" t="s">
+      <c r="B608" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="O607" s="3" t="s">
+      <c r="O608" s="3" t="s">
         <v>1214</v>
-      </c>
-    </row>
-    <row r="608" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A608" s="11" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B608" s="17" t="s">
-        <v>1984</v>
-      </c>
-      <c r="O608" s="3" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="609" spans="1:15" ht="24.95" customHeight="1">
       <c r="A609" s="11" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B609" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
+      </c>
+      <c r="B609" s="17" t="s">
+        <v>1984</v>
       </c>
       <c r="O609" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="610" spans="1:15" ht="24.95" customHeight="1">
       <c r="A610" s="11" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="O610" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="611" spans="1:15" ht="24.95" customHeight="1">
       <c r="A611" s="11" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="O611" s="3" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="612" spans="1:15" ht="24.95" customHeight="1">
       <c r="A612" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O612" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="613" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A613" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="B612" s="3" t="s">
+      <c r="B613" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="O612" s="3" t="s">
+      <c r="O613" s="3" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O613" s="3"/>
-    </row>
     <row r="614" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A614" s="3" t="s">
+      <c r="O614" s="3"/>
+    </row>
+    <row r="615" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A615" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="B614" s="17" t="s">
+      <c r="B615" s="17" t="s">
         <v>1919</v>
       </c>
-      <c r="O614" s="3" t="s">
+      <c r="O615" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O615" s="3"/>
-    </row>
     <row r="616" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A616" s="3" t="s">
+      <c r="O616" s="3"/>
+    </row>
+    <row r="617" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A617" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="B616" s="3" t="s">
+      <c r="B617" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="O616" s="3" t="s">
+      <c r="O617" s="3" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O617" s="3"/>
-    </row>
     <row r="618" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A618" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B618" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="O618" s="3" t="s">
-        <v>1236</v>
-      </c>
+      <c r="O618" s="3"/>
     </row>
     <row r="619" spans="1:15" ht="24.95" customHeight="1">
       <c r="A619" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O619" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="620" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A620" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="B619" s="3" t="s">
+      <c r="B620" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="O619" s="3" t="s">
+      <c r="O620" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O620" s="3"/>
-    </row>
     <row r="621" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A621" s="3" t="s">
+      <c r="O621" s="3"/>
+    </row>
+    <row r="622" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A622" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="B621" s="3" t="s">
+      <c r="B622" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="O621" s="3" t="s">
+      <c r="O622" s="3" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O622" s="3"/>
-    </row>
     <row r="623" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A623" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O623" s="3" t="s">
-        <v>1244</v>
-      </c>
+      <c r="O623" s="3"/>
     </row>
     <row r="624" spans="1:15" ht="24.95" customHeight="1">
       <c r="A624" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="O624" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="625" spans="1:15" ht="24.95" customHeight="1">
       <c r="A625" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="O625" s="3" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="626" spans="1:15" ht="24.95" customHeight="1">
       <c r="A626" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="O626" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="627" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A627" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="B626" s="3" t="s">
+      <c r="B627" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="O626" s="3" t="s">
+      <c r="O627" s="3" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O627" s="3"/>
-    </row>
     <row r="628" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A628" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B628" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="O628" s="3" t="s">
-        <v>1256</v>
-      </c>
+      <c r="O628" s="3"/>
     </row>
     <row r="629" spans="1:15" ht="24.95" customHeight="1">
       <c r="A629" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="O629" s="3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="630" spans="1:15" ht="24.95" customHeight="1">
       <c r="A630" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="O630" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="631" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A631" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="B630" s="3" t="s">
+      <c r="B631" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="O630" s="3" t="s">
+      <c r="O631" s="3" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O631" s="3"/>
-    </row>
     <row r="632" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A632" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B632" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="O632" s="3" t="s">
-        <v>1265</v>
-      </c>
+      <c r="O632" s="3"/>
     </row>
     <row r="633" spans="1:15" ht="24.95" customHeight="1">
       <c r="A633" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O633" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A634" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="B633" s="3" t="s">
+      <c r="B634" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="O633" s="3" t="s">
+      <c r="O634" s="3" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O634" s="3"/>
-    </row>
     <row r="635" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A635" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B635" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="O635" s="3" t="s">
-        <v>1271</v>
-      </c>
+      <c r="O635" s="3"/>
     </row>
     <row r="636" spans="1:15" ht="24.95" customHeight="1">
       <c r="A636" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O636" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="637" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A637" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="B636" s="3" t="s">
+      <c r="B637" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="O636" s="3" t="s">
+      <c r="O637" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O637" s="3"/>
-    </row>
     <row r="638" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A638" s="3" t="s">
+      <c r="O638" s="3"/>
+    </row>
+    <row r="639" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A639" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="O638" s="17" t="s">
+      <c r="O639" s="17" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O639" s="3"/>
-    </row>
     <row r="640" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A640" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B640" s="11" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O640" s="3" t="s">
-        <v>1278</v>
-      </c>
+      <c r="O640" s="3"/>
     </row>
     <row r="641" spans="1:15" ht="24.95" customHeight="1">
       <c r="A641" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B641" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O641" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="642" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A642" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="B641" s="3" t="s">
+      <c r="B642" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="O641" s="3" t="s">
+      <c r="O642" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O642" s="3"/>
-    </row>
     <row r="643" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A643" s="3" t="s">
+      <c r="O643" s="3"/>
+    </row>
+    <row r="644" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A644" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="B643" s="3" t="s">
+      <c r="B644" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="O643" s="3" t="s">
+      <c r="O644" s="3" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O644" s="3"/>
-    </row>
     <row r="645" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A645" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B645" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="O645" s="3" t="s">
-        <v>1287</v>
-      </c>
+      <c r="O645" s="3"/>
     </row>
     <row r="646" spans="1:15" ht="24.95" customHeight="1">
       <c r="A646" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O646" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="647" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A647" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="B646" s="3" t="s">
+      <c r="B647" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="O646" s="3" t="s">
+      <c r="O647" s="3" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O647" s="3"/>
-    </row>
     <row r="648" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A648" s="3" t="s">
+      <c r="O648" s="3"/>
+    </row>
+    <row r="649" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A649" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="B648" s="17" t="s">
+      <c r="B649" s="17" t="s">
         <v>1921</v>
       </c>
-      <c r="O648" s="3" t="s">
+      <c r="O649" s="3" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O649" s="3"/>
-    </row>
     <row r="650" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A650" s="3" t="s">
+      <c r="O650" s="3"/>
+    </row>
+    <row r="651" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A651" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="O650" s="3" t="s">
+      <c r="O651" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O651" s="3"/>
-    </row>
     <row r="652" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A652" s="3" t="s">
+      <c r="O652" s="3"/>
+    </row>
+    <row r="653" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A653" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="B652" s="17" t="s">
+      <c r="B653" s="17" t="s">
         <v>1920</v>
       </c>
-      <c r="O652" s="3" t="s">
+      <c r="O653" s="3" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O653" s="3"/>
-    </row>
     <row r="654" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A654" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B654" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="O654" s="3" t="s">
-        <v>1298</v>
-      </c>
+      <c r="O654" s="3"/>
     </row>
     <row r="655" spans="1:15" ht="24.95" customHeight="1">
       <c r="A655" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="O655" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="656" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A656" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="B655" s="3" t="s">
+      <c r="B656" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="O655" s="3" t="s">
+      <c r="O656" s="3" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O656" s="3"/>
-    </row>
     <row r="657" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A657" s="3" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B657" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="O657" s="3" t="s">
-        <v>1304</v>
-      </c>
+      <c r="O657" s="3"/>
     </row>
     <row r="658" spans="1:15" ht="24.95" customHeight="1">
       <c r="A658" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="O658" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="659" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A659" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="B658" s="3" t="s">
+      <c r="B659" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="O658" s="3" t="s">
+      <c r="O659" s="3" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O659" s="3"/>
-    </row>
     <row r="660" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A660" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B660" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="O660" s="3" t="s">
-        <v>1310</v>
-      </c>
+      <c r="O660" s="3"/>
     </row>
     <row r="661" spans="1:15" ht="24.95" customHeight="1">
       <c r="A661" s="3" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="O661" s="3" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="662" spans="1:15" ht="24.95" customHeight="1">
       <c r="A662" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="O662" s="3" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="663" spans="1:15" ht="24.95" customHeight="1">
       <c r="A663" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O663" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="664" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A664" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="B663" s="3" t="s">
+      <c r="B664" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="O663" s="3" t="s">
+      <c r="O664" s="3" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O664" s="3"/>
-    </row>
     <row r="665" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A665" s="17" t="s">
-        <v>1721</v>
-      </c>
-      <c r="O665" s="17" t="s">
-        <v>1723</v>
-      </c>
+      <c r="O665" s="3"/>
     </row>
     <row r="666" spans="1:15" ht="24.95" customHeight="1">
       <c r="A666" s="17" t="s">
+        <v>1721</v>
+      </c>
+      <c r="O666" s="17" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="667" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A667" s="17" t="s">
         <v>1722</v>
       </c>
-      <c r="O666" s="18" t="s">
+      <c r="O667" s="18" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="667" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O667" s="3"/>
     </row>
     <row r="668" spans="1:15" ht="24.95" customHeight="1">
       <c r="O668" s="3"/>
@@ -31950,8 +31963,8 @@
     <row r="763" spans="15:15" ht="24.95" customHeight="1">
       <c r="O763" s="3"/>
     </row>
-    <row r="765" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O765" s="3"/>
+    <row r="764" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O764" s="3"/>
     </row>
     <row r="766" spans="15:15" ht="24.95" customHeight="1">
       <c r="O766" s="3"/>
@@ -33130,23 +33143,23 @@
       <c r="O1157" s="3"/>
     </row>
     <row r="1158" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1158" s="15"/>
-      <c r="B1158" s="15"/>
-      <c r="D1158" s="15"/>
-      <c r="E1158" s="15"/>
-      <c r="F1158" s="15"/>
-      <c r="G1158" s="15"/>
-      <c r="H1158" s="15"/>
-      <c r="I1158" s="15"/>
-      <c r="J1158" s="15"/>
-      <c r="K1158" s="15"/>
-      <c r="L1158" s="15"/>
-      <c r="M1158" s="15"/>
-      <c r="N1158" s="15"/>
-      <c r="O1158" s="16"/>
+      <c r="O1158" s="3"/>
     </row>
     <row r="1159" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O1159" s="3"/>
+      <c r="A1159" s="15"/>
+      <c r="B1159" s="15"/>
+      <c r="D1159" s="15"/>
+      <c r="E1159" s="15"/>
+      <c r="F1159" s="15"/>
+      <c r="G1159" s="15"/>
+      <c r="H1159" s="15"/>
+      <c r="I1159" s="15"/>
+      <c r="J1159" s="15"/>
+      <c r="K1159" s="15"/>
+      <c r="L1159" s="15"/>
+      <c r="M1159" s="15"/>
+      <c r="N1159" s="15"/>
+      <c r="O1159" s="16"/>
     </row>
     <row r="1160" spans="1:15" ht="24.95" customHeight="1">
       <c r="O1160" s="3"/>
@@ -34660,8 +34673,11 @@
     <row r="1663" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1663" s="3"/>
     </row>
+    <row r="1664" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1664" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1366" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1367" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -36774,8 +36790,8 @@
   <dimension ref="A1:Q408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O161" sqref="O161"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7100E880-852F-4D36-8DE9-3B95817018E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E06FD-9C9D-4EB3-927D-88D2AF16ADAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="2863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="2871">
   <si>
     <t>English</t>
   </si>
@@ -4790,9 +4790,6 @@
   </si>
   <si>
     <t>空包弹</t>
-  </si>
-  <si>
-    <t>WitchText</t>
   </si>
   <si>
     <t>SPELL</t>
@@ -24709,6 +24706,42 @@
 /meeting (mt) 召集/结束会议
 /kill [玩家名称] ：强制击杀玩家
 /revive [玩家名称] ： 强制复活玩家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasksNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务 {0}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tasks {0}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveBombText</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchText</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarlockText</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下咒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -25626,13 +25659,13 @@
     </row>
     <row r="9" spans="1:17" ht="24.75" customHeight="1">
       <c r="A9" s="17" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>2809</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="O9" s="18" t="s">
         <v>2810</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>2811</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1">
@@ -25648,145 +25681,145 @@
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>2800</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>2778</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>2801</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>2779</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
       <c r="A14" s="17" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>2797</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="O14" s="18" t="s">
         <v>2798</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="17" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>2816</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="O20" s="18" t="s">
         <v>2817</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>2805</v>
+      </c>
+      <c r="O23" s="18" t="s">
         <v>2806</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>2807</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
       <c r="A24" s="17" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>2813</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>2812</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>2814</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>2813</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1">
@@ -25827,7 +25860,7 @@
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>46</v>
@@ -25841,7 +25874,7 @@
         <v>102</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>103</v>
@@ -25852,7 +25885,7 @@
         <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>105</v>
@@ -25863,10 +25896,10 @@
         <v>106</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1">
@@ -25874,7 +25907,7 @@
         <v>107</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>108</v>
@@ -25885,7 +25918,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>101</v>
@@ -25918,7 +25951,7 @@
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>54</v>
@@ -25929,10 +25962,10 @@
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -25940,7 +25973,7 @@
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>57</v>
@@ -25951,7 +25984,7 @@
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>59</v>
@@ -25966,7 +25999,7 @@
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>61</v>
@@ -25977,7 +26010,7 @@
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>62</v>
@@ -25988,7 +26021,7 @@
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>63</v>
@@ -25999,7 +26032,7 @@
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>64</v>
@@ -26070,7 +26103,7 @@
         <v>77</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
@@ -26081,7 +26114,7 @@
         <v>79</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
@@ -26125,7 +26158,7 @@
         <v>90</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
@@ -26539,7 +26572,7 @@
         <v>208</v>
       </c>
       <c r="O98" s="17" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1">
@@ -26566,13 +26599,13 @@
     </row>
     <row r="101" spans="1:15" ht="24.95" customHeight="1">
       <c r="A101" s="17" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>215</v>
       </c>
       <c r="O101" s="17" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
@@ -26599,10 +26632,10 @@
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="O104" s="17" t="s">
         <v>1897</v>
-      </c>
-      <c r="O104" s="17" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
@@ -26728,7 +26761,7 @@
         <v>254</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="O116" s="7" t="s">
         <v>255</v>
@@ -26739,7 +26772,7 @@
         <v>256</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>257</v>
@@ -26747,10 +26780,10 @@
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="17" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>259</v>
@@ -26761,10 +26794,10 @@
         <v>258</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="O119" s="17" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
@@ -26772,7 +26805,7 @@
         <v>260</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>261</v>
@@ -26783,7 +26816,7 @@
         <v>262</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>263</v>
@@ -26794,7 +26827,7 @@
         <v>264</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>265</v>
@@ -26805,7 +26838,7 @@
         <v>266</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>267</v>
@@ -26816,7 +26849,7 @@
         <v>268</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>269</v>
@@ -26874,7 +26907,7 @@
         <v>280</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>281</v>
@@ -26929,7 +26962,7 @@
         <v>293</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>294</v>
@@ -26937,10 +26970,10 @@
     </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
       <c r="A136" s="17" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B136" s="17" t="s">
         <v>1830</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>1831</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>295</v>
@@ -26951,7 +26984,7 @@
         <v>296</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>297</v>
@@ -26973,7 +27006,7 @@
         <v>300</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="O139" s="3" t="s">
         <v>301</v>
@@ -26998,7 +27031,7 @@
         <v>305</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>306</v>
@@ -27009,13 +27042,13 @@
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="17" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>307</v>
       </c>
       <c r="O144" s="17" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24.95" customHeight="1">
@@ -27114,7 +27147,7 @@
         <v>333</v>
       </c>
       <c r="O153" s="17" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
@@ -27144,13 +27177,13 @@
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
       <c r="A157" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="O157" s="17" t="s">
         <v>1916</v>
-      </c>
-      <c r="O157" s="17" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
@@ -27161,7 +27194,7 @@
         <v>340</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>341</v>
@@ -27172,7 +27205,7 @@
         <v>342</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>343</v>
@@ -27183,7 +27216,7 @@
         <v>344</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>345</v>
@@ -27194,7 +27227,7 @@
         <v>346</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>347</v>
@@ -27205,32 +27238,32 @@
         <v>348</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="O163" s="17" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="24.95" customHeight="1">
       <c r="A164" s="17" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="O164" s="17" t="s">
         <v>1722</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>1840</v>
-      </c>
-      <c r="O164" s="17" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="24.95" customHeight="1">
       <c r="A165" s="17" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>2569</v>
+      </c>
+      <c r="O165" s="17" t="s">
         <v>2568</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>2570</v>
-      </c>
-      <c r="O165" s="17" t="s">
-        <v>2569</v>
       </c>
     </row>
     <row r="166" spans="1:15" ht="24.95" customHeight="1">
@@ -27238,7 +27271,7 @@
         <v>349</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="O166" s="3" t="s">
         <v>350</v>
@@ -27249,7 +27282,7 @@
         <v>351</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>352</v>
@@ -27260,7 +27293,7 @@
         <v>353</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="O168" s="3" t="s">
         <v>354</v>
@@ -27271,7 +27304,7 @@
         <v>355</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="O169" s="3" t="s">
         <v>356</v>
@@ -27293,7 +27326,7 @@
         <v>359</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>360</v>
@@ -27304,7 +27337,7 @@
         <v>361</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>362</v>
@@ -28121,24 +28154,24 @@
     </row>
     <row r="255" spans="1:15" ht="24.95" customHeight="1">
       <c r="A255" s="17" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B255" s="17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="O255" s="17" t="s">
         <v>2847</v>
-      </c>
-      <c r="B255" s="17" t="s">
-        <v>2856</v>
-      </c>
-      <c r="O255" s="17" t="s">
-        <v>2848</v>
       </c>
     </row>
     <row r="256" spans="1:15" ht="24.95" customHeight="1">
       <c r="A256" s="17" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>2856</v>
+      </c>
+      <c r="O256" s="17" t="s">
         <v>2850</v>
-      </c>
-      <c r="B256" s="17" t="s">
-        <v>2857</v>
-      </c>
-      <c r="O256" s="17" t="s">
-        <v>2851</v>
       </c>
     </row>
     <row r="257" spans="1:15" ht="24.95" customHeight="1">
@@ -28317,35 +28350,35 @@
     </row>
     <row r="277" spans="1:15" ht="24.95" customHeight="1">
       <c r="A277" s="17" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="O277" s="17" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="278" spans="1:15" ht="24.95" customHeight="1">
       <c r="A278" s="17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B278" s="17" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O278" s="17" t="s">
         <v>1932</v>
-      </c>
-      <c r="B278" s="17" t="s">
-        <v>1936</v>
-      </c>
-      <c r="O278" s="17" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="279" spans="1:15" ht="24.95" customHeight="1">
       <c r="A279" s="17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B279" s="17" t="s">
         <v>1929</v>
       </c>
-      <c r="B279" s="17" t="s">
+      <c r="O279" s="17" t="s">
         <v>1930</v>
-      </c>
-      <c r="O279" s="17" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="280" spans="1:15" ht="24.95" customHeight="1">
@@ -28556,13 +28589,13 @@
     </row>
     <row r="304" spans="1:15" ht="24.95" customHeight="1">
       <c r="A304" s="17" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="O304" s="17" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="305" spans="1:15" ht="24.95" customHeight="1">
@@ -28813,7 +28846,7 @@
         <v>712</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="O331" s="11" t="s">
         <v>713</v>
@@ -28824,7 +28857,7 @@
         <v>714</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="O332" s="11" t="s">
         <v>715</v>
@@ -28835,7 +28868,7 @@
         <v>716</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="O333" s="11" t="s">
         <v>717</v>
@@ -28846,7 +28879,7 @@
         <v>718</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="O334" s="11" t="s">
         <v>719</v>
@@ -28857,7 +28890,7 @@
         <v>720</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="O335" s="11" t="s">
         <v>721</v>
@@ -28868,7 +28901,7 @@
         <v>722</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="O336" s="11" t="s">
         <v>723</v>
@@ -28879,7 +28912,7 @@
         <v>724</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="O337" s="11" t="s">
         <v>725</v>
@@ -28890,7 +28923,7 @@
         <v>726</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="O338" s="11" t="s">
         <v>727</v>
@@ -28902,35 +28935,35 @@
     </row>
     <row r="340" spans="1:15" ht="24.95" customHeight="1">
       <c r="A340" s="11" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="O340" s="7" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="341" spans="1:15" ht="24.95" customHeight="1">
       <c r="A341" s="11" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="O341" s="17" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="24.95" customHeight="1">
       <c r="A342" s="11" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>2564</v>
+      </c>
+      <c r="O342" s="17" t="s">
         <v>2561</v>
-      </c>
-      <c r="B342" s="11" t="s">
-        <v>2565</v>
-      </c>
-      <c r="O342" s="17" t="s">
-        <v>2562</v>
       </c>
     </row>
     <row r="343" spans="1:15" ht="24.95" customHeight="1">
@@ -28940,10 +28973,10 @@
     </row>
     <row r="344" spans="1:15" ht="24.95" customHeight="1">
       <c r="A344" s="17" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="O344" s="3" t="s">
         <v>786</v>
@@ -28983,7 +29016,7 @@
         <v>735</v>
       </c>
       <c r="O348" s="17" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="349" spans="1:15" ht="24.95" customHeight="1">
@@ -28991,84 +29024,84 @@
     </row>
     <row r="350" spans="1:15" ht="24.95" customHeight="1">
       <c r="A350" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="O350" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="351" spans="1:15" ht="24.95" customHeight="1">
       <c r="A351" s="17" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B351" s="17" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="O351" s="17" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="352" spans="1:15" ht="24.95" customHeight="1">
       <c r="A352" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B352" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="O352" s="17" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="353" spans="1:15" ht="24.95" customHeight="1">
       <c r="A353" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B353" s="17" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="O353" s="17" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="354" spans="1:15" ht="24.95" customHeight="1">
       <c r="A354" s="17" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B354" s="17" t="s">
+        <v>1757</v>
+      </c>
+      <c r="O354" s="17" t="s">
         <v>1791</v>
-      </c>
-      <c r="B354" s="17" t="s">
-        <v>1758</v>
-      </c>
-      <c r="O354" s="17" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="355" spans="1:15" ht="24.95" customHeight="1">
       <c r="A355" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O355" s="17" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="356" spans="1:15" ht="24.95" customHeight="1">
       <c r="A356" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B356" s="17" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O356" s="17" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="357" spans="1:15" ht="24.95" customHeight="1">
       <c r="A357" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="O357" s="17" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="358" spans="1:15" ht="24.95" customHeight="1">
@@ -29104,7 +29137,7 @@
         <v>742</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="O362" s="3" t="s">
         <v>743</v>
@@ -29115,7 +29148,7 @@
         <v>744</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="O363" s="3" t="s">
         <v>745</v>
@@ -29148,7 +29181,7 @@
     </row>
     <row r="367" spans="1:15" ht="24.95" customHeight="1">
       <c r="A367" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B367" s="11" t="s">
         <v>752</v>
@@ -29159,7 +29192,7 @@
     </row>
     <row r="368" spans="1:15" ht="24.95" customHeight="1">
       <c r="A368" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>753</v>
@@ -29195,10 +29228,10 @@
         <v>760</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="O371" s="17" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="372" spans="1:15" ht="24.95" customHeight="1">
@@ -29225,18 +29258,18 @@
     </row>
     <row r="374" spans="1:15" ht="24.95" customHeight="1">
       <c r="A374" s="17" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B374" s="17" t="s">
         <v>2757</v>
       </c>
-      <c r="B374" s="17" t="s">
+      <c r="O374" s="17" t="s">
         <v>2758</v>
-      </c>
-      <c r="O374" s="17" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="375" spans="1:15" ht="24.95" customHeight="1">
       <c r="A375" s="17" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>767</v>
@@ -29269,7 +29302,7 @@
     </row>
     <row r="378" spans="1:15" ht="24.95" customHeight="1">
       <c r="A378" s="17" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>775</v>
@@ -29294,15 +29327,15 @@
     </row>
     <row r="381" spans="1:15" ht="24.95" customHeight="1">
       <c r="A381" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="O381" s="17" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="382" spans="1:15" ht="24.95" customHeight="1">
       <c r="A382" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B382" s="17"/>
       <c r="O382" s="3" t="s">
@@ -29311,85 +29344,85 @@
     </row>
     <row r="383" spans="1:15" ht="24.95" customHeight="1">
       <c r="A383" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="O383" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="384" spans="1:15" ht="24.95" customHeight="1">
       <c r="A384" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="O384" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="385" spans="1:15" ht="24.95" customHeight="1">
       <c r="A385" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="O385" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="386" spans="1:15" ht="24.95" customHeight="1">
       <c r="A386" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="O386" s="17" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="387" spans="1:15" ht="24.95" customHeight="1">
       <c r="A387" s="17" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="O387" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="388" spans="1:15" ht="24.95" customHeight="1">
       <c r="A388" s="17" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="O388" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="389" spans="1:15" ht="24.95" customHeight="1">
       <c r="A389" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O389" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="390" spans="1:15" ht="24.95" customHeight="1">
       <c r="A390" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="O390" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="391" spans="1:15" ht="24.95" customHeight="1">
       <c r="A391" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="O391" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="392" spans="1:15" ht="24.95" customHeight="1">
       <c r="A392" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="O392" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="393" spans="1:15" ht="24.95" customHeight="1">
@@ -29397,10 +29430,10 @@
     </row>
     <row r="394" spans="1:15" ht="24.95" customHeight="1">
       <c r="A394" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B394" s="17" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="O394" s="3" t="s">
         <v>814</v>
@@ -29408,18 +29441,18 @@
     </row>
     <row r="395" spans="1:15" ht="24.95" customHeight="1">
       <c r="A395" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B395" s="11" t="s">
         <v>752</v>
       </c>
       <c r="O395" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="396" spans="1:15" ht="24.95" customHeight="1">
       <c r="A396" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>753</v>
@@ -29430,24 +29463,24 @@
     </row>
     <row r="397" spans="1:15" ht="24.95" customHeight="1">
       <c r="A397" s="17" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B397" s="17" t="s">
         <v>2548</v>
       </c>
-      <c r="B397" s="17" t="s">
+      <c r="O397" s="17" t="s">
         <v>2549</v>
-      </c>
-      <c r="O397" s="17" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="398" spans="1:15" ht="24.95" customHeight="1">
       <c r="A398" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="O398" s="17" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="399" spans="1:15" ht="24.95" customHeight="1">
@@ -29491,7 +29524,7 @@
     </row>
     <row r="404" spans="1:15" ht="24.95" customHeight="1">
       <c r="A404" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="O404" s="3" t="s">
         <v>814</v>
@@ -29499,21 +29532,21 @@
     </row>
     <row r="405" spans="1:15" ht="24.95" customHeight="1">
       <c r="A405" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="O405" s="17" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="406" spans="1:15" ht="24.95" customHeight="1">
       <c r="A406" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="O406" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="407" spans="1:15" ht="24.95" customHeight="1">
@@ -29626,10 +29659,10 @@
     </row>
     <row r="419" spans="1:15" ht="24.95" customHeight="1">
       <c r="A419" s="17" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B419" s="17" t="s">
         <v>1759</v>
-      </c>
-      <c r="B419" s="17" t="s">
-        <v>1760</v>
       </c>
       <c r="O419" s="3" t="s">
         <v>797</v>
@@ -29637,22 +29670,22 @@
     </row>
     <row r="420" spans="1:15" ht="24.95" customHeight="1">
       <c r="A420" s="11" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B420" s="11"/>
       <c r="O420" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="421" spans="1:15" ht="24.95" customHeight="1">
       <c r="A421" s="17" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B421" s="17" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O421" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="422" spans="1:15" ht="24.95" customHeight="1">
@@ -29662,22 +29695,22 @@
     </row>
     <row r="423" spans="1:15" ht="24.95" customHeight="1">
       <c r="A423" s="17" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B423" s="11"/>
       <c r="O423" s="17" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="424" spans="1:15" ht="24.95" customHeight="1">
       <c r="A424" s="17" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B424" s="17" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O424" s="17" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="425" spans="1:15" ht="24.95" customHeight="1">
@@ -29685,63 +29718,63 @@
         <v>801</v>
       </c>
       <c r="B425" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="O425" s="17" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="426" spans="1:15" ht="24.95" customHeight="1">
       <c r="A426" s="17" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B426" s="11"/>
       <c r="O426" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="427" spans="1:15" ht="24.95" customHeight="1">
       <c r="A427" s="17" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B427" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="O427" s="17" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="428" spans="1:15" ht="24.95" customHeight="1">
       <c r="A428" s="17" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="O428" s="17" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="429" spans="1:15" ht="24.95" customHeight="1">
       <c r="A429" s="17" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B429" s="17" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="O429" s="17" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="430" spans="1:15" ht="24.95" customHeight="1">
       <c r="A430" s="17" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B430" s="17" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="O430" s="17" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="431" spans="1:15" ht="24.95" customHeight="1">
@@ -29751,28 +29784,28 @@
     </row>
     <row r="432" spans="1:15" ht="24.95" customHeight="1">
       <c r="A432" s="17" t="s">
+        <v>2843</v>
+      </c>
+      <c r="O432" s="18" t="s">
         <v>2844</v>
-      </c>
-      <c r="O432" s="18" t="s">
-        <v>2845</v>
       </c>
     </row>
     <row r="433" spans="1:15" ht="24.95" customHeight="1">
       <c r="A433" s="17" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B433" s="17"/>
       <c r="O433" s="17" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="434" spans="1:15" ht="24.95" customHeight="1">
       <c r="A434" s="17" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B434" s="17"/>
       <c r="O434" s="17" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="435" spans="1:15" ht="24.95" customHeight="1">
@@ -29782,33 +29815,33 @@
     </row>
     <row r="436" spans="1:15" ht="24.95" customHeight="1">
       <c r="A436" s="17" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B436" s="17" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="O436" s="17" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="437" spans="1:15" ht="24.95" customHeight="1">
       <c r="A437" s="17" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B437" s="11"/>
       <c r="O437" s="17" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="438" spans="1:15" ht="24.95" customHeight="1">
       <c r="A438" s="17" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B438" s="17" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="O438" s="17" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="439" spans="1:15" ht="24.95" customHeight="1">
@@ -29816,10 +29849,10 @@
         <v>960</v>
       </c>
       <c r="B439" s="11" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="O439" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="440" spans="1:15" ht="24.95" customHeight="1">
@@ -29827,7 +29860,7 @@
         <v>961</v>
       </c>
       <c r="B440" s="17" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="O440" s="3" t="s">
         <v>962</v>
@@ -29838,10 +29871,10 @@
         <v>963</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="O441" s="17" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="442" spans="1:15" ht="24.95" customHeight="1">
@@ -29908,18 +29941,18 @@
         <v>816</v>
       </c>
       <c r="O450" s="17" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="451" spans="1:15" ht="24.95" customHeight="1">
       <c r="A451" s="17" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B451" s="17" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="O451" s="17" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="452" spans="1:15" ht="24.95" customHeight="1">
@@ -29946,13 +29979,13 @@
     </row>
     <row r="454" spans="1:15" ht="24.95" customHeight="1">
       <c r="A454" s="17" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>823</v>
       </c>
       <c r="O454" s="18" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="455" spans="1:15" ht="24.95" customHeight="1">
@@ -30040,10 +30073,10 @@
     </row>
     <row r="464" spans="1:15" ht="24.95" customHeight="1">
       <c r="A464" s="3" t="s">
+        <v>2772</v>
+      </c>
+      <c r="O464" s="17" t="s">
         <v>2773</v>
-      </c>
-      <c r="O464" s="17" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="465" spans="1:15" ht="24.95" customHeight="1">
@@ -30057,11 +30090,11 @@
     </row>
     <row r="466" spans="1:15" ht="24.95" customHeight="1">
       <c r="A466" s="17" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B466" s="17"/>
       <c r="O466" s="17" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="467" spans="1:15" ht="24.95" customHeight="1">
@@ -30074,7 +30107,7 @@
         <v>847</v>
       </c>
       <c r="B468" s="17" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="O468" s="3" t="s">
         <v>848</v>
@@ -30082,10 +30115,10 @@
     </row>
     <row r="469" spans="1:15" ht="24.95" customHeight="1">
       <c r="A469" s="17" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B469" s="17" t="s">
         <v>1765</v>
-      </c>
-      <c r="B469" s="17" t="s">
-        <v>1766</v>
       </c>
       <c r="O469" s="3" t="s">
         <v>797</v>
@@ -30135,18 +30168,18 @@
         <v>856</v>
       </c>
       <c r="O474" s="17" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="475" spans="1:15" ht="24.95" customHeight="1">
       <c r="A475" s="17" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B475" s="17" t="s">
+        <v>1763</v>
+      </c>
+      <c r="O475" s="17" t="s">
         <v>1762</v>
-      </c>
-      <c r="B475" s="17" t="s">
-        <v>1764</v>
-      </c>
-      <c r="O475" s="17" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="476" spans="1:15" ht="24.95" customHeight="1">
@@ -30259,10 +30292,10 @@
         <v>883</v>
       </c>
       <c r="B487" s="17" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="O487" s="17" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="488" spans="1:15" ht="24.95" customHeight="1">
@@ -30376,7 +30409,7 @@
     </row>
     <row r="499" spans="1:15" ht="24.95" customHeight="1">
       <c r="A499" s="17" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B499" s="11" t="s">
         <v>911</v>
@@ -30387,11 +30420,11 @@
     </row>
     <row r="500" spans="1:15" ht="24.95" customHeight="1">
       <c r="A500" s="17" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B500" s="11"/>
       <c r="O500" s="17" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="501" spans="1:15" ht="24.95" customHeight="1">
@@ -30432,7 +30465,7 @@
         <v>922</v>
       </c>
       <c r="B504" s="17" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="O504" s="3" t="s">
         <v>923</v>
@@ -30500,7 +30533,7 @@
     </row>
     <row r="511" spans="1:15" ht="24.95" customHeight="1">
       <c r="A511" s="17" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B511" s="17" t="s">
         <v>955</v>
@@ -30517,7 +30550,7 @@
         <v>940</v>
       </c>
       <c r="O512" s="17" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="513" spans="1:15" ht="24.95" customHeight="1">
@@ -30544,7 +30577,7 @@
     </row>
     <row r="515" spans="1:15" ht="24.95" customHeight="1">
       <c r="A515" s="17" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>948</v>
@@ -30558,7 +30591,7 @@
         <v>950</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="O516" s="3" t="s">
         <v>951</v>
@@ -30591,7 +30624,7 @@
         <v>958</v>
       </c>
       <c r="B519" s="11" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="O519" s="3" t="s">
         <v>959</v>
@@ -30639,7 +30672,7 @@
     </row>
     <row r="525" spans="1:15" ht="24.95" customHeight="1">
       <c r="A525" s="17" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B525" s="11" t="s">
         <v>973</v>
@@ -30650,7 +30683,7 @@
     </row>
     <row r="526" spans="1:15" ht="24.95" customHeight="1">
       <c r="A526" s="17" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>975</v>
@@ -30990,7 +31023,7 @@
         <v>1070</v>
       </c>
       <c r="O560" s="17" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="561" spans="1:15" ht="24.95" customHeight="1">
@@ -31056,7 +31089,7 @@
         <v>1085</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="O567" s="3" t="s">
         <v>1086</v>
@@ -31067,7 +31100,7 @@
         <v>1087</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="O568" s="3" t="s">
         <v>1088</v>
@@ -31078,7 +31111,7 @@
         <v>1089</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="O569" s="3" t="s">
         <v>1090</v>
@@ -31089,7 +31122,7 @@
         <v>1091</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="O570" s="3" t="s">
         <v>1092</v>
@@ -31100,7 +31133,7 @@
         <v>1093</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="O571" s="3" t="s">
         <v>1094</v>
@@ -31111,21 +31144,21 @@
         <v>1095</v>
       </c>
       <c r="B572" s="17" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="O572" s="17" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="573" spans="1:15" ht="24.95" customHeight="1">
       <c r="A573" s="17" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B573" s="17" t="s">
         <v>1882</v>
       </c>
-      <c r="B573" s="17" t="s">
-        <v>1883</v>
-      </c>
       <c r="O573" s="17" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="574" spans="1:15" ht="24.95" customHeight="1">
@@ -31133,10 +31166,10 @@
         <v>1096</v>
       </c>
       <c r="B574" s="17" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="O574" s="17" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="575" spans="1:15" ht="24.95" customHeight="1">
@@ -31144,10 +31177,10 @@
         <v>1097</v>
       </c>
       <c r="B575" s="17" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="O575" s="17" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="576" spans="1:15" ht="24.95" customHeight="1">
@@ -31156,46 +31189,46 @@
     </row>
     <row r="577" spans="1:15" ht="24.95" customHeight="1">
       <c r="A577" s="17" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B577" s="17" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="O577" s="17" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="578" spans="1:15" ht="24.95" customHeight="1">
       <c r="A578" s="17" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B578" s="17" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="O578" s="17" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="579" spans="1:15" ht="24.95" customHeight="1">
       <c r="A579" s="17" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B579" s="17" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="O579" s="17" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="580" spans="1:15" ht="24.95" customHeight="1">
       <c r="A580" s="17" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B580" s="17" t="s">
         <v>1958</v>
       </c>
-      <c r="B580" s="17" t="s">
+      <c r="O580" s="17" t="s">
         <v>1959</v>
-      </c>
-      <c r="O580" s="17" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="581" spans="1:15" ht="24.95" customHeight="1">
@@ -31242,7 +31275,7 @@
         <v>1107</v>
       </c>
       <c r="O585" s="17" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="586" spans="1:15" ht="24.95" customHeight="1">
@@ -31468,7 +31501,7 @@
     </row>
     <row r="609" spans="1:15" ht="24.95" customHeight="1">
       <c r="A609" s="17" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>608</v>
@@ -31584,7 +31617,7 @@
         <v>1182</v>
       </c>
       <c r="B621" s="17" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O621" s="3" t="s">
         <v>1183</v>
@@ -31642,7 +31675,7 @@
         <v>1196</v>
       </c>
       <c r="B627" s="17" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="O627" s="3" t="s">
         <v>1197</v>
@@ -31839,7 +31872,7 @@
         <v>1242</v>
       </c>
       <c r="O651" s="17" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="652" spans="1:15" ht="24.95" customHeight="1">
@@ -31914,7 +31947,7 @@
         <v>1258</v>
       </c>
       <c r="B661" s="17" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="O661" s="3" t="s">
         <v>1259</v>
@@ -31939,7 +31972,7 @@
         <v>1261</v>
       </c>
       <c r="B665" s="17" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="O665" s="3" t="s">
         <v>1262</v>
@@ -32047,18 +32080,18 @@
     </row>
     <row r="678" spans="1:15" ht="24.95" customHeight="1">
       <c r="A678" s="17" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="O678" s="17" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="679" spans="1:15" ht="24.95" customHeight="1">
       <c r="A679" s="17" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="O679" s="18" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="680" spans="1:15" ht="24.95" customHeight="1">
@@ -35074,9 +35107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -35145,13 +35178,13 @@
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1287</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="24.95" customHeight="1">
@@ -35217,10 +35250,10 @@
         <v>1304</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="71.25">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="57">
       <c r="A9" s="3" t="s">
         <v>1305</v>
       </c>
@@ -35242,7 +35275,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="356.25">
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="327.75">
       <c r="A11" s="3" t="s">
         <v>1311</v>
       </c>
@@ -35262,32 +35295,32 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="18" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="45" customHeight="1"/>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="45" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="45" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="45" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="24.95" customHeight="1"/>
@@ -35478,10 +35511,10 @@
         <v>1360</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
@@ -35489,10 +35522,10 @@
         <v>1361</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
@@ -35514,7 +35547,7 @@
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B43" s="8"/>
       <c r="O43" s="8" t="s">
@@ -35523,7 +35556,7 @@
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B44" s="8"/>
       <c r="O44" s="8" t="s">
@@ -35532,26 +35565,37 @@
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>1366</v>
       </c>
     </row>
+    <row r="47" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A47" s="19" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>2864</v>
+      </c>
+      <c r="O47" s="19" t="s">
+        <v>2863</v>
+      </c>
+    </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B49" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="O49" s="19" t="s">
         <v>1827</v>
-      </c>
-      <c r="O49" s="19" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>1367</v>
@@ -35592,10 +35636,10 @@
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
       <c r="A55" s="19" t="s">
+        <v>2819</v>
+      </c>
+      <c r="O55" s="19" t="s">
         <v>2820</v>
-      </c>
-      <c r="O55" s="19" t="s">
-        <v>2821</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
@@ -35737,7 +35781,7 @@
         <v>1390</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25">
@@ -36020,7 +36064,7 @@
         <v>1466</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>1467</v>
@@ -36097,7 +36141,7 @@
         <v>1486</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>1487</v>
@@ -36116,24 +36160,24 @@
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="O40" s="20" t="s">
         <v>1901</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
       <c r="A41" s="20" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>1904</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="O41" s="20" t="s">
         <v>1905</v>
-      </c>
-      <c r="O41" s="20" t="s">
-        <v>1906</v>
       </c>
     </row>
   </sheetData>
@@ -36145,11 +36189,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S89" sqref="S89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -36292,13 +36336,13 @@
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1518</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -36558,636 +36602,658 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="17" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>1580</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>1581</v>
-      </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>1582</v>
+      <c r="A33" s="17" t="s">
+        <v>2869</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>1583</v>
+      <c r="O33" s="17" t="s">
+        <v>2870</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>1531</v>
+        <v>1585</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>1589</v>
+        <v>1531</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>1590</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>1625</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>1545</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>1628</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>1554</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>1631</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="O60" s="17" t="s">
-        <v>2822</v>
+      <c r="O60" s="3" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="O61" s="3" t="s">
-        <v>1634</v>
+      <c r="O61" s="17" t="s">
+        <v>2821</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="O68" s="17" t="s">
-        <v>2823</v>
+      <c r="O68" s="3" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="O69" s="3" t="s">
-        <v>1649</v>
+      <c r="O69" s="17" t="s">
+        <v>2822</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>1604</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>1654</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>1522</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>1517</v>
+        <v>1653</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>1657</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>1649</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>1626</v>
+        <v>1658</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>1545</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>1661</v>
+        <v>1625</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>1662</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1513</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1667</v>
+        <v>1513</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>1522</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>1674</v>
+        <v>1670</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>1801</v>
+        <v>1674</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1802</v>
+        <v>1675</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>1803</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>1925</v>
+        <v>1800</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1926</v>
+        <v>1801</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>1927</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="O88" s="3" t="s">
         <v>2545</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>2547</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="17" t="s">
+    </row>
+    <row r="89" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="17" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>2835</v>
+      </c>
+      <c r="O89" s="17" t="s">
         <v>2842</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>2836</v>
-      </c>
-      <c r="O88" s="17" t="s">
-        <v>2843</v>
+    </row>
+    <row r="90" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="17" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>2866</v>
+      </c>
+      <c r="O90" s="17" t="s">
+        <v>2867</v>
       </c>
     </row>
   </sheetData>
@@ -37201,8 +37267,8 @@
   <dimension ref="A1:Q412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O136" sqref="O136"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -37216,2865 +37282,2865 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="B1" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1976</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1979</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1980</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1983</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>1985</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1987</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>1732</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1"/>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>1989</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>1991</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>1993</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>1995</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1995</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>1997</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>1999</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>2001</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2001</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>2003</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>2005</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>2007</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2007</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>2009</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>2012</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>2014</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>2016</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>2018</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2018</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>2020</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>2022</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>2023</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>2024</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>2024</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>2026</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>2028</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>2030</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2030</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>2034</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>2035</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>2036</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>2036</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>2038</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>2040</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>2042</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>2042</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>2044</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>2046</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>2048</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>2048</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>2050</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="O52" s="2" t="s">
         <v>2052</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="O54" s="2" t="s">
         <v>2054</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>2054</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>2055</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>2056</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>2058</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>2060</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>2060</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="O59" s="2" t="s">
         <v>2062</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>2064</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>2066</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>2066</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>2067</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>2068</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>2069</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>2070</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>2072</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>2072</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>2074</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>2076</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>2078</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1811</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="O71" s="2" t="s">
         <v>2080</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="O72" s="2" t="s">
         <v>2082</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="O74" s="2" t="s">
         <v>2084</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>2084</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>2085</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>2086</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="O76" s="2" t="s">
         <v>2088</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O78" s="2" t="s">
         <v>2090</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>2090</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>2093</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="O82" s="2" t="s">
         <v>2095</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>2096</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O83" s="2" t="s">
         <v>2097</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>2099</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>2100</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>2101</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>2101</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>2102</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>2103</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>2104</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="O88" s="2" t="s">
         <v>2105</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>2107</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>2107</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2" t="s">
+        <v>2108</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>2109</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>2110</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="O92" s="2" t="s">
         <v>2111</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="O94" s="2" t="s">
         <v>2113</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>2113</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>2114</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>2115</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>2116</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="O96" s="2" t="s">
         <v>2117</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>2118</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>2119</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="O98" s="2" t="s">
         <v>2120</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="O99" s="2" t="s">
         <v>2122</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>2124</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="2" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="O114" s="2" t="s">
         <v>2127</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>2127</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>2128</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="O115" s="2" t="s">
         <v>2129</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="O116" s="2" t="s">
         <v>2131</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>2132</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="O118" s="2" t="s">
         <v>2133</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>2133</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="2" t="s">
+        <v>2134</v>
+      </c>
+      <c r="O119" s="2" t="s">
         <v>2135</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="O120" s="2" t="s">
         <v>2137</v>
-      </c>
-      <c r="O120" s="2" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="O122" s="2" t="s">
         <v>2139</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>2139</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O123" s="2" t="s">
         <v>2141</v>
-      </c>
-      <c r="O123" s="2" t="s">
-        <v>2142</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="O124" s="2" t="s">
         <v>2143</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>2144</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="O126" s="2" t="s">
         <v>2145</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>2145</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>2146</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="O127" s="2" t="s">
         <v>2147</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>2148</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="2" t="s">
+        <v>2148</v>
+      </c>
+      <c r="O128" s="2" t="s">
         <v>2149</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>2150</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="O130" s="2" t="s">
         <v>2151</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>2151</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>2152</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="O131" s="2" t="s">
         <v>2153</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>2154</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="O132" s="2" t="s">
         <v>2155</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>2156</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="O134" s="2" t="s">
         <v>2157</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>2157</v>
-      </c>
-      <c r="O134" s="2" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="O135" s="2" t="s">
         <v>2159</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="2" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="O142" s="2" t="s">
         <v>2162</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>2162</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>2163</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="O143" s="2" t="s">
         <v>2164</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="O144" s="2" t="s">
         <v>2166</v>
-      </c>
-      <c r="O144" s="2" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="O146" s="2" t="s">
         <v>2168</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>2168</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="O147" s="2" t="s">
         <v>2170</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="2" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O150" s="2" t="s">
         <v>2173</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>1804</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="O151" s="2" t="s">
         <v>2175</v>
-      </c>
-      <c r="O151" s="2" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="O152" s="2" t="s">
         <v>2177</v>
-      </c>
-      <c r="O152" s="2" t="s">
-        <v>2178</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="O154" s="2" t="s">
         <v>2179</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>1805</v>
-      </c>
-      <c r="O154" s="2" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="O155" s="2" t="s">
         <v>2181</v>
-      </c>
-      <c r="O155" s="2" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="2" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="O158" s="2" t="s">
         <v>2184</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>2184</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="O159" s="2" t="s">
         <v>2186</v>
-      </c>
-      <c r="O159" s="2" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="O162" s="23" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="O163" s="2" t="s">
         <v>2190</v>
-      </c>
-      <c r="O163" s="2" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="O164" s="2" t="s">
         <v>2192</v>
-      </c>
-      <c r="O164" s="2" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O166" s="2" t="s">
         <v>2194</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>2194</v>
-      </c>
-      <c r="O166" s="2" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="O167" s="2" t="s">
         <v>2196</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="O168" s="2" t="s">
         <v>2198</v>
-      </c>
-      <c r="O168" s="2" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="O170" s="2" t="s">
         <v>2200</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>2200</v>
-      </c>
-      <c r="O170" s="2" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="O171" s="2" t="s">
         <v>2202</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="O172" s="2" t="s">
         <v>2204</v>
-      </c>
-      <c r="O172" s="2" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="O174" s="2" t="s">
         <v>2206</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>2206</v>
-      </c>
-      <c r="O174" s="2" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="O175" s="2" t="s">
         <v>2208</v>
-      </c>
-      <c r="O175" s="2" t="s">
-        <v>2209</v>
       </c>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="O176" s="2" t="s">
         <v>2210</v>
-      </c>
-      <c r="O176" s="2" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="O178" s="2" t="s">
         <v>2212</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>2212</v>
-      </c>
-      <c r="O178" s="2" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="O179" s="2" t="s">
         <v>2214</v>
-      </c>
-      <c r="O179" s="2" t="s">
-        <v>2215</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="O180" s="2" t="s">
         <v>2216</v>
-      </c>
-      <c r="O180" s="2" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="O182" s="2" t="s">
         <v>2218</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>2218</v>
-      </c>
-      <c r="O182" s="2" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="2" t="s">
+        <v>2219</v>
+      </c>
+      <c r="O183" s="2" t="s">
         <v>2220</v>
-      </c>
-      <c r="O183" s="2" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="O184" s="2" t="s">
         <v>2222</v>
-      </c>
-      <c r="O184" s="2" t="s">
-        <v>2223</v>
       </c>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="O186" s="2" t="s">
         <v>2224</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="O186" s="2" t="s">
-        <v>2225</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="O187" s="2" t="s">
         <v>2226</v>
-      </c>
-      <c r="O187" s="2" t="s">
-        <v>2227</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O188" s="2" t="s">
         <v>2228</v>
-      </c>
-      <c r="O188" s="2" t="s">
-        <v>2229</v>
       </c>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="O190" s="2" t="s">
         <v>2230</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>2230</v>
-      </c>
-      <c r="O190" s="2" t="s">
-        <v>2231</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="O191" s="2" t="s">
         <v>2232</v>
-      </c>
-      <c r="O191" s="2" t="s">
-        <v>2233</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="O192" s="2" t="s">
         <v>2234</v>
-      </c>
-      <c r="O192" s="2" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="O194" s="2" t="s">
         <v>2236</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>2236</v>
-      </c>
-      <c r="O194" s="2" t="s">
-        <v>2237</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="2" t="s">
+        <v>2237</v>
+      </c>
+      <c r="O195" s="2" t="s">
         <v>2238</v>
-      </c>
-      <c r="O195" s="2" t="s">
-        <v>2239</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="O196" s="2" t="s">
         <v>2240</v>
-      </c>
-      <c r="O196" s="2" t="s">
-        <v>2241</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="O198" s="2" t="s">
         <v>2242</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>2242</v>
-      </c>
-      <c r="O198" s="2" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="O199" s="2" t="s">
         <v>2244</v>
-      </c>
-      <c r="O199" s="2" t="s">
-        <v>2245</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="O200" s="2" t="s">
         <v>2246</v>
-      </c>
-      <c r="O200" s="2" t="s">
-        <v>2247</v>
       </c>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="O202" s="2" t="s">
         <v>2248</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>2248</v>
-      </c>
-      <c r="O202" s="2" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="O203" s="2" t="s">
         <v>2250</v>
-      </c>
-      <c r="O203" s="2" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="O204" s="2" t="s">
         <v>2252</v>
-      </c>
-      <c r="O204" s="2" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="2" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>2253</v>
+      </c>
+      <c r="O206" s="2" t="s">
         <v>2254</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>2254</v>
-      </c>
-      <c r="O206" s="2" t="s">
-        <v>2255</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="O207" s="2" t="s">
         <v>2256</v>
-      </c>
-      <c r="O207" s="2" t="s">
-        <v>2257</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="O208" s="2" t="s">
         <v>2258</v>
-      </c>
-      <c r="O208" s="2" t="s">
-        <v>2259</v>
       </c>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="O210" s="2" t="s">
         <v>2260</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>2260</v>
-      </c>
-      <c r="O210" s="2" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="O211" s="2" t="s">
         <v>2262</v>
-      </c>
-      <c r="O211" s="2" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="2" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="O214" s="2" t="s">
         <v>2265</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>2265</v>
-      </c>
-      <c r="O214" s="2" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="O215" s="2" t="s">
         <v>2267</v>
-      </c>
-      <c r="O215" s="2" t="s">
-        <v>2268</v>
       </c>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="O216" s="2" t="s">
         <v>2269</v>
-      </c>
-      <c r="O216" s="2" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="O218" s="2" t="s">
         <v>2271</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>2271</v>
-      </c>
-      <c r="O218" s="2" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="O219" s="2" t="s">
         <v>2273</v>
-      </c>
-      <c r="O219" s="2" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="O220" s="2" t="s">
         <v>2275</v>
-      </c>
-      <c r="O220" s="2" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="O222" s="2" t="s">
         <v>2277</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>2277</v>
-      </c>
-      <c r="O222" s="2" t="s">
-        <v>2278</v>
       </c>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="O223" s="2" t="s">
         <v>2279</v>
-      </c>
-      <c r="O223" s="2" t="s">
-        <v>2280</v>
       </c>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="2" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="O224" s="2" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="O226" s="2" t="s">
         <v>2282</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>2282</v>
-      </c>
-      <c r="O226" s="2" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="O227" s="2" t="s">
         <v>2284</v>
-      </c>
-      <c r="O227" s="2" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="2" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="O230" s="2" t="s">
         <v>2287</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>2287</v>
-      </c>
-      <c r="O230" s="2" t="s">
-        <v>2288</v>
       </c>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="O231" s="2" t="s">
         <v>2289</v>
-      </c>
-      <c r="O231" s="2" t="s">
-        <v>2290</v>
       </c>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="2" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>2292</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="O234" s="2" t="s">
         <v>2293</v>
-      </c>
-      <c r="O234" s="2" t="s">
-        <v>2294</v>
       </c>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="O235" s="2" t="s">
         <v>2295</v>
-      </c>
-      <c r="O235" s="2" t="s">
-        <v>2296</v>
       </c>
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="O236" s="2" t="s">
         <v>2297</v>
-      </c>
-      <c r="O236" s="2" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>2299</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="O238" s="2" t="s">
         <v>2300</v>
-      </c>
-      <c r="O238" s="2" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="O239" s="2" t="s">
         <v>2302</v>
-      </c>
-      <c r="O239" s="2" t="s">
-        <v>2303</v>
       </c>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O240" s="2" t="s">
         <v>2304</v>
-      </c>
-      <c r="O240" s="2" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="O246" s="2" t="s">
         <v>2309</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>2309</v>
-      </c>
-      <c r="O246" s="2" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="O247" s="2" t="s">
         <v>2311</v>
-      </c>
-      <c r="O247" s="2" t="s">
-        <v>2312</v>
       </c>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="O248" s="2" t="s">
         <v>2313</v>
-      </c>
-      <c r="O248" s="2" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="O250" s="2" t="s">
         <v>2315</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>2315</v>
-      </c>
-      <c r="O250" s="2" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="O251" s="2" t="s">
         <v>2317</v>
-      </c>
-      <c r="O251" s="2" t="s">
-        <v>2318</v>
       </c>
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="O252" s="2" t="s">
         <v>2319</v>
-      </c>
-      <c r="O252" s="2" t="s">
-        <v>2320</v>
       </c>
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="O254" s="2" t="s">
         <v>2321</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>2321</v>
-      </c>
-      <c r="O254" s="2" t="s">
-        <v>2322</v>
       </c>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="O255" s="2" t="s">
         <v>2323</v>
-      </c>
-      <c r="O255" s="2" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="2" t="s">
+        <v>2324</v>
+      </c>
+      <c r="O256" s="2" t="s">
         <v>2325</v>
-      </c>
-      <c r="O256" s="2" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="2" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>2326</v>
+      </c>
+      <c r="O258" s="2" t="s">
         <v>2327</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>2327</v>
-      </c>
-      <c r="O258" s="2" t="s">
-        <v>2328</v>
       </c>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="O259" s="2" t="s">
         <v>2329</v>
-      </c>
-      <c r="O259" s="2" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O260" s="2" t="s">
         <v>2331</v>
-      </c>
-      <c r="O260" s="2" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O262" s="2" t="s">
         <v>2333</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>2333</v>
-      </c>
-      <c r="O262" s="2" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="O263" s="2" t="s">
         <v>2335</v>
-      </c>
-      <c r="O263" s="2" t="s">
-        <v>2336</v>
       </c>
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="O264" s="2" t="s">
         <v>2337</v>
-      </c>
-      <c r="O264" s="2" t="s">
-        <v>2338</v>
       </c>
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="O266" s="2" t="s">
         <v>2339</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>2339</v>
-      </c>
-      <c r="O266" s="2" t="s">
-        <v>2340</v>
       </c>
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="O267" s="2" t="s">
         <v>2341</v>
-      </c>
-      <c r="O267" s="2" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="O268" s="2" t="s">
         <v>2343</v>
-      </c>
-      <c r="O268" s="2" t="s">
-        <v>2344</v>
       </c>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="O270" s="2" t="s">
         <v>2345</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>2345</v>
-      </c>
-      <c r="O270" s="2" t="s">
-        <v>2346</v>
       </c>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="O271" s="2" t="s">
         <v>2347</v>
-      </c>
-      <c r="O271" s="2" t="s">
-        <v>2348</v>
       </c>
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="O272" s="2" t="s">
         <v>2349</v>
-      </c>
-      <c r="O272" s="2" t="s">
-        <v>2350</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="O274" s="2" t="s">
         <v>2351</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>2351</v>
-      </c>
-      <c r="O274" s="2" t="s">
-        <v>2352</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="O275" s="2" t="s">
         <v>2353</v>
-      </c>
-      <c r="O275" s="2" t="s">
-        <v>2354</v>
       </c>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="O276" s="2" t="s">
         <v>2355</v>
-      </c>
-      <c r="O276" s="2" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="O278" s="2" t="s">
         <v>2357</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>2357</v>
-      </c>
-      <c r="O278" s="2" t="s">
-        <v>2358</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="O279" s="2" t="s">
         <v>2359</v>
-      </c>
-      <c r="O279" s="2" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="O280" s="2" t="s">
         <v>2361</v>
-      </c>
-      <c r="O280" s="2" t="s">
-        <v>2362</v>
       </c>
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="2" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>2362</v>
+      </c>
+      <c r="O282" s="2" t="s">
         <v>2363</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>2363</v>
-      </c>
-      <c r="O282" s="2" t="s">
-        <v>2364</v>
       </c>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="O283" s="2" t="s">
         <v>2365</v>
-      </c>
-      <c r="O283" s="2" t="s">
-        <v>2366</v>
       </c>
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="O284" s="2" t="s">
         <v>2367</v>
-      </c>
-      <c r="O284" s="2" t="s">
-        <v>2368</v>
       </c>
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O286" s="2" t="s">
         <v>2369</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>2369</v>
-      </c>
-      <c r="O286" s="2" t="s">
-        <v>2370</v>
       </c>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="O287" s="2" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="O290" s="2" t="s">
         <v>1942</v>
-      </c>
-      <c r="O290" s="2" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="O291" s="2" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="O292" s="2" t="s">
         <v>1947</v>
-      </c>
-      <c r="O292" s="2" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="O294" s="2" t="s">
         <v>2373</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>2373</v>
-      </c>
-      <c r="O294" s="2" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="O295" s="2" t="s">
         <v>2375</v>
-      </c>
-      <c r="O295" s="2" t="s">
-        <v>2376</v>
       </c>
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O296" s="2" t="s">
         <v>2377</v>
-      </c>
-      <c r="O296" s="2" t="s">
-        <v>2378</v>
       </c>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="O298" s="2" t="s">
         <v>2379</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>1808</v>
-      </c>
-      <c r="O298" s="2" t="s">
-        <v>2380</v>
       </c>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="O299" s="2" t="s">
         <v>2381</v>
-      </c>
-      <c r="O299" s="2" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="O300" s="2" t="s">
         <v>2383</v>
-      </c>
-      <c r="O300" s="2" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="O302" s="2" t="s">
         <v>2385</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>2385</v>
-      </c>
-      <c r="O302" s="2" t="s">
-        <v>2386</v>
       </c>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="O303" s="2" t="s">
         <v>2387</v>
-      </c>
-      <c r="O303" s="2" t="s">
-        <v>2388</v>
       </c>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="O304" s="2" t="s">
         <v>2389</v>
-      </c>
-      <c r="O304" s="2" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="O306" s="2" t="s">
         <v>2391</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>2391</v>
-      </c>
-      <c r="O306" s="2" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="O307" s="2" t="s">
         <v>2393</v>
-      </c>
-      <c r="O307" s="2" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="O308" s="2" t="s">
         <v>2395</v>
-      </c>
-      <c r="O308" s="2" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="O310" s="2" t="s">
         <v>2397</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>2397</v>
-      </c>
-      <c r="O310" s="2" t="s">
-        <v>2398</v>
       </c>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="O311" s="2" t="s">
         <v>2399</v>
-      </c>
-      <c r="O311" s="2" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="2" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="O312" s="2" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="314" spans="1:15">
       <c r="A314" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="O314" s="2" t="s">
         <v>2402</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>2402</v>
-      </c>
-      <c r="O314" s="2" t="s">
-        <v>2403</v>
       </c>
     </row>
     <row r="315" spans="1:15">
       <c r="A315" s="2" t="s">
+        <v>2403</v>
+      </c>
+      <c r="O315" s="2" t="s">
         <v>2404</v>
-      </c>
-      <c r="O315" s="2" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="316" spans="1:15">
       <c r="A316" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="O316" s="2" t="s">
         <v>2406</v>
-      </c>
-      <c r="O316" s="2" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="O318" s="2" t="s">
         <v>2408</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>2408</v>
-      </c>
-      <c r="O318" s="2" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="O319" s="2" t="s">
         <v>2410</v>
-      </c>
-      <c r="O319" s="2" t="s">
-        <v>2411</v>
       </c>
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="O320" s="2" t="s">
         <v>2412</v>
-      </c>
-      <c r="O320" s="2" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="322" spans="1:15">
       <c r="A322" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="O322" s="2" t="s">
         <v>2414</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>2414</v>
-      </c>
-      <c r="O322" s="2" t="s">
-        <v>2415</v>
       </c>
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="O323" s="2" t="s">
         <v>2416</v>
-      </c>
-      <c r="O323" s="2" t="s">
-        <v>2417</v>
       </c>
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="O324" s="2" t="s">
         <v>2418</v>
-      </c>
-      <c r="O324" s="2" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="O326" s="2" t="s">
         <v>2420</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>2420</v>
-      </c>
-      <c r="O326" s="2" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="327" spans="1:15">
       <c r="A327" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="O327" s="2" t="s">
         <v>2422</v>
-      </c>
-      <c r="O327" s="2" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="O328" s="2" t="s">
         <v>2424</v>
-      </c>
-      <c r="O328" s="2" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="O330" s="2" t="s">
         <v>2426</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>2426</v>
-      </c>
-      <c r="O330" s="2" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="331" spans="1:15">
       <c r="A331" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="O331" s="2" t="s">
         <v>2428</v>
-      </c>
-      <c r="O331" s="2" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="332" spans="1:15">
       <c r="A332" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="O332" s="2" t="s">
         <v>2430</v>
-      </c>
-      <c r="O332" s="2" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="334" spans="1:15">
       <c r="A334" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="O334" s="2" t="s">
         <v>2432</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>2432</v>
-      </c>
-      <c r="O334" s="2" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="335" spans="1:15">
       <c r="A335" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="O335" s="2" t="s">
         <v>2434</v>
-      </c>
-      <c r="O335" s="2" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="336" spans="1:15">
       <c r="A336" s="2" t="s">
+        <v>2435</v>
+      </c>
+      <c r="O336" s="2" t="s">
         <v>2436</v>
-      </c>
-      <c r="O336" s="2" t="s">
-        <v>2437</v>
       </c>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="2" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>2437</v>
+      </c>
+      <c r="O338" s="2" t="s">
         <v>2438</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>2438</v>
-      </c>
-      <c r="O338" s="2" t="s">
-        <v>2439</v>
       </c>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="O339" s="2" t="s">
         <v>2440</v>
-      </c>
-      <c r="O339" s="2" t="s">
-        <v>2441</v>
       </c>
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="O340" s="2" t="s">
         <v>2442</v>
-      </c>
-      <c r="O340" s="2" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="O342" s="2" t="s">
         <v>2444</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>2444</v>
-      </c>
-      <c r="O342" s="2" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="O343" s="2" t="s">
         <v>2446</v>
-      </c>
-      <c r="O343" s="2" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="344" spans="1:15">
       <c r="A344" s="2" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="O344" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="346" spans="1:15">
       <c r="A346" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="O346" s="2" t="s">
         <v>2449</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>2449</v>
-      </c>
-      <c r="O346" s="2" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="O347" s="2" t="s">
         <v>2451</v>
-      </c>
-      <c r="O347" s="2" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="O348" s="2" t="s">
         <v>2453</v>
-      </c>
-      <c r="O348" s="2" t="s">
-        <v>2454</v>
       </c>
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="O350" s="2" t="s">
         <v>2455</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>2455</v>
-      </c>
-      <c r="O350" s="2" t="s">
-        <v>2456</v>
       </c>
     </row>
     <row r="351" spans="1:15">
       <c r="A351" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="O351" s="2" t="s">
         <v>2457</v>
-      </c>
-      <c r="O351" s="2" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="352" spans="1:15">
       <c r="A352" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O352" s="2" t="s">
         <v>2459</v>
-      </c>
-      <c r="O352" s="2" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="2" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>2461</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>2462</v>
-      </c>
       <c r="C354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="L354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="M354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="N354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="O354" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="355" spans="1:15">
       <c r="A355" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="O355" s="2" t="s">
         <v>2463</v>
-      </c>
-      <c r="O355" s="2" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="356" spans="1:15">
       <c r="A356" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="O356" s="2" t="s">
         <v>2465</v>
-      </c>
-      <c r="O356" s="2" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="O358" s="2" t="s">
         <v>2467</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>2467</v>
-      </c>
-      <c r="O358" s="2" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="O359" s="2" t="s">
         <v>2469</v>
-      </c>
-      <c r="O359" s="2" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="O360" s="2" t="s">
         <v>2471</v>
-      </c>
-      <c r="O360" s="2" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="O362" s="2" t="s">
         <v>2473</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>2473</v>
-      </c>
-      <c r="O362" s="2" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="O363" s="2" t="s">
         <v>2475</v>
-      </c>
-      <c r="O363" s="2" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="364" spans="1:15">
       <c r="A364" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O364" s="2" t="s">
         <v>2477</v>
-      </c>
-      <c r="O364" s="2" t="s">
-        <v>2478</v>
       </c>
     </row>
     <row r="366" spans="1:15">
       <c r="A366" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="O366" s="2" t="s">
         <v>2479</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>2479</v>
-      </c>
-      <c r="O366" s="2" t="s">
-        <v>2480</v>
       </c>
     </row>
     <row r="367" spans="1:15">
       <c r="A367" s="2" t="s">
+        <v>2480</v>
+      </c>
+      <c r="O367" s="2" t="s">
         <v>2481</v>
-      </c>
-      <c r="O367" s="2" t="s">
-        <v>2482</v>
       </c>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="O368" s="2" t="s">
         <v>2483</v>
-      </c>
-      <c r="O368" s="2" t="s">
-        <v>2484</v>
       </c>
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="O370" s="2" t="s">
         <v>2485</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>2485</v>
-      </c>
-      <c r="O370" s="2" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="O371" s="2" t="s">
         <v>2487</v>
-      </c>
-      <c r="O371" s="2" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="O372" s="2" t="s">
         <v>2489</v>
-      </c>
-      <c r="O372" s="2" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="O374" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="375" spans="1:15">
       <c r="A375" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="O375" s="2" t="s">
         <v>2492</v>
-      </c>
-      <c r="O375" s="2" t="s">
-        <v>2493</v>
       </c>
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="O376" s="2" t="s">
         <v>2494</v>
-      </c>
-      <c r="O376" s="2" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="O378" s="2" t="s">
         <v>2496</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>2496</v>
-      </c>
-      <c r="O378" s="2" t="s">
-        <v>2497</v>
       </c>
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="O379" s="2" t="s">
         <v>2498</v>
-      </c>
-      <c r="O379" s="2" t="s">
-        <v>2499</v>
       </c>
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="O380" s="2" t="s">
         <v>2500</v>
-      </c>
-      <c r="O380" s="2" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="O382" s="2" t="s">
         <v>2502</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>2502</v>
-      </c>
-      <c r="O382" s="2" t="s">
-        <v>2503</v>
       </c>
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="O383" s="2" t="s">
         <v>2504</v>
-      </c>
-      <c r="O383" s="2" t="s">
-        <v>2505</v>
       </c>
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="O384" s="2" t="s">
         <v>2506</v>
-      </c>
-      <c r="O384" s="2" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="386" spans="1:15">
       <c r="A386" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="O386" s="2" t="s">
         <v>2508</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>2508</v>
-      </c>
-      <c r="O386" s="2" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="387" spans="1:15">
       <c r="A387" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="O387" s="2" t="s">
         <v>2510</v>
-      </c>
-      <c r="O387" s="2" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="388" spans="1:15">
       <c r="A388" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="O388" s="2" t="s">
         <v>2512</v>
-      </c>
-      <c r="O388" s="2" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="390" spans="1:15">
       <c r="A390" s="2" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="O390" s="2" t="s">
         <v>2514</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="O390" s="2" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="391" spans="1:15">
       <c r="A391" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="O391" s="2" t="s">
         <v>2516</v>
-      </c>
-      <c r="O391" s="2" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="392" spans="1:15">
       <c r="A392" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="O392" s="2" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="394" spans="1:15">
       <c r="A394" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="O394" s="2" t="s">
         <v>2519</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>2519</v>
-      </c>
-      <c r="O394" s="2" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O395" s="2" t="s">
         <v>2521</v>
-      </c>
-      <c r="O395" s="2" t="s">
-        <v>2522</v>
       </c>
     </row>
     <row r="396" spans="1:15">
       <c r="A396" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O396" s="2" t="s">
         <v>2523</v>
-      </c>
-      <c r="O396" s="2" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="398" spans="1:15">
       <c r="A398" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="O398" s="2" t="s">
         <v>2525</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>2525</v>
-      </c>
-      <c r="O398" s="2" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="399" spans="1:15">
       <c r="A399" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O399" s="2" t="s">
         <v>2527</v>
-      </c>
-      <c r="O399" s="2" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="400" spans="1:15">
       <c r="A400" s="2" t="s">
+        <v>2528</v>
+      </c>
+      <c r="O400" s="2" t="s">
         <v>2529</v>
-      </c>
-      <c r="O400" s="2" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="402" spans="1:15">
       <c r="A402" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="O402" s="2" t="s">
         <v>2531</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>2531</v>
-      </c>
-      <c r="O402" s="2" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="403" spans="1:15">
       <c r="A403" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O403" s="2" t="s">
         <v>2533</v>
-      </c>
-      <c r="O403" s="2" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="404" spans="1:15">
       <c r="A404" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="O404" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="406" spans="1:15">
       <c r="A406" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O406" s="2" t="s">
         <v>2536</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>2536</v>
-      </c>
-      <c r="O406" s="2" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="407" spans="1:15">
       <c r="A407" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O407" s="2" t="s">
         <v>2538</v>
-      </c>
-      <c r="O407" s="2" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="408" spans="1:15">
       <c r="A408" s="2" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="O408" s="2" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="410" spans="1:15">
       <c r="A410" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="O410" s="2" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="411" spans="1:15">
       <c r="A411" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O411" s="2" t="s">
         <v>2542</v>
-      </c>
-      <c r="O411" s="2" t="s">
-        <v>2543</v>
       </c>
     </row>
     <row r="412" spans="1:15">
       <c r="A412" s="2" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O412" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
   </sheetData>
@@ -40105,830 +40171,830 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="21" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1973</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>1974</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>1975</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>1976</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>1977</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>1978</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>1979</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>1980</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>1981</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>1982</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>1983</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>1984</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>1985</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>1986</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>1987</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="60" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="60" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="60" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="60" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="60" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="60" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="60" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="60" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="60" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="60" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="60" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="60" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="60" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="60" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="60" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="60" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="60" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="60" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="60" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="60" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="60" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="60" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="60" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="60" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="60" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="60" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="60" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="60" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="60" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="60" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="60" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="60" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="60" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="60" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="60" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="60" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="60" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="60" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="60" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="60" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="60" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="60" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="60" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="60" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="60" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="60" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="60" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="60" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="60" customHeight="1">
       <c r="A58" s="21" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="60" customHeight="1">
       <c r="A59" s="21" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="60" customHeight="1">
       <c r="A60" s="21" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="60" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="60" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="60" customHeight="1">
       <c r="A63" s="21" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="60" customHeight="1">
       <c r="A64" s="21" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="60" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="60" customHeight="1">
       <c r="A66" s="21" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="60" customHeight="1">
       <c r="A68" s="21" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="60" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="60" customHeight="1">
       <c r="A70" s="21" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="60" customHeight="1">
       <c r="A71" s="21" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="60" customHeight="1">
       <c r="A72" s="21" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="60" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="60" customHeight="1">
       <c r="A74" s="21" t="s">
+        <v>1960</v>
+      </c>
+      <c r="O74" s="21" t="s">
         <v>1961</v>
-      </c>
-      <c r="O74" s="21" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="60" customHeight="1">
       <c r="A76" s="21" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="60" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="60" customHeight="1">
       <c r="A78" s="21" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="60" customHeight="1">
       <c r="A79" s="21" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="60" customHeight="1">
       <c r="A80" s="21" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="60" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="60" customHeight="1">
       <c r="A82" s="21" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="60" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="60" customHeight="1">
       <c r="A84" s="21" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="60" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="60" customHeight="1">
       <c r="A86" s="21" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="60" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="60" customHeight="1">
       <c r="A88" s="21" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="60" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="60" customHeight="1">
       <c r="A90" s="21" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="60" customHeight="1">
       <c r="A91" s="21" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="60" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="60" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" customHeight="1">
       <c r="A94" s="21" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="O94" s="21" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="60" customHeight="1">
       <c r="A95" s="21" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="O95" s="21" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="60" customHeight="1">
       <c r="A96" s="21" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="O96" s="21" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="60" customHeight="1">
       <c r="A97" s="21" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" customHeight="1">
       <c r="A98" s="21" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" customHeight="1">
       <c r="A99" s="21" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" customHeight="1">
       <c r="A100" s="21" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="O100" s="21" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="60" customHeight="1">
       <c r="A101" s="21" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="O101" s="21" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="60" customHeight="1">
       <c r="A102" s="21" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="O102" s="21" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B5257-653D-4144-8480-156F9FA362DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A356609C-45C7-443F-A6A7-523FAB09EB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="645" windowWidth="25635" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Role Description" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1387</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="2899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="2905">
   <si>
     <t>English</t>
   </si>
@@ -24860,6 +24860,30 @@
   </si>
   <si>
     <t>Disable Task Game End</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyBinding.screenResolution</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速修改屏幕分辨率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立杀手数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeutralKillerRolesCount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral Killer Roles </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>船员阵营</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -25635,11 +25659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1682"/>
+  <dimension ref="A1:Q1684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -25897,2949 +25921,2955 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="17" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="O21" s="18" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>2773</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>2788</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>2774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>2775</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>2790</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>2791</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1">
       <c r="A23" s="17" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>2790</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A24" s="17" t="s">
         <v>2796</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="18" t="s">
         <v>2798</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O24" s="18" t="s">
         <v>2797</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O24" s="3"/>
-    </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1">
       <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O28" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A28" s="17" t="s">
+    <row r="29" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A29" s="17" t="s">
         <v>1850</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O29" s="7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1846</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1848</v>
-      </c>
-      <c r="O31" s="18" t="s">
-        <v>1762</v>
+        <v>1847</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1845</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>108</v>
+        <v>1848</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>1849</v>
+        <v>107</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>1849</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="O36" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B36" s="7"/>
-    </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A37" s="17" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>1880</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>56</v>
+        <v>1883</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>2904</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
       <c r="A39" s="17" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>1880</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A40" s="17" t="s">
         <v>1882</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O40" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A40" s="18" t="s">
+    <row r="41" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A41" s="18" t="s">
         <v>2750</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O41" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="7"/>
-    </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A42" s="17" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A42" s="18"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
       <c r="A44" s="17" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A45" s="17" t="s">
         <v>2564</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O45" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A45" s="18" t="s">
+    <row r="46" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A46" s="18" t="s">
         <v>2565</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O46" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-    </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O48" s="7" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>69</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O50" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A50" s="7"/>
-    </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>75</v>
+      <c r="A51" s="17" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>2903</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O52" s="18" t="s">
-        <v>1759</v>
-      </c>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O53" s="18" t="s">
-        <v>1760</v>
+        <v>73</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>1759</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
       <c r="A55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A57" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O55" s="7" t="s">
+      <c r="O57" s="7" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A56" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O57" s="18" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="O59" s="18" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O61" s="3"/>
+      <c r="A61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1">
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A66" s="17" t="s">
         <v>1950</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B66" s="17" t="s">
         <v>1950</v>
       </c>
-      <c r="O64" s="17" t="s">
+      <c r="O66" s="17" t="s">
         <v>1951</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="24.95" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O78" s="3"/>
+      <c r="A78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="24.95" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="24.95" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="24.95" customHeight="1">
       <c r="A86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A88" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B88" s="17" t="s">
         <v>2870</v>
       </c>
-      <c r="O86" s="3" t="s">
+      <c r="O88" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A87" s="17" t="s">
+    <row r="89" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A89" s="17" t="s">
         <v>2866</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B89" s="17" t="s">
         <v>2869</v>
       </c>
-      <c r="O87" s="17" t="s">
+      <c r="O89" s="17" t="s">
         <v>2872</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A88" s="17" t="s">
+    <row r="90" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A90" s="17" t="s">
         <v>2867</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B90" s="17" t="s">
         <v>2868</v>
       </c>
-      <c r="O88" s="17" t="s">
+      <c r="O90" s="17" t="s">
         <v>2871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A89" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A90" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O90" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="24.95" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="24.95" customHeight="1">
       <c r="A92" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A94" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="O92" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A94" s="11" t="s">
+    <row r="95" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A96" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B96" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O96" s="3" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A95" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A96" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="24.95" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A98" s="11" t="s">
-        <v>200</v>
+      <c r="A98" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>206</v>
+      <c r="A100" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O100" s="17" t="s">
-        <v>2766</v>
+        <v>201</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="24.95" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="O102" s="17" t="s">
+        <v>2766</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A103" s="17" t="s">
-        <v>2803</v>
+      <c r="A103" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O103" s="17" t="s">
-        <v>2808</v>
+        <v>209</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A105" s="3" t="s">
-        <v>218</v>
+      <c r="A105" s="17" t="s">
+        <v>2803</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="O105" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
+      </c>
+      <c r="O105" s="17" t="s">
+        <v>2808</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="24.95" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>1888</v>
-      </c>
-      <c r="O106" s="17" t="s">
-        <v>1889</v>
+        <v>215</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="O108" s="3" t="s">
-        <v>226</v>
+        <v>1888</v>
+      </c>
+      <c r="O108" s="17" t="s">
+        <v>1889</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A113" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="O111" s="3" t="s">
+      <c r="O113" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A112" s="17" t="s">
+    <row r="114" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A114" s="17" t="s">
         <v>2857</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O112" s="3" t="s">
+      <c r="O114" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A113" s="17" t="s">
+    <row r="115" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A115" s="17" t="s">
         <v>2897</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B115" s="17" t="s">
         <v>2898</v>
       </c>
-      <c r="O113" s="3" t="s">
+      <c r="O115" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="O114" s="3"/>
-    </row>
-    <row r="115" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="O115" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="O116" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="O116" s="3"/>
     </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="O118" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1851</v>
-      </c>
-      <c r="O119" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1853</v>
-      </c>
-      <c r="O120" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
+      </c>
+      <c r="O120" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A121" s="17" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>1855</v>
-      </c>
-      <c r="O121" s="3" t="s">
-        <v>256</v>
+      <c r="A121" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="24.95" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>1856</v>
-      </c>
-      <c r="O122" s="17" t="s">
-        <v>1854</v>
+        <v>253</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>257</v>
+      <c r="A123" s="17" t="s">
+        <v>1852</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="24.95" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>1860</v>
-      </c>
-      <c r="O124" s="3" t="s">
-        <v>260</v>
+        <v>1856</v>
+      </c>
+      <c r="O124" s="17" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="24.95" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O128" s="3"/>
+      <c r="A128" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>1858</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>1857</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="O130" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="O130" s="3"/>
     </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O131" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>1822</v>
+        <v>272</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="24.95" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>1822</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O137" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>1820</v>
+        <v>285</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A139" s="17" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>1822</v>
+      <c r="A139" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>296</v>
+      <c r="A141" s="17" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>1822</v>
       </c>
       <c r="O141" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="24.95" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>1824</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A146" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="O144" s="3" t="s">
+      <c r="O146" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A145" s="3" t="s">
+    <row r="147" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A147" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B147" s="17" t="s">
         <v>2814</v>
       </c>
-      <c r="O145" s="3" t="s">
+      <c r="O147" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O146" s="3"/>
-    </row>
-    <row r="147" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A147" s="17" t="s">
+    <row r="148" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A149" s="17" t="s">
         <v>2811</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="O147" s="17" t="s">
+      <c r="O149" s="17" t="s">
         <v>2810</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A148" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="O148" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A149" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="O149" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="24.95" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="24.95" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="O151" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="24.95" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24.95" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="O153" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
+      </c>
+      <c r="O153" s="7" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O155" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="O156" s="17" t="s">
-        <v>1862</v>
+        <v>324</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="O158" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
+      </c>
+      <c r="O158" s="17" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O159" s="3"/>
+      <c r="A159" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
       <c r="A160" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A162" s="3" t="s">
         <v>1906</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="O160" s="17" t="s">
+      <c r="O162" s="17" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A161" s="17" t="s">
+    <row r="163" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A163" s="17" t="s">
         <v>2895</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B163" s="17" t="s">
         <v>2894</v>
       </c>
-      <c r="O161" s="17" t="s">
+      <c r="O163" s="17" t="s">
         <v>2896</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O162" s="3"/>
-    </row>
-    <row r="163" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A163" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>1825</v>
-      </c>
-      <c r="O163" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
     <row r="164" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A164" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>1826</v>
-      </c>
-      <c r="O164" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="O164" s="3"/>
     </row>
     <row r="165" spans="1:15" ht="24.95" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="O165" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:15" ht="24.95" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="24.95" customHeight="1">
       <c r="A167" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A168" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A169" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B169" s="3" t="s">
         <v>1829</v>
       </c>
-      <c r="O167" s="17" t="s">
+      <c r="O169" s="17" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A168" s="17" t="s">
+    <row r="170" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A170" s="17" t="s">
         <v>1713</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B170" s="17" t="s">
         <v>1831</v>
       </c>
-      <c r="O168" s="17" t="s">
+      <c r="O170" s="17" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A169" s="17" t="s">
+    <row r="171" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A171" s="17" t="s">
         <v>2559</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B171" s="17" t="s">
         <v>2561</v>
       </c>
-      <c r="O169" s="17" t="s">
+      <c r="O171" s="17" t="s">
         <v>2560</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A170" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>1830</v>
-      </c>
-      <c r="O170" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A171" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>1836</v>
-      </c>
-      <c r="O171" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="24.95" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B172" s="17" t="s">
-        <v>1832</v>
+        <v>346</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>1830</v>
       </c>
       <c r="O172" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="24.95" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="24.95" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>534</v>
+        <v>350</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>1832</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="24.95" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="O175" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="24.95" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1835</v>
+        <v>534</v>
       </c>
       <c r="O176" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O177" s="3"/>
+      <c r="A177" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="178" spans="1:15" ht="24.95" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>1835</v>
       </c>
       <c r="O178" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A179" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="O179" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="O179" s="3"/>
     </row>
     <row r="180" spans="1:15" ht="24.95" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O180" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="1:15" ht="24.95" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="24.95" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="24.95" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="24.95" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="24.95" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="24.95" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="24.95" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24.95" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24.95" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="24.95" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A192" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="24.95" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A194" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="O194" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195" spans="1:15" ht="24.95" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="196" spans="1:15" ht="24.95" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="24.95" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="O197" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="24.95" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="O198" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="24.95" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="24.95" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="24.95" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="24.95" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="24.95" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O204" s="3"/>
+      <c r="A204" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="O204" s="3" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="205" spans="1:15" ht="24.95" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A206" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="O206" s="3" t="s">
-        <v>440</v>
-      </c>
+      <c r="O206" s="3"/>
     </row>
     <row r="207" spans="1:15" ht="24.95" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="208" spans="1:15" ht="24.95" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="209" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B209" s="11"/>
-      <c r="O209" s="3"/>
+      <c r="A209" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="210" spans="1:15" ht="24.95" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>385</v>
+        <v>444</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
     </row>
     <row r="211" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A211" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="O211" s="3" t="s">
-        <v>450</v>
-      </c>
+      <c r="B211" s="11"/>
+      <c r="O211" s="3"/>
     </row>
     <row r="212" spans="1:15" ht="24.95" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
     </row>
     <row r="213" spans="1:15" ht="24.95" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
     </row>
     <row r="214" spans="1:15" ht="24.95" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
     </row>
     <row r="215" spans="1:15" ht="24.95" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>397</v>
+        <v>454</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>370</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="24.95" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>456</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O217" s="3"/>
+      <c r="A217" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="218" spans="1:15" ht="24.95" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>462</v>
+        <v>401</v>
       </c>
     </row>
     <row r="219" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A219" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="O219" s="3" t="s">
-        <v>450</v>
-      </c>
+      <c r="O219" s="3"/>
     </row>
     <row r="220" spans="1:15" ht="24.95" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="O220" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O221" s="3"/>
+      <c r="A221" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="222" spans="1:15" ht="24.95" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B222" s="11" t="s">
-        <v>367</v>
+        <v>451</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A223" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B223" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="O223" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="O223" s="3"/>
     </row>
     <row r="224" spans="1:15" ht="24.95" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>467</v>
+        <v>367</v>
       </c>
       <c r="O224" s="3" t="s">
-        <v>468</v>
+        <v>365</v>
       </c>
     </row>
     <row r="225" spans="1:15" ht="24.95" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="O225" s="3" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
     </row>
     <row r="226" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O226" s="3"/>
+      <c r="A226" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="227" spans="1:15" ht="24.95" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O227" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A228" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="O228" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="O228" s="3"/>
     </row>
     <row r="229" spans="1:15" ht="24.95" customHeight="1">
       <c r="A229" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="O229" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="230" spans="1:15" ht="24.95" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="231" spans="1:15" ht="24.95" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="O231" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="24.95" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>486</v>
+        <v>418</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O233" s="3"/>
+      <c r="A233" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="234" spans="1:15" ht="24.95" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="235" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A235" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B235" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="O235" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="O235" s="3"/>
     </row>
     <row r="236" spans="1:15" ht="24.95" customHeight="1">
       <c r="A236" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="24.95" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="24.95" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="24.95" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="24.95" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="24.95" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A242" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="24.95" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>510</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A244" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="O244" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="245" spans="1:15" ht="24.95" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="O245" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="246" spans="1:15" ht="24.95" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="O246" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="247" spans="1:15" ht="24.95" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="O247" s="12" t="s">
-        <v>526</v>
+        <v>519</v>
+      </c>
+      <c r="O247" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="248" spans="1:15" ht="24.95" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="1:15" ht="24.95" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="O249" s="3" t="s">
-        <v>532</v>
+        <v>525</v>
+      </c>
+      <c r="O249" s="12" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="250" spans="1:15" ht="24.95" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="O250" s="12" t="s">
-        <v>535</v>
+        <v>528</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="251" spans="1:15" ht="24.95" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="O251" s="12" t="s">
-        <v>538</v>
+        <v>531</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O252" s="12"/>
+      <c r="A252" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="O252" s="12" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="253" spans="1:15" ht="24.95" customHeight="1">
       <c r="A253" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="O253" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O254" s="12"/>
+    </row>
+    <row r="255" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A255" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B255" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="O253" s="12" t="s">
+      <c r="O255" s="12" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A254" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="O254" s="12" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O255" s="3"/>
     </row>
     <row r="256" spans="1:15" ht="24.95" customHeight="1">
       <c r="A256" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="O256" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
+      </c>
+      <c r="O256" s="12" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="257" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A257" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="O257" s="3" t="s">
-        <v>550</v>
-      </c>
+      <c r="O257" s="3"/>
     </row>
     <row r="258" spans="1:15" ht="24.95" customHeight="1">
       <c r="A258" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A259" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="O259" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A260" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B260" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="O258" s="3" t="s">
+      <c r="O260" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A259" s="17" t="s">
+    <row r="261" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A261" s="17" t="s">
         <v>2831</v>
       </c>
-      <c r="B259" s="17" t="s">
+      <c r="B261" s="17" t="s">
         <v>2839</v>
       </c>
-      <c r="O259" s="17" t="s">
+      <c r="O261" s="17" t="s">
         <v>2832</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A260" s="17" t="s">
+    <row r="262" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A262" s="17" t="s">
         <v>2834</v>
       </c>
-      <c r="B260" s="17" t="s">
+      <c r="B262" s="17" t="s">
         <v>2840</v>
       </c>
-      <c r="O260" s="17" t="s">
+      <c r="O262" s="17" t="s">
         <v>2835</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A261" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="O261" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O262" s="3"/>
     </row>
     <row r="263" spans="1:15" ht="24.95" customHeight="1">
       <c r="A263" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O263" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O264" s="3"/>
+    </row>
+    <row r="265" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A265" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B265" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="O263" s="3" t="s">
+      <c r="O265" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A264" s="11" t="s">
+    <row r="266" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A266" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B266" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="O264" s="3" t="s">
+      <c r="O266" s="3" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A265" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="O265" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O266" s="3"/>
     </row>
     <row r="267" spans="1:15" ht="24.95" customHeight="1">
       <c r="A267" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O268" s="3"/>
+    </row>
+    <row r="269" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A269" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B269" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="O267" s="3" t="s">
+      <c r="O269" s="3" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A268" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B268" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="O268" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O269" s="3"/>
     </row>
     <row r="270" spans="1:15" ht="24.95" customHeight="1">
       <c r="A270" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>570</v>
       </c>
       <c r="O270" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A271" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="O271" s="3" t="s">
-        <v>577</v>
-      </c>
+      <c r="O271" s="3"/>
     </row>
     <row r="272" spans="1:15" ht="24.95" customHeight="1">
       <c r="A272" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="B272" s="11" t="s">
-        <v>579</v>
+        <v>572</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="1:15" ht="24.95" customHeight="1">
       <c r="A273" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="O273" s="3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="274" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O274" s="3"/>
+      <c r="A274" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="O274" s="3" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="275" spans="1:15" ht="24.95" customHeight="1">
       <c r="A275" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O276" s="3"/>
+    </row>
+    <row r="277" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A277" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B277" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="O275" s="3" t="s">
+      <c r="O277" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A276" s="3" t="s">
+    <row r="278" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A278" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B278" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="O276" s="3" t="s">
+      <c r="O278" s="3" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A277" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="O277" s="11" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O278" s="3"/>
     </row>
     <row r="279" spans="1:15" ht="24.95" customHeight="1">
       <c r="A279" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="O279" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O280" s="3"/>
+    </row>
+    <row r="281" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A281" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B281" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="O279" s="11" t="s">
+      <c r="O281" s="11" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A280" s="11"/>
-      <c r="B280" s="11"/>
-      <c r="O280" s="11"/>
-    </row>
-    <row r="281" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A281" s="17" t="s">
-        <v>1919</v>
-      </c>
-      <c r="B281" s="17" t="s">
-        <v>1926</v>
-      </c>
-      <c r="O281" s="17" t="s">
-        <v>1925</v>
-      </c>
-    </row>
     <row r="282" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A282" s="17" t="s">
-        <v>1923</v>
-      </c>
-      <c r="B282" s="17" t="s">
-        <v>1927</v>
-      </c>
-      <c r="O282" s="17" t="s">
-        <v>1924</v>
-      </c>
+      <c r="A282" s="11"/>
+      <c r="B282" s="11"/>
+      <c r="O282" s="11"/>
     </row>
     <row r="283" spans="1:15" ht="24.95" customHeight="1">
       <c r="A283" s="17" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B283" s="17" t="s">
+        <v>1926</v>
+      </c>
+      <c r="O283" s="17" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A284" s="17" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B284" s="17" t="s">
+        <v>1927</v>
+      </c>
+      <c r="O284" s="17" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A285" s="17" t="s">
         <v>1920</v>
       </c>
-      <c r="B283" s="17" t="s">
+      <c r="B285" s="17" t="s">
         <v>1921</v>
       </c>
-      <c r="O283" s="17" t="s">
+      <c r="O285" s="17" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A284" s="11"/>
-      <c r="B284" s="11"/>
-      <c r="O284" s="11"/>
-    </row>
-    <row r="285" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A285" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="O285" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
     <row r="286" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A286" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="O286" s="11" t="s">
-        <v>601</v>
-      </c>
+      <c r="A286" s="11"/>
+      <c r="B286" s="11"/>
+      <c r="O286" s="11"/>
     </row>
     <row r="287" spans="1:15" ht="24.95" customHeight="1">
       <c r="A287" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="O287" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A288" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="O288" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A289" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B289" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="O287" s="12" t="s">
+      <c r="O289" s="12" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A289" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="O289" s="12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A290" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="O290" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="291" spans="1:15" ht="24.95" customHeight="1">
       <c r="A291" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>607</v>
       </c>
       <c r="O291" s="12" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="292" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O292" s="3"/>
+      <c r="A292" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="O292" s="7" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="293" spans="1:15" ht="24.95" customHeight="1">
       <c r="A293" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="O293" s="7" t="s">
-        <v>617</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="O293" s="12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O294" s="3"/>
     </row>
     <row r="295" spans="1:15" ht="24.95" customHeight="1">
       <c r="A295" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="O295" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A297" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B295" s="11" t="s">
+      <c r="B297" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="O295" s="7" t="s">
+      <c r="O297" s="7" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A296" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="O296" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="298" spans="1:15" ht="24.95" customHeight="1">
       <c r="A298" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="O298" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A299" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="O299" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="300" spans="1:15" ht="24.95" customHeight="1">
       <c r="A300" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="O300" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="301" spans="1:15" ht="24.95" customHeight="1">
       <c r="A301" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="O301" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="302" spans="1:15" ht="24.95" customHeight="1">
       <c r="A302" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="O302" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A303" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="O303" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A304" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B304" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="O302" s="7" t="s">
+      <c r="O304" s="7" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A304" s="11" t="s">
+    <row r="306" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A306" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B306" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="O304" s="13" t="s">
+      <c r="O306" s="13" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A305" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="O305" s="13" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A306" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="O306" s="14" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="307" spans="1:15" ht="24.95" customHeight="1">
       <c r="A307" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="O307" s="13" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A308" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O308" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A309" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B309" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="O307" s="11" t="s">
+      <c r="O309" s="11" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A308" s="17" t="s">
+    <row r="310" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A310" s="17" t="s">
         <v>2830</v>
       </c>
-      <c r="B308" s="17" t="s">
+      <c r="B310" s="17" t="s">
         <v>2839</v>
       </c>
-      <c r="O308" s="17" t="s">
+      <c r="O310" s="17" t="s">
         <v>2833</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A309" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="O309" s="11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B310" s="7"/>
-      <c r="M310" s="7"/>
     </row>
     <row r="311" spans="1:15" ht="24.95" customHeight="1">
       <c r="A311" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="O311" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
+      </c>
+      <c r="O311" s="11" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="312" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A312" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>658</v>
-      </c>
+      <c r="B312" s="7"/>
       <c r="M312" s="7"/>
-      <c r="O312" s="13" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="313" spans="1:15" ht="24.95" customHeight="1">
       <c r="A313" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="O313" s="11" t="s">
-        <v>662</v>
+        <v>655</v>
+      </c>
+      <c r="O313" s="3" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="314" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A314" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="O314" s="11" t="s">
-        <v>665</v>
+      <c r="A314" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="M314" s="7"/>
+      <c r="O314" s="13" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="315" spans="1:15" ht="24.95" customHeight="1">
       <c r="A315" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="O315" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A316" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="O316" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A317" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B317" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="O315" s="11" t="s">
+      <c r="O317" s="11" t="s">
         <v>668</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O316" s="3"/>
-    </row>
-    <row r="317" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A317" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="O317" s="11" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="318" spans="1:15" ht="24.95" customHeight="1">
@@ -28847,1526 +28877,1526 @@
     </row>
     <row r="319" spans="1:15" ht="24.95" customHeight="1">
       <c r="A319" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="O319" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O320" s="3"/>
+    </row>
+    <row r="321" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A321" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B321" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="O319" s="11" t="s">
+      <c r="O321" s="11" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A320" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="O320" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A321" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="O321" s="13" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="322" spans="1:15" ht="24.95" customHeight="1">
       <c r="A322" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="O322" s="11" t="s">
-        <v>683</v>
+        <v>676</v>
+      </c>
+      <c r="O322" s="3" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="323" spans="1:15" ht="24.95" customHeight="1">
       <c r="A323" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="O323" s="11" t="s">
-        <v>686</v>
+        <v>679</v>
+      </c>
+      <c r="O323" s="13" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="324" spans="1:15" ht="24.95" customHeight="1">
       <c r="A324" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="O324" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A325" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="O325" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A326" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B326" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="O324" s="3" t="s">
+      <c r="O326" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O325" s="3"/>
-    </row>
-    <row r="326" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A326" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="O326" s="11" t="s">
-        <v>691</v>
-      </c>
-    </row>
     <row r="327" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A327" s="11"/>
-      <c r="O327" s="11"/>
+      <c r="O327" s="3"/>
     </row>
     <row r="328" spans="1:15" ht="24.95" customHeight="1">
       <c r="A328" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="B328" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>690</v>
       </c>
       <c r="O328" s="11" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
     </row>
     <row r="329" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A329" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="O329" s="11" t="s">
-        <v>696</v>
-      </c>
+      <c r="A329" s="11"/>
+      <c r="O329" s="11"/>
     </row>
     <row r="330" spans="1:15" ht="24.95" customHeight="1">
       <c r="A330" s="11" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="O330" s="11" t="s">
-        <v>699</v>
+        <v>656</v>
       </c>
     </row>
     <row r="331" spans="1:15" ht="24.95" customHeight="1">
       <c r="A331" s="11" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="O331" s="11" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="332" spans="1:15" ht="24.95" customHeight="1">
       <c r="A332" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>704</v>
+        <v>697</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>698</v>
       </c>
       <c r="O332" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="333" spans="1:15" ht="24.95" customHeight="1">
       <c r="A333" s="11" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="O333" s="11" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="334" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A334" s="11"/>
-      <c r="B334" s="11"/>
-      <c r="O334" s="11"/>
+      <c r="A334" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="O334" s="11" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="335" spans="1:15" ht="24.95" customHeight="1">
       <c r="A335" s="11" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>1837</v>
+        <v>707</v>
       </c>
       <c r="O335" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="336" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A336" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="B336" s="11" t="s">
-        <v>1838</v>
-      </c>
-      <c r="O336" s="11" t="s">
-        <v>712</v>
-      </c>
+      <c r="A336" s="11"/>
+      <c r="B336" s="11"/>
+      <c r="O336" s="11"/>
     </row>
     <row r="337" spans="1:15" ht="24.95" customHeight="1">
       <c r="A337" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="O337" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="338" spans="1:15" ht="24.95" customHeight="1">
       <c r="A338" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="O338" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="339" spans="1:15" ht="24.95" customHeight="1">
       <c r="A339" s="11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="O339" s="11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="340" spans="1:15" ht="24.95" customHeight="1">
       <c r="A340" s="11" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="O340" s="11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="341" spans="1:15" ht="24.95" customHeight="1">
       <c r="A341" s="11" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="O341" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="24.95" customHeight="1">
       <c r="A342" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="O342" s="11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="343" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A343" s="11"/>
-      <c r="B343" s="11"/>
+      <c r="A343" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O343" s="11" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="344" spans="1:15" ht="24.95" customHeight="1">
       <c r="A344" s="11" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B344" s="17" t="s">
-        <v>2557</v>
-      </c>
-      <c r="O344" s="7" t="s">
-        <v>2555</v>
+        <v>723</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>1844</v>
+      </c>
+      <c r="O344" s="11" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="345" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A345" s="11" t="s">
-        <v>2551</v>
-      </c>
-      <c r="B345" s="17" t="s">
-        <v>2558</v>
-      </c>
-      <c r="O345" s="17" t="s">
-        <v>2554</v>
-      </c>
+      <c r="A345" s="11"/>
+      <c r="B345" s="11"/>
     </row>
     <row r="346" spans="1:15" ht="24.95" customHeight="1">
       <c r="A346" s="11" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B346" s="17" t="s">
+        <v>2557</v>
+      </c>
+      <c r="O346" s="7" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A347" s="11" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B347" s="17" t="s">
+        <v>2558</v>
+      </c>
+      <c r="O347" s="17" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A348" s="11" t="s">
         <v>2552</v>
       </c>
-      <c r="B346" s="11" t="s">
+      <c r="B348" s="11" t="s">
         <v>2556</v>
       </c>
-      <c r="O346" s="17" t="s">
+      <c r="O348" s="17" t="s">
         <v>2553</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A347" s="11"/>
-      <c r="B347" s="11"/>
-      <c r="O347" s="11"/>
-    </row>
-    <row r="348" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A348" s="17" t="s">
+    <row r="349" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A349" s="11"/>
+      <c r="B349" s="11"/>
+      <c r="O349" s="11"/>
+    </row>
+    <row r="350" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A350" s="17" t="s">
         <v>2543</v>
       </c>
-      <c r="B348" s="17" t="s">
+      <c r="B350" s="17" t="s">
         <v>2542</v>
       </c>
-      <c r="O348" s="3" t="s">
+      <c r="O350" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B349" s="11"/>
-      <c r="O349" s="3"/>
-    </row>
-    <row r="350" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A350" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B350" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="O350" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
     <row r="351" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A351" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B351" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="O351" s="3" t="s">
-        <v>730</v>
-      </c>
+      <c r="B351" s="11"/>
+      <c r="O351" s="3"/>
     </row>
     <row r="352" spans="1:15" ht="24.95" customHeight="1">
       <c r="A352" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="O352" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A353" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="O353" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A354" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B352" s="11" t="s">
+      <c r="B354" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="O352" s="17" t="s">
+      <c r="O354" s="17" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O353" s="3"/>
-    </row>
-    <row r="354" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A354" s="17" t="s">
+    <row r="355" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O355" s="3"/>
+    </row>
+    <row r="356" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A356" s="17" t="s">
         <v>1769</v>
       </c>
-      <c r="O354" s="17" t="s">
+      <c r="O356" s="17" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A355" s="17" t="s">
+    <row r="357" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A357" s="17" t="s">
         <v>1770</v>
       </c>
-      <c r="B355" s="17" t="s">
+      <c r="B357" s="17" t="s">
         <v>1743</v>
       </c>
-      <c r="O355" s="17" t="s">
+      <c r="O357" s="17" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A356" s="3" t="s">
+    <row r="358" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A358" s="3" t="s">
         <v>1771</v>
       </c>
-      <c r="B356" s="17" t="s">
+      <c r="B358" s="17" t="s">
         <v>1739</v>
       </c>
-      <c r="O356" s="17" t="s">
+      <c r="O358" s="17" t="s">
         <v>1781</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A357" s="3" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B357" s="17" t="s">
-        <v>1740</v>
-      </c>
-      <c r="O357" s="17" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A358" s="17" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B358" s="17" t="s">
-        <v>1749</v>
-      </c>
-      <c r="O358" s="17" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="359" spans="1:15" ht="24.95" customHeight="1">
       <c r="A359" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
+      </c>
+      <c r="B359" s="17" t="s">
+        <v>1740</v>
       </c>
       <c r="O359" s="17" t="s">
-        <v>1778</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="360" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A360" s="3" t="s">
-        <v>1774</v>
+      <c r="A360" s="17" t="s">
+        <v>1782</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="O360" s="17" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="361" spans="1:15" ht="24.95" customHeight="1">
       <c r="A361" s="3" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B361" s="17" t="s">
-        <v>1742</v>
+        <v>1773</v>
       </c>
       <c r="O361" s="17" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="362" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O362" s="3"/>
+      <c r="A362" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B362" s="17" t="s">
+        <v>1744</v>
+      </c>
+      <c r="O362" s="17" t="s">
+        <v>1780</v>
+      </c>
     </row>
     <row r="363" spans="1:15" ht="24.95" customHeight="1">
       <c r="A363" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B363" s="17" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O363" s="17" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O364" s="3"/>
+    </row>
+    <row r="365" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A365" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B365" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="O363" s="3" t="s">
+      <c r="O365" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A364" s="11" t="s">
+    <row r="366" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A366" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B366" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="O364" s="3" t="s">
+      <c r="O366" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O365" s="3"/>
-    </row>
-    <row r="366" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A366" s="3" t="s">
+    <row r="367" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O367" s="3"/>
+    </row>
+    <row r="368" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A368" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B366" s="17" t="s">
+      <c r="B368" s="17" t="s">
         <v>2751</v>
       </c>
-      <c r="O366" s="3" t="s">
+      <c r="O368" s="3" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A367" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B367" s="17" t="s">
-        <v>2752</v>
-      </c>
-      <c r="O367" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="368" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O368" s="3"/>
     </row>
     <row r="369" spans="1:15" ht="24.95" customHeight="1">
       <c r="A369" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
+      </c>
+      <c r="B369" s="17" t="s">
+        <v>2752</v>
       </c>
       <c r="O369" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="370" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A370" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B370" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="O370" s="3" t="s">
-        <v>748</v>
-      </c>
+      <c r="O370" s="3"/>
     </row>
     <row r="371" spans="1:15" ht="24.95" customHeight="1">
       <c r="A371" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B371" s="11" t="s">
-        <v>749</v>
+        <v>743</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>744</v>
       </c>
       <c r="O371" s="3" t="s">
-        <v>496</v>
+        <v>745</v>
       </c>
     </row>
     <row r="372" spans="1:15" ht="24.95" customHeight="1">
       <c r="A372" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>747</v>
       </c>
       <c r="O372" s="3" t="s">
-        <v>499</v>
+        <v>748</v>
       </c>
     </row>
     <row r="373" spans="1:15" ht="24.95" customHeight="1">
       <c r="A373" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="O373" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A374" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="O374" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A375" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B375" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="O373" s="3" t="s">
+      <c r="O375" s="3" t="s">
         <v>753</v>
-      </c>
-    </row>
-    <row r="374" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A374" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="O374" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="375" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A375" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="B375" s="17" t="s">
-        <v>1719</v>
-      </c>
-      <c r="O375" s="17" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="376" spans="1:15" ht="24.95" customHeight="1">
       <c r="A376" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="O376" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A377" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B377" s="17" t="s">
+        <v>1719</v>
+      </c>
+      <c r="O377" s="17" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A378" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B378" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="O376" s="3" t="s">
+      <c r="O378" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A377" s="3" t="s">
+    <row r="379" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A379" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B379" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="O377" s="3" t="s">
+      <c r="O379" s="3" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A378" s="17" t="s">
+    <row r="380" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A380" s="17" t="s">
         <v>2747</v>
       </c>
-      <c r="B378" s="17" t="s">
+      <c r="B380" s="17" t="s">
         <v>2748</v>
       </c>
-      <c r="O378" s="17" t="s">
+      <c r="O380" s="17" t="s">
         <v>2749</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A379" s="17" t="s">
+    <row r="381" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A381" s="17" t="s">
         <v>1817</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B381" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="O379" s="3" t="s">
+      <c r="O381" s="3" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A380" s="3" t="s">
+    <row r="382" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A382" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B382" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="O380" s="3" t="s">
+      <c r="O382" s="3" t="s">
         <v>768</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A381" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="O381" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="382" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A382" s="17" t="s">
-        <v>2742</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="O382" s="3" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="383" spans="1:15" ht="24.95" customHeight="1">
       <c r="A383" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="O383" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="384" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O384" s="3"/>
+      <c r="A384" s="17" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="O384" s="3" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="385" spans="1:15" ht="24.95" customHeight="1">
       <c r="A385" s="3" t="s">
-        <v>1682</v>
-      </c>
-      <c r="O385" s="17" t="s">
-        <v>2572</v>
+        <v>774</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="O385" s="3" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="386" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A386" s="3" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B386" s="17"/>
-      <c r="O386" s="3" t="s">
-        <v>811</v>
-      </c>
+      <c r="O386" s="3"/>
     </row>
     <row r="387" spans="1:15" ht="24.95" customHeight="1">
       <c r="A387" s="3" t="s">
-        <v>1684</v>
-      </c>
-      <c r="O387" s="3" t="s">
-        <v>1710</v>
+        <v>1682</v>
+      </c>
+      <c r="O387" s="17" t="s">
+        <v>2572</v>
       </c>
     </row>
     <row r="388" spans="1:15" ht="24.95" customHeight="1">
       <c r="A388" s="3" t="s">
-        <v>1685</v>
-      </c>
+        <v>1683</v>
+      </c>
+      <c r="B388" s="17"/>
       <c r="O388" s="3" t="s">
-        <v>1709</v>
+        <v>811</v>
       </c>
     </row>
     <row r="389" spans="1:15" ht="24.95" customHeight="1">
       <c r="A389" s="3" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="O389" s="3" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="390" spans="1:15" ht="24.95" customHeight="1">
       <c r="A390" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="O390" s="3" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A391" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="O391" s="3" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A392" s="3" t="s">
         <v>1687</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B392" s="3" t="s">
         <v>1720</v>
       </c>
-      <c r="O390" s="17" t="s">
+      <c r="O392" s="17" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A391" s="17" t="s">
+    <row r="393" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A393" s="17" t="s">
         <v>1688</v>
       </c>
-      <c r="O391" s="3" t="s">
+      <c r="O393" s="3" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A392" s="17" t="s">
+    <row r="394" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A394" s="17" t="s">
         <v>1692</v>
       </c>
-      <c r="O392" s="3" t="s">
+      <c r="O394" s="3" t="s">
         <v>1707</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A393" s="3" t="s">
-        <v>1689</v>
-      </c>
-      <c r="O393" s="3" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A394" s="3" t="s">
-        <v>1690</v>
-      </c>
-      <c r="O394" s="3" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="395" spans="1:15" ht="24.95" customHeight="1">
       <c r="A395" s="3" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="O395" s="3" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="396" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O396" s="3"/>
+      <c r="A396" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O396" s="3" t="s">
+        <v>1704</v>
+      </c>
     </row>
     <row r="397" spans="1:15" ht="24.95" customHeight="1">
       <c r="A397" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B397" s="17" t="s">
-        <v>1718</v>
+        <v>1691</v>
       </c>
       <c r="O397" s="3" t="s">
-        <v>811</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="398" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A398" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B398" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="O398" s="3" t="s">
-        <v>1702</v>
-      </c>
+      <c r="O398" s="3"/>
     </row>
     <row r="399" spans="1:15" ht="24.95" customHeight="1">
       <c r="A399" s="3" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>750</v>
+        <v>1693</v>
+      </c>
+      <c r="B399" s="17" t="s">
+        <v>1718</v>
       </c>
       <c r="O399" s="3" t="s">
-        <v>499</v>
+        <v>811</v>
       </c>
     </row>
     <row r="400" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A400" s="17" t="s">
-        <v>2539</v>
-      </c>
-      <c r="B400" s="17" t="s">
-        <v>2540</v>
-      </c>
-      <c r="O400" s="17" t="s">
-        <v>2541</v>
+      <c r="A400" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="O400" s="3" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="401" spans="1:15" ht="24.95" customHeight="1">
       <c r="A401" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1720</v>
-      </c>
-      <c r="O401" s="17" t="s">
-        <v>1863</v>
+        <v>750</v>
+      </c>
+      <c r="O401" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="402" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O402" s="3"/>
+      <c r="A402" s="17" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B402" s="17" t="s">
+        <v>2540</v>
+      </c>
+      <c r="O402" s="17" t="s">
+        <v>2541</v>
+      </c>
     </row>
     <row r="403" spans="1:15" ht="24.95" customHeight="1">
       <c r="A403" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="B403" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="O403" s="3" t="s">
-        <v>806</v>
+        <v>1696</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="O403" s="17" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="404" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A404" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="O404" s="3" t="s">
-        <v>809</v>
-      </c>
+      <c r="O404" s="3"/>
     </row>
     <row r="405" spans="1:15" ht="24.95" customHeight="1">
       <c r="A405" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>364</v>
+        <v>804</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="O405" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="406" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O406" s="3"/>
+      <c r="A406" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="O406" s="3" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="407" spans="1:15" ht="24.95" customHeight="1">
       <c r="A407" s="3" t="s">
-        <v>1697</v>
+        <v>810</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="O407" s="3" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="408" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A408" s="3" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>1720</v>
-      </c>
-      <c r="O408" s="17" t="s">
-        <v>1863</v>
-      </c>
+      <c r="O408" s="3"/>
     </row>
     <row r="409" spans="1:15" ht="24.95" customHeight="1">
       <c r="A409" s="3" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="O409" s="3" t="s">
-        <v>1701</v>
+        <v>811</v>
       </c>
     </row>
     <row r="410" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O410" s="3"/>
+      <c r="A410" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="O410" s="17" t="s">
+        <v>1863</v>
+      </c>
     </row>
     <row r="411" spans="1:15" ht="24.95" customHeight="1">
       <c r="A411" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>778</v>
+        <v>1699</v>
       </c>
       <c r="O411" s="3" t="s">
-        <v>779</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="412" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A412" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="O412" s="3" t="s">
-        <v>782</v>
-      </c>
+      <c r="O412" s="3"/>
     </row>
     <row r="413" spans="1:15" ht="24.95" customHeight="1">
       <c r="A413" s="3" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="O413" s="3" t="s">
-        <v>735</v>
+        <v>779</v>
       </c>
     </row>
     <row r="414" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O414" s="3"/>
+      <c r="A414" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="O414" s="3" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="415" spans="1:15" ht="24.95" customHeight="1">
       <c r="A415" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="O415" s="3" t="s">
-        <v>788</v>
+        <v>735</v>
       </c>
     </row>
     <row r="416" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A416" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="B416" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="O416" s="3" t="s">
-        <v>791</v>
-      </c>
+      <c r="O416" s="3"/>
     </row>
     <row r="417" spans="1:15" ht="24.95" customHeight="1">
       <c r="A417" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B417" s="11" t="s">
-        <v>793</v>
+        <v>786</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>787</v>
       </c>
       <c r="O417" s="3" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="418" spans="1:15" ht="24.95" customHeight="1">
       <c r="A418" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B418" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="O418" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A419" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="O419" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A420" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B420" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="O418" s="3" t="s">
+      <c r="O420" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A419" s="11" t="s">
+    <row r="421" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A421" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="B419" s="11" t="s">
+      <c r="B421" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="O419" s="3" t="s">
+      <c r="O421" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A420" s="11" t="s">
+    <row r="422" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A422" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="B420" s="11"/>
-      <c r="O420" s="3" t="s">
+      <c r="B422" s="11"/>
+      <c r="O422" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A421" s="11"/>
-      <c r="B421" s="11"/>
-      <c r="O421" s="3"/>
-    </row>
-    <row r="422" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A422" s="17" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B422" s="17" t="s">
-        <v>1751</v>
-      </c>
-      <c r="O422" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
     <row r="423" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A423" s="11" t="s">
-        <v>1680</v>
-      </c>
+      <c r="A423" s="11"/>
       <c r="B423" s="11"/>
-      <c r="O423" s="3" t="s">
-        <v>1700</v>
-      </c>
+      <c r="O423" s="3"/>
     </row>
     <row r="424" spans="1:15" ht="24.95" customHeight="1">
       <c r="A424" s="17" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B424" s="17" t="s">
-        <v>1904</v>
+        <v>1751</v>
       </c>
       <c r="O424" s="3" t="s">
-        <v>1681</v>
+        <v>794</v>
       </c>
     </row>
     <row r="425" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A425" s="11"/>
+      <c r="A425" s="11" t="s">
+        <v>1680</v>
+      </c>
       <c r="B425" s="11"/>
-      <c r="O425" s="3"/>
+      <c r="O425" s="3" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="426" spans="1:15" ht="24.95" customHeight="1">
       <c r="A426" s="17" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B426" s="17" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O426" s="3" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A427" s="11"/>
+      <c r="B427" s="11"/>
+      <c r="O427" s="3"/>
+    </row>
+    <row r="428" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A428" s="17" t="s">
         <v>1731</v>
       </c>
-      <c r="B426" s="11"/>
-      <c r="O426" s="17" t="s">
+      <c r="B428" s="11"/>
+      <c r="O428" s="17" t="s">
         <v>1732</v>
-      </c>
-    </row>
-    <row r="427" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A427" s="17" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B427" s="17" t="s">
-        <v>1744</v>
-      </c>
-      <c r="O427" s="17" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="428" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A428" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="B428" s="17" t="s">
-        <v>1742</v>
-      </c>
-      <c r="O428" s="17" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="429" spans="1:15" ht="24.95" customHeight="1">
       <c r="A429" s="17" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B429" s="11"/>
+        <v>1735</v>
+      </c>
+      <c r="B429" s="17" t="s">
+        <v>1744</v>
+      </c>
       <c r="O429" s="17" t="s">
-        <v>1734</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="430" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A430" s="17" t="s">
-        <v>1736</v>
+      <c r="A430" s="11" t="s">
+        <v>798</v>
       </c>
       <c r="B430" s="17" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="O430" s="17" t="s">
-        <v>1781</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="431" spans="1:15" ht="24.95" customHeight="1">
       <c r="A431" s="17" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B431" s="17" t="s">
-        <v>1740</v>
-      </c>
+        <v>1733</v>
+      </c>
+      <c r="B431" s="11"/>
       <c r="O431" s="17" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="432" spans="1:15" ht="24.95" customHeight="1">
       <c r="A432" s="17" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B432" s="17" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="O432" s="17" t="s">
-        <v>1748</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="433" spans="1:15" ht="24.95" customHeight="1">
       <c r="A433" s="17" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="B433" s="17" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="O433" s="17" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="434" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A434" s="17"/>
-      <c r="B434" s="17"/>
-      <c r="O434" s="17"/>
+      <c r="A434" s="17" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B434" s="17" t="s">
+        <v>1749</v>
+      </c>
+      <c r="O434" s="17" t="s">
+        <v>1748</v>
+      </c>
     </row>
     <row r="435" spans="1:15" ht="24.95" customHeight="1">
       <c r="A435" s="17" t="s">
-        <v>2828</v>
-      </c>
-      <c r="O435" s="18" t="s">
-        <v>2829</v>
+        <v>1737</v>
+      </c>
+      <c r="B435" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="O435" s="17" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="436" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A436" s="17" t="s">
-        <v>2817</v>
-      </c>
+      <c r="A436" s="17"/>
       <c r="B436" s="17"/>
-      <c r="O436" s="17" t="s">
-        <v>2815</v>
-      </c>
+      <c r="O436" s="17"/>
     </row>
     <row r="437" spans="1:15" ht="24.95" customHeight="1">
       <c r="A437" s="17" t="s">
-        <v>2818</v>
-      </c>
-      <c r="B437" s="17"/>
-      <c r="O437" s="17" t="s">
-        <v>2816</v>
+        <v>2828</v>
+      </c>
+      <c r="O437" s="18" t="s">
+        <v>2829</v>
       </c>
     </row>
     <row r="438" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A438" s="11"/>
-      <c r="B438" s="11"/>
-      <c r="O438" s="3"/>
+      <c r="A438" s="17" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B438" s="17"/>
+      <c r="O438" s="17" t="s">
+        <v>2815</v>
+      </c>
     </row>
     <row r="439" spans="1:15" ht="24.95" customHeight="1">
       <c r="A439" s="17" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B439" s="17" t="s">
-        <v>1905</v>
-      </c>
+        <v>2818</v>
+      </c>
+      <c r="B439" s="17"/>
       <c r="O439" s="17" t="s">
-        <v>1711</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="440" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A440" s="17" t="s">
-        <v>1679</v>
-      </c>
+      <c r="A440" s="11"/>
       <c r="B440" s="11"/>
-      <c r="O440" s="17" t="s">
-        <v>2757</v>
-      </c>
+      <c r="O440" s="3"/>
     </row>
     <row r="441" spans="1:15" ht="24.95" customHeight="1">
       <c r="A441" s="17" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B441" s="17" t="s">
+        <v>1905</v>
+      </c>
+      <c r="O441" s="17" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A442" s="17" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B442" s="11"/>
+      <c r="O442" s="17" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A443" s="17" t="s">
         <v>1712</v>
       </c>
-      <c r="B441" s="17" t="s">
+      <c r="B443" s="17" t="s">
         <v>2758</v>
       </c>
-      <c r="O441" s="17" t="s">
+      <c r="O443" s="17" t="s">
         <v>1903</v>
-      </c>
-    </row>
-    <row r="442" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A442" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="B442" s="11" t="s">
-        <v>2759</v>
-      </c>
-      <c r="O442" s="17" t="s">
-        <v>2761</v>
-      </c>
-    </row>
-    <row r="443" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A443" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="B443" s="17" t="s">
-        <v>2762</v>
-      </c>
-      <c r="O443" s="3" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="444" spans="1:15" ht="24.95" customHeight="1">
       <c r="A444" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="B444" s="11" t="s">
+        <v>2759</v>
+      </c>
+      <c r="O444" s="17" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A445" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="B445" s="17" t="s">
+        <v>2762</v>
+      </c>
+      <c r="O445" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A446" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B446" s="3" t="s">
         <v>2760</v>
       </c>
-      <c r="O444" s="17" t="s">
+      <c r="O446" s="17" t="s">
         <v>2756</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A445" s="11"/>
-      <c r="B445" s="11"/>
-      <c r="O445" s="3"/>
-    </row>
-    <row r="446" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A446" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="O446" s="3" t="s">
-        <v>989</v>
-      </c>
-    </row>
     <row r="447" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A447" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="O447" s="3" t="s">
-        <v>991</v>
-      </c>
+      <c r="A447" s="11"/>
+      <c r="B447" s="11"/>
+      <c r="O447" s="3"/>
     </row>
     <row r="448" spans="1:15" ht="24.95" customHeight="1">
       <c r="A448" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="O448" s="3" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="449" spans="1:15" ht="24.95" customHeight="1">
       <c r="A449" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="O449" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="450" spans="1:15" ht="24.95" customHeight="1">
       <c r="A450" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="O450" s="17" t="s">
-        <v>2863</v>
+        <v>992</v>
+      </c>
+      <c r="O450" s="3" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="451" spans="1:15" ht="24.95" customHeight="1">
       <c r="A451" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="O451" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A452" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="O452" s="17" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A453" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="O451" s="3" t="s">
+      <c r="O453" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O452" s="3"/>
-    </row>
-    <row r="453" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A453" s="11" t="s">
+    <row r="454" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O454" s="3"/>
+    </row>
+    <row r="455" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A455" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B455" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="O453" s="17" t="s">
+      <c r="O455" s="17" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A454" s="17" t="s">
+    <row r="456" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A456" s="17" t="s">
         <v>1721</v>
       </c>
-      <c r="B454" s="17" t="s">
+      <c r="B456" s="17" t="s">
         <v>1902</v>
       </c>
-      <c r="O454" s="17" t="s">
+      <c r="O456" s="17" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A455" s="3" t="s">
+    <row r="457" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A457" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="B457" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="O455" s="3" t="s">
+      <c r="O457" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A456" s="3" t="s">
+    <row r="458" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A458" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B458" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="O456" s="3" t="s">
+      <c r="O458" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A457" s="17" t="s">
+    <row r="459" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A459" s="17" t="s">
         <v>1716</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="B459" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="O457" s="18" t="s">
+      <c r="O459" s="18" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O458" s="3"/>
-    </row>
-    <row r="459" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A459" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="O459" s="3" t="s">
-        <v>823</v>
-      </c>
-    </row>
     <row r="460" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A460" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="O460" s="3" t="s">
-        <v>523</v>
-      </c>
+      <c r="O460" s="3"/>
     </row>
     <row r="461" spans="1:15" ht="24.95" customHeight="1">
       <c r="A461" s="3" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="O461" s="3" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="462" spans="1:15" ht="24.95" customHeight="1">
       <c r="A462" s="3" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>534</v>
+        <v>825</v>
       </c>
       <c r="O462" s="3" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="463" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O463" s="3"/>
+      <c r="A463" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="O463" s="3" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="464" spans="1:15" ht="24.95" customHeight="1">
       <c r="A464" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>831</v>
+        <v>534</v>
       </c>
       <c r="O464" s="3" t="s">
-        <v>832</v>
+        <v>535</v>
       </c>
     </row>
     <row r="465" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A465" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="O465" s="3" t="s">
-        <v>838</v>
-      </c>
+      <c r="O465" s="3"/>
     </row>
     <row r="466" spans="1:15" ht="24.95" customHeight="1">
       <c r="A466" s="3" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="O466" s="3" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
     </row>
     <row r="467" spans="1:15" ht="24.95" customHeight="1">
       <c r="A467" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="O467" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A468" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O468" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A469" s="3" t="s">
         <v>2763</v>
       </c>
-      <c r="O467" s="17" t="s">
+      <c r="O469" s="17" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A468" s="11" t="s">
+    <row r="470" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A470" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="B468" s="11"/>
-      <c r="O468" s="3" t="s">
+      <c r="B470" s="11"/>
+      <c r="O470" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A469" s="17" t="s">
+    <row r="471" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A471" s="17" t="s">
         <v>2549</v>
       </c>
-      <c r="B469" s="17"/>
-      <c r="O469" s="17" t="s">
+      <c r="B471" s="17"/>
+      <c r="O471" s="17" t="s">
         <v>2813</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A470" s="11"/>
-      <c r="B470" s="11"/>
-      <c r="O470" s="3"/>
-    </row>
-    <row r="471" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A471" s="11" t="s">
+    <row r="472" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A472" s="11"/>
+      <c r="B472" s="11"/>
+      <c r="O472" s="3"/>
+    </row>
+    <row r="473" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A473" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="B471" s="17" t="s">
+      <c r="B473" s="17" t="s">
         <v>1758</v>
       </c>
-      <c r="O471" s="3" t="s">
+      <c r="O473" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A472" s="17" t="s">
+    <row r="474" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A474" s="17" t="s">
         <v>1756</v>
       </c>
-      <c r="B472" s="17" t="s">
+      <c r="B474" s="17" t="s">
         <v>1757</v>
       </c>
-      <c r="O472" s="3" t="s">
+      <c r="O474" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A473" s="3" t="s">
+    <row r="475" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A475" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B475" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="O473" s="3" t="s">
+      <c r="O475" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O474" s="3"/>
-    </row>
-    <row r="475" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A475" s="11" t="s">
+    <row r="476" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O476" s="3"/>
+    </row>
+    <row r="477" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A477" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B477" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="O475" s="3" t="s">
+      <c r="O477" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A476" s="3" t="s">
+    <row r="478" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A478" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B478" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="O476" s="3" t="s">
+      <c r="O478" s="3" t="s">
         <v>851</v>
-      </c>
-    </row>
-    <row r="477" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A477" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="O477" s="17" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="478" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A478" s="17" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B478" s="17" t="s">
-        <v>1755</v>
-      </c>
-      <c r="O478" s="17" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="479" spans="1:15" ht="24.95" customHeight="1">
       <c r="A479" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="O479" s="17" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A480" s="17" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B480" s="17" t="s">
+        <v>1755</v>
+      </c>
+      <c r="O480" s="17" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A481" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="B481" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="O479" s="3" t="s">
+      <c r="O481" s="3" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="480" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A480" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="O480" s="3" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="481" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O481" s="3"/>
     </row>
     <row r="482" spans="1:15" ht="24.95" customHeight="1">
       <c r="A482" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="O482" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="483" spans="1:15" ht="24.95" customHeight="1">
@@ -30374,1481 +30404,1481 @@
     </row>
     <row r="484" spans="1:15" ht="24.95" customHeight="1">
       <c r="A484" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="O484" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O485" s="3"/>
+    </row>
+    <row r="486" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A486" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B486" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="O484" s="3" t="s">
+      <c r="O486" s="3" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A485" s="3" t="s">
+    <row r="487" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A487" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B487" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="O485" s="3" t="s">
+      <c r="O487" s="3" t="s">
         <v>868</v>
-      </c>
-    </row>
-    <row r="486" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A486" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="B486" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="O486" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="487" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A487" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="B487" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="O487" s="3" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="488" spans="1:15" ht="24.95" customHeight="1">
       <c r="A488" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>876</v>
+        <v>869</v>
+      </c>
+      <c r="B488" s="11" t="s">
+        <v>870</v>
       </c>
       <c r="O488" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="489" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A489" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B489" s="3" t="s">
-        <v>657</v>
+      <c r="A489" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="B489" s="11" t="s">
+        <v>873</v>
       </c>
       <c r="O489" s="3" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="490" spans="1:15" ht="24.95" customHeight="1">
       <c r="A490" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="B490" s="17" t="s">
-        <v>1900</v>
-      </c>
-      <c r="O490" s="17" t="s">
-        <v>1899</v>
+        <v>875</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="O490" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="491" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A491" s="11"/>
-      <c r="B491" s="11"/>
-      <c r="O491" s="3"/>
+      <c r="A491" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="O491" s="3" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="492" spans="1:15" ht="24.95" customHeight="1">
       <c r="A492" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="B492" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="O492" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
+      </c>
+      <c r="B492" s="17" t="s">
+        <v>1900</v>
+      </c>
+      <c r="O492" s="17" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="493" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A493" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="B493" s="11" t="s">
-        <v>885</v>
-      </c>
-      <c r="O493" s="3" t="s">
-        <v>886</v>
-      </c>
+      <c r="A493" s="11"/>
+      <c r="B493" s="11"/>
+      <c r="O493" s="3"/>
     </row>
     <row r="494" spans="1:15" ht="24.95" customHeight="1">
       <c r="A494" s="11" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B494" s="11" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="O494" s="3" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="495" spans="1:15" ht="24.95" customHeight="1">
       <c r="A495" s="11" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B495" s="11" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="O495" s="3" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="496" spans="1:15" ht="24.95" customHeight="1">
       <c r="A496" s="11" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B496" s="11" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="O496" s="3" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="497" spans="1:15" ht="24.95" customHeight="1">
       <c r="A497" s="11" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B497" s="11" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="O497" s="3" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="498" spans="1:15" ht="24.95" customHeight="1">
       <c r="A498" s="11" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B498" s="11" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="O498" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="499" spans="1:15" ht="24.95" customHeight="1">
       <c r="A499" s="11" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B499" s="11" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="O499" s="3" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="500" spans="1:15" ht="24.95" customHeight="1">
       <c r="A500" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B500" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="O500" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A501" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B501" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="O501" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A502" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="B500" s="11" t="s">
+      <c r="B502" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="O500" s="3" t="s">
+      <c r="O502" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A501" s="11"/>
-      <c r="B501" s="11"/>
-      <c r="O501" s="3"/>
-    </row>
-    <row r="502" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A502" s="17" t="s">
+    <row r="503" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A503" s="11"/>
+      <c r="B503" s="11"/>
+      <c r="O503" s="3"/>
+    </row>
+    <row r="504" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A504" s="17" t="s">
         <v>1884</v>
       </c>
-      <c r="B502" s="11" t="s">
+      <c r="B504" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="O502" s="3" t="s">
+      <c r="O504" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A503" s="17" t="s">
+    <row r="505" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A505" s="17" t="s">
         <v>1885</v>
       </c>
-      <c r="B503" s="11"/>
-      <c r="O503" s="17" t="s">
+      <c r="B505" s="11"/>
+      <c r="O505" s="17" t="s">
         <v>1886</v>
-      </c>
-    </row>
-    <row r="504" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A504" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="B504" s="11" t="s">
-        <v>911</v>
-      </c>
-      <c r="O504" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="505" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A505" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="B505" s="11" t="s">
-        <v>914</v>
-      </c>
-      <c r="O505" s="3" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="506" spans="1:15" ht="24.95" customHeight="1">
       <c r="A506" s="11" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B506" s="11" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="O506" s="3" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="507" spans="1:15" ht="24.95" customHeight="1">
       <c r="A507" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="B507" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="O507" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A508" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="B508" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="O508" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A509" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="B507" s="17" t="s">
+      <c r="B509" s="17" t="s">
         <v>1879</v>
       </c>
-      <c r="O507" s="3" t="s">
+      <c r="O509" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A508" s="11"/>
-      <c r="B508" s="11"/>
-      <c r="O508" s="3"/>
-    </row>
-    <row r="509" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A509" s="3" t="s">
+    <row r="510" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A510" s="11"/>
+      <c r="B510" s="11"/>
+      <c r="O510" s="3"/>
+    </row>
+    <row r="511" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A511" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B509" s="11" t="s">
+      <c r="B511" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="O509" s="3" t="s">
+      <c r="O511" s="3" t="s">
         <v>923</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A510" s="11" t="s">
-        <v>924</v>
-      </c>
-      <c r="B510" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="O510" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A511" s="11" t="s">
-        <v>927</v>
-      </c>
-      <c r="B511" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="O511" s="3" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="512" spans="1:15" ht="24.95" customHeight="1">
       <c r="A512" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B512" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="O512" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A513" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B513" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="O513" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A514" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="B512" s="3" t="s">
+      <c r="B514" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="O512" s="3" t="s">
+      <c r="O514" s="3" t="s">
         <v>932</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A513" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="B513" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="O513" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="514" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A514" s="17" t="s">
-        <v>2544</v>
-      </c>
-      <c r="B514" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="O514" s="3" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="515" spans="1:15" ht="24.95" customHeight="1">
       <c r="A515" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="B515" s="17" t="s">
-        <v>937</v>
-      </c>
-      <c r="O515" s="17" t="s">
-        <v>2545</v>
+        <v>933</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="O515" s="3" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="516" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A516" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>940</v>
+      <c r="A516" s="17" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B516" s="17" t="s">
+        <v>952</v>
       </c>
       <c r="O516" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="517" spans="1:15" ht="24.95" customHeight="1">
       <c r="A517" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B517" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="O517" s="17" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A518" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="O518" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A519" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="B517" s="3" t="s">
+      <c r="B519" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="O517" s="3" t="s">
+      <c r="O519" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A518" s="17" t="s">
+    <row r="520" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A520" s="17" t="s">
         <v>1887</v>
       </c>
-      <c r="B518" s="3" t="s">
+      <c r="B520" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="O518" s="3" t="s">
+      <c r="O520" s="3" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A519" s="11" t="s">
+    <row r="521" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A521" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="B519" s="18" t="s">
+      <c r="B521" s="18" t="s">
         <v>2546</v>
       </c>
-      <c r="O519" s="3" t="s">
+      <c r="O521" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A520" s="11" t="s">
+    <row r="522" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A522" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="B520" s="3" t="s">
+      <c r="B522" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="O520" s="3" t="s">
+      <c r="O522" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A521" s="3" t="s">
+    <row r="523" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A523" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="B521" s="11" t="s">
+      <c r="B523" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="O521" s="3" t="s">
+      <c r="O523" s="3" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="522" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A522" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="B522" s="11" t="s">
-        <v>2547</v>
-      </c>
-      <c r="O522" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B523" s="11"/>
-      <c r="O523" s="3"/>
     </row>
     <row r="524" spans="1:15" ht="24.95" customHeight="1">
       <c r="A524" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>962</v>
+        <v>955</v>
+      </c>
+      <c r="B524" s="11" t="s">
+        <v>2547</v>
       </c>
       <c r="O524" s="3" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="525" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A525" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="B525" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="O525" s="3" t="s">
-        <v>966</v>
-      </c>
+      <c r="B525" s="11"/>
+      <c r="O525" s="3"/>
     </row>
     <row r="526" spans="1:15" ht="24.95" customHeight="1">
       <c r="A526" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="O526" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A527" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B527" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="O527" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="528" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A528" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="B526" s="11" t="s">
+      <c r="B528" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="O526" s="3" t="s">
+      <c r="O528" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O527" s="3"/>
-    </row>
-    <row r="528" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A528" s="17" t="s">
+    <row r="529" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O529" s="3"/>
+    </row>
+    <row r="530" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A530" s="17" t="s">
         <v>1767</v>
       </c>
-      <c r="B528" s="11" t="s">
+      <c r="B530" s="11" t="s">
         <v>970</v>
       </c>
-      <c r="O528" s="3" t="s">
+      <c r="O530" s="3" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A529" s="17" t="s">
+    <row r="531" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A531" s="17" t="s">
         <v>1768</v>
       </c>
-      <c r="B529" s="3" t="s">
+      <c r="B531" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="O529" s="3" t="s">
+      <c r="O531" s="3" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O530" s="3"/>
-    </row>
-    <row r="531" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A531" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="O531" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
     <row r="532" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A532" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="O532" s="3" t="s">
-        <v>978</v>
-      </c>
+      <c r="O532" s="3"/>
     </row>
     <row r="533" spans="1:15" ht="24.95" customHeight="1">
       <c r="A533" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="O533" s="3" t="s">
-        <v>981</v>
+        <v>794</v>
       </c>
     </row>
     <row r="534" spans="1:15" ht="24.95" customHeight="1">
       <c r="A534" s="3" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="O534" s="3" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="535" spans="1:15" ht="24.95" customHeight="1">
       <c r="A535" s="3" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="O535" s="3" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="536" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O536" s="3"/>
+      <c r="A536" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="O536" s="3" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="537" spans="1:15" ht="24.95" customHeight="1">
       <c r="A537" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="O537" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O538" s="3"/>
+    </row>
+    <row r="539" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A539" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="B537" s="3" t="s">
+      <c r="B539" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="O537" s="3" t="s">
+      <c r="O539" s="3" t="s">
         <v>1001</v>
-      </c>
-    </row>
-    <row r="538" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A538" s="11" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B538" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O538" s="3" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="539" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A539" s="11" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B539" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="O539" s="3" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="540" spans="1:15" ht="24.95" customHeight="1">
       <c r="A540" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O540" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A541" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O541" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A542" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="B540" s="3" t="s">
+      <c r="B542" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="O540" s="3" t="s">
+      <c r="O542" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A541" s="3" t="s">
+    <row r="543" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A543" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="B541" s="3" t="s">
+      <c r="B543" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="O541" s="3" t="s">
+      <c r="O543" s="3" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="542" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A542" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O542" s="3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="543" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O543" s="3"/>
     </row>
     <row r="544" spans="1:15" ht="24.95" customHeight="1">
       <c r="A544" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="O544" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="545" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A545" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B545" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="O545" s="3" t="s">
-        <v>1022</v>
-      </c>
+      <c r="O545" s="3"/>
     </row>
     <row r="546" spans="1:15" ht="24.95" customHeight="1">
       <c r="A546" s="3" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="O546" s="3" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="547" spans="1:15" ht="24.95" customHeight="1">
       <c r="A547" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="O547" s="3" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="548" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A548" s="11" t="s">
-        <v>1029</v>
+      <c r="A548" s="3" t="s">
+        <v>1023</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>986</v>
+        <v>1024</v>
       </c>
       <c r="O548" s="3" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="549" spans="1:15" ht="24.95" customHeight="1">
       <c r="A549" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="O549" s="3" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="550" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O550" s="3"/>
+      <c r="A550" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="O550" s="3" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="551" spans="1:15" ht="24.95" customHeight="1">
       <c r="A551" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="O551" s="3" t="s">
-        <v>638</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="552" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A552" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B552" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="O552" s="3" t="s">
-        <v>1037</v>
-      </c>
+      <c r="O552" s="3"/>
     </row>
     <row r="553" spans="1:15" ht="24.95" customHeight="1">
       <c r="A553" s="3" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="O553" s="3" t="s">
-        <v>1040</v>
+        <v>638</v>
       </c>
     </row>
     <row r="554" spans="1:15" ht="24.95" customHeight="1">
       <c r="A554" s="3" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="O554" s="3" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="555" spans="1:15" ht="24.95" customHeight="1">
       <c r="A555" s="3" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="O555" s="3" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="556" spans="1:15" ht="24.95" customHeight="1">
       <c r="A556" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O556" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A557" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O557" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A558" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="B556" s="3" t="s">
+      <c r="B558" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="O556" s="3" t="s">
+      <c r="O558" s="3" t="s">
         <v>1049</v>
-      </c>
-    </row>
-    <row r="557" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A557" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B557" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="O557" s="3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="558" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A558" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="O558" s="3" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="559" spans="1:15" ht="24.95" customHeight="1">
       <c r="A559" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B559" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O559" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A560" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O560" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A561" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="B559" s="3" t="s">
+      <c r="B561" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="O559" s="3" t="s">
+      <c r="O561" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O560" s="3"/>
-    </row>
-    <row r="561" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A561" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O561" s="3" t="s">
-        <v>1061</v>
-      </c>
-    </row>
     <row r="562" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A562" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="O562" s="3" t="s">
-        <v>1064</v>
-      </c>
+      <c r="O562" s="3"/>
     </row>
     <row r="563" spans="1:15" ht="24.95" customHeight="1">
       <c r="A563" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B563" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="O563" s="17" t="s">
-        <v>2548</v>
+        <v>1059</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O563" s="3" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="564" spans="1:15" ht="24.95" customHeight="1">
       <c r="A564" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="O564" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="565" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A565" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B565" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O565" s="17" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A566" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B564" s="3" t="s">
+      <c r="B566" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="O564" s="3" t="s">
+      <c r="O566" s="3" t="s">
         <v>1069</v>
-      </c>
-    </row>
-    <row r="565" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A565" s="11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B565" s="11" t="s">
-        <v>1071</v>
-      </c>
-      <c r="O565" s="3" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="566" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A566" s="11" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B566" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O566" s="3" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="567" spans="1:15" ht="24.95" customHeight="1">
       <c r="A567" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B567" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O567" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A568" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O568" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="569" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A569" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="B567" s="3" t="s">
+      <c r="B569" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="O567" s="3" t="s">
+      <c r="O569" s="3" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="568" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A568" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B568" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="O568" s="3" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="569" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O569" s="3"/>
     </row>
     <row r="570" spans="1:15" ht="24.95" customHeight="1">
       <c r="A570" s="3" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1868</v>
+        <v>1079</v>
       </c>
       <c r="O570" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="571" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A571" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B571" s="3" t="s">
-        <v>1869</v>
-      </c>
-      <c r="O571" s="3" t="s">
-        <v>1084</v>
-      </c>
+      <c r="O571" s="3"/>
     </row>
     <row r="572" spans="1:15" ht="24.95" customHeight="1">
       <c r="A572" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="O572" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="573" spans="1:15" ht="24.95" customHeight="1">
       <c r="A573" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="O573" s="3" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="574" spans="1:15" ht="24.95" customHeight="1">
       <c r="A574" s="3" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="O574" s="3" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="575" spans="1:15" ht="24.95" customHeight="1">
       <c r="A575" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B575" s="17" t="s">
-        <v>1872</v>
-      </c>
-      <c r="O575" s="17" t="s">
-        <v>1811</v>
+        <v>1087</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="O575" s="3" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="576" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A576" s="17" t="s">
-        <v>1873</v>
-      </c>
-      <c r="B576" s="17" t="s">
-        <v>1874</v>
-      </c>
-      <c r="O576" s="17" t="s">
-        <v>1810</v>
+      <c r="A576" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="O576" s="3" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="577" spans="1:15" ht="24.95" customHeight="1">
       <c r="A577" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B577" s="17" t="s">
+        <v>1872</v>
+      </c>
+      <c r="O577" s="17" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A578" s="17" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B578" s="17" t="s">
+        <v>1874</v>
+      </c>
+      <c r="O578" s="17" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A579" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="B577" s="17" t="s">
+      <c r="B579" s="17" t="s">
         <v>1870</v>
       </c>
-      <c r="O577" s="17" t="s">
+      <c r="O579" s="17" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A578" s="3" t="s">
+    <row r="580" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A580" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="B578" s="17" t="s">
+      <c r="B580" s="17" t="s">
         <v>1871</v>
       </c>
-      <c r="O578" s="17" t="s">
+      <c r="O580" s="17" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B579" s="17"/>
-      <c r="O579" s="17"/>
-    </row>
-    <row r="580" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A580" s="17" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B580" s="17" t="s">
-        <v>1931</v>
-      </c>
-      <c r="O580" s="17" t="s">
-        <v>1948</v>
-      </c>
-    </row>
     <row r="581" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A581" s="17" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B581" s="17" t="s">
-        <v>1944</v>
-      </c>
-      <c r="O581" s="17" t="s">
-        <v>1946</v>
-      </c>
+      <c r="B581" s="17"/>
+      <c r="O581" s="17"/>
     </row>
     <row r="582" spans="1:15" ht="24.95" customHeight="1">
       <c r="A582" s="17" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B582" s="17" t="s">
-        <v>1945</v>
+        <v>1931</v>
       </c>
       <c r="O582" s="17" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="583" spans="1:15" ht="24.95" customHeight="1">
       <c r="A583" s="17" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B583" s="17" t="s">
+        <v>1944</v>
+      </c>
+      <c r="O583" s="17" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A584" s="17" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B584" s="17" t="s">
+        <v>1945</v>
+      </c>
+      <c r="O584" s="17" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A585" s="17" t="s">
         <v>1949</v>
       </c>
-      <c r="B583" s="17" t="s">
+      <c r="B585" s="17" t="s">
         <v>1950</v>
       </c>
-      <c r="O583" s="17" t="s">
+      <c r="O585" s="17" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O584" s="3"/>
-    </row>
-    <row r="585" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A585" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B585" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="O585" s="3" t="s">
-        <v>1096</v>
-      </c>
-    </row>
     <row r="586" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A586" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B586" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O586" s="3" t="s">
-        <v>1099</v>
-      </c>
+      <c r="O586" s="3"/>
     </row>
     <row r="587" spans="1:15" ht="24.95" customHeight="1">
       <c r="A587" s="3" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="O587" s="3" t="s">
-        <v>783</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="588" spans="1:15" ht="24.95" customHeight="1">
       <c r="A588" s="3" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="O588" s="17" t="s">
-        <v>1863</v>
+        <v>1098</v>
+      </c>
+      <c r="O588" s="3" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="589" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O589" s="3"/>
+      <c r="A589" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="O589" s="3" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="590" spans="1:15" ht="24.95" customHeight="1">
       <c r="A590" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="O590" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
+      </c>
+      <c r="O590" s="17" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="591" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A591" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B591" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="O591" s="3" t="s">
-        <v>1109</v>
-      </c>
+      <c r="O591" s="3"/>
     </row>
     <row r="592" spans="1:15" ht="24.95" customHeight="1">
       <c r="A592" s="3" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="O592" s="3" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="593" spans="1:15" ht="24.95" customHeight="1">
       <c r="A593" s="3" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="O593" s="3" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="594" spans="1:15" ht="24.95" customHeight="1">
       <c r="A594" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="O594" s="3" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="595" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O595" s="3"/>
+      <c r="A595" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O595" s="3" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="596" spans="1:15" ht="24.95" customHeight="1">
       <c r="A596" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="O596" s="3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="597" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A597" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B597" s="11" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O597" s="3" t="s">
-        <v>1124</v>
-      </c>
+      <c r="O597" s="3"/>
     </row>
     <row r="598" spans="1:15" ht="24.95" customHeight="1">
       <c r="A598" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="O598" s="3" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="599" spans="1:15" ht="24.95" customHeight="1">
       <c r="A599" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B599" s="3" t="s">
-        <v>1129</v>
+        <v>1122</v>
+      </c>
+      <c r="B599" s="11" t="s">
+        <v>1123</v>
       </c>
       <c r="O599" s="3" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="600" spans="1:15" ht="24.95" customHeight="1">
       <c r="A600" s="3" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="O600" s="3" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="601" spans="1:15" ht="24.95" customHeight="1">
       <c r="A601" s="3" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="O601" s="3" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="602" spans="1:15" ht="24.95" customHeight="1">
       <c r="A602" s="3" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>986</v>
+        <v>1132</v>
       </c>
       <c r="O602" s="3" t="s">
-        <v>987</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="603" spans="1:15" ht="24.95" customHeight="1">
       <c r="A603" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O603" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="604" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A604" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="O604" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A605" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B603" s="3" t="s">
+      <c r="B605" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="O603" s="3" t="s">
+      <c r="O605" s="3" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O604" s="3"/>
-    </row>
-    <row r="605" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A605" s="11" t="s">
+    <row r="606" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O606" s="3"/>
+    </row>
+    <row r="607" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A607" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="B605" s="3" t="s">
+      <c r="B607" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="O605" s="3" t="s">
+      <c r="O607" s="3" t="s">
         <v>1143</v>
-      </c>
-    </row>
-    <row r="606" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A606" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B606" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="O606" s="3" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="607" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A607" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B607" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="O607" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="608" spans="1:15" ht="24.95" customHeight="1">
       <c r="A608" s="3" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="O608" s="3" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="609" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O609" s="3"/>
+      <c r="A609" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O609" s="3" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="610" spans="1:15" ht="24.95" customHeight="1">
       <c r="A610" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="O610" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="611" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O611" s="3"/>
+    </row>
+    <row r="612" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A612" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="B610" s="3" t="s">
+      <c r="B612" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="O610" s="3" t="s">
+      <c r="O612" s="3" t="s">
         <v>1155</v>
-      </c>
-    </row>
-    <row r="611" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A611" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B611" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="O611" s="3" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="612" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A612" s="17" t="s">
-        <v>2809</v>
-      </c>
-      <c r="B612" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="O612" s="3" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="613" spans="1:15" ht="24.95" customHeight="1">
       <c r="A613" s="3" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="O613" s="3" t="s">
-        <v>598</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="614" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O614" s="3"/>
+      <c r="A614" s="17" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="O614" s="3" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="615" spans="1:15" ht="24.95" customHeight="1">
       <c r="A615" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>940</v>
+        <v>597</v>
       </c>
       <c r="O615" s="3" t="s">
-        <v>941</v>
+        <v>598</v>
       </c>
     </row>
     <row r="616" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A616" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B616" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="O616" s="3" t="s">
-        <v>1007</v>
-      </c>
+      <c r="O616" s="3"/>
     </row>
     <row r="617" spans="1:15" ht="24.95" customHeight="1">
       <c r="A617" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="O617" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="618" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A618" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O618" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="619" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A619" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="O617" s="3" t="s">
+      <c r="O619" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O618" s="3"/>
-    </row>
-    <row r="619" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A619" s="17" t="s">
+    <row r="620" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O620" s="3"/>
+    </row>
+    <row r="621" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A621" s="17" t="s">
         <v>2878</v>
       </c>
-      <c r="O619" s="17" t="s">
+      <c r="O621" s="17" t="s">
         <v>2880</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A620" s="17" t="s">
+    <row r="622" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A622" s="17" t="s">
         <v>2879</v>
       </c>
-      <c r="O620" s="17" t="s">
+      <c r="O622" s="17" t="s">
         <v>2881</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O621" s="3"/>
-    </row>
-    <row r="622" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A622" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B622" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="O622" s="3" t="s">
-        <v>1167</v>
-      </c>
-    </row>
     <row r="623" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A623" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B623" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="O623" s="3" t="s">
-        <v>1170</v>
-      </c>
+      <c r="O623" s="3"/>
     </row>
     <row r="624" spans="1:15" ht="24.95" customHeight="1">
       <c r="A624" s="3" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>986</v>
+        <v>1166</v>
       </c>
       <c r="O624" s="3" t="s">
-        <v>987</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="625" spans="1:15" ht="24.95" customHeight="1">
       <c r="A625" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="O625" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="626" spans="1:15" ht="24.95" customHeight="1">
       <c r="A626" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="O626" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="627" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A627" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O627" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="628" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A628" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="B626" s="3" t="s">
+      <c r="B628" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="O626" s="3" t="s">
+      <c r="O628" s="3" t="s">
         <v>1177</v>
-      </c>
-    </row>
-    <row r="627" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A627" s="11" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B627" s="17" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O627" s="3" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="628" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A628" s="11" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B628" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="O628" s="3" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="629" spans="1:15" ht="24.95" customHeight="1">
       <c r="A629" s="11" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B629" s="3" t="s">
-        <v>1184</v>
+        <v>1178</v>
+      </c>
+      <c r="B629" s="17" t="s">
+        <v>1930</v>
       </c>
       <c r="O629" s="3" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="630" spans="1:15" ht="24.95" customHeight="1">
       <c r="A630" s="11" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="O630" s="3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="631" spans="1:15" ht="24.95" customHeight="1">
       <c r="A631" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O631" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="632" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A632" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O632" s="3" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="633" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A633" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="B631" s="3" t="s">
+      <c r="B633" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="O631" s="3" t="s">
+      <c r="O633" s="3" t="s">
         <v>1191</v>
-      </c>
-    </row>
-    <row r="632" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O632" s="3"/>
-    </row>
-    <row r="633" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A633" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B633" s="17" t="s">
-        <v>1865</v>
-      </c>
-      <c r="O633" s="3" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="634" spans="1:15" ht="24.95" customHeight="1">
@@ -31856,13 +31886,13 @@
     </row>
     <row r="635" spans="1:15" ht="24.95" customHeight="1">
       <c r="A635" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B635" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
+      </c>
+      <c r="B635" s="17" t="s">
+        <v>1865</v>
       </c>
       <c r="O635" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="636" spans="1:15" ht="24.95" customHeight="1">
@@ -31870,38 +31900,38 @@
     </row>
     <row r="637" spans="1:15" ht="24.95" customHeight="1">
       <c r="A637" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O637" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="638" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O638" s="3"/>
+    </row>
+    <row r="639" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A639" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="B637" s="3" t="s">
+      <c r="B639" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="O637" s="3" t="s">
+      <c r="O639" s="3" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="638" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A638" s="3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B638" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="O638" s="3" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="639" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O639" s="3"/>
     </row>
     <row r="640" spans="1:15" ht="24.95" customHeight="1">
       <c r="A640" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="O640" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="641" spans="1:15" ht="24.95" customHeight="1">
@@ -31909,140 +31939,143 @@
     </row>
     <row r="642" spans="1:15" ht="24.95" customHeight="1">
       <c r="A642" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>1204</v>
       </c>
       <c r="O642" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="643" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A643" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B643" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="O643" s="3" t="s">
-        <v>1210</v>
-      </c>
+      <c r="O643" s="3"/>
     </row>
     <row r="644" spans="1:15" ht="24.95" customHeight="1">
       <c r="A644" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B644" s="3" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="O644" s="3" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="645" spans="1:15" ht="24.95" customHeight="1">
       <c r="A645" s="3" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="O645" s="3" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="646" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O646" s="3"/>
+      <c r="A646" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="O646" s="3" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="647" spans="1:15" ht="24.95" customHeight="1">
       <c r="A647" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="O647" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="648" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A648" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B648" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="O648" s="3" t="s">
-        <v>1222</v>
-      </c>
+      <c r="O648" s="3"/>
     </row>
     <row r="649" spans="1:15" ht="24.95" customHeight="1">
       <c r="A649" s="3" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="O649" s="3" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="650" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O650" s="3"/>
+      <c r="A650" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="O650" s="3" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="651" spans="1:15" ht="24.95" customHeight="1">
       <c r="A651" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O651" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="652" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O652" s="3"/>
+    </row>
+    <row r="653" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A653" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="B651" s="3" t="s">
+      <c r="B653" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="O651" s="3" t="s">
+      <c r="O653" s="3" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="652" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A652" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B652" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="O652" s="3" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="653" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O653" s="3"/>
     </row>
     <row r="654" spans="1:15" ht="24.95" customHeight="1">
       <c r="A654" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O654" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="655" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O655" s="3"/>
+    </row>
+    <row r="656" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A656" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="B654" s="3" t="s">
+      <c r="B656" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="O654" s="3" t="s">
+      <c r="O656" s="3" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="655" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A655" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B655" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="O655" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="656" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O656" s="3"/>
     </row>
     <row r="657" spans="1:15" ht="24.95" customHeight="1">
       <c r="A657" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="O657" s="17" t="s">
-        <v>1878</v>
+        <v>1235</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O657" s="3" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="658" spans="1:15" ht="24.95" customHeight="1">
@@ -32050,38 +32083,35 @@
     </row>
     <row r="659" spans="1:15" ht="24.95" customHeight="1">
       <c r="A659" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="O659" s="17" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="660" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O660" s="3"/>
+    </row>
+    <row r="661" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A661" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="B659" s="11" t="s">
+      <c r="B661" s="11" t="s">
         <v>1240</v>
       </c>
-      <c r="O659" s="3" t="s">
+      <c r="O661" s="3" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="660" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A660" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B660" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O660" s="3" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="661" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O661" s="3"/>
     </row>
     <row r="662" spans="1:15" ht="24.95" customHeight="1">
       <c r="A662" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="O662" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="663" spans="1:15" ht="24.95" customHeight="1">
@@ -32089,38 +32119,38 @@
     </row>
     <row r="664" spans="1:15" ht="24.95" customHeight="1">
       <c r="A664" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="O664" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="665" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O665" s="3"/>
+    </row>
+    <row r="666" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A666" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="B664" s="3" t="s">
+      <c r="B666" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="O664" s="3" t="s">
+      <c r="O666" s="3" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="665" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A665" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B665" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O665" s="3" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="666" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O666" s="3"/>
     </row>
     <row r="667" spans="1:15" ht="24.95" customHeight="1">
       <c r="A667" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B667" s="17" t="s">
-        <v>1867</v>
+        <v>1251</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>1252</v>
       </c>
       <c r="O667" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="668" spans="1:15" ht="24.95" customHeight="1">
@@ -32128,10 +32158,13 @@
     </row>
     <row r="669" spans="1:15" ht="24.95" customHeight="1">
       <c r="A669" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
+      </c>
+      <c r="B669" s="17" t="s">
+        <v>1867</v>
       </c>
       <c r="O669" s="3" t="s">
-        <v>843</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="670" spans="1:15" ht="24.95" customHeight="1">
@@ -32139,13 +32172,10 @@
     </row>
     <row r="671" spans="1:15" ht="24.95" customHeight="1">
       <c r="A671" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B671" s="17" t="s">
-        <v>1866</v>
+        <v>1256</v>
       </c>
       <c r="O671" s="3" t="s">
-        <v>1258</v>
+        <v>843</v>
       </c>
     </row>
     <row r="672" spans="1:15" ht="24.95" customHeight="1">
@@ -32153,122 +32183,130 @@
     </row>
     <row r="673" spans="1:15" ht="24.95" customHeight="1">
       <c r="A673" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B673" s="17" t="s">
+        <v>1866</v>
+      </c>
+      <c r="O673" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="674" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O674" s="3"/>
+    </row>
+    <row r="675" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A675" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="B673" s="3" t="s">
+      <c r="B675" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="O673" s="3" t="s">
+      <c r="O675" s="3" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="674" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A674" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B674" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="O674" s="3" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="675" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O675" s="3"/>
     </row>
     <row r="676" spans="1:15" ht="24.95" customHeight="1">
       <c r="A676" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O676" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="677" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O677" s="3"/>
+    </row>
+    <row r="678" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A678" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="B676" s="3" t="s">
+      <c r="B678" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="O676" s="3" t="s">
+      <c r="O678" s="3" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="677" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A677" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B677" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="O677" s="3" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="678" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O678" s="3"/>
     </row>
     <row r="679" spans="1:15" ht="24.95" customHeight="1">
       <c r="A679" s="3" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="O679" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="680" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A680" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B680" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="O680" s="3" t="s">
-        <v>1276</v>
-      </c>
+      <c r="O680" s="3"/>
     </row>
     <row r="681" spans="1:15" ht="24.95" customHeight="1">
       <c r="A681" s="3" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="O681" s="3" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="682" spans="1:15" ht="24.95" customHeight="1">
       <c r="A682" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="O682" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="683" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A683" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O683" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="684" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A684" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="B682" s="3" t="s">
+      <c r="B684" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="O682" s="3" t="s">
+      <c r="O684" s="3" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O683" s="3"/>
-    </row>
-    <row r="684" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A684" s="17" t="s">
+    <row r="685" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O685" s="3"/>
+    </row>
+    <row r="686" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A686" s="17" t="s">
         <v>1671</v>
       </c>
-      <c r="O684" s="17" t="s">
+      <c r="O686" s="17" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A685" s="17" t="s">
+    <row r="687" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A687" s="17" t="s">
         <v>1672</v>
       </c>
-      <c r="O685" s="18" t="s">
+      <c r="O687" s="18" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="686" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O686" s="3"/>
-    </row>
-    <row r="687" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O687" s="3"/>
     </row>
     <row r="688" spans="1:15" ht="24.95" customHeight="1">
       <c r="O688" s="3"/>
@@ -32555,12 +32593,12 @@
     <row r="782" spans="15:15" ht="24.95" customHeight="1">
       <c r="O782" s="3"/>
     </row>
+    <row r="783" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O783" s="3"/>
+    </row>
     <row r="784" spans="15:15" ht="24.95" customHeight="1">
       <c r="O784" s="3"/>
     </row>
-    <row r="785" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O785" s="3"/>
-    </row>
     <row r="786" spans="15:15" ht="24.95" customHeight="1">
       <c r="O786" s="3"/>
     </row>
@@ -33735,26 +33773,26 @@
       <c r="O1176" s="3"/>
     </row>
     <row r="1177" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1177" s="15"/>
-      <c r="B1177" s="15"/>
-      <c r="D1177" s="15"/>
-      <c r="E1177" s="15"/>
-      <c r="F1177" s="15"/>
-      <c r="G1177" s="15"/>
-      <c r="H1177" s="15"/>
-      <c r="I1177" s="15"/>
-      <c r="J1177" s="15"/>
-      <c r="K1177" s="15"/>
-      <c r="L1177" s="15"/>
-      <c r="M1177" s="15"/>
-      <c r="N1177" s="15"/>
-      <c r="O1177" s="16"/>
+      <c r="O1177" s="3"/>
     </row>
     <row r="1178" spans="1:15" ht="24.95" customHeight="1">
       <c r="O1178" s="3"/>
     </row>
     <row r="1179" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O1179" s="3"/>
+      <c r="A1179" s="15"/>
+      <c r="B1179" s="15"/>
+      <c r="D1179" s="15"/>
+      <c r="E1179" s="15"/>
+      <c r="F1179" s="15"/>
+      <c r="G1179" s="15"/>
+      <c r="H1179" s="15"/>
+      <c r="I1179" s="15"/>
+      <c r="J1179" s="15"/>
+      <c r="K1179" s="15"/>
+      <c r="L1179" s="15"/>
+      <c r="M1179" s="15"/>
+      <c r="N1179" s="15"/>
+      <c r="O1179" s="16"/>
     </row>
     <row r="1180" spans="1:15" ht="24.95" customHeight="1">
       <c r="O1180" s="3"/>
@@ -35265,8 +35303,14 @@
     <row r="1682" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1682" s="3"/>
     </row>
+    <row r="1683" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1683" s="3"/>
+    </row>
+    <row r="1684" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1684" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1385" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1387" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A356609C-45C7-443F-A6A7-523FAB09EB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F64A066-5EE7-4625-8C08-6E87662E938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="645" windowWidth="25635" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Role Description" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1387</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1388</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="2905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="2908">
   <si>
     <t>English</t>
   </si>
@@ -24884,6 +24884,18 @@
   </si>
   <si>
     <t>船员阵营</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalHatsText</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Local Hats</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载离线帽子</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -25659,11 +25671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1684"/>
+  <dimension ref="A1:Q1685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O66" sqref="O66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -25810,6506 +25822,6514 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:17" ht="24.75" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>2906</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>2768</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>2786</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>2769</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>2767</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>2785</v>
+        <v>2768</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>2786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>2782</v>
+        <v>2767</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>2783</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>2784</v>
+        <v>2785</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>2770</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="17" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>2783</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A16" s="17" t="s">
         <v>2789</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>2780</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O16" s="18" t="s">
         <v>2778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>2771</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>2781</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>2777</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="3" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>2781</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>2772</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>2787</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O18" s="18" t="s">
         <v>2776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2779</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>2792</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>2854</v>
+        <v>2799</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>2855</v>
+        <v>2779</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>2856</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>2800</v>
+        <v>2854</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>2801</v>
+        <v>2855</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>2802</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
       <c r="A21" s="17" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>2801</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A22" s="17" t="s">
         <v>2899</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="O21" s="18" t="s">
+      <c r="B22" s="18"/>
+      <c r="O22" s="18" t="s">
         <v>2900</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>2773</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>2788</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O23" s="7" t="s">
         <v>2774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>2775</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>2790</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>2791</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
       <c r="A24" s="17" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>2790</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A25" s="17" t="s">
         <v>2796</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>2798</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O25" s="18" t="s">
         <v>2797</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O25" s="3"/>
-    </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O29" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A29" s="17" t="s">
+    <row r="30" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A30" s="17" t="s">
         <v>1850</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O30" s="7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1846</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1848</v>
-      </c>
-      <c r="O32" s="18" t="s">
-        <v>1762</v>
+        <v>1847</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1845</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>108</v>
+        <v>1848</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>1849</v>
+        <v>107</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1845</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>1849</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1">
       <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O37" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B37" s="7"/>
-    </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A38" s="17" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>2904</v>
-      </c>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>1880</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>1883</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>2904</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
       <c r="A40" s="17" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>1880</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A41" s="17" t="s">
         <v>1882</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O41" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A41" s="18" t="s">
+    <row r="42" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A42" s="18" t="s">
         <v>2750</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O42" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="7"/>
-    </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A43" s="17" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="17" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A46" s="17" t="s">
         <v>2564</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O46" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A46" s="18" t="s">
+    <row r="47" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A47" s="18" t="s">
         <v>2565</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="O47" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-    </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O48" s="7" t="s">
+      <c r="O49" s="7" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>69</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O51" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A51" s="17" t="s">
+    <row r="52" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A52" s="17" t="s">
         <v>2902</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B52" s="18" t="s">
         <v>2903</v>
       </c>
-      <c r="O51" s="18" t="s">
+      <c r="O52" s="18" t="s">
         <v>2901</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A52" s="7"/>
-    </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="A53" s="7"/>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O54" s="18" t="s">
-        <v>1759</v>
+        <v>73</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="O56" s="18" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A58" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="7" t="s">
+      <c r="O58" s="7" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O59" s="18" t="s">
-        <v>1761</v>
+        <v>87</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="O60" s="18" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
       <c r="A62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O63" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O63" s="3"/>
-    </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O64" s="3" t="s">
+      <c r="O65" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O65" s="3"/>
-    </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A66" s="17" t="s">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A67" s="17" t="s">
         <v>1950</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B67" s="17" t="s">
         <v>1950</v>
       </c>
-      <c r="O66" s="17" t="s">
+      <c r="O67" s="17" t="s">
         <v>1951</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="24.95" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A80" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O79" s="3" t="s">
+      <c r="O80" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O80" s="3"/>
-    </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="24.95" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="24.95" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="24.95" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="24.95" customHeight="1">
       <c r="A88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A89" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B89" s="17" t="s">
         <v>2870</v>
       </c>
-      <c r="O88" s="3" t="s">
+      <c r="O89" s="3" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A89" s="17" t="s">
-        <v>2866</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>2869</v>
-      </c>
-      <c r="O89" s="17" t="s">
-        <v>2872</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="24.95" customHeight="1">
       <c r="A90" s="17" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>2869</v>
+      </c>
+      <c r="O90" s="17" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A91" s="17" t="s">
         <v>2867</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B91" s="17" t="s">
         <v>2868</v>
       </c>
-      <c r="O90" s="17" t="s">
+      <c r="O91" s="17" t="s">
         <v>2871</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A91" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="24.95" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="24.95" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="24.95" customHeight="1">
       <c r="A94" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A95" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O95" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O95" s="3"/>
-    </row>
     <row r="96" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A96" s="11" t="s">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A97" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B97" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="O96" s="3" t="s">
+      <c r="O97" s="3" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A97" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="24.95" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1">
       <c r="A99" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A100" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="O99" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A100" s="11" t="s">
+    <row r="101" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A101" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O102" s="17" t="s">
-        <v>2766</v>
+        <v>204</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="O103" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="O103" s="17" t="s">
+        <v>2766</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A105" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="O104" s="3" t="s">
+      <c r="O105" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A105" s="17" t="s">
+    <row r="106" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A106" s="17" t="s">
         <v>2803</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O105" s="17" t="s">
+      <c r="O106" s="17" t="s">
         <v>2808</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A106" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="O106" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>1888</v>
-      </c>
-      <c r="O108" s="17" t="s">
-        <v>1889</v>
+        <v>218</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O109" s="3" t="s">
-        <v>223</v>
+        <v>1888</v>
+      </c>
+      <c r="O109" s="17" t="s">
+        <v>1889</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A114" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="O113" s="3" t="s">
+      <c r="O114" s="3" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A114" s="17" t="s">
-        <v>2857</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O114" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="24.95" customHeight="1">
       <c r="A115" s="17" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A116" s="17" t="s">
         <v>2897</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B116" s="17" t="s">
         <v>2898</v>
       </c>
-      <c r="O115" s="3" t="s">
+      <c r="O116" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="O116" s="3"/>
-    </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="O117" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="O117" s="3"/>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="O120" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="24.95" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1851</v>
+        <v>249</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="24.95" customHeight="1">
       <c r="A122" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="O122" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A123" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>1853</v>
       </c>
-      <c r="O122" s="3" t="s">
+      <c r="O123" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A123" s="17" t="s">
+    <row r="124" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A124" s="17" t="s">
         <v>1852</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B124" s="17" t="s">
         <v>1855</v>
       </c>
-      <c r="O123" s="3" t="s">
+      <c r="O124" s="3" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A124" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>1856</v>
-      </c>
-      <c r="O124" s="17" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="24.95" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>1859</v>
-      </c>
-      <c r="O125" s="3" t="s">
-        <v>258</v>
+        <v>1856</v>
+      </c>
+      <c r="O125" s="17" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
       <c r="A129" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>1858</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A130" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B130" s="17" t="s">
         <v>1857</v>
       </c>
-      <c r="O129" s="3" t="s">
+      <c r="O130" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O130" s="3"/>
-    </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A131" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="O131" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="O131" s="3"/>
     </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="24.95" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>1822</v>
+        <v>274</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>1822</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O137" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="24.95" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="A140" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A141" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B141" s="17" t="s">
         <v>1820</v>
       </c>
-      <c r="O140" s="3" t="s">
+      <c r="O141" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A141" s="17" t="s">
+    <row r="142" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A142" s="17" t="s">
         <v>1821</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B142" s="17" t="s">
         <v>1822</v>
       </c>
-      <c r="O141" s="3" t="s">
+      <c r="O142" s="3" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>1823</v>
-      </c>
-      <c r="O142" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="24.95" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>1823</v>
       </c>
       <c r="O143" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A145" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B145" s="17" t="s">
         <v>1824</v>
       </c>
-      <c r="O144" s="3" t="s">
+      <c r="O145" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O145" s="3"/>
-    </row>
     <row r="146" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O146" s="3" t="s">
-        <v>301</v>
-      </c>
+      <c r="O146" s="3"/>
     </row>
     <row r="147" spans="1:15" ht="24.95" customHeight="1">
       <c r="A147" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A148" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B148" s="17" t="s">
         <v>2814</v>
       </c>
-      <c r="O147" s="3" t="s">
+      <c r="O148" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O148" s="3"/>
-    </row>
     <row r="149" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A149" s="17" t="s">
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A150" s="17" t="s">
         <v>2811</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="O149" s="17" t="s">
+      <c r="O150" s="17" t="s">
         <v>2810</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A150" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="O150" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="24.95" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="24.95" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24.95" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="O153" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="O154" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="O154" s="7" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O155" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O156" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="O158" s="17" t="s">
-        <v>1862</v>
+        <v>327</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="O159" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="O159" s="17" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
       <c r="A160" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A161" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="O160" s="3" t="s">
+      <c r="O161" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O161" s="3"/>
-    </row>
     <row r="162" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A162" s="3" t="s">
+      <c r="O162" s="3"/>
+    </row>
+    <row r="163" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A163" s="3" t="s">
         <v>1906</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B163" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="O162" s="17" t="s">
+      <c r="O163" s="17" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A163" s="17" t="s">
+    <row r="164" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A164" s="17" t="s">
         <v>2895</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B164" s="17" t="s">
         <v>2894</v>
       </c>
-      <c r="O163" s="17" t="s">
+      <c r="O164" s="17" t="s">
         <v>2896</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O164" s="3"/>
-    </row>
     <row r="165" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A165" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>1825</v>
-      </c>
-      <c r="O165" s="3" t="s">
-        <v>338</v>
-      </c>
+      <c r="O165" s="3"/>
     </row>
     <row r="166" spans="1:15" ht="24.95" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="24.95" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="24.95" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="O168" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="24.95" customHeight="1">
       <c r="A169" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A170" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B170" s="3" t="s">
         <v>1829</v>
       </c>
-      <c r="O169" s="17" t="s">
+      <c r="O170" s="17" t="s">
         <v>1928</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A170" s="17" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B170" s="17" t="s">
-        <v>1831</v>
-      </c>
-      <c r="O170" s="17" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="24.95" customHeight="1">
       <c r="A171" s="17" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>1831</v>
+      </c>
+      <c r="O171" s="17" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A172" s="17" t="s">
         <v>2559</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B172" s="17" t="s">
         <v>2561</v>
       </c>
-      <c r="O171" s="17" t="s">
+      <c r="O172" s="17" t="s">
         <v>2560</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A172" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>1830</v>
-      </c>
-      <c r="O172" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="24.95" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="24.95" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>1832</v>
+        <v>348</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>1836</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="24.95" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>1833</v>
+        <v>350</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>1832</v>
       </c>
       <c r="O175" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="24.95" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>534</v>
+        <v>1833</v>
       </c>
       <c r="O176" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="24.95" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1834</v>
+        <v>534</v>
       </c>
       <c r="O177" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="24.95" customHeight="1">
       <c r="A178" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A179" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B179" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="O178" s="3" t="s">
+      <c r="O179" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O179" s="3"/>
-    </row>
     <row r="180" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A180" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="O180" s="3" t="s">
-        <v>362</v>
-      </c>
+      <c r="O180" s="3"/>
     </row>
     <row r="181" spans="1:15" ht="24.95" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="24.95" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="24.95" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="24.95" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="24.95" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="24.95" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="24.95" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24.95" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24.95" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="24.95" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="24.95" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="24.95" customHeight="1">
       <c r="A193" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O193" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A194" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="O193" s="3" t="s">
+      <c r="O194" s="3" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A195" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="O195" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="196" spans="1:15" ht="24.95" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="24.95" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O197" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="24.95" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O198" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="24.95" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="24.95" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="24.95" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="24.95" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="24.95" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="24.95" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="205" spans="1:15" ht="24.95" customHeight="1">
       <c r="A205" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="O205" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A206" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B206" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="O205" s="3" t="s">
+      <c r="O206" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O206" s="3"/>
-    </row>
     <row r="207" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A207" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="O207" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="O207" s="3"/>
     </row>
     <row r="208" spans="1:15" ht="24.95" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="209" spans="1:15" ht="24.95" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O209" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:15" ht="24.95" customHeight="1">
       <c r="A210" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A211" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B211" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="O210" s="3" t="s">
+      <c r="O211" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B211" s="11"/>
-      <c r="O211" s="3"/>
-    </row>
     <row r="212" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A212" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="O212" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="B212" s="11"/>
+      <c r="O212" s="3"/>
     </row>
     <row r="213" spans="1:15" ht="24.95" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>450</v>
+        <v>386</v>
       </c>
     </row>
     <row r="214" spans="1:15" ht="24.95" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="215" spans="1:15" ht="24.95" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="24.95" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>456</v>
+        <v>370</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="24.95" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>397</v>
+        <v>455</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>456</v>
       </c>
       <c r="O217" s="3" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="24.95" customHeight="1">
       <c r="A218" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O218" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A219" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="O218" s="3" t="s">
+      <c r="O219" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O219" s="3"/>
-    </row>
     <row r="220" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A220" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="O220" s="3" t="s">
-        <v>462</v>
-      </c>
+      <c r="O220" s="3"/>
     </row>
     <row r="221" spans="1:15" ht="24.95" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="O221" s="3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="222" spans="1:15" ht="24.95" customHeight="1">
       <c r="A222" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="O222" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A223" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="O222" s="3" t="s">
+      <c r="O223" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O223" s="3"/>
-    </row>
     <row r="224" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A224" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="O224" s="3" t="s">
-        <v>365</v>
-      </c>
+      <c r="O224" s="3"/>
     </row>
     <row r="225" spans="1:15" ht="24.95" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>465</v>
+        <v>367</v>
       </c>
       <c r="O225" s="3" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:15" ht="24.95" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O226" s="3" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
     </row>
     <row r="227" spans="1:15" ht="24.95" customHeight="1">
       <c r="A227" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A228" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B228" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="O227" s="3" t="s">
+      <c r="O228" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O228" s="3"/>
-    </row>
     <row r="229" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A229" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="O229" s="3" t="s">
-        <v>474</v>
-      </c>
+      <c r="O229" s="3"/>
     </row>
     <row r="230" spans="1:15" ht="24.95" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:15" ht="24.95" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="O231" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="24.95" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="24.95" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>418</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="24.95" customHeight="1">
       <c r="A234" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A235" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B235" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="O234" s="3" t="s">
+      <c r="O235" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O235" s="3"/>
-    </row>
     <row r="236" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A236" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="O236" s="3" t="s">
-        <v>490</v>
-      </c>
+      <c r="O236" s="3"/>
     </row>
     <row r="237" spans="1:15" ht="24.95" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="24.95" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="24.95" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="24.95" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="24.95" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:15" ht="24.95" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="24.95" customHeight="1">
       <c r="A243" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A244" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B244" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="O243" s="3" t="s">
+      <c r="O244" s="3" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A245" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="O245" s="3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="246" spans="1:15" ht="24.95" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O246" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="247" spans="1:15" ht="24.95" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="248" spans="1:15" ht="24.95" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="249" spans="1:15" ht="24.95" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="O249" s="12" t="s">
-        <v>526</v>
+        <v>522</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="1:15" ht="24.95" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="O250" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
+      </c>
+      <c r="O250" s="12" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="1:15" ht="24.95" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O251" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="24.95" customHeight="1">
       <c r="A252" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="O252" s="12" t="s">
-        <v>535</v>
+        <v>531</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="24.95" customHeight="1">
       <c r="A253" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="O253" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A254" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B254" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="O253" s="12" t="s">
+      <c r="O254" s="12" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O254" s="12"/>
-    </row>
     <row r="255" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A255" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="O255" s="12" t="s">
-        <v>541</v>
-      </c>
+      <c r="O255" s="12"/>
     </row>
     <row r="256" spans="1:15" ht="24.95" customHeight="1">
       <c r="A256" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="O256" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A257" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B257" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="O256" s="12" t="s">
+      <c r="O257" s="12" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O257" s="3"/>
-    </row>
     <row r="258" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A258" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="O258" s="3" t="s">
-        <v>547</v>
-      </c>
+      <c r="O258" s="3"/>
     </row>
     <row r="259" spans="1:15" ht="24.95" customHeight="1">
       <c r="A259" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="O259" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="260" spans="1:15" ht="24.95" customHeight="1">
       <c r="A260" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="O260" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A261" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B261" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="O260" s="3" t="s">
+      <c r="O261" s="3" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A261" s="17" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B261" s="17" t="s">
-        <v>2839</v>
-      </c>
-      <c r="O261" s="17" t="s">
-        <v>2832</v>
       </c>
     </row>
     <row r="262" spans="1:15" ht="24.95" customHeight="1">
       <c r="A262" s="17" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>2839</v>
+      </c>
+      <c r="O262" s="17" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A263" s="17" t="s">
         <v>2834</v>
       </c>
-      <c r="B262" s="17" t="s">
+      <c r="B263" s="17" t="s">
         <v>2840</v>
       </c>
-      <c r="O262" s="17" t="s">
+      <c r="O263" s="17" t="s">
         <v>2835</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A263" s="3" t="s">
+    <row r="264" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A264" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B264" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="O263" s="3" t="s">
+      <c r="O264" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O264" s="3"/>
-    </row>
     <row r="265" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A265" s="3" t="s">
+      <c r="O265" s="3"/>
+    </row>
+    <row r="266" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A266" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B265" s="11" t="s">
+      <c r="B266" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="O265" s="3" t="s">
+      <c r="O266" s="3" t="s">
         <v>559</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A266" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="O266" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="267" spans="1:15" ht="24.95" customHeight="1">
       <c r="A267" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A268" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="B267" s="11" t="s">
+      <c r="B268" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="O267" s="3" t="s">
+      <c r="O268" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O268" s="3"/>
-    </row>
     <row r="269" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A269" s="11" t="s">
+      <c r="O269" s="3"/>
+    </row>
+    <row r="270" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A270" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B270" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="O269" s="3" t="s">
+      <c r="O270" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A270" s="3" t="s">
+    <row r="271" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A271" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B271" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="O270" s="3" t="s">
+      <c r="O271" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O271" s="3"/>
-    </row>
     <row r="272" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A272" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="O272" s="3" t="s">
-        <v>574</v>
-      </c>
+      <c r="O272" s="3"/>
     </row>
     <row r="273" spans="1:15" ht="24.95" customHeight="1">
       <c r="A273" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B273" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="O273" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="1:15" ht="24.95" customHeight="1">
       <c r="A274" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="O274" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="275" spans="1:15" ht="24.95" customHeight="1">
       <c r="A275" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A276" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B276" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="O275" s="3" t="s">
+      <c r="O276" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O276" s="3"/>
-    </row>
     <row r="277" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A277" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="O277" s="3" t="s">
-        <v>586</v>
-      </c>
+      <c r="O277" s="3"/>
     </row>
     <row r="278" spans="1:15" ht="24.95" customHeight="1">
       <c r="A278" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="O278" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A279" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B279" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="O278" s="3" t="s">
+      <c r="O279" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A279" s="11" t="s">
+    <row r="280" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A280" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B280" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="O279" s="11" t="s">
+      <c r="O280" s="11" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O280" s="3"/>
-    </row>
     <row r="281" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A281" s="11" t="s">
+      <c r="O281" s="3"/>
+    </row>
+    <row r="282" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A282" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="B282" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="O281" s="11" t="s">
+      <c r="O282" s="11" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11"/>
-      <c r="O282" s="11"/>
-    </row>
     <row r="283" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A283" s="17" t="s">
-        <v>1919</v>
-      </c>
-      <c r="B283" s="17" t="s">
-        <v>1926</v>
-      </c>
-      <c r="O283" s="17" t="s">
-        <v>1925</v>
-      </c>
+      <c r="A283" s="11"/>
+      <c r="B283" s="11"/>
+      <c r="O283" s="11"/>
     </row>
     <row r="284" spans="1:15" ht="24.95" customHeight="1">
       <c r="A284" s="17" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="O284" s="17" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="285" spans="1:15" ht="24.95" customHeight="1">
       <c r="A285" s="17" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B285" s="17" t="s">
+        <v>1927</v>
+      </c>
+      <c r="O285" s="17" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A286" s="17" t="s">
         <v>1920</v>
       </c>
-      <c r="B285" s="17" t="s">
+      <c r="B286" s="17" t="s">
         <v>1921</v>
       </c>
-      <c r="O285" s="17" t="s">
+      <c r="O286" s="17" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A286" s="11"/>
-      <c r="B286" s="11"/>
-      <c r="O286" s="11"/>
-    </row>
     <row r="287" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A287" s="11" t="s">
+      <c r="A287" s="11"/>
+      <c r="B287" s="11"/>
+      <c r="O287" s="11"/>
+    </row>
+    <row r="288" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A288" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B288" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="O287" s="3" t="s">
+      <c r="O288" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A288" s="3" t="s">
+    <row r="289" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A289" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B289" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="O288" s="11" t="s">
+      <c r="O289" s="11" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A289" s="11" t="s">
+    <row r="290" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A290" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B290" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="O289" s="12" t="s">
+      <c r="O290" s="12" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A291" s="3" t="s">
+    <row r="292" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A292" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B291" s="11" t="s">
+      <c r="B292" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="O291" s="12" t="s">
+      <c r="O292" s="12" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A292" s="11" t="s">
+    <row r="293" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A293" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B293" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="O292" s="7" t="s">
+      <c r="O293" s="7" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A293" s="3" t="s">
+    <row r="294" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A294" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B294" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="O293" s="12" t="s">
+      <c r="O294" s="12" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O294" s="3"/>
-    </row>
     <row r="295" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A295" s="3" t="s">
+      <c r="O295" s="3"/>
+    </row>
+    <row r="296" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A296" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B296" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="O295" s="7" t="s">
+      <c r="O296" s="7" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A297" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B297" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="O297" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="298" spans="1:15" ht="24.95" customHeight="1">
       <c r="A298" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="O298" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A299" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B299" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="O298" s="7" t="s">
+      <c r="O299" s="7" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A300" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="O300" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="301" spans="1:15" ht="24.95" customHeight="1">
       <c r="A301" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="O301" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="302" spans="1:15" ht="24.95" customHeight="1">
       <c r="A302" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O302" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="303" spans="1:15" ht="24.95" customHeight="1">
       <c r="A303" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="304" spans="1:15" ht="24.95" customHeight="1">
       <c r="A304" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="O304" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A305" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B305" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="O304" s="7" t="s">
+      <c r="O305" s="7" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A306" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="O306" s="13" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="307" spans="1:15" ht="24.95" customHeight="1">
       <c r="A307" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="O307" s="13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A308" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B308" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="O307" s="13" t="s">
+      <c r="O308" s="13" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A308" s="3" t="s">
+    <row r="309" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A309" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B309" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="O308" s="14" t="s">
+      <c r="O309" s="14" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A309" s="11" t="s">
+    <row r="310" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A310" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B310" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="O309" s="11" t="s">
+      <c r="O310" s="11" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A310" s="17" t="s">
+    <row r="311" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A311" s="17" t="s">
         <v>2830</v>
       </c>
-      <c r="B310" s="17" t="s">
+      <c r="B311" s="17" t="s">
         <v>2839</v>
       </c>
-      <c r="O310" s="17" t="s">
+      <c r="O311" s="17" t="s">
         <v>2833</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A311" s="3" t="s">
+    <row r="312" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A312" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B312" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="O311" s="11" t="s">
+      <c r="O312" s="11" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B312" s="7"/>
-      <c r="M312" s="7"/>
-    </row>
     <row r="313" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A313" s="3" t="s">
+      <c r="B313" s="7"/>
+      <c r="M313" s="7"/>
+    </row>
+    <row r="314" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A314" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B314" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="O313" s="3" t="s">
+      <c r="O314" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A314" s="11" t="s">
+    <row r="315" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A315" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B315" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="M314" s="7"/>
-      <c r="O314" s="13" t="s">
+      <c r="M315" s="7"/>
+      <c r="O315" s="13" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A315" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="O315" s="11" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="316" spans="1:15" ht="24.95" customHeight="1">
       <c r="A316" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="O316" s="11" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="317" spans="1:15" ht="24.95" customHeight="1">
       <c r="A317" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="O317" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A318" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B318" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="O317" s="11" t="s">
+      <c r="O318" s="11" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O318" s="3"/>
-    </row>
     <row r="319" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A319" s="11" t="s">
+      <c r="O319" s="3"/>
+    </row>
+    <row r="320" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A320" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B320" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="O319" s="11" t="s">
+      <c r="O320" s="11" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O320" s="3"/>
-    </row>
     <row r="321" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A321" s="11" t="s">
+      <c r="O321" s="3"/>
+    </row>
+    <row r="322" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A322" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B322" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="O321" s="11" t="s">
+      <c r="O322" s="11" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A322" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="O322" s="3" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="323" spans="1:15" ht="24.95" customHeight="1">
       <c r="A323" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="O323" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
+      </c>
+      <c r="O323" s="3" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="324" spans="1:15" ht="24.95" customHeight="1">
       <c r="A324" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="O324" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
+      </c>
+      <c r="O324" s="13" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="325" spans="1:15" ht="24.95" customHeight="1">
       <c r="A325" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="O325" s="11" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="326" spans="1:15" ht="24.95" customHeight="1">
       <c r="A326" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="O326" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A327" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B327" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="O326" s="3" t="s">
+      <c r="O327" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O327" s="3"/>
-    </row>
     <row r="328" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A328" s="11" t="s">
+      <c r="O328" s="3"/>
+    </row>
+    <row r="329" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A329" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B329" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="O328" s="11" t="s">
+      <c r="O329" s="11" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A329" s="11"/>
-      <c r="O329" s="11"/>
-    </row>
     <row r="330" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A330" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="B330" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="O330" s="11" t="s">
-        <v>656</v>
-      </c>
+      <c r="A330" s="11"/>
+      <c r="O330" s="11"/>
     </row>
     <row r="331" spans="1:15" ht="24.95" customHeight="1">
       <c r="A331" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="O331" s="11" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
     </row>
     <row r="332" spans="1:15" ht="24.95" customHeight="1">
       <c r="A332" s="11" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="O332" s="11" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="333" spans="1:15" ht="24.95" customHeight="1">
       <c r="A333" s="11" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="O333" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="334" spans="1:15" ht="24.95" customHeight="1">
       <c r="A334" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>701</v>
       </c>
       <c r="O334" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="335" spans="1:15" ht="24.95" customHeight="1">
       <c r="A335" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="O335" s="11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A336" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="B335" s="11" t="s">
+      <c r="B336" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="O335" s="11" t="s">
+      <c r="O336" s="11" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A336" s="11"/>
-      <c r="B336" s="11"/>
-      <c r="O336" s="11"/>
-    </row>
     <row r="337" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A337" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="B337" s="11" t="s">
-        <v>1837</v>
-      </c>
-      <c r="O337" s="11" t="s">
-        <v>710</v>
-      </c>
+      <c r="A337" s="11"/>
+      <c r="B337" s="11"/>
+      <c r="O337" s="11"/>
     </row>
     <row r="338" spans="1:15" ht="24.95" customHeight="1">
       <c r="A338" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="O338" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="339" spans="1:15" ht="24.95" customHeight="1">
       <c r="A339" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="O339" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="340" spans="1:15" ht="24.95" customHeight="1">
       <c r="A340" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="O340" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="341" spans="1:15" ht="24.95" customHeight="1">
       <c r="A341" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="O341" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="24.95" customHeight="1">
       <c r="A342" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="O342" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="343" spans="1:15" ht="24.95" customHeight="1">
       <c r="A343" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="O343" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="344" spans="1:15" ht="24.95" customHeight="1">
       <c r="A344" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O344" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A345" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="B344" s="11" t="s">
+      <c r="B345" s="11" t="s">
         <v>1844</v>
       </c>
-      <c r="O344" s="11" t="s">
+      <c r="O345" s="11" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A345" s="11"/>
-      <c r="B345" s="11"/>
-    </row>
     <row r="346" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A346" s="11" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B346" s="17" t="s">
-        <v>2557</v>
-      </c>
-      <c r="O346" s="7" t="s">
-        <v>2555</v>
-      </c>
+      <c r="A346" s="11"/>
+      <c r="B346" s="11"/>
     </row>
     <row r="347" spans="1:15" ht="24.95" customHeight="1">
       <c r="A347" s="11" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B347" s="17" t="s">
-        <v>2558</v>
-      </c>
-      <c r="O347" s="17" t="s">
-        <v>2554</v>
+        <v>2557</v>
+      </c>
+      <c r="O347" s="7" t="s">
+        <v>2555</v>
       </c>
     </row>
     <row r="348" spans="1:15" ht="24.95" customHeight="1">
       <c r="A348" s="11" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>2558</v>
+      </c>
+      <c r="O348" s="17" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A349" s="11" t="s">
         <v>2552</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B349" s="11" t="s">
         <v>2556</v>
       </c>
-      <c r="O348" s="17" t="s">
+      <c r="O349" s="17" t="s">
         <v>2553</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A349" s="11"/>
-      <c r="B349" s="11"/>
-      <c r="O349" s="11"/>
-    </row>
     <row r="350" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A350" s="17" t="s">
+      <c r="A350" s="11"/>
+      <c r="B350" s="11"/>
+      <c r="O350" s="11"/>
+    </row>
+    <row r="351" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A351" s="17" t="s">
         <v>2543</v>
       </c>
-      <c r="B350" s="17" t="s">
+      <c r="B351" s="17" t="s">
         <v>2542</v>
       </c>
-      <c r="O350" s="3" t="s">
+      <c r="O351" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B351" s="11"/>
-      <c r="O351" s="3"/>
-    </row>
     <row r="352" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A352" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B352" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="O352" s="3" t="s">
-        <v>727</v>
-      </c>
+      <c r="B352" s="11"/>
+      <c r="O352" s="3"/>
     </row>
     <row r="353" spans="1:15" ht="24.95" customHeight="1">
       <c r="A353" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="O353" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="354" spans="1:15" ht="24.95" customHeight="1">
       <c r="A354" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="O354" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A355" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B354" s="11" t="s">
+      <c r="B355" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="O354" s="17" t="s">
+      <c r="O355" s="17" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O355" s="3"/>
-    </row>
     <row r="356" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A356" s="17" t="s">
-        <v>1769</v>
-      </c>
-      <c r="O356" s="17" t="s">
-        <v>1776</v>
-      </c>
+      <c r="O356" s="3"/>
     </row>
     <row r="357" spans="1:15" ht="24.95" customHeight="1">
       <c r="A357" s="17" t="s">
+        <v>1769</v>
+      </c>
+      <c r="O357" s="17" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A358" s="17" t="s">
         <v>1770</v>
       </c>
-      <c r="B357" s="17" t="s">
+      <c r="B358" s="17" t="s">
         <v>1743</v>
       </c>
-      <c r="O357" s="17" t="s">
+      <c r="O358" s="17" t="s">
         <v>1777</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A358" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B358" s="17" t="s">
-        <v>1739</v>
-      </c>
-      <c r="O358" s="17" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="359" spans="1:15" ht="24.95" customHeight="1">
       <c r="A359" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B359" s="17" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O359" s="17" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A360" s="3" t="s">
         <v>1772</v>
       </c>
-      <c r="B359" s="17" t="s">
+      <c r="B360" s="17" t="s">
         <v>1740</v>
       </c>
-      <c r="O359" s="17" t="s">
+      <c r="O360" s="17" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A360" s="17" t="s">
+    <row r="361" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A361" s="17" t="s">
         <v>1782</v>
       </c>
-      <c r="B360" s="17" t="s">
+      <c r="B361" s="17" t="s">
         <v>1749</v>
       </c>
-      <c r="O360" s="17" t="s">
+      <c r="O361" s="17" t="s">
         <v>1783</v>
-      </c>
-    </row>
-    <row r="361" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A361" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="O361" s="17" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="362" spans="1:15" ht="24.95" customHeight="1">
       <c r="A362" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B362" s="17" t="s">
-        <v>1744</v>
+        <v>1773</v>
       </c>
       <c r="O362" s="17" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="363" spans="1:15" ht="24.95" customHeight="1">
       <c r="A363" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B363" s="17" t="s">
+        <v>1744</v>
+      </c>
+      <c r="O363" s="17" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A364" s="3" t="s">
         <v>1775</v>
       </c>
-      <c r="B363" s="17" t="s">
+      <c r="B364" s="17" t="s">
         <v>1742</v>
       </c>
-      <c r="O363" s="17" t="s">
+      <c r="O364" s="17" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O364" s="3"/>
-    </row>
     <row r="365" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A365" s="3" t="s">
+      <c r="O365" s="3"/>
+    </row>
+    <row r="366" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A366" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B366" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="O365" s="3" t="s">
+      <c r="O366" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A366" s="11" t="s">
+    <row r="367" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A367" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B367" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="O366" s="3" t="s">
+      <c r="O367" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O367" s="3"/>
-    </row>
     <row r="368" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A368" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="B368" s="17" t="s">
-        <v>2751</v>
-      </c>
-      <c r="O368" s="3" t="s">
-        <v>740</v>
-      </c>
+      <c r="O368" s="3"/>
     </row>
     <row r="369" spans="1:15" ht="24.95" customHeight="1">
       <c r="A369" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B369" s="17" t="s">
+        <v>2751</v>
+      </c>
+      <c r="O369" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A370" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="B369" s="17" t="s">
+      <c r="B370" s="17" t="s">
         <v>2752</v>
       </c>
-      <c r="O369" s="3" t="s">
+      <c r="O370" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O370" s="3"/>
-    </row>
     <row r="371" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A371" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="O371" s="3" t="s">
-        <v>745</v>
-      </c>
+      <c r="O371" s="3"/>
     </row>
     <row r="372" spans="1:15" ht="24.95" customHeight="1">
       <c r="A372" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B372" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>744</v>
       </c>
       <c r="O372" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="373" spans="1:15" ht="24.95" customHeight="1">
       <c r="A373" s="3" t="s">
-        <v>1676</v>
+        <v>746</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O373" s="3" t="s">
-        <v>496</v>
+        <v>748</v>
       </c>
     </row>
     <row r="374" spans="1:15" ht="24.95" customHeight="1">
       <c r="A374" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>750</v>
+        <v>1676</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>749</v>
       </c>
       <c r="O374" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="375" spans="1:15" ht="24.95" customHeight="1">
       <c r="A375" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="O375" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A376" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B376" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="O375" s="3" t="s">
+      <c r="O376" s="3" t="s">
         <v>753</v>
-      </c>
-    </row>
-    <row r="376" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A376" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="O376" s="3" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="377" spans="1:15" ht="24.95" customHeight="1">
       <c r="A377" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="B377" s="17" t="s">
-        <v>1719</v>
-      </c>
-      <c r="O377" s="17" t="s">
-        <v>1864</v>
+        <v>754</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="O377" s="3" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="378" spans="1:15" ht="24.95" customHeight="1">
       <c r="A378" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B378" s="17" t="s">
+        <v>1719</v>
+      </c>
+      <c r="O378" s="17" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A379" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B379" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="O378" s="3" t="s">
+      <c r="O379" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A379" s="3" t="s">
+    <row r="380" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A380" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B380" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="O379" s="3" t="s">
+      <c r="O380" s="3" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="380" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A380" s="17" t="s">
-        <v>2747</v>
-      </c>
-      <c r="B380" s="17" t="s">
-        <v>2748</v>
-      </c>
-      <c r="O380" s="17" t="s">
-        <v>2749</v>
       </c>
     </row>
     <row r="381" spans="1:15" ht="24.95" customHeight="1">
       <c r="A381" s="17" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B381" s="17" t="s">
+        <v>2748</v>
+      </c>
+      <c r="O381" s="17" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A382" s="17" t="s">
         <v>1817</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B382" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="O381" s="3" t="s">
+      <c r="O382" s="3" t="s">
         <v>765</v>
-      </c>
-    </row>
-    <row r="382" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A382" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="O382" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="383" spans="1:15" ht="24.95" customHeight="1">
       <c r="A383" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="O383" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A384" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B384" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="O383" s="3" t="s">
+      <c r="O384" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A384" s="17" t="s">
+    <row r="385" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A385" s="17" t="s">
         <v>2742</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B385" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="O384" s="3" t="s">
+      <c r="O385" s="3" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A385" s="3" t="s">
+    <row r="386" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A386" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B386" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="O385" s="3" t="s">
+      <c r="O386" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O386" s="3"/>
-    </row>
     <row r="387" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A387" s="3" t="s">
-        <v>1682</v>
-      </c>
-      <c r="O387" s="17" t="s">
-        <v>2572</v>
-      </c>
+      <c r="O387" s="3"/>
     </row>
     <row r="388" spans="1:15" ht="24.95" customHeight="1">
       <c r="A388" s="3" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B388" s="17"/>
-      <c r="O388" s="3" t="s">
-        <v>811</v>
+        <v>1682</v>
+      </c>
+      <c r="O388" s="17" t="s">
+        <v>2572</v>
       </c>
     </row>
     <row r="389" spans="1:15" ht="24.95" customHeight="1">
       <c r="A389" s="3" t="s">
-        <v>1684</v>
-      </c>
+        <v>1683</v>
+      </c>
+      <c r="B389" s="17"/>
       <c r="O389" s="3" t="s">
-        <v>1710</v>
+        <v>811</v>
       </c>
     </row>
     <row r="390" spans="1:15" ht="24.95" customHeight="1">
       <c r="A390" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="O390" s="3" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="391" spans="1:15" ht="24.95" customHeight="1">
       <c r="A391" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="O391" s="3" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="392" spans="1:15" ht="24.95" customHeight="1">
       <c r="A392" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="O392" s="3" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A393" s="3" t="s">
         <v>1687</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B393" s="3" t="s">
         <v>1720</v>
       </c>
-      <c r="O392" s="17" t="s">
+      <c r="O393" s="17" t="s">
         <v>1863</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A393" s="17" t="s">
-        <v>1688</v>
-      </c>
-      <c r="O393" s="3" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="394" spans="1:15" ht="24.95" customHeight="1">
       <c r="A394" s="17" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O394" s="3" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A395" s="17" t="s">
         <v>1692</v>
       </c>
-      <c r="O394" s="3" t="s">
+      <c r="O395" s="3" t="s">
         <v>1707</v>
-      </c>
-    </row>
-    <row r="395" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A395" s="3" t="s">
-        <v>1689</v>
-      </c>
-      <c r="O395" s="3" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="396" spans="1:15" ht="24.95" customHeight="1">
       <c r="A396" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="O396" s="3" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="397" spans="1:15" ht="24.95" customHeight="1">
       <c r="A397" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O397" s="3" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A398" s="3" t="s">
         <v>1691</v>
       </c>
-      <c r="O397" s="3" t="s">
+      <c r="O398" s="3" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O398" s="3"/>
-    </row>
     <row r="399" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A399" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B399" s="17" t="s">
-        <v>1718</v>
-      </c>
-      <c r="O399" s="3" t="s">
-        <v>811</v>
-      </c>
+      <c r="O399" s="3"/>
     </row>
     <row r="400" spans="1:15" ht="24.95" customHeight="1">
       <c r="A400" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B400" s="11" t="s">
-        <v>749</v>
+        <v>1693</v>
+      </c>
+      <c r="B400" s="17" t="s">
+        <v>1718</v>
       </c>
       <c r="O400" s="3" t="s">
-        <v>1702</v>
+        <v>811</v>
       </c>
     </row>
     <row r="401" spans="1:15" ht="24.95" customHeight="1">
       <c r="A401" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="O401" s="3" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A402" s="3" t="s">
         <v>1695</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B402" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="O401" s="3" t="s">
+      <c r="O402" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A402" s="17" t="s">
+    <row r="403" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A403" s="17" t="s">
         <v>2539</v>
       </c>
-      <c r="B402" s="17" t="s">
+      <c r="B403" s="17" t="s">
         <v>2540</v>
       </c>
-      <c r="O402" s="17" t="s">
+      <c r="O403" s="17" t="s">
         <v>2541</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A403" s="3" t="s">
+    <row r="404" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A404" s="3" t="s">
         <v>1696</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B404" s="3" t="s">
         <v>1720</v>
       </c>
-      <c r="O403" s="17" t="s">
+      <c r="O404" s="17" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O404" s="3"/>
-    </row>
     <row r="405" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A405" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="B405" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="O405" s="3" t="s">
-        <v>806</v>
-      </c>
+      <c r="O405" s="3"/>
     </row>
     <row r="406" spans="1:15" ht="24.95" customHeight="1">
       <c r="A406" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="O406" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="407" spans="1:15" ht="24.95" customHeight="1">
       <c r="A407" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="O407" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A408" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B408" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="O407" s="3" t="s">
+      <c r="O408" s="3" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O408" s="3"/>
-    </row>
     <row r="409" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A409" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="O409" s="3" t="s">
-        <v>811</v>
-      </c>
+      <c r="O409" s="3"/>
     </row>
     <row r="410" spans="1:15" ht="24.95" customHeight="1">
       <c r="A410" s="3" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>1720</v>
-      </c>
-      <c r="O410" s="17" t="s">
-        <v>1863</v>
+        <v>1697</v>
+      </c>
+      <c r="O410" s="3" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="411" spans="1:15" ht="24.95" customHeight="1">
       <c r="A411" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="O411" s="17" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A412" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="O411" s="3" t="s">
+      <c r="O412" s="3" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O412" s="3"/>
-    </row>
     <row r="413" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A413" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="O413" s="3" t="s">
-        <v>779</v>
-      </c>
+      <c r="O413" s="3"/>
     </row>
     <row r="414" spans="1:15" ht="24.95" customHeight="1">
       <c r="A414" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="O414" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="415" spans="1:15" ht="24.95" customHeight="1">
       <c r="A415" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="O415" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A416" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B416" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="O415" s="3" t="s">
+      <c r="O416" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O416" s="3"/>
-    </row>
     <row r="417" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A417" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="O417" s="3" t="s">
-        <v>788</v>
-      </c>
+      <c r="O417" s="3"/>
     </row>
     <row r="418" spans="1:15" ht="24.95" customHeight="1">
       <c r="A418" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="B418" s="11" t="s">
-        <v>790</v>
+        <v>786</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>787</v>
       </c>
       <c r="O418" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="419" spans="1:15" ht="24.95" customHeight="1">
       <c r="A419" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="O419" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="420" spans="1:15" ht="24.95" customHeight="1">
       <c r="A420" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B420" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="O420" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A421" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B421" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="O420" s="3" t="s">
+      <c r="O421" s="3" t="s">
         <v>797</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A421" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="B421" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="O421" s="3" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="422" spans="1:15" ht="24.95" customHeight="1">
       <c r="A422" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="B422" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="O422" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A423" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="B422" s="11"/>
-      <c r="O422" s="3" t="s">
+      <c r="B423" s="11"/>
+      <c r="O423" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A423" s="11"/>
-      <c r="B423" s="11"/>
-      <c r="O423" s="3"/>
-    </row>
     <row r="424" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A424" s="17" t="s">
+      <c r="A424" s="11"/>
+      <c r="B424" s="11"/>
+      <c r="O424" s="3"/>
+    </row>
+    <row r="425" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A425" s="17" t="s">
         <v>1750</v>
       </c>
-      <c r="B424" s="17" t="s">
+      <c r="B425" s="17" t="s">
         <v>1751</v>
       </c>
-      <c r="O424" s="3" t="s">
+      <c r="O425" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A425" s="11" t="s">
+    <row r="426" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A426" s="11" t="s">
         <v>1680</v>
       </c>
-      <c r="B425" s="11"/>
-      <c r="O425" s="3" t="s">
+      <c r="B426" s="11"/>
+      <c r="O426" s="3" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A426" s="17" t="s">
+    <row r="427" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A427" s="17" t="s">
         <v>1752</v>
       </c>
-      <c r="B426" s="17" t="s">
+      <c r="B427" s="17" t="s">
         <v>1904</v>
       </c>
-      <c r="O426" s="3" t="s">
+      <c r="O427" s="3" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A427" s="11"/>
-      <c r="B427" s="11"/>
-      <c r="O427" s="3"/>
-    </row>
     <row r="428" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A428" s="17" t="s">
-        <v>1731</v>
-      </c>
+      <c r="A428" s="11"/>
       <c r="B428" s="11"/>
-      <c r="O428" s="17" t="s">
-        <v>1732</v>
-      </c>
+      <c r="O428" s="3"/>
     </row>
     <row r="429" spans="1:15" ht="24.95" customHeight="1">
       <c r="A429" s="17" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B429" s="11"/>
+      <c r="O429" s="17" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A430" s="17" t="s">
         <v>1735</v>
       </c>
-      <c r="B429" s="17" t="s">
+      <c r="B430" s="17" t="s">
         <v>1744</v>
       </c>
-      <c r="O429" s="17" t="s">
+      <c r="O430" s="17" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A430" s="11" t="s">
+    <row r="431" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A431" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="B430" s="17" t="s">
+      <c r="B431" s="17" t="s">
         <v>1742</v>
       </c>
-      <c r="O430" s="17" t="s">
+      <c r="O431" s="17" t="s">
         <v>1746</v>
-      </c>
-    </row>
-    <row r="431" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A431" s="17" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B431" s="11"/>
-      <c r="O431" s="17" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="432" spans="1:15" ht="24.95" customHeight="1">
       <c r="A432" s="17" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B432" s="17" t="s">
-        <v>1739</v>
-      </c>
+        <v>1733</v>
+      </c>
+      <c r="B432" s="11"/>
       <c r="O432" s="17" t="s">
-        <v>1781</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="433" spans="1:15" ht="24.95" customHeight="1">
       <c r="A433" s="17" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="B433" s="17" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="O433" s="17" t="s">
-        <v>1745</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="434" spans="1:15" ht="24.95" customHeight="1">
       <c r="A434" s="17" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="B434" s="17" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="O434" s="17" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="435" spans="1:15" ht="24.95" customHeight="1">
       <c r="A435" s="17" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B435" s="17" t="s">
+        <v>1749</v>
+      </c>
+      <c r="O435" s="17" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A436" s="17" t="s">
         <v>1737</v>
       </c>
-      <c r="B435" s="17" t="s">
+      <c r="B436" s="17" t="s">
         <v>1743</v>
       </c>
-      <c r="O435" s="17" t="s">
+      <c r="O436" s="17" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A436" s="17"/>
-      <c r="B436" s="17"/>
-      <c r="O436" s="17"/>
-    </row>
     <row r="437" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A437" s="17" t="s">
-        <v>2828</v>
-      </c>
-      <c r="O437" s="18" t="s">
-        <v>2829</v>
-      </c>
+      <c r="A437" s="17"/>
+      <c r="B437" s="17"/>
+      <c r="O437" s="17"/>
     </row>
     <row r="438" spans="1:15" ht="24.95" customHeight="1">
       <c r="A438" s="17" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B438" s="17"/>
-      <c r="O438" s="17" t="s">
-        <v>2815</v>
+        <v>2828</v>
+      </c>
+      <c r="O438" s="18" t="s">
+        <v>2829</v>
       </c>
     </row>
     <row r="439" spans="1:15" ht="24.95" customHeight="1">
       <c r="A439" s="17" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B439" s="17"/>
       <c r="O439" s="17" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A440" s="17" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B440" s="17"/>
+      <c r="O440" s="17" t="s">
         <v>2816</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A440" s="11"/>
-      <c r="B440" s="11"/>
-      <c r="O440" s="3"/>
-    </row>
     <row r="441" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A441" s="17" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B441" s="17" t="s">
-        <v>1905</v>
-      </c>
-      <c r="O441" s="17" t="s">
-        <v>1711</v>
-      </c>
+      <c r="A441" s="11"/>
+      <c r="B441" s="11"/>
+      <c r="O441" s="3"/>
     </row>
     <row r="442" spans="1:15" ht="24.95" customHeight="1">
       <c r="A442" s="17" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B442" s="11"/>
+        <v>1678</v>
+      </c>
+      <c r="B442" s="17" t="s">
+        <v>1905</v>
+      </c>
       <c r="O442" s="17" t="s">
-        <v>2757</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="443" spans="1:15" ht="24.95" customHeight="1">
       <c r="A443" s="17" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B443" s="11"/>
+      <c r="O443" s="17" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A444" s="17" t="s">
         <v>1712</v>
       </c>
-      <c r="B443" s="17" t="s">
+      <c r="B444" s="17" t="s">
         <v>2758</v>
       </c>
-      <c r="O443" s="17" t="s">
+      <c r="O444" s="17" t="s">
         <v>1903</v>
-      </c>
-    </row>
-    <row r="444" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A444" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="B444" s="11" t="s">
-        <v>2759</v>
-      </c>
-      <c r="O444" s="17" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="445" spans="1:15" ht="24.95" customHeight="1">
       <c r="A445" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="B445" s="17" t="s">
-        <v>2762</v>
-      </c>
-      <c r="O445" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
+      </c>
+      <c r="B445" s="11" t="s">
+        <v>2759</v>
+      </c>
+      <c r="O445" s="17" t="s">
+        <v>2761</v>
       </c>
     </row>
     <row r="446" spans="1:15" ht="24.95" customHeight="1">
       <c r="A446" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="B446" s="17" t="s">
+        <v>2762</v>
+      </c>
+      <c r="O446" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A447" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B447" s="3" t="s">
         <v>2760</v>
       </c>
-      <c r="O446" s="17" t="s">
+      <c r="O447" s="17" t="s">
         <v>2756</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A447" s="11"/>
-      <c r="B447" s="11"/>
-      <c r="O447" s="3"/>
-    </row>
     <row r="448" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A448" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="O448" s="3" t="s">
-        <v>989</v>
-      </c>
+      <c r="A448" s="11"/>
+      <c r="B448" s="11"/>
+      <c r="O448" s="3"/>
     </row>
     <row r="449" spans="1:15" ht="24.95" customHeight="1">
       <c r="A449" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O449" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="450" spans="1:15" ht="24.95" customHeight="1">
       <c r="A450" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="O450" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="451" spans="1:15" ht="24.95" customHeight="1">
       <c r="A451" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="O451" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="452" spans="1:15" ht="24.95" customHeight="1">
       <c r="A452" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="O452" s="17" t="s">
-        <v>2863</v>
+        <v>994</v>
+      </c>
+      <c r="O452" s="3" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="453" spans="1:15" ht="24.95" customHeight="1">
       <c r="A453" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="O453" s="17" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A454" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="O453" s="3" t="s">
+      <c r="O454" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O454" s="3"/>
-    </row>
     <row r="455" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A455" s="11" t="s">
+      <c r="O455" s="3"/>
+    </row>
+    <row r="456" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A456" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="B456" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="O455" s="17" t="s">
+      <c r="O456" s="17" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A456" s="17" t="s">
+    <row r="457" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A457" s="17" t="s">
         <v>1721</v>
       </c>
-      <c r="B456" s="17" t="s">
+      <c r="B457" s="17" t="s">
         <v>1902</v>
       </c>
-      <c r="O456" s="17" t="s">
+      <c r="O457" s="17" t="s">
         <v>1901</v>
-      </c>
-    </row>
-    <row r="457" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A457" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="O457" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="458" spans="1:15" ht="24.95" customHeight="1">
       <c r="A458" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="O458" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A459" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="B458" s="3" t="s">
+      <c r="B459" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="O458" s="3" t="s">
+      <c r="O459" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A459" s="17" t="s">
+    <row r="460" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A460" s="17" t="s">
         <v>1716</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B460" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="O459" s="18" t="s">
+      <c r="O460" s="18" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O460" s="3"/>
-    </row>
     <row r="461" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A461" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="O461" s="3" t="s">
-        <v>823</v>
-      </c>
+      <c r="O461" s="3"/>
     </row>
     <row r="462" spans="1:15" ht="24.95" customHeight="1">
       <c r="A462" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="O462" s="3" t="s">
-        <v>523</v>
+        <v>823</v>
       </c>
     </row>
     <row r="463" spans="1:15" ht="24.95" customHeight="1">
       <c r="A463" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="O463" s="3" t="s">
-        <v>828</v>
+        <v>523</v>
       </c>
     </row>
     <row r="464" spans="1:15" ht="24.95" customHeight="1">
       <c r="A464" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="O464" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A465" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="B464" s="3" t="s">
+      <c r="B465" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="O464" s="3" t="s">
+      <c r="O465" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O465" s="3"/>
-    </row>
     <row r="466" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A466" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="O466" s="3" t="s">
-        <v>832</v>
-      </c>
+      <c r="O466" s="3"/>
     </row>
     <row r="467" spans="1:15" ht="24.95" customHeight="1">
       <c r="A467" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="O467" s="3" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="468" spans="1:15" ht="24.95" customHeight="1">
       <c r="A468" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O468" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="469" spans="1:15" ht="24.95" customHeight="1">
       <c r="A469" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O469" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A470" s="3" t="s">
         <v>2763</v>
       </c>
-      <c r="O469" s="17" t="s">
+      <c r="O470" s="17" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A470" s="11" t="s">
+    <row r="471" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A471" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="B470" s="11"/>
-      <c r="O470" s="3" t="s">
+      <c r="B471" s="11"/>
+      <c r="O471" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A471" s="17" t="s">
+    <row r="472" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A472" s="17" t="s">
         <v>2549</v>
       </c>
-      <c r="B471" s="17"/>
-      <c r="O471" s="17" t="s">
+      <c r="B472" s="17"/>
+      <c r="O472" s="17" t="s">
         <v>2813</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A472" s="11"/>
-      <c r="B472" s="11"/>
-      <c r="O472" s="3"/>
-    </row>
     <row r="473" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A473" s="11" t="s">
+      <c r="A473" s="11"/>
+      <c r="B473" s="11"/>
+      <c r="O473" s="3"/>
+    </row>
+    <row r="474" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A474" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="B473" s="17" t="s">
+      <c r="B474" s="17" t="s">
         <v>1758</v>
       </c>
-      <c r="O473" s="3" t="s">
+      <c r="O474" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A474" s="17" t="s">
+    <row r="475" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A475" s="17" t="s">
         <v>1756</v>
       </c>
-      <c r="B474" s="17" t="s">
+      <c r="B475" s="17" t="s">
         <v>1757</v>
       </c>
-      <c r="O474" s="3" t="s">
+      <c r="O475" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A475" s="3" t="s">
+    <row r="476" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A476" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B476" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="O475" s="3" t="s">
+      <c r="O476" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O476" s="3"/>
-    </row>
     <row r="477" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A477" s="11" t="s">
+      <c r="O477" s="3"/>
+    </row>
+    <row r="478" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A478" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="B478" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="O477" s="3" t="s">
+      <c r="O478" s="3" t="s">
         <v>848</v>
-      </c>
-    </row>
-    <row r="478" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A478" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="O478" s="3" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="479" spans="1:15" ht="24.95" customHeight="1">
       <c r="A479" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="O479" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A480" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="B480" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="O479" s="17" t="s">
+      <c r="O480" s="17" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A480" s="17" t="s">
+    <row r="481" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A481" s="17" t="s">
         <v>1753</v>
       </c>
-      <c r="B480" s="17" t="s">
+      <c r="B481" s="17" t="s">
         <v>1755</v>
       </c>
-      <c r="O480" s="17" t="s">
+      <c r="O481" s="17" t="s">
         <v>1754</v>
-      </c>
-    </row>
-    <row r="481" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A481" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="O481" s="3" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="482" spans="1:15" ht="24.95" customHeight="1">
       <c r="A482" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="O482" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A483" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="B482" s="3" t="s">
+      <c r="B483" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="O482" s="3" t="s">
+      <c r="O483" s="3" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O483" s="3"/>
-    </row>
     <row r="484" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A484" s="3" t="s">
+      <c r="O484" s="3"/>
+    </row>
+    <row r="485" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A485" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B485" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="O484" s="3" t="s">
+      <c r="O485" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O485" s="3"/>
-    </row>
     <row r="486" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A486" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="O486" s="3" t="s">
-        <v>865</v>
-      </c>
+      <c r="O486" s="3"/>
     </row>
     <row r="487" spans="1:15" ht="24.95" customHeight="1">
       <c r="A487" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="O487" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A488" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="B488" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="O487" s="3" t="s">
+      <c r="O488" s="3" t="s">
         <v>868</v>
-      </c>
-    </row>
-    <row r="488" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A488" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="B488" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="O488" s="3" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="489" spans="1:15" ht="24.95" customHeight="1">
       <c r="A489" s="11" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B489" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="O489" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="490" spans="1:15" ht="24.95" customHeight="1">
       <c r="A490" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="B490" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="O490" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A491" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="B490" s="3" t="s">
+      <c r="B491" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="O490" s="3" t="s">
+      <c r="O491" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A491" s="3" t="s">
+    <row r="492" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A492" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="B492" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="O491" s="3" t="s">
+      <c r="O492" s="3" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A492" s="11" t="s">
+    <row r="493" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A493" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="B492" s="17" t="s">
+      <c r="B493" s="17" t="s">
         <v>1900</v>
       </c>
-      <c r="O492" s="17" t="s">
+      <c r="O493" s="17" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A493" s="11"/>
-      <c r="B493" s="11"/>
-      <c r="O493" s="3"/>
-    </row>
     <row r="494" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A494" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="B494" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="O494" s="3" t="s">
-        <v>883</v>
-      </c>
+      <c r="A494" s="11"/>
+      <c r="B494" s="11"/>
+      <c r="O494" s="3"/>
     </row>
     <row r="495" spans="1:15" ht="24.95" customHeight="1">
       <c r="A495" s="11" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B495" s="11" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="O495" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="496" spans="1:15" ht="24.95" customHeight="1">
       <c r="A496" s="11" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B496" s="11" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="O496" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="497" spans="1:15" ht="24.95" customHeight="1">
       <c r="A497" s="11" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B497" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="O497" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="498" spans="1:15" ht="24.95" customHeight="1">
       <c r="A498" s="11" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B498" s="11" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="O498" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="499" spans="1:15" ht="24.95" customHeight="1">
       <c r="A499" s="11" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B499" s="11" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="O499" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="500" spans="1:15" ht="24.95" customHeight="1">
       <c r="A500" s="11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B500" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="O500" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="501" spans="1:15" ht="24.95" customHeight="1">
       <c r="A501" s="11" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B501" s="11" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="O501" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="502" spans="1:15" ht="24.95" customHeight="1">
       <c r="A502" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B502" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="O502" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A503" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="B502" s="11" t="s">
+      <c r="B503" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="O502" s="3" t="s">
+      <c r="O503" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A503" s="11"/>
-      <c r="B503" s="11"/>
-      <c r="O503" s="3"/>
-    </row>
     <row r="504" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A504" s="17" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B504" s="11" t="s">
-        <v>908</v>
-      </c>
-      <c r="O504" s="3" t="s">
-        <v>909</v>
-      </c>
+      <c r="A504" s="11"/>
+      <c r="B504" s="11"/>
+      <c r="O504" s="3"/>
     </row>
     <row r="505" spans="1:15" ht="24.95" customHeight="1">
       <c r="A505" s="17" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B505" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="O505" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A506" s="17" t="s">
         <v>1885</v>
       </c>
-      <c r="B505" s="11"/>
-      <c r="O505" s="17" t="s">
+      <c r="B506" s="11"/>
+      <c r="O506" s="17" t="s">
         <v>1886</v>
-      </c>
-    </row>
-    <row r="506" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A506" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="B506" s="11" t="s">
-        <v>911</v>
-      </c>
-      <c r="O506" s="3" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="507" spans="1:15" ht="24.95" customHeight="1">
       <c r="A507" s="11" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B507" s="11" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="O507" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="508" spans="1:15" ht="24.95" customHeight="1">
       <c r="A508" s="11" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B508" s="11" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="O508" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="509" spans="1:15" ht="24.95" customHeight="1">
       <c r="A509" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="B509" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="O509" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A510" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="B509" s="17" t="s">
+      <c r="B510" s="17" t="s">
         <v>1879</v>
       </c>
-      <c r="O509" s="3" t="s">
+      <c r="O510" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A510" s="11"/>
-      <c r="B510" s="11"/>
-      <c r="O510" s="3"/>
-    </row>
     <row r="511" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A511" s="3" t="s">
+      <c r="A511" s="11"/>
+      <c r="B511" s="11"/>
+      <c r="O511" s="3"/>
+    </row>
+    <row r="512" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A512" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B511" s="11" t="s">
+      <c r="B512" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="O511" s="3" t="s">
+      <c r="O512" s="3" t="s">
         <v>923</v>
-      </c>
-    </row>
-    <row r="512" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A512" s="11" t="s">
-        <v>924</v>
-      </c>
-      <c r="B512" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="O512" s="3" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="513" spans="1:15" ht="24.95" customHeight="1">
       <c r="A513" s="11" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B513" s="11" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="O513" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="514" spans="1:15" ht="24.95" customHeight="1">
       <c r="A514" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B514" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="O514" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A515" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="B514" s="3" t="s">
+      <c r="B515" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="O514" s="3" t="s">
+      <c r="O515" s="3" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A515" s="3" t="s">
+    <row r="516" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A516" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B516" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="O515" s="3" t="s">
+      <c r="O516" s="3" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A516" s="17" t="s">
+    <row r="517" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A517" s="17" t="s">
         <v>2544</v>
       </c>
-      <c r="B516" s="17" t="s">
+      <c r="B517" s="17" t="s">
         <v>952</v>
       </c>
-      <c r="O516" s="3" t="s">
+      <c r="O517" s="3" t="s">
         <v>938</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A517" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="B517" s="17" t="s">
-        <v>937</v>
-      </c>
-      <c r="O517" s="17" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="518" spans="1:15" ht="24.95" customHeight="1">
       <c r="A518" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="O518" s="3" t="s">
-        <v>941</v>
+        <v>936</v>
+      </c>
+      <c r="B518" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="O518" s="17" t="s">
+        <v>2545</v>
       </c>
     </row>
     <row r="519" spans="1:15" ht="24.95" customHeight="1">
       <c r="A519" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="O519" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A520" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="B519" s="3" t="s">
+      <c r="B520" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="O519" s="3" t="s">
+      <c r="O520" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A520" s="17" t="s">
+    <row r="521" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A521" s="17" t="s">
         <v>1887</v>
       </c>
-      <c r="B520" s="3" t="s">
+      <c r="B521" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="O520" s="3" t="s">
+      <c r="O521" s="3" t="s">
         <v>946</v>
-      </c>
-    </row>
-    <row r="521" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A521" s="11" t="s">
-        <v>947</v>
-      </c>
-      <c r="B521" s="18" t="s">
-        <v>2546</v>
-      </c>
-      <c r="O521" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="522" spans="1:15" ht="24.95" customHeight="1">
       <c r="A522" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="B522" s="18" t="s">
+        <v>2546</v>
+      </c>
+      <c r="O522" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A523" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="B523" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="O522" s="3" t="s">
+      <c r="O523" s="3" t="s">
         <v>951</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A523" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="B523" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="O523" s="3" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="524" spans="1:15" ht="24.95" customHeight="1">
       <c r="A524" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B524" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="O524" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A525" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="B524" s="11" t="s">
+      <c r="B525" s="11" t="s">
         <v>2547</v>
       </c>
-      <c r="O524" s="3" t="s">
+      <c r="O525" s="3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B525" s="11"/>
-      <c r="O525" s="3"/>
-    </row>
     <row r="526" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A526" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="O526" s="3" t="s">
-        <v>963</v>
-      </c>
+      <c r="B526" s="11"/>
+      <c r="O526" s="3"/>
     </row>
     <row r="527" spans="1:15" ht="24.95" customHeight="1">
       <c r="A527" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="B527" s="11" t="s">
-        <v>965</v>
+        <v>961</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>962</v>
       </c>
       <c r="O527" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="528" spans="1:15" ht="24.95" customHeight="1">
       <c r="A528" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B528" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="O528" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A529" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="B528" s="11" t="s">
+      <c r="B529" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="O528" s="3" t="s">
+      <c r="O529" s="3" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O529" s="3"/>
-    </row>
     <row r="530" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A530" s="17" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B530" s="11" t="s">
-        <v>970</v>
-      </c>
-      <c r="O530" s="3" t="s">
-        <v>971</v>
-      </c>
+      <c r="O530" s="3"/>
     </row>
     <row r="531" spans="1:15" ht="24.95" customHeight="1">
       <c r="A531" s="17" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B531" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="O531" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A532" s="17" t="s">
         <v>1768</v>
       </c>
-      <c r="B531" s="3" t="s">
+      <c r="B532" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="O531" s="3" t="s">
+      <c r="O532" s="3" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O532" s="3"/>
-    </row>
     <row r="533" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A533" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="O533" s="3" t="s">
-        <v>794</v>
-      </c>
+      <c r="O533" s="3"/>
     </row>
     <row r="534" spans="1:15" ht="24.95" customHeight="1">
       <c r="A534" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="O534" s="3" t="s">
-        <v>978</v>
+        <v>794</v>
       </c>
     </row>
     <row r="535" spans="1:15" ht="24.95" customHeight="1">
       <c r="A535" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="O535" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="536" spans="1:15" ht="24.95" customHeight="1">
       <c r="A536" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="O536" s="3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="537" spans="1:15" ht="24.95" customHeight="1">
       <c r="A537" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="O537" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A538" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="B537" s="3" t="s">
+      <c r="B538" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="O537" s="3" t="s">
+      <c r="O538" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O538" s="3"/>
-    </row>
     <row r="539" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A539" s="3" t="s">
+      <c r="O539" s="3"/>
+    </row>
+    <row r="540" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A540" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="B539" s="3" t="s">
+      <c r="B540" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="O539" s="3" t="s">
+      <c r="O540" s="3" t="s">
         <v>1001</v>
-      </c>
-    </row>
-    <row r="540" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A540" s="11" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B540" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O540" s="3" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="541" spans="1:15" ht="24.95" customHeight="1">
       <c r="A541" s="11" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="O541" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="542" spans="1:15" ht="24.95" customHeight="1">
       <c r="A542" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O542" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A543" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="B542" s="3" t="s">
+      <c r="B543" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="O542" s="3" t="s">
+      <c r="O543" s="3" t="s">
         <v>1010</v>
-      </c>
-    </row>
-    <row r="543" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A543" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B543" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="O543" s="3" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="544" spans="1:15" ht="24.95" customHeight="1">
       <c r="A544" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O544" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A545" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="B544" s="3" t="s">
+      <c r="B545" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="O544" s="3" t="s">
+      <c r="O545" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O545" s="3"/>
-    </row>
     <row r="546" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A546" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="O546" s="3" t="s">
-        <v>1019</v>
-      </c>
+      <c r="O546" s="3"/>
     </row>
     <row r="547" spans="1:15" ht="24.95" customHeight="1">
       <c r="A547" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="O547" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="548" spans="1:15" ht="24.95" customHeight="1">
       <c r="A548" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="O548" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="549" spans="1:15" ht="24.95" customHeight="1">
       <c r="A549" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O549" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A550" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B549" s="3" t="s">
+      <c r="B550" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="O549" s="3" t="s">
+      <c r="O550" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A550" s="11" t="s">
+    <row r="551" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A551" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="B551" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="O550" s="3" t="s">
+      <c r="O551" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A551" s="3" t="s">
+    <row r="552" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A552" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B552" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="O551" s="3" t="s">
+      <c r="O552" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O552" s="3"/>
-    </row>
     <row r="553" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A553" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="O553" s="3" t="s">
-        <v>638</v>
-      </c>
+      <c r="O553" s="3"/>
     </row>
     <row r="554" spans="1:15" ht="24.95" customHeight="1">
       <c r="A554" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="O554" s="3" t="s">
-        <v>1037</v>
+        <v>638</v>
       </c>
     </row>
     <row r="555" spans="1:15" ht="24.95" customHeight="1">
       <c r="A555" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="O555" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="556" spans="1:15" ht="24.95" customHeight="1">
       <c r="A556" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="O556" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="557" spans="1:15" ht="24.95" customHeight="1">
       <c r="A557" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="O557" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="558" spans="1:15" ht="24.95" customHeight="1">
       <c r="A558" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O558" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A559" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="B558" s="3" t="s">
+      <c r="B559" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="O558" s="3" t="s">
+      <c r="O559" s="3" t="s">
         <v>1049</v>
-      </c>
-    </row>
-    <row r="559" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A559" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B559" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="O559" s="3" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="560" spans="1:15" ht="24.95" customHeight="1">
       <c r="A560" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B560" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
+      </c>
+      <c r="B560" s="11" t="s">
+        <v>1051</v>
       </c>
       <c r="O560" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="561" spans="1:15" ht="24.95" customHeight="1">
       <c r="A561" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O561" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A562" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="B561" s="3" t="s">
+      <c r="B562" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="O561" s="3" t="s">
+      <c r="O562" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O562" s="3"/>
-    </row>
     <row r="563" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A563" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O563" s="3" t="s">
-        <v>1061</v>
-      </c>
+      <c r="O563" s="3"/>
     </row>
     <row r="564" spans="1:15" ht="24.95" customHeight="1">
       <c r="A564" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="O564" s="3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="565" spans="1:15" ht="24.95" customHeight="1">
       <c r="A565" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B565" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="O565" s="17" t="s">
-        <v>2548</v>
+        <v>1062</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="O565" s="3" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="566" spans="1:15" ht="24.95" customHeight="1">
       <c r="A566" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B566" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O566" s="17" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="567" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A567" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B566" s="3" t="s">
+      <c r="B567" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="O566" s="3" t="s">
+      <c r="O567" s="3" t="s">
         <v>1069</v>
-      </c>
-    </row>
-    <row r="567" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A567" s="11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B567" s="11" t="s">
-        <v>1071</v>
-      </c>
-      <c r="O567" s="3" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="568" spans="1:15" ht="24.95" customHeight="1">
       <c r="A568" s="11" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B568" s="3" t="s">
-        <v>69</v>
+        <v>1070</v>
+      </c>
+      <c r="B568" s="11" t="s">
+        <v>1071</v>
       </c>
       <c r="O568" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="569" spans="1:15" ht="24.95" customHeight="1">
       <c r="A569" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O569" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="570" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A570" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="B569" s="3" t="s">
+      <c r="B570" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="O569" s="3" t="s">
+      <c r="O570" s="3" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A570" s="3" t="s">
+    <row r="571" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A571" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B570" s="3" t="s">
+      <c r="B571" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="O570" s="3" t="s">
+      <c r="O571" s="3" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O571" s="3"/>
-    </row>
     <row r="572" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A572" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B572" s="3" t="s">
-        <v>1868</v>
-      </c>
-      <c r="O572" s="3" t="s">
-        <v>1082</v>
-      </c>
+      <c r="O572" s="3"/>
     </row>
     <row r="573" spans="1:15" ht="24.95" customHeight="1">
       <c r="A573" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="O573" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="574" spans="1:15" ht="24.95" customHeight="1">
       <c r="A574" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="O574" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="575" spans="1:15" ht="24.95" customHeight="1">
       <c r="A575" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="O575" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="576" spans="1:15" ht="24.95" customHeight="1">
       <c r="A576" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="O576" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="577" spans="1:15" ht="24.95" customHeight="1">
       <c r="A577" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="O577" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A578" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="B577" s="17" t="s">
+      <c r="B578" s="17" t="s">
         <v>1872</v>
       </c>
-      <c r="O577" s="17" t="s">
+      <c r="O578" s="17" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A578" s="17" t="s">
+    <row r="579" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A579" s="17" t="s">
         <v>1873</v>
       </c>
-      <c r="B578" s="17" t="s">
+      <c r="B579" s="17" t="s">
         <v>1874</v>
       </c>
-      <c r="O578" s="17" t="s">
+      <c r="O579" s="17" t="s">
         <v>1810</v>
-      </c>
-    </row>
-    <row r="579" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A579" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B579" s="17" t="s">
-        <v>1870</v>
-      </c>
-      <c r="O579" s="17" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="580" spans="1:15" ht="24.95" customHeight="1">
       <c r="A580" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B580" s="17" t="s">
+        <v>1870</v>
+      </c>
+      <c r="O580" s="17" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A581" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="B580" s="17" t="s">
+      <c r="B581" s="17" t="s">
         <v>1871</v>
       </c>
-      <c r="O580" s="17" t="s">
+      <c r="O581" s="17" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B581" s="17"/>
-      <c r="O581" s="17"/>
-    </row>
     <row r="582" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A582" s="17" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B582" s="17" t="s">
-        <v>1931</v>
-      </c>
-      <c r="O582" s="17" t="s">
-        <v>1948</v>
-      </c>
+      <c r="B582" s="17"/>
+      <c r="O582" s="17"/>
     </row>
     <row r="583" spans="1:15" ht="24.95" customHeight="1">
       <c r="A583" s="17" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B583" s="17" t="s">
-        <v>1944</v>
+        <v>1931</v>
       </c>
       <c r="O583" s="17" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="584" spans="1:15" ht="24.95" customHeight="1">
       <c r="A584" s="17" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B584" s="17" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="O584" s="17" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="585" spans="1:15" ht="24.95" customHeight="1">
       <c r="A585" s="17" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B585" s="17" t="s">
+        <v>1945</v>
+      </c>
+      <c r="O585" s="17" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A586" s="17" t="s">
         <v>1949</v>
       </c>
-      <c r="B585" s="17" t="s">
+      <c r="B586" s="17" t="s">
         <v>1950</v>
       </c>
-      <c r="O585" s="17" t="s">
+      <c r="O586" s="17" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O586" s="3"/>
-    </row>
     <row r="587" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A587" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B587" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="O587" s="3" t="s">
-        <v>1096</v>
-      </c>
+      <c r="O587" s="3"/>
     </row>
     <row r="588" spans="1:15" ht="24.95" customHeight="1">
       <c r="A588" s="3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="O588" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="589" spans="1:15" ht="24.95" customHeight="1">
       <c r="A589" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="O589" s="3" t="s">
-        <v>783</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="590" spans="1:15" ht="24.95" customHeight="1">
       <c r="A590" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="O590" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="591" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A591" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="B590" s="3" t="s">
+      <c r="B591" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="O590" s="17" t="s">
+      <c r="O591" s="17" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O591" s="3"/>
-    </row>
     <row r="592" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A592" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B592" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="O592" s="3" t="s">
-        <v>1106</v>
-      </c>
+      <c r="O592" s="3"/>
     </row>
     <row r="593" spans="1:15" ht="24.95" customHeight="1">
       <c r="A593" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="O593" s="3" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="594" spans="1:15" ht="24.95" customHeight="1">
       <c r="A594" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="O594" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="595" spans="1:15" ht="24.95" customHeight="1">
       <c r="A595" s="3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="O595" s="3" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="596" spans="1:15" ht="24.95" customHeight="1">
       <c r="A596" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O596" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="597" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A597" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="B596" s="3" t="s">
+      <c r="B597" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="O596" s="3" t="s">
+      <c r="O597" s="3" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O597" s="3"/>
-    </row>
     <row r="598" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A598" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B598" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="O598" s="3" t="s">
-        <v>1121</v>
-      </c>
+      <c r="O598" s="3"/>
     </row>
     <row r="599" spans="1:15" ht="24.95" customHeight="1">
       <c r="A599" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B599" s="11" t="s">
-        <v>1123</v>
+        <v>1119</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1120</v>
       </c>
       <c r="O599" s="3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="600" spans="1:15" ht="24.95" customHeight="1">
       <c r="A600" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B600" s="3" t="s">
-        <v>1126</v>
+        <v>1122</v>
+      </c>
+      <c r="B600" s="11" t="s">
+        <v>1123</v>
       </c>
       <c r="O600" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="601" spans="1:15" ht="24.95" customHeight="1">
       <c r="A601" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="O601" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="602" spans="1:15" ht="24.95" customHeight="1">
       <c r="A602" s="3" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="O602" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="603" spans="1:15" ht="24.95" customHeight="1">
       <c r="A603" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="O603" s="3" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="604" spans="1:15" ht="24.95" customHeight="1">
       <c r="A604" s="3" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>986</v>
+        <v>1135</v>
       </c>
       <c r="O604" s="3" t="s">
-        <v>987</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="605" spans="1:15" ht="24.95" customHeight="1">
       <c r="A605" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="O605" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="606" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A606" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B605" s="3" t="s">
+      <c r="B606" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="O605" s="3" t="s">
+      <c r="O606" s="3" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O606" s="3"/>
-    </row>
     <row r="607" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A607" s="11" t="s">
+      <c r="O607" s="3"/>
+    </row>
+    <row r="608" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A608" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="B607" s="3" t="s">
+      <c r="B608" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="O607" s="3" t="s">
+      <c r="O608" s="3" t="s">
         <v>1143</v>
-      </c>
-    </row>
-    <row r="608" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A608" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B608" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="O608" s="3" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="609" spans="1:15" ht="24.95" customHeight="1">
       <c r="A609" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="O609" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="610" spans="1:15" ht="24.95" customHeight="1">
       <c r="A610" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O610" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="611" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A611" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="B610" s="3" t="s">
+      <c r="B611" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="O610" s="3" t="s">
+      <c r="O611" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O611" s="3"/>
-    </row>
     <row r="612" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A612" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B612" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="O612" s="3" t="s">
-        <v>1155</v>
-      </c>
+      <c r="O612" s="3"/>
     </row>
     <row r="613" spans="1:15" ht="24.95" customHeight="1">
       <c r="A613" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O613" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="614" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A614" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="B613" s="3" t="s">
+      <c r="B614" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="O613" s="3" t="s">
+      <c r="O614" s="3" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A614" s="17" t="s">
+    <row r="615" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A615" s="17" t="s">
         <v>2809</v>
       </c>
-      <c r="B614" s="3" t="s">
+      <c r="B615" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="O614" s="3" t="s">
+      <c r="O615" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A615" s="3" t="s">
+    <row r="616" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A616" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="B615" s="3" t="s">
+      <c r="B616" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="O615" s="3" t="s">
+      <c r="O616" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O616" s="3"/>
-    </row>
     <row r="617" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A617" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B617" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="O617" s="3" t="s">
-        <v>941</v>
-      </c>
+      <c r="O617" s="3"/>
     </row>
     <row r="618" spans="1:15" ht="24.95" customHeight="1">
       <c r="A618" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1162</v>
+        <v>940</v>
       </c>
       <c r="O618" s="3" t="s">
-        <v>1007</v>
+        <v>941</v>
       </c>
     </row>
     <row r="619" spans="1:15" ht="24.95" customHeight="1">
       <c r="A619" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O619" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="620" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A620" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="O619" s="3" t="s">
+      <c r="O620" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O620" s="3"/>
-    </row>
     <row r="621" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A621" s="17" t="s">
-        <v>2878</v>
-      </c>
-      <c r="O621" s="17" t="s">
-        <v>2880</v>
-      </c>
+      <c r="O621" s="3"/>
     </row>
     <row r="622" spans="1:15" ht="24.95" customHeight="1">
       <c r="A622" s="17" t="s">
+        <v>2878</v>
+      </c>
+      <c r="O622" s="17" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="623" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A623" s="17" t="s">
         <v>2879</v>
       </c>
-      <c r="O622" s="17" t="s">
+      <c r="O623" s="17" t="s">
         <v>2881</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O623" s="3"/>
-    </row>
     <row r="624" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A624" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="O624" s="3" t="s">
-        <v>1167</v>
-      </c>
+      <c r="O624" s="3"/>
     </row>
     <row r="625" spans="1:15" ht="24.95" customHeight="1">
       <c r="A625" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="O625" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="626" spans="1:15" ht="24.95" customHeight="1">
       <c r="A626" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>986</v>
+        <v>1169</v>
       </c>
       <c r="O626" s="3" t="s">
-        <v>987</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="627" spans="1:15" ht="24.95" customHeight="1">
       <c r="A627" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1173</v>
+        <v>986</v>
       </c>
       <c r="O627" s="3" t="s">
-        <v>1174</v>
+        <v>987</v>
       </c>
     </row>
     <row r="628" spans="1:15" ht="24.95" customHeight="1">
       <c r="A628" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O628" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A629" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="B628" s="3" t="s">
+      <c r="B629" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="O628" s="3" t="s">
+      <c r="O629" s="3" t="s">
         <v>1177</v>
-      </c>
-    </row>
-    <row r="629" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A629" s="11" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B629" s="17" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O629" s="3" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="630" spans="1:15" ht="24.95" customHeight="1">
       <c r="A630" s="11" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B630" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
+      </c>
+      <c r="B630" s="17" t="s">
+        <v>1930</v>
       </c>
       <c r="O630" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="631" spans="1:15" ht="24.95" customHeight="1">
       <c r="A631" s="11" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="O631" s="3" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="632" spans="1:15" ht="24.95" customHeight="1">
       <c r="A632" s="11" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="O632" s="3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="633" spans="1:15" ht="24.95" customHeight="1">
       <c r="A633" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O633" s="3" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A634" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="B633" s="3" t="s">
+      <c r="B634" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="O633" s="3" t="s">
+      <c r="O634" s="3" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O634" s="3"/>
-    </row>
     <row r="635" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A635" s="3" t="s">
+      <c r="O635" s="3"/>
+    </row>
+    <row r="636" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A636" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="B635" s="17" t="s">
+      <c r="B636" s="17" t="s">
         <v>1865</v>
       </c>
-      <c r="O635" s="3" t="s">
+      <c r="O636" s="3" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O636" s="3"/>
-    </row>
     <row r="637" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A637" s="3" t="s">
+      <c r="O637" s="3"/>
+    </row>
+    <row r="638" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A638" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="B637" s="3" t="s">
+      <c r="B638" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="O637" s="3" t="s">
+      <c r="O638" s="3" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O638" s="3"/>
-    </row>
     <row r="639" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A639" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="O639" s="3" t="s">
-        <v>1199</v>
-      </c>
+      <c r="O639" s="3"/>
     </row>
     <row r="640" spans="1:15" ht="24.95" customHeight="1">
       <c r="A640" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O640" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="641" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A641" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="B640" s="3" t="s">
+      <c r="B641" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="O640" s="3" t="s">
+      <c r="O641" s="3" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O641" s="3"/>
-    </row>
     <row r="642" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A642" s="3" t="s">
+      <c r="O642" s="3"/>
+    </row>
+    <row r="643" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A643" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="B642" s="3" t="s">
+      <c r="B643" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="O642" s="3" t="s">
+      <c r="O643" s="3" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O643" s="3"/>
-    </row>
     <row r="644" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A644" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="O644" s="3" t="s">
-        <v>1207</v>
-      </c>
+      <c r="O644" s="3"/>
     </row>
     <row r="645" spans="1:15" ht="24.95" customHeight="1">
       <c r="A645" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B645" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="O645" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="646" spans="1:15" ht="24.95" customHeight="1">
       <c r="A646" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="O646" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="647" spans="1:15" ht="24.95" customHeight="1">
       <c r="A647" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="O647" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="648" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A648" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="B647" s="3" t="s">
+      <c r="B648" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="O647" s="3" t="s">
+      <c r="O648" s="3" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O648" s="3"/>
-    </row>
     <row r="649" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A649" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B649" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="O649" s="3" t="s">
-        <v>1219</v>
-      </c>
+      <c r="O649" s="3"/>
     </row>
     <row r="650" spans="1:15" ht="24.95" customHeight="1">
       <c r="A650" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="O650" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="651" spans="1:15" ht="24.95" customHeight="1">
       <c r="A651" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="O651" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="652" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A652" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="B651" s="3" t="s">
+      <c r="B652" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="O651" s="3" t="s">
+      <c r="O652" s="3" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O652" s="3"/>
-    </row>
     <row r="653" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A653" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B653" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="O653" s="3" t="s">
-        <v>1228</v>
-      </c>
+      <c r="O653" s="3"/>
     </row>
     <row r="654" spans="1:15" ht="24.95" customHeight="1">
       <c r="A654" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O654" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="655" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A655" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="B654" s="3" t="s">
+      <c r="B655" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="O654" s="3" t="s">
+      <c r="O655" s="3" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O655" s="3"/>
-    </row>
     <row r="656" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A656" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B656" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="O656" s="3" t="s">
-        <v>1234</v>
-      </c>
+      <c r="O656" s="3"/>
     </row>
     <row r="657" spans="1:15" ht="24.95" customHeight="1">
       <c r="A657" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O657" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="658" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A658" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="B657" s="3" t="s">
+      <c r="B658" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="O657" s="3" t="s">
+      <c r="O658" s="3" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O658" s="3"/>
-    </row>
     <row r="659" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A659" s="3" t="s">
+      <c r="O659" s="3"/>
+    </row>
+    <row r="660" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A660" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="O659" s="17" t="s">
+      <c r="O660" s="17" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O660" s="3"/>
-    </row>
     <row r="661" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A661" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B661" s="11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="O661" s="3" t="s">
-        <v>1241</v>
-      </c>
+      <c r="O661" s="3"/>
     </row>
     <row r="662" spans="1:15" ht="24.95" customHeight="1">
       <c r="A662" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B662" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O662" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="663" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A663" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="B662" s="3" t="s">
+      <c r="B663" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="O662" s="3" t="s">
+      <c r="O663" s="3" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O663" s="3"/>
-    </row>
     <row r="664" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A664" s="3" t="s">
+      <c r="O664" s="3"/>
+    </row>
+    <row r="665" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A665" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="B664" s="3" t="s">
+      <c r="B665" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="O664" s="3" t="s">
+      <c r="O665" s="3" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O665" s="3"/>
-    </row>
     <row r="666" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A666" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B666" s="3" t="s">
-        <v>1249</v>
-      </c>
-      <c r="O666" s="3" t="s">
-        <v>1250</v>
-      </c>
+      <c r="O666" s="3"/>
     </row>
     <row r="667" spans="1:15" ht="24.95" customHeight="1">
       <c r="A667" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="O667" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="668" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A668" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="B667" s="3" t="s">
+      <c r="B668" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="O667" s="3" t="s">
+      <c r="O668" s="3" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O668" s="3"/>
-    </row>
     <row r="669" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A669" s="3" t="s">
+      <c r="O669" s="3"/>
+    </row>
+    <row r="670" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A670" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="B669" s="17" t="s">
+      <c r="B670" s="17" t="s">
         <v>1867</v>
       </c>
-      <c r="O669" s="3" t="s">
+      <c r="O670" s="3" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O670" s="3"/>
-    </row>
     <row r="671" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A671" s="3" t="s">
+      <c r="O671" s="3"/>
+    </row>
+    <row r="672" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A672" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="O671" s="3" t="s">
+      <c r="O672" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O672" s="3"/>
-    </row>
     <row r="673" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A673" s="3" t="s">
+      <c r="O673" s="3"/>
+    </row>
+    <row r="674" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A674" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="B673" s="17" t="s">
+      <c r="B674" s="17" t="s">
         <v>1866</v>
       </c>
-      <c r="O673" s="3" t="s">
+      <c r="O674" s="3" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O674" s="3"/>
-    </row>
     <row r="675" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A675" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B675" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="O675" s="3" t="s">
-        <v>1261</v>
-      </c>
+      <c r="O675" s="3"/>
     </row>
     <row r="676" spans="1:15" ht="24.95" customHeight="1">
       <c r="A676" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O676" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="677" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A677" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="B676" s="3" t="s">
+      <c r="B677" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="O676" s="3" t="s">
+      <c r="O677" s="3" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O677" s="3"/>
-    </row>
     <row r="678" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A678" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B678" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="O678" s="3" t="s">
-        <v>1267</v>
-      </c>
+      <c r="O678" s="3"/>
     </row>
     <row r="679" spans="1:15" ht="24.95" customHeight="1">
       <c r="A679" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="O679" s="3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="680" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A680" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="B679" s="3" t="s">
+      <c r="B680" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="O679" s="3" t="s">
+      <c r="O680" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O680" s="3"/>
-    </row>
     <row r="681" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A681" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B681" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="O681" s="3" t="s">
-        <v>1273</v>
-      </c>
+      <c r="O681" s="3"/>
     </row>
     <row r="682" spans="1:15" ht="24.95" customHeight="1">
       <c r="A682" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="O682" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="683" spans="1:15" ht="24.95" customHeight="1">
       <c r="A683" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="O683" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="684" spans="1:15" ht="24.95" customHeight="1">
       <c r="A684" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O684" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="685" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A685" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="B684" s="3" t="s">
+      <c r="B685" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="O684" s="3" t="s">
+      <c r="O685" s="3" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O685" s="3"/>
-    </row>
     <row r="686" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A686" s="17" t="s">
-        <v>1671</v>
-      </c>
-      <c r="O686" s="17" t="s">
-        <v>1673</v>
-      </c>
+      <c r="O686" s="3"/>
     </row>
     <row r="687" spans="1:15" ht="24.95" customHeight="1">
       <c r="A687" s="17" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O687" s="17" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="688" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A688" s="17" t="s">
         <v>1672</v>
       </c>
-      <c r="O687" s="18" t="s">
+      <c r="O688" s="18" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="688" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O688" s="3"/>
     </row>
     <row r="689" spans="15:15" ht="24.95" customHeight="1">
       <c r="O689" s="3"/>
@@ -32599,8 +32619,8 @@
     <row r="784" spans="15:15" ht="24.95" customHeight="1">
       <c r="O784" s="3"/>
     </row>
-    <row r="786" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O786" s="3"/>
+    <row r="785" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O785" s="3"/>
     </row>
     <row r="787" spans="15:15" ht="24.95" customHeight="1">
       <c r="O787" s="3"/>
@@ -33779,23 +33799,23 @@
       <c r="O1178" s="3"/>
     </row>
     <row r="1179" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1179" s="15"/>
-      <c r="B1179" s="15"/>
-      <c r="D1179" s="15"/>
-      <c r="E1179" s="15"/>
-      <c r="F1179" s="15"/>
-      <c r="G1179" s="15"/>
-      <c r="H1179" s="15"/>
-      <c r="I1179" s="15"/>
-      <c r="J1179" s="15"/>
-      <c r="K1179" s="15"/>
-      <c r="L1179" s="15"/>
-      <c r="M1179" s="15"/>
-      <c r="N1179" s="15"/>
-      <c r="O1179" s="16"/>
+      <c r="O1179" s="3"/>
     </row>
     <row r="1180" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O1180" s="3"/>
+      <c r="A1180" s="15"/>
+      <c r="B1180" s="15"/>
+      <c r="D1180" s="15"/>
+      <c r="E1180" s="15"/>
+      <c r="F1180" s="15"/>
+      <c r="G1180" s="15"/>
+      <c r="H1180" s="15"/>
+      <c r="I1180" s="15"/>
+      <c r="J1180" s="15"/>
+      <c r="K1180" s="15"/>
+      <c r="L1180" s="15"/>
+      <c r="M1180" s="15"/>
+      <c r="N1180" s="15"/>
+      <c r="O1180" s="16"/>
     </row>
     <row r="1181" spans="1:15" ht="24.95" customHeight="1">
       <c r="O1181" s="3"/>
@@ -35309,8 +35329,11 @@
     <row r="1684" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1684" s="3"/>
     </row>
+    <row r="1685" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1685" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1387" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1388" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC23FE3-51F2-4BB7-BF26-3E6ECB9CB78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8ED298-B9D7-48D6-8419-5FC1A5FDAC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3165" yWindow="570" windowWidth="25635" windowHeight="15555" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24874,12 +24874,12 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>当然模组版本为Beta测试版，将在 {0} 天后过期!
+    <t>BetaMessage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前模组版本为Beta测试版，将在 {0} 天后过期!
 版本过期后将无法进入游戏，注意更新！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BetaMessage</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -35327,7 +35327,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -35527,10 +35527,10 @@
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="45" customHeight="1">
       <c r="A14" s="23" t="s">
+        <v>2900</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>2901</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>2900</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="45" customHeight="1">

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8ED298-B9D7-48D6-8419-5FC1A5FDAC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA2BDD-965C-4AE6-815E-02A410A41674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="570" windowWidth="25635" windowHeight="15555" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="570" windowWidth="25635" windowHeight="15555" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="2904">
   <si>
     <t>English</t>
   </si>
@@ -24880,6 +24880,18 @@
   <si>
     <t>当前模组版本为Beta测试版，将在 {0} 天后过期!
 版本过期后将无法进入游戏，注意更新！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在会议中选择两位玩家挂上天平，所有玩家只能在这两位玩家中投票。
+在特殊会议中，如果平票则同时驱逐两位玩家。
+如果其中一位玩家死亡（例如被赌死），则直接跳过投票环节直接驱逐另一位被挂上天平的玩家。可以在会议中选择两位玩家挂上天平，所有玩家只能在这两位玩家中投票。
+在特殊会议中，如果平票则同时驱逐两位玩家。
+如果其中一位玩家死亡（例如被赌死），则直接跳过投票环节直接驱逐另一位被挂上天平的玩家。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BalancerFullDesc</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -35325,9 +35337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -37489,8 +37501,8 @@
   <dimension ref="A1:Q416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O302" sqref="O302"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O304" sqref="O304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -40400,11 +40412,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="60" customHeight="1"/>
@@ -41038,219 +41050,227 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="60" customHeight="1">
-      <c r="A77" s="20" t="s">
-        <v>2705</v>
-      </c>
-      <c r="O77" s="20" t="s">
-        <v>2558</v>
+    <row r="76" spans="1:15" ht="60" customHeight="1">
+      <c r="A76" s="20" t="s">
+        <v>2903</v>
+      </c>
+      <c r="O76" s="20" t="s">
+        <v>2902</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="60" customHeight="1">
       <c r="A78" s="20" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>2616</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="60" customHeight="1">
       <c r="A79" s="20" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="60" customHeight="1">
       <c r="A80" s="20" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="60" customHeight="1">
       <c r="A81" s="20" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="60" customHeight="1">
       <c r="A82" s="20" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="60" customHeight="1">
       <c r="A83" s="20" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="60" customHeight="1">
       <c r="A84" s="20" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="60" customHeight="1">
       <c r="A85" s="20" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="60" customHeight="1">
       <c r="A86" s="20" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="60" customHeight="1">
       <c r="A87" s="20" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="60" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="60" customHeight="1">
       <c r="A89" s="20" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="60" customHeight="1">
       <c r="A90" s="20" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="60" customHeight="1">
       <c r="A91" s="20" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="60" customHeight="1">
       <c r="A92" s="20" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="60" customHeight="1">
       <c r="A93" s="20" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" customHeight="1">
       <c r="A94" s="20" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="60" customHeight="1">
       <c r="A95" s="20" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="60" customHeight="1">
       <c r="A96" s="20" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="60" customHeight="1">
       <c r="A97" s="20" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" customHeight="1">
       <c r="A98" s="20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" customHeight="1">
       <c r="A99" s="20" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" customHeight="1">
       <c r="A100" s="20" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="60" customHeight="1">
       <c r="A101" s="20" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="60" customHeight="1">
       <c r="A102" s="20" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="60" customHeight="1">
       <c r="A103" s="20" t="s">
+        <v>2730</v>
+      </c>
+      <c r="O103" s="20" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="60" customHeight="1">
+      <c r="A104" s="20" t="s">
         <v>2731</v>
       </c>
-      <c r="O103" s="20" t="s">
+      <c r="O104" s="20" t="s">
         <v>2641</v>
       </c>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA2BDD-965C-4AE6-815E-02A410A41674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733352C8-D9CA-4534-84A9-3D915ECE8171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="570" windowWidth="25635" windowHeight="15555" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="570" windowWidth="25635" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Role Description" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1388</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1389</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="2904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="2907">
   <si>
     <t>English</t>
   </si>
@@ -24892,6 +24892,16 @@
   </si>
   <si>
     <t>BalancerFullDesc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jackalSwoopChance</t>
+  </si>
+  <si>
+    <t>Swooper</t>
+  </si>
+  <si>
+    <t>隐身豺狼</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -25664,11 +25674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1685"/>
+  <dimension ref="A1:Q1686"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O111" sqref="O111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -26246,6130 +26256,6141 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A53" s="7"/>
+      <c r="A53" s="16" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="O53" s="17" t="s">
+        <v>2906</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O55" s="17" t="s">
-        <v>1750</v>
+        <v>72</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O56" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>1751</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A59" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O58" s="7" t="s">
+      <c r="O59" s="7" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A59" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O60" s="17" t="s">
-        <v>1752</v>
+        <v>86</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="O61" s="17" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1">
       <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O63" s="3" t="s">
+      <c r="O64" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O64" s="3"/>
-    </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="O66" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O66" s="3"/>
-    </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A67" s="16" t="s">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A68" s="16" t="s">
         <v>1940</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>1940</v>
       </c>
-      <c r="O67" s="16" t="s">
+      <c r="O68" s="16" t="s">
         <v>1941</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1">
       <c r="A80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A81" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O80" s="3" t="s">
+      <c r="O81" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O81" s="3"/>
-    </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="24.95" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="24.95" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="24.95" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="24.95" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="24.95" customHeight="1">
       <c r="A89" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A90" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B90" s="16" t="s">
         <v>2860</v>
       </c>
-      <c r="O89" s="3" t="s">
+      <c r="O90" s="3" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A90" s="16" t="s">
-        <v>2856</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>2859</v>
-      </c>
-      <c r="O90" s="16" t="s">
-        <v>2862</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="24.95" customHeight="1">
       <c r="A91" s="16" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>2859</v>
+      </c>
+      <c r="O91" s="16" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A92" s="16" t="s">
         <v>2857</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>2858</v>
       </c>
-      <c r="O91" s="16" t="s">
+      <c r="O92" s="16" t="s">
         <v>2861</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A92" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="24.95" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="24.95" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="24.95" customHeight="1">
       <c r="A95" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A96" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O95" s="3" t="s">
+      <c r="O96" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O96" s="3"/>
-    </row>
     <row r="97" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A97" s="10" t="s">
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A98" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="O97" s="3" t="s">
+      <c r="O98" s="3" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A98" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="24.95" customHeight="1">
       <c r="A100" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A101" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A101" s="10" t="s">
+    <row r="102" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A102" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O103" s="16" t="s">
-        <v>2756</v>
+        <v>203</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="O104" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="O104" s="16" t="s">
+        <v>2756</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
       <c r="A105" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A106" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="O105" s="3" t="s">
+      <c r="O106" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A106" s="16" t="s">
+    <row r="107" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A107" s="16" t="s">
         <v>2793</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="O106" s="16" t="s">
+      <c r="O107" s="16" t="s">
         <v>2798</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A107" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O107" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>1879</v>
-      </c>
-      <c r="O109" s="17" t="s">
-        <v>2899</v>
+        <v>217</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O110" s="3" t="s">
-        <v>222</v>
+        <v>1879</v>
+      </c>
+      <c r="O110" s="17" t="s">
+        <v>2899</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="24.95" customHeight="1">
       <c r="A114" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A115" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="O114" s="3" t="s">
+      <c r="O115" s="3" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A115" s="16" t="s">
-        <v>2847</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="O115" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
       <c r="A116" s="16" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A117" s="16" t="s">
         <v>2887</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B117" s="16" t="s">
         <v>2888</v>
       </c>
-      <c r="O116" s="3" t="s">
+      <c r="O117" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="O117" s="3"/>
-    </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="O118" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="O118" s="3"/>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="24.95" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="O121" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="24.95" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1842</v>
+        <v>248</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="24.95" customHeight="1">
       <c r="A123" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A124" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>1844</v>
       </c>
-      <c r="O123" s="3" t="s">
+      <c r="O124" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A124" s="16" t="s">
+    <row r="125" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A125" s="16" t="s">
         <v>1843</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B125" s="16" t="s">
         <v>1846</v>
       </c>
-      <c r="O124" s="3" t="s">
+      <c r="O125" s="3" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>1847</v>
-      </c>
-      <c r="O125" s="16" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>1850</v>
-      </c>
-      <c r="O126" s="3" t="s">
-        <v>257</v>
+        <v>1847</v>
+      </c>
+      <c r="O126" s="16" t="s">
+        <v>1845</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="24.95" customHeight="1">
       <c r="A130" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>1849</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A131" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B131" s="16" t="s">
         <v>1848</v>
       </c>
-      <c r="O130" s="3" t="s">
+      <c r="O131" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O131" s="3"/>
-    </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A132" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="O132" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="O132" s="3"/>
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="24.95" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>1813</v>
+        <v>273</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>1813</v>
       </c>
       <c r="O137" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="24.95" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="24.95" customHeight="1">
       <c r="A141" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A142" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B142" s="16" t="s">
         <v>1811</v>
       </c>
-      <c r="O141" s="3" t="s">
+      <c r="O142" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A142" s="16" t="s">
+    <row r="143" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A143" s="16" t="s">
         <v>1812</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B143" s="16" t="s">
         <v>1813</v>
       </c>
-      <c r="O142" s="3" t="s">
+      <c r="O143" s="3" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A143" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>1814</v>
-      </c>
-      <c r="O143" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>1814</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24.95" customHeight="1">
       <c r="A145" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A146" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B146" s="16" t="s">
         <v>1815</v>
       </c>
-      <c r="O145" s="3" t="s">
+      <c r="O146" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O146" s="3"/>
-    </row>
     <row r="147" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="O147" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="O147" s="3"/>
     </row>
     <row r="148" spans="1:15" ht="24.95" customHeight="1">
       <c r="A148" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A149" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B149" s="16" t="s">
         <v>2804</v>
       </c>
-      <c r="O148" s="3" t="s">
+      <c r="O149" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O149" s="3"/>
-    </row>
     <row r="150" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A150" s="16" t="s">
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A151" s="16" t="s">
         <v>2801</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="O150" s="16" t="s">
+      <c r="O151" s="16" t="s">
         <v>2800</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A151" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="O151" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="24.95" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24.95" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="O154" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="O155" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="O155" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O156" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="O159" s="16" t="s">
-        <v>1853</v>
+        <v>326</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="O160" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="O160" s="16" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="24.95" customHeight="1">
       <c r="A161" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A162" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="O161" s="3" t="s">
+      <c r="O162" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O162" s="3"/>
-    </row>
     <row r="163" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A163" s="3" t="s">
+      <c r="O163" s="3"/>
+    </row>
+    <row r="164" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A164" s="3" t="s">
         <v>1896</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>1897</v>
       </c>
-      <c r="O163" s="16" t="s">
+      <c r="O164" s="16" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A164" s="16" t="s">
+    <row r="165" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A165" s="16" t="s">
         <v>2885</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B165" s="16" t="s">
         <v>2884</v>
       </c>
-      <c r="O164" s="16" t="s">
+      <c r="O165" s="16" t="s">
         <v>2886</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O165" s="3"/>
-    </row>
     <row r="166" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A166" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>1816</v>
-      </c>
-      <c r="O166" s="3" t="s">
-        <v>337</v>
-      </c>
+      <c r="O166" s="3"/>
     </row>
     <row r="167" spans="1:15" ht="24.95" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="24.95" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="O168" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="24.95" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="O169" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="24.95" customHeight="1">
       <c r="A170" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A171" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B171" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="O170" s="16" t="s">
+      <c r="O171" s="16" t="s">
         <v>1918</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A171" s="16" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>1822</v>
-      </c>
-      <c r="O171" s="16" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="24.95" customHeight="1">
       <c r="A172" s="16" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>1822</v>
+      </c>
+      <c r="O172" s="16" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A173" s="16" t="s">
         <v>2549</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B173" s="16" t="s">
         <v>2551</v>
       </c>
-      <c r="O172" s="16" t="s">
+      <c r="O173" s="16" t="s">
         <v>2550</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A173" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>1821</v>
-      </c>
-      <c r="O173" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="24.95" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="24.95" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>1823</v>
+        <v>347</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>1827</v>
       </c>
       <c r="O175" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="24.95" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>1824</v>
+        <v>349</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>1823</v>
       </c>
       <c r="O176" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="24.95" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>533</v>
+        <v>1824</v>
       </c>
       <c r="O177" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="24.95" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1825</v>
+        <v>533</v>
       </c>
       <c r="O178" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="24.95" customHeight="1">
       <c r="A179" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="O179" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A180" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B180" s="3" t="s">
         <v>1826</v>
       </c>
-      <c r="O179" s="3" t="s">
+      <c r="O180" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O180" s="3"/>
-    </row>
     <row r="181" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A181" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="O181" s="3" t="s">
-        <v>361</v>
-      </c>
+      <c r="O181" s="3"/>
     </row>
     <row r="182" spans="1:15" ht="24.95" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="24.95" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="24.95" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="24.95" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="24.95" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="24.95" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24.95" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24.95" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="24.95" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="24.95" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="24.95" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="24.95" customHeight="1">
       <c r="A194" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O194" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A195" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="O194" s="3" t="s">
+      <c r="O195" s="3" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A196" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="O196" s="3" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="24.95" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O197" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="24.95" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O198" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="24.95" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="24.95" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="24.95" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="24.95" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="24.95" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="24.95" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="205" spans="1:15" ht="24.95" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="24.95" customHeight="1">
       <c r="A206" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O206" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A207" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B207" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="O206" s="3" t="s">
+      <c r="O207" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O207" s="3"/>
-    </row>
     <row r="208" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A208" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B208" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="O208" s="3" t="s">
-        <v>436</v>
-      </c>
+      <c r="O208" s="3"/>
     </row>
     <row r="209" spans="1:15" ht="24.95" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O209" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="210" spans="1:15" ht="24.95" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="211" spans="1:15" ht="24.95" customHeight="1">
       <c r="A211" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="O211" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A212" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B212" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="O211" s="3" t="s">
+      <c r="O212" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B212" s="10"/>
-      <c r="O212" s="3"/>
-    </row>
     <row r="213" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A213" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="O213" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="B213" s="10"/>
+      <c r="O213" s="3"/>
     </row>
     <row r="214" spans="1:15" ht="24.95" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
     </row>
     <row r="215" spans="1:15" ht="24.95" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="24.95" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="24.95" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="O217" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="24.95" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>396</v>
+        <v>454</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="219" spans="1:15" ht="24.95" customHeight="1">
       <c r="A219" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A220" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="O219" s="3" t="s">
+      <c r="O220" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O220" s="3"/>
-    </row>
     <row r="221" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A221" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="O221" s="3" t="s">
-        <v>461</v>
-      </c>
+      <c r="O221" s="3"/>
     </row>
     <row r="222" spans="1:15" ht="24.95" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="223" spans="1:15" ht="24.95" customHeight="1">
       <c r="A223" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="O223" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A224" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="O223" s="3" t="s">
+      <c r="O224" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O224" s="3"/>
-    </row>
     <row r="225" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A225" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B225" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="O225" s="3" t="s">
-        <v>364</v>
-      </c>
+      <c r="O225" s="3"/>
     </row>
     <row r="226" spans="1:15" ht="24.95" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>464</v>
+        <v>366</v>
       </c>
       <c r="O226" s="3" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="227" spans="1:15" ht="24.95" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O227" s="3" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="24.95" customHeight="1">
       <c r="A228" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="O228" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A229" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B229" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="O228" s="3" t="s">
+      <c r="O229" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O229" s="3"/>
-    </row>
     <row r="230" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A230" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B230" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="O230" s="3" t="s">
-        <v>473</v>
-      </c>
+      <c r="O230" s="3"/>
     </row>
     <row r="231" spans="1:15" ht="24.95" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O231" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="24.95" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="24.95" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="24.95" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>417</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235" spans="1:15" ht="24.95" customHeight="1">
       <c r="A235" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A236" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B236" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="O235" s="3" t="s">
+      <c r="O236" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O236" s="3"/>
-    </row>
     <row r="237" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A237" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B237" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="O237" s="3" t="s">
-        <v>489</v>
-      </c>
+      <c r="O237" s="3"/>
     </row>
     <row r="238" spans="1:15" ht="24.95" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="24.95" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="24.95" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="24.95" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="242" spans="1:15" ht="24.95" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="24.95" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:15" ht="24.95" customHeight="1">
       <c r="A244" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A245" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B245" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="O244" s="3" t="s">
+      <c r="O245" s="3" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A246" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="O246" s="3" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="247" spans="1:15" ht="24.95" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="248" spans="1:15" ht="24.95" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:15" ht="24.95" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O249" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="250" spans="1:15" ht="24.95" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="O250" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="251" spans="1:15" ht="24.95" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="O251" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
+      </c>
+      <c r="O251" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="24.95" customHeight="1">
       <c r="A252" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O252" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="24.95" customHeight="1">
       <c r="A253" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="O253" s="11" t="s">
-        <v>534</v>
+        <v>530</v>
+      </c>
+      <c r="O253" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="1:15" ht="24.95" customHeight="1">
       <c r="A254" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="O254" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A255" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B255" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="O254" s="11" t="s">
+      <c r="O255" s="11" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O255" s="11"/>
-    </row>
     <row r="256" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A256" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="O256" s="11" t="s">
-        <v>540</v>
-      </c>
+      <c r="O256" s="11"/>
     </row>
     <row r="257" spans="1:15" ht="24.95" customHeight="1">
       <c r="A257" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="O257" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A258" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B258" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="O257" s="11" t="s">
+      <c r="O258" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O258" s="3"/>
-    </row>
     <row r="259" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A259" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B259" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="O259" s="3" t="s">
-        <v>546</v>
-      </c>
+      <c r="O259" s="3"/>
     </row>
     <row r="260" spans="1:15" ht="24.95" customHeight="1">
       <c r="A260" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="O260" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="261" spans="1:15" ht="24.95" customHeight="1">
       <c r="A261" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="O261" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A262" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B262" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="O261" s="3" t="s">
+      <c r="O262" s="3" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A262" s="16" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B262" s="16" t="s">
-        <v>2829</v>
-      </c>
-      <c r="O262" s="16" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="263" spans="1:15" ht="24.95" customHeight="1">
       <c r="A263" s="16" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>2829</v>
+      </c>
+      <c r="O263" s="16" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A264" s="16" t="s">
         <v>2824</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="B264" s="16" t="s">
         <v>2830</v>
       </c>
-      <c r="O263" s="16" t="s">
+      <c r="O264" s="16" t="s">
         <v>2825</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A264" s="3" t="s">
+    <row r="265" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A265" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B265" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="O264" s="3" t="s">
+      <c r="O265" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O265" s="3"/>
-    </row>
     <row r="266" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A266" s="3" t="s">
+      <c r="O266" s="3"/>
+    </row>
+    <row r="267" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A267" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B267" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="O266" s="3" t="s">
+      <c r="O267" s="3" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A267" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="O267" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="268" spans="1:15" ht="24.95" customHeight="1">
       <c r="A268" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A269" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B269" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="O268" s="3" t="s">
+      <c r="O269" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O269" s="3"/>
-    </row>
     <row r="270" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A270" s="10" t="s">
+      <c r="O270" s="3"/>
+    </row>
+    <row r="271" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A271" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B271" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="O270" s="3" t="s">
+      <c r="O271" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A271" s="3" t="s">
+    <row r="272" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A272" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B272" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="O271" s="3" t="s">
+      <c r="O272" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O272" s="3"/>
-    </row>
     <row r="273" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A273" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="O273" s="3" t="s">
-        <v>573</v>
-      </c>
+      <c r="O273" s="3"/>
     </row>
     <row r="274" spans="1:15" ht="24.95" customHeight="1">
       <c r="A274" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B274" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="O274" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:15" ht="24.95" customHeight="1">
       <c r="A275" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="O275" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276" spans="1:15" ht="24.95" customHeight="1">
       <c r="A276" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="O276" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A277" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="B277" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="O276" s="3" t="s">
+      <c r="O277" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O277" s="3"/>
-    </row>
     <row r="278" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A278" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="O278" s="3" t="s">
-        <v>585</v>
-      </c>
+      <c r="O278" s="3"/>
     </row>
     <row r="279" spans="1:15" ht="24.95" customHeight="1">
       <c r="A279" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="O279" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A280" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B280" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="O279" s="3" t="s">
+      <c r="O280" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A280" s="10" t="s">
+    <row r="281" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A281" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B281" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="O280" s="10" t="s">
+      <c r="O281" s="10" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O281" s="3"/>
-    </row>
     <row r="282" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A282" s="10" t="s">
+      <c r="O282" s="3"/>
+    </row>
+    <row r="283" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A283" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B283" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="O282" s="10" t="s">
+      <c r="O283" s="10" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A283" s="10"/>
-      <c r="B283" s="10"/>
-      <c r="O283" s="10"/>
-    </row>
     <row r="284" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A284" s="16" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B284" s="16" t="s">
-        <v>1916</v>
-      </c>
-      <c r="O284" s="16" t="s">
-        <v>1915</v>
-      </c>
+      <c r="A284" s="10"/>
+      <c r="B284" s="10"/>
+      <c r="O284" s="10"/>
     </row>
     <row r="285" spans="1:15" ht="24.95" customHeight="1">
       <c r="A285" s="16" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="O285" s="16" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="286" spans="1:15" ht="24.95" customHeight="1">
       <c r="A286" s="16" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>1917</v>
+      </c>
+      <c r="O286" s="16" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A287" s="16" t="s">
         <v>1910</v>
       </c>
-      <c r="B286" s="16" t="s">
+      <c r="B287" s="16" t="s">
         <v>1911</v>
       </c>
-      <c r="O286" s="16" t="s">
+      <c r="O287" s="16" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A287" s="10"/>
-      <c r="B287" s="10"/>
-      <c r="O287" s="10"/>
-    </row>
     <row r="288" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A288" s="10" t="s">
+      <c r="A288" s="10"/>
+      <c r="B288" s="10"/>
+      <c r="O288" s="10"/>
+    </row>
+    <row r="289" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A289" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B289" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="O288" s="3" t="s">
+      <c r="O289" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A289" s="3" t="s">
+    <row r="290" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A290" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B290" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="O289" s="10" t="s">
+      <c r="O290" s="10" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A290" s="10" t="s">
+    <row r="291" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A291" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B291" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="O290" s="11" t="s">
+      <c r="O291" s="11" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A292" s="3" t="s">
+    <row r="293" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A293" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B293" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="O292" s="11" t="s">
+      <c r="O293" s="11" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A293" s="10" t="s">
+    <row r="294" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A294" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B294" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="O293" s="7" t="s">
+      <c r="O294" s="7" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A294" s="3" t="s">
+    <row r="295" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A295" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B295" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="O294" s="11" t="s">
+      <c r="O295" s="11" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O295" s="3"/>
-    </row>
     <row r="296" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A296" s="3" t="s">
+      <c r="O296" s="3"/>
+    </row>
+    <row r="297" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A297" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B297" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="O296" s="7" t="s">
+      <c r="O297" s="7" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A298" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B298" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="O298" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="299" spans="1:15" ht="24.95" customHeight="1">
       <c r="A299" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="O299" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A300" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B300" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="O299" s="7" t="s">
+      <c r="O300" s="7" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A301" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="O301" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="302" spans="1:15" ht="24.95" customHeight="1">
       <c r="A302" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="O302" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="303" spans="1:15" ht="24.95" customHeight="1">
       <c r="A303" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="304" spans="1:15" ht="24.95" customHeight="1">
       <c r="A304" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="O304" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="305" spans="1:15" ht="24.95" customHeight="1">
       <c r="A305" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="O305" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A306" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B306" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="O305" s="7" t="s">
+      <c r="O306" s="7" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="307" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A307" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="O307" s="12" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="308" spans="1:15" ht="24.95" customHeight="1">
       <c r="A308" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="O308" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A309" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B309" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="O308" s="12" t="s">
+      <c r="O309" s="12" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A309" s="3" t="s">
+    <row r="310" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A310" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B310" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="O309" s="13" t="s">
+      <c r="O310" s="13" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A310" s="10" t="s">
+    <row r="311" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A311" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B311" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="O310" s="10" t="s">
+      <c r="O311" s="10" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A311" s="16" t="s">
+    <row r="312" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A312" s="16" t="s">
         <v>2820</v>
       </c>
-      <c r="B311" s="16" t="s">
+      <c r="B312" s="16" t="s">
         <v>2829</v>
       </c>
-      <c r="O311" s="16" t="s">
+      <c r="O312" s="16" t="s">
         <v>2823</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A312" s="3" t="s">
+    <row r="313" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A313" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B313" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="O312" s="10" t="s">
+      <c r="O313" s="10" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B313" s="7"/>
-      <c r="M313" s="7"/>
-    </row>
     <row r="314" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A314" s="3" t="s">
+      <c r="B314" s="7"/>
+      <c r="M314" s="7"/>
+    </row>
+    <row r="315" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A315" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B315" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="O314" s="3" t="s">
+      <c r="O315" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A315" s="10" t="s">
+    <row r="316" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A316" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B316" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="M315" s="7"/>
-      <c r="O315" s="12" t="s">
+      <c r="M316" s="7"/>
+      <c r="O316" s="12" t="s">
         <v>658</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A316" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="O316" s="10" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="317" spans="1:15" ht="24.95" customHeight="1">
       <c r="A317" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="O317" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="318" spans="1:15" ht="24.95" customHeight="1">
       <c r="A318" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="O318" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A319" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B319" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="O318" s="10" t="s">
+      <c r="O319" s="10" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O319" s="3"/>
-    </row>
     <row r="320" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A320" s="10" t="s">
+      <c r="O320" s="3"/>
+    </row>
+    <row r="321" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A321" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B321" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="O320" s="10" t="s">
+      <c r="O321" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O321" s="3"/>
-    </row>
     <row r="322" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A322" s="10" t="s">
+      <c r="O322" s="3"/>
+    </row>
+    <row r="323" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A323" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B323" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="O322" s="10" t="s">
+      <c r="O323" s="10" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A323" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="O323" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="324" spans="1:15" ht="24.95" customHeight="1">
       <c r="A324" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="O324" s="12" t="s">
-        <v>679</v>
+        <v>675</v>
+      </c>
+      <c r="O324" s="3" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="325" spans="1:15" ht="24.95" customHeight="1">
       <c r="A325" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="O325" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
+      </c>
+      <c r="O325" s="12" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="326" spans="1:15" ht="24.95" customHeight="1">
       <c r="A326" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="O326" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="327" spans="1:15" ht="24.95" customHeight="1">
       <c r="A327" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="O327" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A328" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B328" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="O327" s="3" t="s">
+      <c r="O328" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O328" s="3"/>
-    </row>
     <row r="329" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A329" s="10" t="s">
+      <c r="O329" s="3"/>
+    </row>
+    <row r="330" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A330" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B330" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="O329" s="10" t="s">
+      <c r="O330" s="10" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A330" s="10"/>
-      <c r="O330" s="10"/>
-    </row>
     <row r="331" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A331" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="O331" s="10" t="s">
-        <v>655</v>
-      </c>
+      <c r="A331" s="10"/>
+      <c r="O331" s="10"/>
     </row>
     <row r="332" spans="1:15" ht="24.95" customHeight="1">
       <c r="A332" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="O332" s="10" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
     </row>
     <row r="333" spans="1:15" ht="24.95" customHeight="1">
       <c r="A333" s="10" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="O333" s="10" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="334" spans="1:15" ht="24.95" customHeight="1">
       <c r="A334" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="O334" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="335" spans="1:15" ht="24.95" customHeight="1">
       <c r="A335" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>700</v>
       </c>
       <c r="O335" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="336" spans="1:15" ht="24.95" customHeight="1">
       <c r="A336" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="O336" s="10" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A337" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B337" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="O336" s="10" t="s">
+      <c r="O337" s="10" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A337" s="10"/>
-      <c r="B337" s="10"/>
-      <c r="O337" s="10"/>
-    </row>
     <row r="338" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A338" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="B338" s="10" t="s">
-        <v>1828</v>
-      </c>
-      <c r="O338" s="10" t="s">
-        <v>709</v>
-      </c>
+      <c r="A338" s="10"/>
+      <c r="B338" s="10"/>
+      <c r="O338" s="10"/>
     </row>
     <row r="339" spans="1:15" ht="24.95" customHeight="1">
       <c r="A339" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="O339" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="340" spans="1:15" ht="24.95" customHeight="1">
       <c r="A340" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="O340" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="341" spans="1:15" ht="24.95" customHeight="1">
       <c r="A341" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="O341" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="24.95" customHeight="1">
       <c r="A342" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="O342" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="343" spans="1:15" ht="24.95" customHeight="1">
       <c r="A343" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="O343" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="344" spans="1:15" ht="24.95" customHeight="1">
       <c r="A344" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="O344" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="345" spans="1:15" ht="24.95" customHeight="1">
       <c r="A345" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O345" s="10" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A346" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B346" s="10" t="s">
         <v>1835</v>
       </c>
-      <c r="O345" s="10" t="s">
+      <c r="O346" s="10" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A346" s="10"/>
-      <c r="B346" s="10"/>
-    </row>
     <row r="347" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A347" s="10" t="s">
-        <v>2540</v>
-      </c>
-      <c r="B347" s="16" t="s">
-        <v>2547</v>
-      </c>
-      <c r="O347" s="7" t="s">
-        <v>2545</v>
-      </c>
+      <c r="A347" s="10"/>
+      <c r="B347" s="10"/>
     </row>
     <row r="348" spans="1:15" ht="24.95" customHeight="1">
       <c r="A348" s="10" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>2548</v>
-      </c>
-      <c r="O348" s="16" t="s">
-        <v>2544</v>
+        <v>2547</v>
+      </c>
+      <c r="O348" s="7" t="s">
+        <v>2545</v>
       </c>
     </row>
     <row r="349" spans="1:15" ht="24.95" customHeight="1">
       <c r="A349" s="10" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>2548</v>
+      </c>
+      <c r="O349" s="16" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A350" s="10" t="s">
         <v>2542</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B350" s="10" t="s">
         <v>2546</v>
       </c>
-      <c r="O349" s="16" t="s">
+      <c r="O350" s="16" t="s">
         <v>2543</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A350" s="10"/>
-      <c r="B350" s="10"/>
-      <c r="O350" s="10"/>
-    </row>
     <row r="351" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A351" s="16" t="s">
+      <c r="A351" s="10"/>
+      <c r="B351" s="10"/>
+      <c r="O351" s="10"/>
+    </row>
+    <row r="352" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A352" s="16" t="s">
         <v>2533</v>
       </c>
-      <c r="B351" s="16" t="s">
+      <c r="B352" s="16" t="s">
         <v>2532</v>
       </c>
-      <c r="O351" s="3" t="s">
+      <c r="O352" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B352" s="10"/>
-      <c r="O352" s="3"/>
-    </row>
     <row r="353" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A353" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B353" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="O353" s="3" t="s">
-        <v>726</v>
-      </c>
+      <c r="B353" s="10"/>
+      <c r="O353" s="3"/>
     </row>
     <row r="354" spans="1:15" ht="24.95" customHeight="1">
       <c r="A354" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="O354" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="355" spans="1:15" ht="24.95" customHeight="1">
       <c r="A355" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="O355" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A356" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B356" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="O355" s="16" t="s">
+      <c r="O356" s="16" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O356" s="3"/>
-    </row>
     <row r="357" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A357" s="16" t="s">
-        <v>1760</v>
-      </c>
-      <c r="O357" s="16" t="s">
-        <v>1767</v>
-      </c>
+      <c r="O357" s="3"/>
     </row>
     <row r="358" spans="1:15" ht="24.95" customHeight="1">
       <c r="A358" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="O358" s="16" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A359" s="16" t="s">
         <v>1761</v>
       </c>
-      <c r="B358" s="16" t="s">
+      <c r="B359" s="16" t="s">
         <v>1734</v>
       </c>
-      <c r="O358" s="16" t="s">
+      <c r="O359" s="16" t="s">
         <v>1768</v>
-      </c>
-    </row>
-    <row r="359" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A359" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B359" s="16" t="s">
-        <v>1730</v>
-      </c>
-      <c r="O359" s="16" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="360" spans="1:15" ht="24.95" customHeight="1">
       <c r="A360" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B360" s="16" t="s">
+        <v>1730</v>
+      </c>
+      <c r="O360" s="16" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A361" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="B360" s="16" t="s">
+      <c r="B361" s="16" t="s">
         <v>1731</v>
       </c>
-      <c r="O360" s="16" t="s">
+      <c r="O361" s="16" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A361" s="16" t="s">
+    <row r="362" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A362" s="16" t="s">
         <v>1773</v>
       </c>
-      <c r="B361" s="16" t="s">
+      <c r="B362" s="16" t="s">
         <v>1740</v>
       </c>
-      <c r="O361" s="16" t="s">
+      <c r="O362" s="16" t="s">
         <v>1774</v>
-      </c>
-    </row>
-    <row r="362" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A362" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="O362" s="16" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="363" spans="1:15" ht="24.95" customHeight="1">
       <c r="A363" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B363" s="16" t="s">
-        <v>1735</v>
+        <v>1764</v>
       </c>
       <c r="O363" s="16" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="364" spans="1:15" ht="24.95" customHeight="1">
       <c r="A364" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O364" s="16" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A365" s="3" t="s">
         <v>1766</v>
       </c>
-      <c r="B364" s="16" t="s">
+      <c r="B365" s="16" t="s">
         <v>1733</v>
       </c>
-      <c r="O364" s="16" t="s">
+      <c r="O365" s="16" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O365" s="3"/>
-    </row>
     <row r="366" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A366" s="3" t="s">
+      <c r="O366" s="3"/>
+    </row>
+    <row r="367" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A367" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B367" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="O366" s="3" t="s">
+      <c r="O367" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A367" s="10" t="s">
+    <row r="368" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A368" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B368" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="O367" s="3" t="s">
+      <c r="O368" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O368" s="3"/>
-    </row>
     <row r="369" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A369" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B369" s="16" t="s">
-        <v>2741</v>
-      </c>
-      <c r="O369" s="3" t="s">
-        <v>739</v>
-      </c>
+      <c r="O369" s="3"/>
     </row>
     <row r="370" spans="1:15" ht="24.95" customHeight="1">
       <c r="A370" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>2741</v>
+      </c>
+      <c r="O370" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A371" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B370" s="16" t="s">
+      <c r="B371" s="16" t="s">
         <v>2742</v>
       </c>
-      <c r="O370" s="3" t="s">
+      <c r="O371" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O371" s="3"/>
-    </row>
     <row r="372" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A372" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="O372" s="3" t="s">
-        <v>744</v>
-      </c>
+      <c r="O372" s="3"/>
     </row>
     <row r="373" spans="1:15" ht="24.95" customHeight="1">
       <c r="A373" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B373" s="10" t="s">
-        <v>746</v>
+        <v>742</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="O373" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="374" spans="1:15" ht="24.95" customHeight="1">
       <c r="A374" s="3" t="s">
-        <v>1670</v>
+        <v>745</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="O374" s="3" t="s">
-        <v>495</v>
+        <v>747</v>
       </c>
     </row>
     <row r="375" spans="1:15" ht="24.95" customHeight="1">
       <c r="A375" s="3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>749</v>
+        <v>1670</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>748</v>
       </c>
       <c r="O375" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="376" spans="1:15" ht="24.95" customHeight="1">
       <c r="A376" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="O376" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A377" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B377" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="O376" s="3" t="s">
+      <c r="O377" s="3" t="s">
         <v>752</v>
-      </c>
-    </row>
-    <row r="377" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A377" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="O377" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="378" spans="1:15" ht="24.95" customHeight="1">
       <c r="A378" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="B378" s="16" t="s">
-        <v>1713</v>
-      </c>
-      <c r="O378" s="16" t="s">
-        <v>1855</v>
+        <v>753</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="O378" s="3" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="379" spans="1:15" ht="24.95" customHeight="1">
       <c r="A379" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O379" s="16" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A380" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B380" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="O379" s="3" t="s">
+      <c r="O380" s="3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A380" s="3" t="s">
+    <row r="381" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A381" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B381" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="O380" s="3" t="s">
+      <c r="O381" s="3" t="s">
         <v>762</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A381" s="16" t="s">
-        <v>2737</v>
-      </c>
-      <c r="B381" s="16" t="s">
-        <v>2738</v>
-      </c>
-      <c r="O381" s="16" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="382" spans="1:15" ht="24.95" customHeight="1">
       <c r="A382" s="16" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B382" s="16" t="s">
+        <v>2738</v>
+      </c>
+      <c r="O382" s="16" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A383" s="16" t="s">
         <v>1808</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B383" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="O382" s="3" t="s">
+      <c r="O383" s="3" t="s">
         <v>764</v>
-      </c>
-    </row>
-    <row r="383" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A383" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="O383" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="384" spans="1:15" ht="24.95" customHeight="1">
       <c r="A384" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="O384" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A385" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B385" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="O384" s="3" t="s">
+      <c r="O385" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A385" s="16" t="s">
+    <row r="386" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A386" s="16" t="s">
         <v>2732</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B386" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="O385" s="3" t="s">
+      <c r="O386" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A386" s="3" t="s">
+    <row r="387" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A387" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B387" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="O386" s="3" t="s">
+      <c r="O387" s="3" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O387" s="3"/>
-    </row>
     <row r="388" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A388" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="O388" s="16" t="s">
-        <v>2562</v>
-      </c>
+      <c r="O388" s="3"/>
     </row>
     <row r="389" spans="1:15" ht="24.95" customHeight="1">
       <c r="A389" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B389" s="16"/>
-      <c r="O389" s="3" t="s">
-        <v>810</v>
+        <v>1676</v>
+      </c>
+      <c r="O389" s="16" t="s">
+        <v>2562</v>
       </c>
     </row>
     <row r="390" spans="1:15" ht="24.95" customHeight="1">
       <c r="A390" s="3" t="s">
-        <v>1678</v>
-      </c>
+        <v>1677</v>
+      </c>
+      <c r="B390" s="16"/>
       <c r="O390" s="3" t="s">
-        <v>1704</v>
+        <v>810</v>
       </c>
     </row>
     <row r="391" spans="1:15" ht="24.95" customHeight="1">
       <c r="A391" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="O391" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="392" spans="1:15" ht="24.95" customHeight="1">
       <c r="A392" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="O392" s="3" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="393" spans="1:15" ht="24.95" customHeight="1">
       <c r="A393" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="O393" s="3" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A394" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B394" s="3" t="s">
         <v>1714</v>
       </c>
-      <c r="O393" s="16" t="s">
+      <c r="O394" s="16" t="s">
         <v>1854</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A394" s="16" t="s">
-        <v>1682</v>
-      </c>
-      <c r="O394" s="3" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="395" spans="1:15" ht="24.95" customHeight="1">
       <c r="A395" s="16" t="s">
+        <v>1682</v>
+      </c>
+      <c r="O395" s="3" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A396" s="16" t="s">
         <v>1686</v>
       </c>
-      <c r="O395" s="3" t="s">
+      <c r="O396" s="3" t="s">
         <v>1701</v>
-      </c>
-    </row>
-    <row r="396" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A396" s="3" t="s">
-        <v>1683</v>
-      </c>
-      <c r="O396" s="3" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="397" spans="1:15" ht="24.95" customHeight="1">
       <c r="A397" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O397" s="3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="398" spans="1:15" ht="24.95" customHeight="1">
       <c r="A398" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O398" s="3" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A399" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="O398" s="3" t="s">
+      <c r="O399" s="3" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O399" s="3"/>
-    </row>
     <row r="400" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A400" s="3" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B400" s="16" t="s">
-        <v>1712</v>
-      </c>
-      <c r="O400" s="3" t="s">
-        <v>810</v>
-      </c>
+      <c r="O400" s="3"/>
     </row>
     <row r="401" spans="1:15" ht="24.95" customHeight="1">
       <c r="A401" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B401" s="10" t="s">
-        <v>748</v>
+        <v>1687</v>
+      </c>
+      <c r="B401" s="16" t="s">
+        <v>1712</v>
       </c>
       <c r="O401" s="3" t="s">
-        <v>1696</v>
+        <v>810</v>
       </c>
     </row>
     <row r="402" spans="1:15" ht="24.95" customHeight="1">
       <c r="A402" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="O402" s="3" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A403" s="3" t="s">
         <v>1689</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B403" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="O402" s="3" t="s">
+      <c r="O403" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A403" s="16" t="s">
+    <row r="404" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A404" s="16" t="s">
         <v>2529</v>
       </c>
-      <c r="B403" s="16" t="s">
+      <c r="B404" s="16" t="s">
         <v>2530</v>
       </c>
-      <c r="O403" s="16" t="s">
+      <c r="O404" s="16" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A404" s="3" t="s">
+    <row r="405" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A405" s="3" t="s">
         <v>1690</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B405" s="3" t="s">
         <v>1714</v>
       </c>
-      <c r="O404" s="16" t="s">
+      <c r="O405" s="16" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O405" s="3"/>
-    </row>
     <row r="406" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A406" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B406" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="O406" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="O406" s="3"/>
     </row>
     <row r="407" spans="1:15" ht="24.95" customHeight="1">
       <c r="A407" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>804</v>
       </c>
       <c r="O407" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="408" spans="1:15" ht="24.95" customHeight="1">
       <c r="A408" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="O408" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A409" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B409" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="O408" s="3" t="s">
+      <c r="O409" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O409" s="3"/>
-    </row>
     <row r="410" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A410" s="3" t="s">
-        <v>1691</v>
-      </c>
-      <c r="O410" s="3" t="s">
-        <v>810</v>
-      </c>
+      <c r="O410" s="3"/>
     </row>
     <row r="411" spans="1:15" ht="24.95" customHeight="1">
       <c r="A411" s="3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O411" s="16" t="s">
-        <v>1854</v>
+        <v>1691</v>
+      </c>
+      <c r="O411" s="3" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="412" spans="1:15" ht="24.95" customHeight="1">
       <c r="A412" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="O412" s="16" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A413" s="3" t="s">
         <v>1693</v>
       </c>
-      <c r="O412" s="3" t="s">
+      <c r="O413" s="3" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O413" s="3"/>
-    </row>
     <row r="414" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A414" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="O414" s="3" t="s">
-        <v>778</v>
-      </c>
+      <c r="O414" s="3"/>
     </row>
     <row r="415" spans="1:15" ht="24.95" customHeight="1">
       <c r="A415" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O415" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="416" spans="1:15" ht="24.95" customHeight="1">
       <c r="A416" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="O416" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A417" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B417" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="O416" s="3" t="s">
+      <c r="O417" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O417" s="3"/>
-    </row>
     <row r="418" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A418" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="O418" s="3" t="s">
-        <v>787</v>
-      </c>
+      <c r="O418" s="3"/>
     </row>
     <row r="419" spans="1:15" ht="24.95" customHeight="1">
       <c r="A419" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>789</v>
+        <v>785</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>786</v>
       </c>
       <c r="O419" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="420" spans="1:15" ht="24.95" customHeight="1">
       <c r="A420" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="O420" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="421" spans="1:15" ht="24.95" customHeight="1">
       <c r="A421" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="O421" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A422" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B422" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="O421" s="3" t="s">
+      <c r="O422" s="3" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="422" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A422" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="O422" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="423" spans="1:15" ht="24.95" customHeight="1">
       <c r="A423" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="O423" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A424" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B423" s="10"/>
-      <c r="O423" s="3" t="s">
+      <c r="B424" s="10"/>
+      <c r="O424" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A424" s="10"/>
-      <c r="B424" s="10"/>
-      <c r="O424" s="3"/>
-    </row>
     <row r="425" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A425" s="16" t="s">
+      <c r="A425" s="10"/>
+      <c r="B425" s="10"/>
+      <c r="O425" s="3"/>
+    </row>
+    <row r="426" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A426" s="16" t="s">
         <v>1741</v>
       </c>
-      <c r="B425" s="16" t="s">
+      <c r="B426" s="16" t="s">
         <v>1742</v>
       </c>
-      <c r="O425" s="3" t="s">
+      <c r="O426" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A426" s="10" t="s">
+    <row r="427" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A427" s="10" t="s">
         <v>1674</v>
       </c>
-      <c r="B426" s="10"/>
-      <c r="O426" s="3" t="s">
+      <c r="B427" s="10"/>
+      <c r="O427" s="3" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A427" s="16" t="s">
+    <row r="428" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A428" s="16" t="s">
         <v>1743</v>
       </c>
-      <c r="B427" s="16" t="s">
+      <c r="B428" s="16" t="s">
         <v>1894</v>
       </c>
-      <c r="O427" s="3" t="s">
+      <c r="O428" s="3" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A428" s="10"/>
-      <c r="B428" s="10"/>
-      <c r="O428" s="3"/>
-    </row>
     <row r="429" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A429" s="16" t="s">
-        <v>1722</v>
-      </c>
+      <c r="A429" s="10"/>
       <c r="B429" s="10"/>
-      <c r="O429" s="16" t="s">
-        <v>1723</v>
-      </c>
+      <c r="O429" s="3"/>
     </row>
     <row r="430" spans="1:15" ht="24.95" customHeight="1">
       <c r="A430" s="16" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B430" s="10"/>
+      <c r="O430" s="16" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A431" s="16" t="s">
         <v>1726</v>
       </c>
-      <c r="B430" s="16" t="s">
+      <c r="B431" s="16" t="s">
         <v>1735</v>
       </c>
-      <c r="O430" s="16" t="s">
+      <c r="O431" s="16" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A431" s="10" t="s">
+    <row r="432" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A432" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="B431" s="16" t="s">
+      <c r="B432" s="16" t="s">
         <v>1733</v>
       </c>
-      <c r="O431" s="16" t="s">
+      <c r="O432" s="16" t="s">
         <v>1737</v>
-      </c>
-    </row>
-    <row r="432" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A432" s="16" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B432" s="10"/>
-      <c r="O432" s="16" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="433" spans="1:15" ht="24.95" customHeight="1">
       <c r="A433" s="16" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B433" s="16" t="s">
-        <v>1730</v>
-      </c>
+        <v>1724</v>
+      </c>
+      <c r="B433" s="10"/>
       <c r="O433" s="16" t="s">
-        <v>1772</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="434" spans="1:15" ht="24.95" customHeight="1">
       <c r="A434" s="16" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="O434" s="16" t="s">
-        <v>1736</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="435" spans="1:15" ht="24.95" customHeight="1">
       <c r="A435" s="16" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="O435" s="16" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="436" spans="1:15" ht="24.95" customHeight="1">
       <c r="A436" s="16" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B436" s="16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="O436" s="16" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A437" s="16" t="s">
         <v>1728</v>
       </c>
-      <c r="B436" s="16" t="s">
+      <c r="B437" s="16" t="s">
         <v>1734</v>
       </c>
-      <c r="O436" s="16" t="s">
+      <c r="O437" s="16" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A437" s="16"/>
-      <c r="B437" s="16"/>
-      <c r="O437" s="16"/>
-    </row>
     <row r="438" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A438" s="16" t="s">
-        <v>2818</v>
-      </c>
-      <c r="O438" s="17" t="s">
-        <v>2819</v>
-      </c>
+      <c r="A438" s="16"/>
+      <c r="B438" s="16"/>
+      <c r="O438" s="16"/>
     </row>
     <row r="439" spans="1:15" ht="24.95" customHeight="1">
       <c r="A439" s="16" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B439" s="16"/>
-      <c r="O439" s="16" t="s">
-        <v>2805</v>
+        <v>2818</v>
+      </c>
+      <c r="O439" s="17" t="s">
+        <v>2819</v>
       </c>
     </row>
     <row r="440" spans="1:15" ht="24.95" customHeight="1">
       <c r="A440" s="16" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B440" s="16"/>
       <c r="O440" s="16" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A441" s="16" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B441" s="16"/>
+      <c r="O441" s="16" t="s">
         <v>2806</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A441" s="10"/>
-      <c r="B441" s="10"/>
-      <c r="O441" s="3"/>
-    </row>
     <row r="442" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A442" s="16" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B442" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="O442" s="16" t="s">
-        <v>1705</v>
-      </c>
+      <c r="A442" s="10"/>
+      <c r="B442" s="10"/>
+      <c r="O442" s="3"/>
     </row>
     <row r="443" spans="1:15" ht="24.95" customHeight="1">
       <c r="A443" s="16" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B443" s="10"/>
+        <v>1672</v>
+      </c>
+      <c r="B443" s="16" t="s">
+        <v>1895</v>
+      </c>
       <c r="O443" s="16" t="s">
-        <v>2747</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="444" spans="1:15" ht="24.95" customHeight="1">
       <c r="A444" s="16" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B444" s="10"/>
+      <c r="O444" s="16" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A445" s="16" t="s">
         <v>1706</v>
       </c>
-      <c r="B444" s="16" t="s">
+      <c r="B445" s="16" t="s">
         <v>2748</v>
       </c>
-      <c r="O444" s="16" t="s">
+      <c r="O445" s="16" t="s">
         <v>1893</v>
-      </c>
-    </row>
-    <row r="445" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A445" s="10" t="s">
-        <v>956</v>
-      </c>
-      <c r="B445" s="10" t="s">
-        <v>2749</v>
-      </c>
-      <c r="O445" s="16" t="s">
-        <v>2751</v>
       </c>
     </row>
     <row r="446" spans="1:15" ht="24.95" customHeight="1">
       <c r="A446" s="10" t="s">
-        <v>957</v>
-      </c>
-      <c r="B446" s="16" t="s">
-        <v>2752</v>
-      </c>
-      <c r="O446" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
+      </c>
+      <c r="B446" s="10" t="s">
+        <v>2749</v>
+      </c>
+      <c r="O446" s="16" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="447" spans="1:15" ht="24.95" customHeight="1">
       <c r="A447" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="B447" s="16" t="s">
+        <v>2752</v>
+      </c>
+      <c r="O447" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A448" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B448" s="3" t="s">
         <v>2750</v>
       </c>
-      <c r="O447" s="16" t="s">
+      <c r="O448" s="16" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A448" s="10"/>
-      <c r="B448" s="10"/>
-      <c r="O448" s="3"/>
-    </row>
     <row r="449" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A449" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="O449" s="3" t="s">
-        <v>988</v>
-      </c>
+      <c r="A449" s="10"/>
+      <c r="B449" s="10"/>
+      <c r="O449" s="3"/>
     </row>
     <row r="450" spans="1:15" ht="24.95" customHeight="1">
       <c r="A450" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O450" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="451" spans="1:15" ht="24.95" customHeight="1">
       <c r="A451" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="O451" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="452" spans="1:15" ht="24.95" customHeight="1">
       <c r="A452" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="O452" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="453" spans="1:15" ht="24.95" customHeight="1">
       <c r="A453" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="O453" s="16" t="s">
-        <v>2853</v>
+        <v>993</v>
+      </c>
+      <c r="O453" s="3" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="454" spans="1:15" ht="24.95" customHeight="1">
       <c r="A454" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="O454" s="16" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A455" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="O454" s="3" t="s">
+      <c r="O455" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O455" s="3"/>
-    </row>
     <row r="456" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A456" s="10" t="s">
+      <c r="O456" s="3"/>
+    </row>
+    <row r="457" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A457" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B457" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="O456" s="16" t="s">
+      <c r="O457" s="16" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A457" s="16" t="s">
+    <row r="458" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A458" s="16" t="s">
         <v>1715</v>
       </c>
-      <c r="B457" s="16" t="s">
+      <c r="B458" s="16" t="s">
         <v>1892</v>
       </c>
-      <c r="O457" s="16" t="s">
+      <c r="O458" s="16" t="s">
         <v>1891</v>
-      </c>
-    </row>
-    <row r="458" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A458" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="O458" s="3" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="459" spans="1:15" ht="24.95" customHeight="1">
       <c r="A459" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="O459" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A460" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B460" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="O459" s="3" t="s">
+      <c r="O460" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A460" s="16" t="s">
+    <row r="461" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A461" s="16" t="s">
         <v>1710</v>
       </c>
-      <c r="B460" s="3" t="s">
+      <c r="B461" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="O460" s="17" t="s">
+      <c r="O461" s="17" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O461" s="3"/>
-    </row>
     <row r="462" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A462" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="O462" s="3" t="s">
-        <v>822</v>
-      </c>
+      <c r="O462" s="3"/>
     </row>
     <row r="463" spans="1:15" ht="24.95" customHeight="1">
       <c r="A463" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="O463" s="3" t="s">
-        <v>522</v>
+        <v>822</v>
       </c>
     </row>
     <row r="464" spans="1:15" ht="24.95" customHeight="1">
       <c r="A464" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="O464" s="3" t="s">
-        <v>827</v>
+        <v>522</v>
       </c>
     </row>
     <row r="465" spans="1:15" ht="24.95" customHeight="1">
       <c r="A465" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="O465" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A466" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B465" s="3" t="s">
+      <c r="B466" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="O465" s="3" t="s">
+      <c r="O466" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O466" s="3"/>
-    </row>
     <row r="467" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A467" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="O467" s="3" t="s">
-        <v>831</v>
-      </c>
+      <c r="O467" s="3"/>
     </row>
     <row r="468" spans="1:15" ht="24.95" customHeight="1">
       <c r="A468" s="3" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="O468" s="3" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="469" spans="1:15" ht="24.95" customHeight="1">
       <c r="A469" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="O469" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="470" spans="1:15" ht="24.95" customHeight="1">
       <c r="A470" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="O470" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A471" s="3" t="s">
         <v>2753</v>
       </c>
-      <c r="O470" s="16" t="s">
+      <c r="O471" s="16" t="s">
         <v>2754</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A471" s="10" t="s">
+    <row r="472" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A472" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="B471" s="10"/>
-      <c r="O471" s="3" t="s">
+      <c r="B472" s="10"/>
+      <c r="O472" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A472" s="16" t="s">
+    <row r="473" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A473" s="16" t="s">
         <v>2539</v>
       </c>
-      <c r="B472" s="16"/>
-      <c r="O472" s="16" t="s">
+      <c r="B473" s="16"/>
+      <c r="O473" s="16" t="s">
         <v>2803</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A473" s="10"/>
-      <c r="B473" s="10"/>
-      <c r="O473" s="3"/>
-    </row>
     <row r="474" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A474" s="10" t="s">
+      <c r="A474" s="10"/>
+      <c r="B474" s="10"/>
+      <c r="O474" s="3"/>
+    </row>
+    <row r="475" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A475" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B474" s="16" t="s">
+      <c r="B475" s="16" t="s">
         <v>1749</v>
       </c>
-      <c r="O474" s="3" t="s">
+      <c r="O475" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A475" s="16" t="s">
+    <row r="476" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A476" s="16" t="s">
         <v>1747</v>
       </c>
-      <c r="B475" s="16" t="s">
+      <c r="B476" s="16" t="s">
         <v>1748</v>
       </c>
-      <c r="O475" s="3" t="s">
+      <c r="O476" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A476" s="3" t="s">
+    <row r="477" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A477" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B477" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="O476" s="3" t="s">
+      <c r="O477" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O477" s="3"/>
-    </row>
     <row r="478" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A478" s="10" t="s">
+      <c r="O478" s="3"/>
+    </row>
+    <row r="479" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A479" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="B479" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="O478" s="3" t="s">
+      <c r="O479" s="3" t="s">
         <v>847</v>
-      </c>
-    </row>
-    <row r="479" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A479" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="O479" s="3" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="480" spans="1:15" ht="24.95" customHeight="1">
       <c r="A480" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="O480" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A481" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="B480" s="3" t="s">
+      <c r="B481" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="O480" s="16" t="s">
+      <c r="O481" s="16" t="s">
         <v>2802</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A481" s="16" t="s">
+    <row r="482" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A482" s="16" t="s">
         <v>1744</v>
       </c>
-      <c r="B481" s="16" t="s">
+      <c r="B482" s="16" t="s">
         <v>1746</v>
       </c>
-      <c r="O481" s="16" t="s">
+      <c r="O482" s="16" t="s">
         <v>1745</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A482" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="O482" s="3" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="483" spans="1:15" ht="24.95" customHeight="1">
       <c r="A483" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="O483" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A484" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="B483" s="3" t="s">
+      <c r="B484" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="O483" s="3" t="s">
+      <c r="O484" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O484" s="3"/>
-    </row>
     <row r="485" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A485" s="3" t="s">
+      <c r="O485" s="3"/>
+    </row>
+    <row r="486" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A486" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B486" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="O485" s="3" t="s">
+      <c r="O486" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O486" s="3"/>
-    </row>
     <row r="487" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A487" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="O487" s="3" t="s">
-        <v>864</v>
-      </c>
+      <c r="O487" s="3"/>
     </row>
     <row r="488" spans="1:15" ht="24.95" customHeight="1">
       <c r="A488" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="O488" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A489" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B488" s="3" t="s">
+      <c r="B489" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="O488" s="3" t="s">
+      <c r="O489" s="3" t="s">
         <v>867</v>
-      </c>
-    </row>
-    <row r="489" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A489" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="B489" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="O489" s="3" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="490" spans="1:15" ht="24.95" customHeight="1">
       <c r="A490" s="10" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="O490" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="491" spans="1:15" ht="24.95" customHeight="1">
       <c r="A491" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="O491" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A492" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="B492" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="O491" s="3" t="s">
+      <c r="O492" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A492" s="3" t="s">
+    <row r="493" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A493" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="B492" s="3" t="s">
+      <c r="B493" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="O492" s="3" t="s">
+      <c r="O493" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A493" s="10" t="s">
+    <row r="494" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A494" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B493" s="16" t="s">
+      <c r="B494" s="16" t="s">
         <v>1890</v>
       </c>
-      <c r="O493" s="16" t="s">
+      <c r="O494" s="16" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A494" s="10"/>
-      <c r="B494" s="10"/>
-      <c r="O494" s="3"/>
-    </row>
     <row r="495" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A495" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="B495" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="O495" s="3" t="s">
-        <v>882</v>
-      </c>
+      <c r="A495" s="10"/>
+      <c r="B495" s="10"/>
+      <c r="O495" s="3"/>
     </row>
     <row r="496" spans="1:15" ht="24.95" customHeight="1">
       <c r="A496" s="10" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="O496" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="497" spans="1:15" ht="24.95" customHeight="1">
       <c r="A497" s="10" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="O497" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="498" spans="1:15" ht="24.95" customHeight="1">
       <c r="A498" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O498" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="499" spans="1:15" ht="24.95" customHeight="1">
       <c r="A499" s="10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B499" s="10" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="O499" s="3" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="500" spans="1:15" ht="24.95" customHeight="1">
       <c r="A500" s="10" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B500" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="O500" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="501" spans="1:15" ht="24.95" customHeight="1">
       <c r="A501" s="10" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B501" s="10" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="O501" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="502" spans="1:15" ht="24.95" customHeight="1">
       <c r="A502" s="10" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B502" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="O502" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="503" spans="1:15" ht="24.95" customHeight="1">
       <c r="A503" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="O503" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A504" s="10" t="s">
         <v>904</v>
       </c>
-      <c r="B503" s="10" t="s">
+      <c r="B504" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="O503" s="3" t="s">
+      <c r="O504" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A504" s="10"/>
-      <c r="B504" s="10"/>
-      <c r="O504" s="3"/>
-    </row>
     <row r="505" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A505" s="16" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B505" s="10" t="s">
-        <v>907</v>
-      </c>
-      <c r="O505" s="3" t="s">
-        <v>908</v>
-      </c>
+      <c r="A505" s="10"/>
+      <c r="B505" s="10"/>
+      <c r="O505" s="3"/>
     </row>
     <row r="506" spans="1:15" ht="24.95" customHeight="1">
       <c r="A506" s="16" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="O506" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A507" s="16" t="s">
         <v>1876</v>
       </c>
-      <c r="B506" s="10"/>
-      <c r="O506" s="16" t="s">
+      <c r="B507" s="10"/>
+      <c r="O507" s="16" t="s">
         <v>1877</v>
-      </c>
-    </row>
-    <row r="507" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A507" s="10" t="s">
-        <v>909</v>
-      </c>
-      <c r="B507" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="O507" s="3" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="508" spans="1:15" ht="24.95" customHeight="1">
       <c r="A508" s="10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B508" s="10" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="O508" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="509" spans="1:15" ht="24.95" customHeight="1">
       <c r="A509" s="10" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B509" s="10" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="O509" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="510" spans="1:15" ht="24.95" customHeight="1">
       <c r="A510" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="O510" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A511" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="B510" s="16" t="s">
+      <c r="B511" s="16" t="s">
         <v>1870</v>
       </c>
-      <c r="O510" s="3" t="s">
+      <c r="O511" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A511" s="10"/>
-      <c r="B511" s="10"/>
-      <c r="O511" s="3"/>
-    </row>
     <row r="512" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A512" s="3" t="s">
+      <c r="A512" s="10"/>
+      <c r="B512" s="10"/>
+      <c r="O512" s="3"/>
+    </row>
+    <row r="513" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A513" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="B512" s="10" t="s">
+      <c r="B513" s="10" t="s">
         <v>921</v>
       </c>
-      <c r="O512" s="3" t="s">
+      <c r="O513" s="3" t="s">
         <v>922</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A513" s="10" t="s">
-        <v>923</v>
-      </c>
-      <c r="B513" s="10" t="s">
-        <v>924</v>
-      </c>
-      <c r="O513" s="3" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="514" spans="1:15" ht="24.95" customHeight="1">
       <c r="A514" s="10" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B514" s="10" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="O514" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="515" spans="1:15" ht="24.95" customHeight="1">
       <c r="A515" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="O515" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A516" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B516" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="O515" s="3" t="s">
+      <c r="O516" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A516" s="3" t="s">
+    <row r="517" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A517" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="B516" s="3" t="s">
+      <c r="B517" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="O516" s="3" t="s">
+      <c r="O517" s="3" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A517" s="16" t="s">
+    <row r="518" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A518" s="16" t="s">
         <v>2534</v>
       </c>
-      <c r="B517" s="16" t="s">
+      <c r="B518" s="16" t="s">
         <v>951</v>
       </c>
-      <c r="O517" s="3" t="s">
+      <c r="O518" s="3" t="s">
         <v>937</v>
-      </c>
-    </row>
-    <row r="518" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A518" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="B518" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="O518" s="16" t="s">
-        <v>2535</v>
       </c>
     </row>
     <row r="519" spans="1:15" ht="24.95" customHeight="1">
       <c r="A519" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="O519" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
+      </c>
+      <c r="B519" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="O519" s="16" t="s">
+        <v>2535</v>
       </c>
     </row>
     <row r="520" spans="1:15" ht="24.95" customHeight="1">
       <c r="A520" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="O520" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A521" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="B520" s="3" t="s">
+      <c r="B521" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="O520" s="3" t="s">
+      <c r="O521" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A521" s="16" t="s">
+    <row r="522" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A522" s="16" t="s">
         <v>1878</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B522" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="O521" s="3" t="s">
+      <c r="O522" s="3" t="s">
         <v>945</v>
-      </c>
-    </row>
-    <row r="522" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A522" s="10" t="s">
-        <v>946</v>
-      </c>
-      <c r="B522" s="17" t="s">
-        <v>2536</v>
-      </c>
-      <c r="O522" s="3" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="523" spans="1:15" ht="24.95" customHeight="1">
       <c r="A523" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="B523" s="17" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O523" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A524" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="B523" s="3" t="s">
+      <c r="B524" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="O523" s="3" t="s">
+      <c r="O524" s="3" t="s">
         <v>950</v>
-      </c>
-    </row>
-    <row r="524" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A524" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="B524" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="O524" s="3" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="525" spans="1:15" ht="24.95" customHeight="1">
       <c r="A525" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="O525" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A526" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="B525" s="10" t="s">
+      <c r="B526" s="10" t="s">
         <v>2537</v>
       </c>
-      <c r="O525" s="3" t="s">
+      <c r="O526" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B526" s="10"/>
-      <c r="O526" s="3"/>
-    </row>
     <row r="527" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A527" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="O527" s="3" t="s">
-        <v>962</v>
-      </c>
+      <c r="B527" s="10"/>
+      <c r="O527" s="3"/>
     </row>
     <row r="528" spans="1:15" ht="24.95" customHeight="1">
       <c r="A528" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="B528" s="10" t="s">
-        <v>964</v>
+        <v>960</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>961</v>
       </c>
       <c r="O528" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="529" spans="1:15" ht="24.95" customHeight="1">
       <c r="A529" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="O529" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A530" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B529" s="10" t="s">
+      <c r="B530" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="O529" s="3" t="s">
+      <c r="O530" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O530" s="3"/>
-    </row>
     <row r="531" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A531" s="16" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B531" s="10" t="s">
-        <v>969</v>
-      </c>
-      <c r="O531" s="3" t="s">
-        <v>970</v>
-      </c>
+      <c r="O531" s="3"/>
     </row>
     <row r="532" spans="1:15" ht="24.95" customHeight="1">
       <c r="A532" s="16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B532" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="O532" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A533" s="16" t="s">
         <v>1759</v>
       </c>
-      <c r="B532" s="3" t="s">
+      <c r="B533" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="O532" s="3" t="s">
+      <c r="O533" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O533" s="3"/>
-    </row>
     <row r="534" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A534" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="B534" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="O534" s="3" t="s">
-        <v>793</v>
-      </c>
+      <c r="O534" s="3"/>
     </row>
     <row r="535" spans="1:15" ht="24.95" customHeight="1">
       <c r="A535" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="O535" s="3" t="s">
-        <v>977</v>
+        <v>793</v>
       </c>
     </row>
     <row r="536" spans="1:15" ht="24.95" customHeight="1">
       <c r="A536" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="O536" s="3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="537" spans="1:15" ht="24.95" customHeight="1">
       <c r="A537" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="O537" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="538" spans="1:15" ht="24.95" customHeight="1">
       <c r="A538" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="O538" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A539" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="B538" s="3" t="s">
+      <c r="B539" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="O538" s="3" t="s">
+      <c r="O539" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O539" s="3"/>
-    </row>
     <row r="540" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A540" s="3" t="s">
+      <c r="O540" s="3"/>
+    </row>
+    <row r="541" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A541" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="B540" s="3" t="s">
+      <c r="B541" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="O540" s="3" t="s">
+      <c r="O541" s="3" t="s">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="541" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A541" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O541" s="3" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="542" spans="1:15" ht="24.95" customHeight="1">
       <c r="A542" s="10" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="O542" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="543" spans="1:15" ht="24.95" customHeight="1">
       <c r="A543" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O543" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A544" s="10" t="s">
         <v>1007</v>
       </c>
-      <c r="B543" s="3" t="s">
+      <c r="B544" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="O543" s="3" t="s">
+      <c r="O544" s="3" t="s">
         <v>1009</v>
-      </c>
-    </row>
-    <row r="544" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A544" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B544" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="O544" s="3" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="545" spans="1:15" ht="24.95" customHeight="1">
       <c r="A545" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O545" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A546" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="B545" s="3" t="s">
+      <c r="B546" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="O545" s="3" t="s">
+      <c r="O546" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O546" s="3"/>
-    </row>
     <row r="547" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A547" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B547" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="O547" s="3" t="s">
-        <v>1018</v>
-      </c>
+      <c r="O547" s="3"/>
     </row>
     <row r="548" spans="1:15" ht="24.95" customHeight="1">
       <c r="A548" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="O548" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="549" spans="1:15" ht="24.95" customHeight="1">
       <c r="A549" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="O549" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="550" spans="1:15" ht="24.95" customHeight="1">
       <c r="A550" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O550" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A551" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="B551" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="O550" s="3" t="s">
+      <c r="O551" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A551" s="10" t="s">
+    <row r="552" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A552" s="10" t="s">
         <v>1028</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B552" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="O551" s="3" t="s">
+      <c r="O552" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A552" s="3" t="s">
+    <row r="553" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A553" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B553" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="O552" s="3" t="s">
+      <c r="O553" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O553" s="3"/>
-    </row>
     <row r="554" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A554" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O554" s="3" t="s">
-        <v>637</v>
-      </c>
+      <c r="O554" s="3"/>
     </row>
     <row r="555" spans="1:15" ht="24.95" customHeight="1">
       <c r="A555" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="O555" s="3" t="s">
-        <v>1036</v>
+        <v>637</v>
       </c>
     </row>
     <row r="556" spans="1:15" ht="24.95" customHeight="1">
       <c r="A556" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="O556" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="557" spans="1:15" ht="24.95" customHeight="1">
       <c r="A557" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="O557" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="558" spans="1:15" ht="24.95" customHeight="1">
       <c r="A558" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="O558" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="559" spans="1:15" ht="24.95" customHeight="1">
       <c r="A559" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O559" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A560" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="B559" s="3" t="s">
+      <c r="B560" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="O559" s="3" t="s">
+      <c r="O560" s="3" t="s">
         <v>1048</v>
-      </c>
-    </row>
-    <row r="560" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A560" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B560" s="10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="O560" s="3" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="561" spans="1:15" ht="24.95" customHeight="1">
       <c r="A561" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
+      </c>
+      <c r="B561" s="10" t="s">
+        <v>1050</v>
       </c>
       <c r="O561" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="562" spans="1:15" ht="24.95" customHeight="1">
       <c r="A562" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O562" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A563" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="B562" s="3" t="s">
+      <c r="B563" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="O562" s="3" t="s">
+      <c r="O563" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O563" s="3"/>
-    </row>
     <row r="564" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A564" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="O564" s="3" t="s">
-        <v>1060</v>
-      </c>
+      <c r="O564" s="3"/>
     </row>
     <row r="565" spans="1:15" ht="24.95" customHeight="1">
       <c r="A565" s="3" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="O565" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="566" spans="1:15" ht="24.95" customHeight="1">
       <c r="A566" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B566" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O566" s="16" t="s">
-        <v>2538</v>
+        <v>1061</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O566" s="3" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="567" spans="1:15" ht="24.95" customHeight="1">
       <c r="A567" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O567" s="16" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A568" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B567" s="3" t="s">
+      <c r="B568" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="O567" s="3" t="s">
+      <c r="O568" s="3" t="s">
         <v>1068</v>
-      </c>
-    </row>
-    <row r="568" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A568" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B568" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="O568" s="3" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="569" spans="1:15" ht="24.95" customHeight="1">
       <c r="A569" s="10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B569" s="3" t="s">
-        <v>68</v>
+        <v>1069</v>
+      </c>
+      <c r="B569" s="10" t="s">
+        <v>1070</v>
       </c>
       <c r="O569" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="570" spans="1:15" ht="24.95" customHeight="1">
       <c r="A570" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O570" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="571" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A571" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B570" s="3" t="s">
+      <c r="B571" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="O570" s="3" t="s">
+      <c r="O571" s="3" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A571" s="3" t="s">
+    <row r="572" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A572" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="B571" s="3" t="s">
+      <c r="B572" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="O571" s="3" t="s">
+      <c r="O572" s="3" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O572" s="3"/>
-    </row>
     <row r="573" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A573" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B573" s="3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="O573" s="3" t="s">
-        <v>1081</v>
-      </c>
+      <c r="O573" s="3"/>
     </row>
     <row r="574" spans="1:15" ht="24.95" customHeight="1">
       <c r="A574" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="O574" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="575" spans="1:15" ht="24.95" customHeight="1">
       <c r="A575" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="O575" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="576" spans="1:15" ht="24.95" customHeight="1">
       <c r="A576" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="O576" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="577" spans="1:15" ht="24.95" customHeight="1">
       <c r="A577" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="O577" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="578" spans="1:15" ht="24.95" customHeight="1">
       <c r="A578" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="O578" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A579" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B578" s="16" t="s">
+      <c r="B579" s="16" t="s">
         <v>1863</v>
       </c>
-      <c r="O578" s="16" t="s">
+      <c r="O579" s="16" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A579" s="16" t="s">
+    <row r="580" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A580" s="16" t="s">
         <v>1864</v>
       </c>
-      <c r="B579" s="16" t="s">
+      <c r="B580" s="16" t="s">
         <v>1865</v>
       </c>
-      <c r="O579" s="16" t="s">
+      <c r="O580" s="16" t="s">
         <v>1801</v>
-      </c>
-    </row>
-    <row r="580" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A580" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B580" s="16" t="s">
-        <v>1861</v>
-      </c>
-      <c r="O580" s="16" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="581" spans="1:15" ht="24.95" customHeight="1">
       <c r="A581" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B581" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="O581" s="16" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A582" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="B581" s="16" t="s">
+      <c r="B582" s="16" t="s">
         <v>1862</v>
       </c>
-      <c r="O581" s="16" t="s">
+      <c r="O582" s="16" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B582" s="16"/>
-      <c r="O582" s="16"/>
-    </row>
     <row r="583" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A583" s="16" t="s">
-        <v>1931</v>
-      </c>
-      <c r="B583" s="16" t="s">
-        <v>1921</v>
-      </c>
-      <c r="O583" s="16" t="s">
-        <v>1938</v>
-      </c>
+      <c r="B583" s="16"/>
+      <c r="O583" s="16"/>
     </row>
     <row r="584" spans="1:15" ht="24.95" customHeight="1">
       <c r="A584" s="16" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B584" s="16" t="s">
-        <v>1934</v>
+        <v>1921</v>
       </c>
       <c r="O584" s="16" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="585" spans="1:15" ht="24.95" customHeight="1">
       <c r="A585" s="16" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B585" s="16" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="O585" s="16" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="586" spans="1:15" ht="24.95" customHeight="1">
       <c r="A586" s="16" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B586" s="16" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O586" s="16" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A587" s="16" t="s">
         <v>1939</v>
       </c>
-      <c r="B586" s="16" t="s">
+      <c r="B587" s="16" t="s">
         <v>1940</v>
       </c>
-      <c r="O586" s="16" t="s">
+      <c r="O587" s="16" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O587" s="3"/>
-    </row>
     <row r="588" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A588" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B588" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="O588" s="3" t="s">
-        <v>1095</v>
-      </c>
+      <c r="O588" s="3"/>
     </row>
     <row r="589" spans="1:15" ht="24.95" customHeight="1">
       <c r="A589" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="O589" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="590" spans="1:15" ht="24.95" customHeight="1">
       <c r="A590" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="O590" s="3" t="s">
-        <v>782</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="591" spans="1:15" ht="24.95" customHeight="1">
       <c r="A591" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O591" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="592" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A592" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="B591" s="3" t="s">
+      <c r="B592" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="O591" s="16" t="s">
+      <c r="O592" s="16" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O592" s="3"/>
-    </row>
     <row r="593" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A593" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B593" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="O593" s="3" t="s">
-        <v>1105</v>
-      </c>
+      <c r="O593" s="3"/>
     </row>
     <row r="594" spans="1:15" ht="24.95" customHeight="1">
       <c r="A594" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="O594" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="595" spans="1:15" ht="24.95" customHeight="1">
       <c r="A595" s="3" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="O595" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="596" spans="1:15" ht="24.95" customHeight="1">
       <c r="A596" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="O596" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="597" spans="1:15" ht="24.95" customHeight="1">
       <c r="A597" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O597" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="598" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A598" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="B597" s="3" t="s">
+      <c r="B598" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="O597" s="3" t="s">
+      <c r="O598" s="3" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O598" s="3"/>
-    </row>
     <row r="599" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A599" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B599" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="O599" s="3" t="s">
-        <v>1120</v>
-      </c>
+      <c r="O599" s="3"/>
     </row>
     <row r="600" spans="1:15" ht="24.95" customHeight="1">
       <c r="A600" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B600" s="10" t="s">
-        <v>1122</v>
+        <v>1118</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1119</v>
       </c>
       <c r="O600" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="601" spans="1:15" ht="24.95" customHeight="1">
       <c r="A601" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B601" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
+      </c>
+      <c r="B601" s="10" t="s">
+        <v>1122</v>
       </c>
       <c r="O601" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="602" spans="1:15" ht="24.95" customHeight="1">
       <c r="A602" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="O602" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="603" spans="1:15" ht="24.95" customHeight="1">
       <c r="A603" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="O603" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="604" spans="1:15" ht="24.95" customHeight="1">
       <c r="A604" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="O604" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="605" spans="1:15" ht="24.95" customHeight="1">
       <c r="A605" s="3" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>985</v>
+        <v>1134</v>
       </c>
       <c r="O605" s="3" t="s">
-        <v>986</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="606" spans="1:15" ht="24.95" customHeight="1">
       <c r="A606" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="O606" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="607" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A607" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="B606" s="3" t="s">
+      <c r="B607" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="O606" s="3" t="s">
+      <c r="O607" s="3" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O607" s="3"/>
-    </row>
     <row r="608" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A608" s="10" t="s">
+      <c r="O608" s="3"/>
+    </row>
+    <row r="609" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A609" s="10" t="s">
         <v>1140</v>
       </c>
-      <c r="B608" s="3" t="s">
+      <c r="B609" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="O608" s="3" t="s">
+      <c r="O609" s="3" t="s">
         <v>1142</v>
-      </c>
-    </row>
-    <row r="609" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A609" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B609" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O609" s="3" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="610" spans="1:15" ht="24.95" customHeight="1">
       <c r="A610" s="3" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="O610" s="3" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="611" spans="1:15" ht="24.95" customHeight="1">
       <c r="A611" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O611" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="612" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A612" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="B611" s="3" t="s">
+      <c r="B612" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="O611" s="3" t="s">
+      <c r="O612" s="3" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O612" s="3"/>
-    </row>
     <row r="613" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A613" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B613" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="O613" s="3" t="s">
-        <v>1154</v>
-      </c>
+      <c r="O613" s="3"/>
     </row>
     <row r="614" spans="1:15" ht="24.95" customHeight="1">
       <c r="A614" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O614" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="615" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A615" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="B614" s="3" t="s">
+      <c r="B615" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="O614" s="3" t="s">
+      <c r="O615" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A615" s="16" t="s">
+    <row r="616" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A616" s="16" t="s">
         <v>2799</v>
       </c>
-      <c r="B615" s="3" t="s">
+      <c r="B616" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="O615" s="3" t="s">
+      <c r="O616" s="3" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A616" s="3" t="s">
+    <row r="617" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A617" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="B616" s="3" t="s">
+      <c r="B617" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="O616" s="3" t="s">
+      <c r="O617" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O617" s="3"/>
-    </row>
     <row r="618" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A618" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B618" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="O618" s="3" t="s">
-        <v>940</v>
-      </c>
+      <c r="O618" s="3"/>
     </row>
     <row r="619" spans="1:15" ht="24.95" customHeight="1">
       <c r="A619" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1161</v>
+        <v>939</v>
       </c>
       <c r="O619" s="3" t="s">
-        <v>1006</v>
+        <v>940</v>
       </c>
     </row>
     <row r="620" spans="1:15" ht="24.95" customHeight="1">
       <c r="A620" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O620" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="621" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A621" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="O620" s="3" t="s">
+      <c r="O621" s="3" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O621" s="3"/>
-    </row>
     <row r="622" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A622" s="16" t="s">
-        <v>2868</v>
-      </c>
-      <c r="O622" s="16" t="s">
-        <v>2870</v>
-      </c>
+      <c r="O622" s="3"/>
     </row>
     <row r="623" spans="1:15" ht="24.95" customHeight="1">
       <c r="A623" s="16" t="s">
+        <v>2868</v>
+      </c>
+      <c r="O623" s="16" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="624" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A624" s="16" t="s">
         <v>2869</v>
       </c>
-      <c r="O623" s="16" t="s">
+      <c r="O624" s="16" t="s">
         <v>2871</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O624" s="3"/>
-    </row>
     <row r="625" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A625" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B625" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="O625" s="3" t="s">
-        <v>1166</v>
-      </c>
+      <c r="O625" s="3"/>
     </row>
     <row r="626" spans="1:15" ht="24.95" customHeight="1">
       <c r="A626" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="O626" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="627" spans="1:15" ht="24.95" customHeight="1">
       <c r="A627" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>985</v>
+        <v>1168</v>
       </c>
       <c r="O627" s="3" t="s">
-        <v>986</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="628" spans="1:15" ht="24.95" customHeight="1">
       <c r="A628" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1172</v>
+        <v>985</v>
       </c>
       <c r="O628" s="3" t="s">
-        <v>1173</v>
+        <v>986</v>
       </c>
     </row>
     <row r="629" spans="1:15" ht="24.95" customHeight="1">
       <c r="A629" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O629" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="630" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A630" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B629" s="3" t="s">
+      <c r="B630" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="O629" s="3" t="s">
+      <c r="O630" s="3" t="s">
         <v>1176</v>
-      </c>
-    </row>
-    <row r="630" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A630" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B630" s="16" t="s">
-        <v>1920</v>
-      </c>
-      <c r="O630" s="3" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="631" spans="1:15" ht="24.95" customHeight="1">
       <c r="A631" s="10" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B631" s="3" t="s">
-        <v>1180</v>
+        <v>1177</v>
+      </c>
+      <c r="B631" s="16" t="s">
+        <v>1920</v>
       </c>
       <c r="O631" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="632" spans="1:15" ht="24.95" customHeight="1">
       <c r="A632" s="10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="O632" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="633" spans="1:15" ht="24.95" customHeight="1">
       <c r="A633" s="10" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="O633" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="634" spans="1:15" ht="24.95" customHeight="1">
       <c r="A634" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O634" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="635" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A635" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="B634" s="3" t="s">
+      <c r="B635" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="O634" s="3" t="s">
+      <c r="O635" s="3" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O635" s="3"/>
-    </row>
     <row r="636" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A636" s="3" t="s">
+      <c r="O636" s="3"/>
+    </row>
+    <row r="637" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A637" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="B636" s="16" t="s">
+      <c r="B637" s="16" t="s">
         <v>1856</v>
       </c>
-      <c r="O636" s="3" t="s">
+      <c r="O637" s="3" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O637" s="3"/>
-    </row>
     <row r="638" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A638" s="3" t="s">
+      <c r="O638" s="3"/>
+    </row>
+    <row r="639" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A639" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="B638" s="3" t="s">
+      <c r="B639" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="O638" s="3" t="s">
+      <c r="O639" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O639" s="3"/>
-    </row>
     <row r="640" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A640" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B640" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O640" s="3" t="s">
-        <v>1198</v>
-      </c>
+      <c r="O640" s="3"/>
     </row>
     <row r="641" spans="1:15" ht="24.95" customHeight="1">
       <c r="A641" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O641" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="642" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A642" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="B641" s="3" t="s">
+      <c r="B642" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="O641" s="3" t="s">
+      <c r="O642" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O642" s="3"/>
-    </row>
     <row r="643" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A643" s="3" t="s">
+      <c r="O643" s="3"/>
+    </row>
+    <row r="644" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A644" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="B643" s="3" t="s">
+      <c r="B644" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="O643" s="3" t="s">
+      <c r="O644" s="3" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O644" s="3"/>
-    </row>
     <row r="645" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A645" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="O645" s="3" t="s">
-        <v>1206</v>
-      </c>
+      <c r="O645" s="3"/>
     </row>
     <row r="646" spans="1:15" ht="24.95" customHeight="1">
       <c r="A646" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B646" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="O646" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="647" spans="1:15" ht="24.95" customHeight="1">
       <c r="A647" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="O647" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="648" spans="1:15" ht="24.95" customHeight="1">
       <c r="A648" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O648" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="649" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A649" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="B648" s="3" t="s">
+      <c r="B649" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="O648" s="3" t="s">
+      <c r="O649" s="3" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O649" s="3"/>
-    </row>
     <row r="650" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A650" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B650" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="O650" s="3" t="s">
-        <v>1218</v>
-      </c>
+      <c r="O650" s="3"/>
     </row>
     <row r="651" spans="1:15" ht="24.95" customHeight="1">
       <c r="A651" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="O651" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="652" spans="1:15" ht="24.95" customHeight="1">
       <c r="A652" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O652" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="653" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A653" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="B652" s="3" t="s">
+      <c r="B653" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="O652" s="3" t="s">
+      <c r="O653" s="3" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O653" s="3"/>
-    </row>
     <row r="654" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A654" s="3" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B654" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="O654" s="3" t="s">
-        <v>1227</v>
-      </c>
+      <c r="O654" s="3"/>
     </row>
     <row r="655" spans="1:15" ht="24.95" customHeight="1">
       <c r="A655" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O655" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="656" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A656" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="B655" s="3" t="s">
+      <c r="B656" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="O655" s="3" t="s">
+      <c r="O656" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O656" s="3"/>
-    </row>
     <row r="657" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A657" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B657" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="O657" s="3" t="s">
-        <v>1233</v>
-      </c>
+      <c r="O657" s="3"/>
     </row>
     <row r="658" spans="1:15" ht="24.95" customHeight="1">
       <c r="A658" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O658" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="659" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A659" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="B658" s="3" t="s">
+      <c r="B659" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="O658" s="3" t="s">
+      <c r="O659" s="3" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O659" s="3"/>
-    </row>
     <row r="660" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A660" s="3" t="s">
+      <c r="O660" s="3"/>
+    </row>
+    <row r="661" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A661" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="O660" s="16" t="s">
+      <c r="O661" s="16" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O661" s="3"/>
-    </row>
     <row r="662" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A662" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B662" s="10" t="s">
-        <v>1239</v>
-      </c>
-      <c r="O662" s="3" t="s">
-        <v>1240</v>
-      </c>
+      <c r="O662" s="3"/>
     </row>
     <row r="663" spans="1:15" ht="24.95" customHeight="1">
       <c r="A663" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B663" s="10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O663" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="664" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A664" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="B663" s="3" t="s">
+      <c r="B664" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="O663" s="3" t="s">
+      <c r="O664" s="3" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O664" s="3"/>
-    </row>
     <row r="665" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A665" s="3" t="s">
+      <c r="O665" s="3"/>
+    </row>
+    <row r="666" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A666" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="B665" s="3" t="s">
+      <c r="B666" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="O665" s="3" t="s">
+      <c r="O666" s="3" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O666" s="3"/>
-    </row>
     <row r="667" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A667" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B667" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="O667" s="3" t="s">
-        <v>1249</v>
-      </c>
+      <c r="O667" s="3"/>
     </row>
     <row r="668" spans="1:15" ht="24.95" customHeight="1">
       <c r="A668" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="O668" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="669" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A669" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="B668" s="3" t="s">
+      <c r="B669" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="O668" s="3" t="s">
+      <c r="O669" s="3" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O669" s="3"/>
-    </row>
     <row r="670" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A670" s="3" t="s">
+      <c r="O670" s="3"/>
+    </row>
+    <row r="671" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A671" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="B670" s="16" t="s">
+      <c r="B671" s="16" t="s">
         <v>1858</v>
       </c>
-      <c r="O670" s="3" t="s">
+      <c r="O671" s="3" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O671" s="3"/>
-    </row>
     <row r="672" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A672" s="3" t="s">
+      <c r="O672" s="3"/>
+    </row>
+    <row r="673" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A673" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="O672" s="3" t="s">
+      <c r="O673" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O673" s="3"/>
-    </row>
     <row r="674" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A674" s="3" t="s">
+      <c r="O674" s="3"/>
+    </row>
+    <row r="675" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A675" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="B674" s="16" t="s">
+      <c r="B675" s="16" t="s">
         <v>1857</v>
       </c>
-      <c r="O674" s="3" t="s">
+      <c r="O675" s="3" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O675" s="3"/>
-    </row>
     <row r="676" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A676" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B676" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="O676" s="3" t="s">
-        <v>1260</v>
-      </c>
+      <c r="O676" s="3"/>
     </row>
     <row r="677" spans="1:15" ht="24.95" customHeight="1">
       <c r="A677" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O677" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="678" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A678" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="B677" s="3" t="s">
+      <c r="B678" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="O677" s="3" t="s">
+      <c r="O678" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O678" s="3"/>
-    </row>
     <row r="679" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A679" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B679" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="O679" s="3" t="s">
-        <v>1266</v>
-      </c>
+      <c r="O679" s="3"/>
     </row>
     <row r="680" spans="1:15" ht="24.95" customHeight="1">
       <c r="A680" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O680" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="681" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A681" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="B680" s="3" t="s">
+      <c r="B681" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="O680" s="3" t="s">
+      <c r="O681" s="3" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O681" s="3"/>
-    </row>
     <row r="682" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A682" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B682" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="O682" s="3" t="s">
-        <v>1272</v>
-      </c>
+      <c r="O682" s="3"/>
     </row>
     <row r="683" spans="1:15" ht="24.95" customHeight="1">
       <c r="A683" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="O683" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="684" spans="1:15" ht="24.95" customHeight="1">
       <c r="A684" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="O684" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="685" spans="1:15" ht="24.95" customHeight="1">
       <c r="A685" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O685" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="686" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A686" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="B685" s="3" t="s">
+      <c r="B686" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="O685" s="3" t="s">
+      <c r="O686" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O686" s="3"/>
-    </row>
     <row r="687" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A687" s="16" t="s">
-        <v>1665</v>
-      </c>
-      <c r="O687" s="16" t="s">
-        <v>1667</v>
-      </c>
+      <c r="O687" s="3"/>
     </row>
     <row r="688" spans="1:15" ht="24.95" customHeight="1">
       <c r="A688" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O688" s="16" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="689" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A689" s="16" t="s">
         <v>1666</v>
       </c>
-      <c r="O688" s="17" t="s">
+      <c r="O689" s="17" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="689" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O689" s="3"/>
-    </row>
-    <row r="690" spans="15:15" ht="24.95" customHeight="1">
+    <row r="690" spans="1:15" ht="24.95" customHeight="1">
       <c r="O690" s="3"/>
     </row>
-    <row r="691" spans="15:15" ht="24.95" customHeight="1">
+    <row r="691" spans="1:15" ht="24.95" customHeight="1">
       <c r="O691" s="3"/>
     </row>
-    <row r="692" spans="15:15" ht="24.95" customHeight="1">
+    <row r="692" spans="1:15" ht="24.95" customHeight="1">
       <c r="O692" s="3"/>
     </row>
-    <row r="693" spans="15:15" ht="24.95" customHeight="1">
+    <row r="693" spans="1:15" ht="24.95" customHeight="1">
       <c r="O693" s="3"/>
     </row>
-    <row r="694" spans="15:15" ht="24.95" customHeight="1">
+    <row r="694" spans="1:15" ht="24.95" customHeight="1">
       <c r="O694" s="3"/>
     </row>
-    <row r="695" spans="15:15" ht="24.95" customHeight="1">
+    <row r="695" spans="1:15" ht="24.95" customHeight="1">
       <c r="O695" s="3"/>
     </row>
-    <row r="696" spans="15:15" ht="24.95" customHeight="1">
+    <row r="696" spans="1:15" ht="24.95" customHeight="1">
       <c r="O696" s="3"/>
     </row>
-    <row r="697" spans="15:15" ht="24.95" customHeight="1">
+    <row r="697" spans="1:15" ht="24.95" customHeight="1">
       <c r="O697" s="3"/>
     </row>
-    <row r="698" spans="15:15" ht="24.95" customHeight="1">
+    <row r="698" spans="1:15" ht="24.95" customHeight="1">
       <c r="O698" s="3"/>
     </row>
-    <row r="699" spans="15:15" ht="24.95" customHeight="1">
+    <row r="699" spans="1:15" ht="24.95" customHeight="1">
       <c r="O699" s="3"/>
     </row>
-    <row r="700" spans="15:15" ht="24.95" customHeight="1">
+    <row r="700" spans="1:15" ht="24.95" customHeight="1">
       <c r="O700" s="3"/>
     </row>
-    <row r="701" spans="15:15" ht="24.95" customHeight="1">
+    <row r="701" spans="1:15" ht="24.95" customHeight="1">
       <c r="O701" s="3"/>
     </row>
-    <row r="702" spans="15:15" ht="24.95" customHeight="1">
+    <row r="702" spans="1:15" ht="24.95" customHeight="1">
       <c r="O702" s="3"/>
     </row>
-    <row r="703" spans="15:15" ht="24.95" customHeight="1">
+    <row r="703" spans="1:15" ht="24.95" customHeight="1">
       <c r="O703" s="3"/>
     </row>
-    <row r="704" spans="15:15" ht="24.95" customHeight="1">
+    <row r="704" spans="1:15" ht="24.95" customHeight="1">
       <c r="O704" s="3"/>
     </row>
     <row r="705" spans="15:15" ht="24.95" customHeight="1">
@@ -32615,8 +32636,8 @@
     <row r="785" spans="15:15" ht="24.95" customHeight="1">
       <c r="O785" s="3"/>
     </row>
-    <row r="787" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O787" s="3"/>
+    <row r="786" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O786" s="3"/>
     </row>
     <row r="788" spans="15:15" ht="24.95" customHeight="1">
       <c r="O788" s="3"/>
@@ -33795,23 +33816,23 @@
       <c r="O1179" s="3"/>
     </row>
     <row r="1180" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1180" s="14"/>
-      <c r="B1180" s="14"/>
-      <c r="D1180" s="14"/>
-      <c r="E1180" s="14"/>
-      <c r="F1180" s="14"/>
-      <c r="G1180" s="14"/>
-      <c r="H1180" s="14"/>
-      <c r="I1180" s="14"/>
-      <c r="J1180" s="14"/>
-      <c r="K1180" s="14"/>
-      <c r="L1180" s="14"/>
-      <c r="M1180" s="14"/>
-      <c r="N1180" s="14"/>
-      <c r="O1180" s="15"/>
+      <c r="O1180" s="3"/>
     </row>
     <row r="1181" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O1181" s="3"/>
+      <c r="A1181" s="14"/>
+      <c r="B1181" s="14"/>
+      <c r="D1181" s="14"/>
+      <c r="E1181" s="14"/>
+      <c r="F1181" s="14"/>
+      <c r="G1181" s="14"/>
+      <c r="H1181" s="14"/>
+      <c r="I1181" s="14"/>
+      <c r="J1181" s="14"/>
+      <c r="K1181" s="14"/>
+      <c r="L1181" s="14"/>
+      <c r="M1181" s="14"/>
+      <c r="N1181" s="14"/>
+      <c r="O1181" s="15"/>
     </row>
     <row r="1182" spans="1:15" ht="24.95" customHeight="1">
       <c r="O1182" s="3"/>
@@ -35325,8 +35346,11 @@
     <row r="1685" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1685" s="3"/>
     </row>
+    <row r="1686" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1686" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1388" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1389" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -40414,8 +40438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
